--- a/vt_REGION1_IND-OTH.xlsx
+++ b/vt_REGION1_IND-OTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F23490-05BD-4942-BBB9-89DFFF31F9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AADA38-1D33-40E1-966B-6ED8BE62D21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
   </bookViews>
@@ -1786,7 +1786,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="836">
   <si>
     <t>TimeSlice Version</t>
   </si>
@@ -15105,22 +15105,22 @@
       <sheetName val="Deflator"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16">
         <row r="2">
           <cell r="B2" t="b">
@@ -15133,22 +15133,22 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15972,8 +15972,8 @@
   </sheetPr>
   <dimension ref="A1:AY273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView tabSelected="1" topLeftCell="P137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW119" sqref="AW119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>
@@ -22545,6 +22545,13 @@
       <c r="AO102" s="26" t="s">
         <v>476</v>
       </c>
+      <c r="AV102" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="AW102" s="72" t="str">
+        <f t="shared" ref="AW102:AW104" si="66">AO102</f>
+        <v>*</v>
+      </c>
     </row>
     <row r="103" spans="1:51">
       <c r="A103" s="12" t="s">
@@ -22585,6 +22592,13 @@
       <c r="AO103" s="26" t="s">
         <v>476</v>
       </c>
+      <c r="AV103" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="AW103" s="72" t="str">
+        <f t="shared" si="66"/>
+        <v>*</v>
+      </c>
     </row>
     <row r="104" spans="1:51">
       <c r="A104" s="12" t="s">
@@ -22639,10 +22653,17 @@
       <c r="AO104" s="26" t="s">
         <v>476</v>
       </c>
+      <c r="AV104" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="AW104" s="72" t="str">
+        <f t="shared" si="66"/>
+        <v>*</v>
+      </c>
     </row>
     <row r="105" spans="1:51">
       <c r="A105" s="45" t="str">
-        <f t="shared" ref="A105:A113" si="66">A$5&amp;"-"&amp;A$14&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A105:A113" si="67">A$5&amp;"-"&amp;A$14&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Chemicals-Elec Heating - Electricity</v>
       </c>
       <c r="B105" s="45" t="str">
@@ -22650,7 +22671,7 @@
         <v>ICPKELC-E</v>
       </c>
       <c r="C105" s="46" t="str">
-        <f t="shared" ref="C105:C113" si="67">$P$13</f>
+        <f t="shared" ref="C105:C113" si="68">$P$13</f>
         <v>ICPELC</v>
       </c>
       <c r="D105" s="46" t="str">
@@ -22676,7 +22697,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="60">
-        <f t="shared" ref="K105:K113" si="68">J105*SUMIF($C$60:$K$60,$B$103,$C61:$K61)</f>
+        <f t="shared" ref="K105:K113" si="69">J105*SUMIF($C$60:$K$60,$B$103,$C61:$K61)</f>
         <v>0.80918000000000012</v>
       </c>
       <c r="L105" s="60">
@@ -22696,11 +22717,11 @@
       <c r="Z105" s="14"/>
       <c r="AE105" s="13"/>
       <c r="AH105" t="str">
-        <f t="shared" ref="AH105:AH165" si="69">B105</f>
+        <f t="shared" ref="AH105:AH165" si="70">B105</f>
         <v>ICPKELC-E</v>
       </c>
       <c r="AI105" t="str">
-        <f t="shared" ref="AI105:AI165" si="70">A105</f>
+        <f t="shared" ref="AI105:AI165" si="71">A105</f>
         <v>Industry-Chemicals-Elec Heating - Electricity</v>
       </c>
       <c r="AJ105" s="70" t="s">
@@ -22716,7 +22737,7 @@
         <v>611</v>
       </c>
       <c r="AO105" s="70" t="str">
-        <f t="shared" ref="AO105:AO113" si="71">D105</f>
+        <f t="shared" ref="AO105:AO113" si="72">D105</f>
         <v>ICPK</v>
       </c>
       <c r="AP105" s="70" t="str">
@@ -22736,20 +22757,20 @@
         <v>401</v>
       </c>
       <c r="AW105" s="72" t="str">
-        <f t="shared" ref="AW105:AW168" si="72">AO105</f>
+        <f t="shared" ref="AW105:AW168" si="73">AO105</f>
         <v>ICPK</v>
       </c>
       <c r="AX105" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY105" s="266">
-        <f t="shared" ref="AY105:AY168" si="73">SUMIFS($L$81:$L$188,$D$81:$D$188,$AW105)</f>
+        <f t="shared" ref="AY105:AY168" si="74">SUMIFS($L$81:$L$188,$D$81:$D$188,$AW105)</f>
         <v>0.80918000000000012</v>
       </c>
     </row>
     <row r="106" spans="1:51">
       <c r="A106" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Compressed air - Electricity</v>
       </c>
       <c r="B106" s="45" t="str">
@@ -22757,7 +22778,7 @@
         <v>ICPAELC-E</v>
       </c>
       <c r="C106" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D106" s="46" t="str">
@@ -22776,18 +22797,18 @@
         <v>100</v>
       </c>
       <c r="H106" s="60">
-        <f t="shared" ref="H106:H113" si="74">L106/F106</f>
+        <f t="shared" ref="H106:H113" si="75">L106/F106</f>
         <v>2.6192706085455337</v>
       </c>
       <c r="J106" s="61">
         <v>1</v>
       </c>
       <c r="K106" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>6.0688500000000003</v>
       </c>
       <c r="L106" s="60">
-        <f t="shared" ref="L106:L113" si="75">K106*E106</f>
+        <f t="shared" ref="L106:L113" si="76">K106*E106</f>
         <v>0.30344250000000006</v>
       </c>
       <c r="N106" s="74" t="str">
@@ -22803,11 +22824,11 @@
       <c r="Z106" s="14"/>
       <c r="AE106" s="13"/>
       <c r="AH106" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPAELC-E</v>
       </c>
       <c r="AI106" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Compressed air - Electricity</v>
       </c>
       <c r="AJ106" s="70" t="s">
@@ -22823,7 +22844,7 @@
         <v>611</v>
       </c>
       <c r="AO106" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPA</v>
       </c>
       <c r="AP106" s="70" t="str">
@@ -22843,28 +22864,28 @@
         <v>401</v>
       </c>
       <c r="AW106" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPA</v>
       </c>
       <c r="AX106" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY106" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.30344250000000006</v>
       </c>
     </row>
     <row r="107" spans="1:51">
       <c r="A107" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Lighting - Electricity</v>
       </c>
       <c r="B107" s="45" t="str">
-        <f t="shared" ref="B107:B113" si="76">D107&amp;RIGHT(C107,3)&amp;"-E"</f>
+        <f t="shared" ref="B107:B113" si="77">D107&amp;RIGHT(C107,3)&amp;"-E"</f>
         <v>ICPLELC-E</v>
       </c>
       <c r="C107" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D107" s="46" t="str">
@@ -22883,18 +22904,18 @@
         <v>100</v>
       </c>
       <c r="H107" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.8980971497390611</v>
       </c>
       <c r="J107" s="61">
         <v>1</v>
       </c>
       <c r="K107" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.6183600000000002</v>
       </c>
       <c r="L107" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.48550800000000005</v>
       </c>
       <c r="N107" s="74" t="str">
@@ -22910,11 +22931,11 @@
       <c r="Z107" s="14"/>
       <c r="AE107" s="13"/>
       <c r="AH107" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPLELC-E</v>
       </c>
       <c r="AI107" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Lighting - Electricity</v>
       </c>
       <c r="AJ107" s="70" t="s">
@@ -22930,7 +22951,7 @@
         <v>611</v>
       </c>
       <c r="AO107" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPL</v>
       </c>
       <c r="AP107" s="70" t="str">
@@ -22950,28 +22971,28 @@
         <v>401</v>
       </c>
       <c r="AW107" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPL</v>
       </c>
       <c r="AX107" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY107" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.48550800000000005</v>
       </c>
     </row>
     <row r="108" spans="1:51">
       <c r="A108" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Cooling - Electricity</v>
       </c>
       <c r="B108" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPCELC-E</v>
       </c>
       <c r="C108" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D108" s="46" t="str">
@@ -22990,18 +23011,18 @@
         <v>100</v>
       </c>
       <c r="H108" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>31.228002469898119</v>
       </c>
       <c r="J108" s="61">
         <v>1</v>
       </c>
       <c r="K108" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2.0229500000000002</v>
       </c>
       <c r="L108" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4.0459000000000005</v>
       </c>
       <c r="N108" s="74" t="str">
@@ -23017,11 +23038,11 @@
       <c r="Z108" s="14"/>
       <c r="AE108" s="13"/>
       <c r="AH108" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPCELC-E</v>
       </c>
       <c r="AI108" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Cooling - Electricity</v>
       </c>
       <c r="AJ108" s="70" t="s">
@@ -23037,7 +23058,7 @@
         <v>611</v>
       </c>
       <c r="AO108" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPC</v>
       </c>
       <c r="AP108" s="70" t="str">
@@ -23057,28 +23078,28 @@
         <v>401</v>
       </c>
       <c r="AW108" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPC</v>
       </c>
       <c r="AX108" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY108" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>4.0459000000000005</v>
       </c>
     </row>
     <row r="109" spans="1:51">
       <c r="A109" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-HVAC - Electricity</v>
       </c>
       <c r="B109" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPHELC-E</v>
       </c>
       <c r="C109" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D109" s="46" t="str">
@@ -23097,18 +23118,18 @@
         <v>100</v>
       </c>
       <c r="H109" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5.5334852974697979</v>
       </c>
       <c r="J109" s="61">
         <v>1</v>
       </c>
       <c r="K109" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.80918000000000012</v>
       </c>
       <c r="L109" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.72826200000000008</v>
       </c>
       <c r="N109" s="74" t="str">
@@ -23124,11 +23145,11 @@
       <c r="Z109" s="14"/>
       <c r="AE109" s="13"/>
       <c r="AH109" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPHELC-E</v>
       </c>
       <c r="AI109" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-HVAC - Electricity</v>
       </c>
       <c r="AJ109" s="70" t="s">
@@ -23144,7 +23165,7 @@
         <v>611</v>
       </c>
       <c r="AO109" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPH</v>
       </c>
       <c r="AP109" s="70" t="str">
@@ -23164,28 +23185,28 @@
         <v>401</v>
       </c>
       <c r="AW109" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPH</v>
       </c>
       <c r="AX109" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY109" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.72826200000000008</v>
       </c>
     </row>
     <row r="110" spans="1:51">
       <c r="A110" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Pumping - Electricity</v>
       </c>
       <c r="B110" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPPELC-E</v>
       </c>
       <c r="C110" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D110" s="46" t="str">
@@ -23204,14 +23225,14 @@
         <v>100</v>
       </c>
       <c r="H110" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>93.500495212941573</v>
       </c>
       <c r="J110" s="61">
         <v>1</v>
       </c>
       <c r="K110" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>14.16065</v>
       </c>
       <c r="L110" s="60">
@@ -23231,11 +23252,11 @@
       <c r="Z110" s="14"/>
       <c r="AE110" s="13"/>
       <c r="AH110" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPPELC-E</v>
       </c>
       <c r="AI110" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Pumping - Electricity</v>
       </c>
       <c r="AJ110" s="70" t="s">
@@ -23251,7 +23272,7 @@
         <v>611</v>
       </c>
       <c r="AO110" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPP</v>
       </c>
       <c r="AP110" s="70" t="str">
@@ -23271,28 +23292,28 @@
         <v>401</v>
       </c>
       <c r="AW110" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPP</v>
       </c>
       <c r="AX110" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY110" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>11.328520000000001</v>
       </c>
     </row>
     <row r="111" spans="1:51">
       <c r="A111" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Fans - Electricity</v>
       </c>
       <c r="B111" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPFELC-E</v>
       </c>
       <c r="C111" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D111" s="46" t="str">
@@ -23311,18 +23332,18 @@
         <v>100</v>
       </c>
       <c r="H111" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>23.675377160098755</v>
       </c>
       <c r="J111" s="61">
         <v>1</v>
       </c>
       <c r="K111" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3.2367200000000005</v>
       </c>
       <c r="L111" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2.5893760000000006</v>
       </c>
       <c r="N111" s="74" t="str">
@@ -23338,11 +23359,11 @@
       <c r="Z111" s="14"/>
       <c r="AE111" s="13"/>
       <c r="AH111" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPFELC-E</v>
       </c>
       <c r="AI111" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Fans - Electricity</v>
       </c>
       <c r="AJ111" s="70" t="s">
@@ -23358,7 +23379,7 @@
         <v>611</v>
       </c>
       <c r="AO111" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPF</v>
       </c>
       <c r="AP111" s="70" t="str">
@@ -23378,28 +23399,28 @@
         <v>401</v>
       </c>
       <c r="AW111" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPF</v>
       </c>
       <c r="AX111" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY111" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.5893760000000006</v>
       </c>
     </row>
     <row r="112" spans="1:51">
       <c r="A112" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Other motive - Electricity</v>
       </c>
       <c r="B112" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPOELC-E</v>
       </c>
       <c r="C112" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D112" s="46" t="str">
@@ -23418,18 +23439,18 @@
         <v>100</v>
       </c>
       <c r="H112" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>49.483565204097246</v>
       </c>
       <c r="J112" s="61">
         <v>1</v>
       </c>
       <c r="K112" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8.091800000000001</v>
       </c>
       <c r="L112" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>6.473440000000001</v>
       </c>
       <c r="N112" s="74" t="str">
@@ -23445,11 +23466,11 @@
       <c r="Z112" s="14"/>
       <c r="AE112" s="13"/>
       <c r="AH112" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPOELC-E</v>
       </c>
       <c r="AI112" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Other motive - Electricity</v>
       </c>
       <c r="AJ112" s="70" t="s">
@@ -23465,7 +23486,7 @@
         <v>611</v>
       </c>
       <c r="AO112" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPO</v>
       </c>
       <c r="AP112" s="70" t="str">
@@ -23485,28 +23506,28 @@
         <v>401</v>
       </c>
       <c r="AW112" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPO</v>
       </c>
       <c r="AX112" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY112" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>6.473440000000001</v>
       </c>
     </row>
     <row r="113" spans="1:51">
       <c r="A113" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Electrochemical - Electricity</v>
       </c>
       <c r="B113" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPEELC-E</v>
       </c>
       <c r="C113" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D113" s="46" t="str">
@@ -23525,18 +23546,18 @@
         <v>100</v>
       </c>
       <c r="H113" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>18.589187636968187</v>
       </c>
       <c r="J113" s="61">
         <v>1</v>
       </c>
       <c r="K113" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3.2367200000000005</v>
       </c>
       <c r="L113" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2.4599072000000004</v>
       </c>
       <c r="N113" s="74" t="str">
@@ -23552,11 +23573,11 @@
       <c r="Z113" s="14"/>
       <c r="AE113" s="13"/>
       <c r="AH113" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPEELC-E</v>
       </c>
       <c r="AI113" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Electrochemical - Electricity</v>
       </c>
       <c r="AJ113" s="70" t="s">
@@ -23572,7 +23593,7 @@
         <v>611</v>
       </c>
       <c r="AO113" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPE</v>
       </c>
       <c r="AP113" s="70" t="str">
@@ -23592,14 +23613,14 @@
         <v>401</v>
       </c>
       <c r="AW113" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPE</v>
       </c>
       <c r="AX113" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY113" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.4599072000000004</v>
       </c>
     </row>
@@ -23648,14 +23669,14 @@
         <v>476</v>
       </c>
       <c r="AW114" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX114" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY114" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -23665,7 +23686,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B115" s="45" t="str">
-        <f t="shared" ref="B115:B122" si="77">D115&amp;RIGHT(C115,3)&amp;"-E"</f>
+        <f t="shared" ref="B115:B122" si="78">D115&amp;RIGHT(C115,3)&amp;"-E"</f>
         <v>ICPSCLE-E</v>
       </c>
       <c r="C115" s="46" t="s">
@@ -23687,7 +23708,7 @@
         <v>100</v>
       </c>
       <c r="H115" s="60">
-        <f t="shared" ref="H115:H122" si="78">L115/F115</f>
+        <f t="shared" ref="H115:H122" si="79">L115/F115</f>
         <v>101.08822194853181</v>
       </c>
       <c r="J115" s="61">
@@ -23698,40 +23719,40 @@
         <v>24.367000000000001</v>
       </c>
       <c r="L115" s="60">
-        <f t="shared" ref="L115:L122" si="79">K115*E115</f>
+        <f t="shared" ref="L115:L122" si="80">K115*E115</f>
         <v>15.594880000000002</v>
       </c>
       <c r="N115" s="196">
-        <f t="shared" ref="N115:N122" si="80">L115/(SUMIF($D$81:$D$187,$D115,$L$81:$L$187)+$P$76)</f>
+        <f t="shared" ref="N115:N122" si="81">L115/(SUMIF($D$81:$D$187,$D115,$L$81:$L$187)+$P$76)</f>
         <v>0.8077248655478656</v>
       </c>
       <c r="O115" s="77">
-        <f t="shared" ref="O115:Q124" si="81">MIN(1,$N115+O$75)</f>
+        <f t="shared" ref="O115:Q124" si="82">MIN(1,$N115+O$75)</f>
         <v>1</v>
       </c>
       <c r="P115" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q115" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R115" s="77"/>
       <c r="S115" s="78">
-        <f t="shared" ref="S115:S122" si="82">N115</f>
+        <f t="shared" ref="S115:S122" si="83">N115</f>
         <v>0.8077248655478656</v>
       </c>
       <c r="T115" s="77">
-        <f t="shared" ref="T115:V115" si="83">S115*T$75</f>
+        <f t="shared" ref="T115:V115" si="84">S115*T$75</f>
         <v>0.72695237899307907</v>
       </c>
       <c r="U115" s="77">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="V115" s="77">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="W115" s="74"/>
@@ -23739,11 +23760,11 @@
       <c r="Z115" s="14"/>
       <c r="AE115" s="13"/>
       <c r="AH115" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPSCLE-E</v>
       </c>
       <c r="AI115" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ115" s="70" t="s">
@@ -23759,7 +23780,7 @@
         <v>611</v>
       </c>
       <c r="AO115" s="70" t="str">
-        <f t="shared" ref="AO115" si="84">D115</f>
+        <f t="shared" ref="AO115" si="85">D115</f>
         <v>ICPS</v>
       </c>
       <c r="AP115" s="70" t="str">
@@ -23779,14 +23800,14 @@
         <v>401</v>
       </c>
       <c r="AW115" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPS</v>
       </c>
       <c r="AX115" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY115" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>19.307168400000002</v>
       </c>
     </row>
@@ -23796,7 +23817,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B116" s="45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>ICPSGAS-E</v>
       </c>
       <c r="C116" s="46" t="str">
@@ -23819,7 +23840,7 @@
         <v>100</v>
       </c>
       <c r="H116" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>17.22175406754392</v>
       </c>
       <c r="J116" s="61">
@@ -23830,40 +23851,40 @@
         <v>3.69</v>
       </c>
       <c r="L116" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.6568000000000001</v>
       </c>
       <c r="N116" s="78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.13760692116820195</v>
       </c>
       <c r="O116" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.63760692116820195</v>
       </c>
       <c r="P116" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q116" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R116" s="77"/>
       <c r="S116" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.13760692116820195</v>
       </c>
       <c r="T116" s="77">
-        <f t="shared" ref="T116:V116" si="85">S116*T$75</f>
+        <f t="shared" ref="T116:V116" si="86">S116*T$75</f>
         <v>0.12384622905138175</v>
       </c>
       <c r="U116" s="77">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="V116" s="77">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="W116" s="74"/>
@@ -23871,11 +23892,11 @@
       <c r="Z116" s="14"/>
       <c r="AE116" s="13"/>
       <c r="AH116" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPSGAS-E</v>
       </c>
       <c r="AI116" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ116" s="70" t="s">
@@ -23894,7 +23915,7 @@
         <v>476</v>
       </c>
       <c r="AP116" s="70" t="str">
-        <f t="shared" ref="AP116:AP122" si="86">A116</f>
+        <f t="shared" ref="AP116:AP122" si="87">A116</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ116" s="245" t="s">
@@ -23910,14 +23931,14 @@
         <v>476</v>
       </c>
       <c r="AW116" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX116" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY116" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -23927,7 +23948,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B117" s="45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>ICPSOHF-E</v>
       </c>
       <c r="C117" s="46" t="str">
@@ -23950,7 +23971,7 @@
         <v>100</v>
       </c>
       <c r="H117" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4.8486419913139311</v>
       </c>
       <c r="J117" s="61">
@@ -23961,40 +23982,40 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L117" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.74800000000000011</v>
       </c>
       <c r="N117" s="78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>3.8742087109987604E-2</v>
       </c>
       <c r="O117" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.53874208710998761</v>
       </c>
       <c r="P117" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q117" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R117" s="77"/>
       <c r="S117" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3.8742087109987604E-2</v>
       </c>
       <c r="T117" s="77">
-        <f t="shared" ref="T117:V117" si="87">S117*T$75</f>
+        <f t="shared" ref="T117:V117" si="88">S117*T$75</f>
         <v>3.4867878398988847E-2</v>
       </c>
       <c r="U117" s="77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="V117" s="77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="W117" s="74"/>
@@ -24002,11 +24023,11 @@
       <c r="Z117" s="14"/>
       <c r="AE117" s="13"/>
       <c r="AH117" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPSOHF-E</v>
       </c>
       <c r="AI117" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ117" s="70" t="s">
@@ -24025,7 +24046,7 @@
         <v>476</v>
       </c>
       <c r="AP117" s="70" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ117" s="245" t="s">
@@ -24041,14 +24062,14 @@
         <v>476</v>
       </c>
       <c r="AW117" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX117" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY117" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24058,7 +24079,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B118" s="45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>ICPSOLP-E</v>
       </c>
       <c r="C118" s="46" t="str">
@@ -24081,7 +24102,7 @@
         <v>100</v>
       </c>
       <c r="H118" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J118" s="61">
@@ -24092,40 +24113,40 @@
         <v>0</v>
       </c>
       <c r="L118" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N118" s="78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O118" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.5</v>
       </c>
       <c r="P118" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q118" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R118" s="77"/>
       <c r="S118" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T118" s="77">
-        <f t="shared" ref="T118:V118" si="88">S118*T$75</f>
+        <f t="shared" ref="T118:V118" si="89">S118*T$75</f>
         <v>0</v>
       </c>
       <c r="U118" s="77">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="V118" s="77">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="W118" s="74"/>
@@ -24133,11 +24154,11 @@
       <c r="Z118" s="14"/>
       <c r="AE118" s="13"/>
       <c r="AH118" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPSOLP-E</v>
       </c>
       <c r="AI118" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ118" s="70" t="s">
@@ -24156,7 +24177,7 @@
         <v>476</v>
       </c>
       <c r="AP118" s="70" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ118" s="245" t="s">
@@ -24172,14 +24193,14 @@
         <v>476</v>
       </c>
       <c r="AW118" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX118" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY118" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24189,7 +24210,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B119" s="45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>ICPSELC-E</v>
       </c>
       <c r="C119" s="46" t="str">
@@ -24212,7 +24233,7 @@
         <v>100</v>
       </c>
       <c r="H119" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1.9931833797886827</v>
       </c>
       <c r="J119" s="61">
@@ -24223,15 +24244,15 @@
         <v>0.40459000000000006</v>
       </c>
       <c r="L119" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.30748840000000005</v>
       </c>
       <c r="N119" s="196">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1.5926126173944805E-2</v>
       </c>
       <c r="O119" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.51592612617394484</v>
       </c>
       <c r="P119" s="216">
@@ -24244,19 +24265,19 @@
       </c>
       <c r="R119" s="77"/>
       <c r="S119" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.5926126173944805E-2</v>
       </c>
       <c r="T119" s="77">
-        <f t="shared" ref="T119:V119" si="89">S119*T$75</f>
+        <f t="shared" ref="T119:V119" si="90">S119*T$75</f>
         <v>1.4333513556550326E-2</v>
       </c>
       <c r="U119" s="77">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="V119" s="77">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="W119" s="74"/>
@@ -24264,11 +24285,11 @@
       <c r="Z119" s="14"/>
       <c r="AE119" s="13"/>
       <c r="AH119" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPSELC-E</v>
       </c>
       <c r="AI119" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ119" s="70" t="s">
@@ -24287,7 +24308,7 @@
         <v>476</v>
       </c>
       <c r="AP119" s="70" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ119" s="245" t="s">
@@ -24303,14 +24324,14 @@
         <v>476</v>
       </c>
       <c r="AW119" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX119" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY119" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24356,7 +24377,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="196">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O120" s="216">
@@ -24370,19 +24391,19 @@
       </c>
       <c r="R120" s="77"/>
       <c r="S120" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T120" s="77">
-        <f t="shared" ref="T120:V120" si="90">S120*T$75</f>
+        <f t="shared" ref="T120:V120" si="91">S120*T$75</f>
         <v>0</v>
       </c>
       <c r="U120" s="77">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="V120" s="77">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="W120" s="74"/>
@@ -24390,11 +24411,11 @@
       <c r="Z120" s="14"/>
       <c r="AE120" s="13"/>
       <c r="AH120" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPSELC-N</v>
       </c>
       <c r="AI120" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AJ120" s="70" t="s">
@@ -24413,7 +24434,7 @@
         <v>476</v>
       </c>
       <c r="AP120" s="70" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AQ120" s="245" t="s">
@@ -24429,14 +24450,14 @@
         <v>476</v>
       </c>
       <c r="AW120" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX120" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY120" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24480,36 +24501,36 @@
         <v>0</v>
       </c>
       <c r="N121" s="196">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O121" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.5</v>
       </c>
       <c r="P121" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q121" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R121" s="77"/>
       <c r="S121" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T121" s="77">
-        <f t="shared" ref="T121:V121" si="91">S121*T$75</f>
+        <f t="shared" ref="T121:V121" si="92">S121*T$75</f>
         <v>0</v>
       </c>
       <c r="U121" s="77">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="V121" s="77">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="W121" s="74"/>
@@ -24517,11 +24538,11 @@
       <c r="Z121" s="14"/>
       <c r="AE121" s="13"/>
       <c r="AH121" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPSHGN-N</v>
       </c>
       <c r="AI121" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AJ121" s="70" t="s">
@@ -24540,7 +24561,7 @@
         <v>476</v>
       </c>
       <c r="AP121" s="70" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AQ121" s="245" t="s">
@@ -24556,14 +24577,14 @@
         <v>476</v>
       </c>
       <c r="AW121" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX121" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY121" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24573,7 +24594,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B122" s="45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>ICPSWAS-E</v>
       </c>
       <c r="C122" s="46" t="str">
@@ -24596,7 +24617,7 @@
         <v>100</v>
       </c>
       <c r="H122" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J122" s="61">
@@ -24607,40 +24628,40 @@
         <v>0</v>
       </c>
       <c r="L122" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N122" s="78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O122" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.5</v>
       </c>
       <c r="P122" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q122" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R122" s="77"/>
       <c r="S122" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T122" s="77">
-        <f t="shared" ref="T122:V122" si="92">S122*T$75</f>
+        <f t="shared" ref="T122:V122" si="93">S122*T$75</f>
         <v>0</v>
       </c>
       <c r="U122" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="V122" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="W122" s="74"/>
@@ -24648,11 +24669,11 @@
       <c r="Z122" s="14"/>
       <c r="AE122" s="13"/>
       <c r="AH122" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPSWAS-E</v>
       </c>
       <c r="AI122" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ122" s="70" t="s">
@@ -24671,7 +24692,7 @@
         <v>476</v>
       </c>
       <c r="AP122" s="70" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ122" s="245" t="s">
@@ -24687,14 +24708,14 @@
         <v>476</v>
       </c>
       <c r="AW122" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX122" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY122" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24742,14 +24763,14 @@
         <v>476</v>
       </c>
       <c r="AW123" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX123" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY123" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24798,20 +24819,20 @@
         <v>1</v>
       </c>
       <c r="O124" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="P124" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q124" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R124" s="77"/>
       <c r="S124" s="78">
-        <f t="shared" ref="S124" si="93">N124</f>
+        <f t="shared" ref="S124" si="94">N124</f>
         <v>1</v>
       </c>
       <c r="T124" s="77">
@@ -24819,11 +24840,11 @@
         <v>0.9</v>
       </c>
       <c r="U124" s="77">
-        <f t="shared" ref="U124:V124" si="94">T124*U$75</f>
+        <f t="shared" ref="U124:V124" si="95">T124*U$75</f>
         <v>0</v>
       </c>
       <c r="V124" s="77">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="W124" s="74"/>
@@ -24832,11 +24853,11 @@
       <c r="Z124" s="14"/>
       <c r="AE124" s="13"/>
       <c r="AH124" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPTGMU-E</v>
       </c>
       <c r="AI124" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Non-Energy Use -  - Existing</v>
       </c>
       <c r="AJ124" s="70" t="s">
@@ -24872,14 +24893,14 @@
         <v>401</v>
       </c>
       <c r="AW124" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPT</v>
       </c>
       <c r="AX124" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY124" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>26.6</v>
       </c>
     </row>
@@ -24923,14 +24944,14 @@
         <v>476</v>
       </c>
       <c r="AW125" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX125" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY125" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24977,14 +24998,14 @@
         <v>476</v>
       </c>
       <c r="AW126" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX126" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY126" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -25045,20 +25066,20 @@
         <v>476</v>
       </c>
       <c r="AW127" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX127" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY127" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
     <row r="128" spans="1:51">
       <c r="A128" s="45" t="str">
-        <f t="shared" ref="A128:A136" si="95">A$5&amp;"-"&amp;A$15&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A128:A136" si="96">A$5&amp;"-"&amp;A$15&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Elec Heating - Electricity</v>
       </c>
       <c r="B128" s="45" t="str">
@@ -25066,7 +25087,7 @@
         <v>INFKELC-E</v>
       </c>
       <c r="C128" s="46" t="str">
-        <f t="shared" ref="C128:C136" si="96">$P$14</f>
+        <f t="shared" ref="C128:C136" si="97">$P$14</f>
         <v>INFELC</v>
       </c>
       <c r="D128" s="46" t="str">
@@ -25092,7 +25113,7 @@
         <v>1</v>
       </c>
       <c r="K128" s="60">
-        <f t="shared" ref="K128:K136" si="97">J128*SUMIF($C$60:$K$60,$B$126,$C61:$K61)</f>
+        <f t="shared" ref="K128:K136" si="98">J128*SUMIF($C$60:$K$60,$B$126,$C61:$K61)</f>
         <v>0.10062942167027458</v>
       </c>
       <c r="L128" s="60">
@@ -25112,11 +25133,11 @@
       <c r="Z128" s="14"/>
       <c r="AE128" s="13"/>
       <c r="AH128" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFKELC-E</v>
       </c>
       <c r="AI128" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Elec Heating - Electricity</v>
       </c>
       <c r="AJ128" s="70" t="s">
@@ -25132,7 +25153,7 @@
         <v>611</v>
       </c>
       <c r="AO128" s="70" t="str">
-        <f t="shared" ref="AO128:AO136" si="98">D128</f>
+        <f t="shared" ref="AO128:AO136" si="99">D128</f>
         <v>INFK</v>
       </c>
       <c r="AP128" s="70" t="str">
@@ -25152,20 +25173,20 @@
         <v>401</v>
       </c>
       <c r="AW128" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFK</v>
       </c>
       <c r="AX128" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY128" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.10062942167027458</v>
       </c>
     </row>
     <row r="129" spans="1:51">
       <c r="A129" s="45" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Compressed air - Electricity</v>
       </c>
       <c r="B129" s="45" t="str">
@@ -25173,7 +25194,7 @@
         <v>INFAELC-E</v>
       </c>
       <c r="C129" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D129" s="46" t="str">
@@ -25192,18 +25213,18 @@
         <v>100</v>
       </c>
       <c r="H129" s="60">
-        <f t="shared" ref="H129:H136" si="99">L129/F129</f>
+        <f t="shared" ref="H129:H136" si="100">L129/F129</f>
         <v>0</v>
       </c>
       <c r="J129" s="61">
         <v>1</v>
       </c>
       <c r="K129" s="60">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L129" s="60">
-        <f t="shared" ref="L129:L136" si="100">K129*E129</f>
+        <f t="shared" ref="L129:L136" si="101">K129*E129</f>
         <v>0</v>
       </c>
       <c r="N129" s="74" t="str">
@@ -25219,11 +25240,11 @@
       <c r="Z129" s="14"/>
       <c r="AE129" s="13"/>
       <c r="AH129" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFAELC-E</v>
       </c>
       <c r="AI129" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Compressed air - Electricity</v>
       </c>
       <c r="AJ129" s="70" t="s">
@@ -25239,7 +25260,7 @@
         <v>611</v>
       </c>
       <c r="AO129" s="70" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>INFA</v>
       </c>
       <c r="AP129" s="70" t="str">
@@ -25259,28 +25280,28 @@
         <v>401</v>
       </c>
       <c r="AW129" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFA</v>
       </c>
       <c r="AX129" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY129" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:51">
       <c r="A130" s="45" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Lighting - Electricity</v>
       </c>
       <c r="B130" s="45" t="str">
-        <f t="shared" ref="B130:B136" si="101">D130&amp;RIGHT(C130,3)&amp;"-E"</f>
+        <f t="shared" ref="B130:B136" si="102">D130&amp;RIGHT(C130,3)&amp;"-E"</f>
         <v>INFLELC-E</v>
       </c>
       <c r="C130" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D130" s="46" t="str">
@@ -25299,18 +25320,18 @@
         <v>100</v>
       </c>
       <c r="H130" s="60">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.24238319149805199</v>
       </c>
       <c r="J130" s="61">
         <v>1</v>
       </c>
       <c r="K130" s="60">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.10062942167027458</v>
       </c>
       <c r="L130" s="60">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>3.0188826501082372E-2</v>
       </c>
       <c r="N130" s="74" t="str">
@@ -25326,11 +25347,11 @@
       <c r="Z130" s="14"/>
       <c r="AE130" s="13"/>
       <c r="AH130" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFLELC-E</v>
       </c>
       <c r="AI130" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Lighting - Electricity</v>
       </c>
       <c r="AJ130" s="70" t="s">
@@ -25346,7 +25367,7 @@
         <v>611</v>
       </c>
       <c r="AO130" s="70" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>INFL</v>
       </c>
       <c r="AP130" s="70" t="str">
@@ -25366,28 +25387,28 @@
         <v>401</v>
       </c>
       <c r="AW130" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFL</v>
       </c>
       <c r="AX130" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY130" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.0188826501082372E-2</v>
       </c>
     </row>
     <row r="131" spans="1:51">
       <c r="A131" s="45" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Cooling - Electricity</v>
       </c>
       <c r="B131" s="45" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFCELC-E</v>
       </c>
       <c r="C131" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D131" s="46" t="str">
@@ -25406,18 +25427,18 @@
         <v>100</v>
       </c>
       <c r="H131" s="60">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="J131" s="61">
         <v>1</v>
       </c>
       <c r="K131" s="60">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L131" s="60">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="N131" s="74" t="str">
@@ -25433,11 +25454,11 @@
       <c r="Z131" s="14"/>
       <c r="AE131" s="13"/>
       <c r="AH131" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFCELC-E</v>
       </c>
       <c r="AI131" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Cooling - Electricity</v>
       </c>
       <c r="AJ131" s="70" t="s">
@@ -25453,7 +25474,7 @@
         <v>611</v>
       </c>
       <c r="AO131" s="70" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>INFC</v>
       </c>
       <c r="AP131" s="70" t="str">
@@ -25473,28 +25494,28 @@
         <v>401</v>
       </c>
       <c r="AW131" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFC</v>
       </c>
       <c r="AX131" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY131" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:51">
       <c r="A132" s="45" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-HVAC - Electricity</v>
       </c>
       <c r="B132" s="45" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFHELC-E</v>
       </c>
       <c r="C132" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D132" s="46" t="str">
@@ -25513,18 +25534,18 @@
         <v>100</v>
       </c>
       <c r="H132" s="60">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.68814284251384494</v>
       </c>
       <c r="J132" s="61">
         <v>1</v>
       </c>
       <c r="K132" s="60">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.10062942167027458</v>
       </c>
       <c r="L132" s="60">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>9.056647950324713E-2</v>
       </c>
       <c r="N132" s="74" t="str">
@@ -25540,11 +25561,11 @@
       <c r="Z132" s="14"/>
       <c r="AE132" s="13"/>
       <c r="AH132" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFHELC-E</v>
       </c>
       <c r="AI132" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-HVAC - Electricity</v>
       </c>
       <c r="AJ132" s="70" t="s">
@@ -25560,7 +25581,7 @@
         <v>611</v>
       </c>
       <c r="AO132" s="70" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>INFH</v>
       </c>
       <c r="AP132" s="70" t="str">
@@ -25580,28 +25601,28 @@
         <v>401</v>
       </c>
       <c r="AW132" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFH</v>
       </c>
       <c r="AX132" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY132" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>9.056647950324713E-2</v>
       </c>
     </row>
     <row r="133" spans="1:51">
       <c r="A133" s="45" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Pumping - Electricity</v>
       </c>
       <c r="B133" s="45" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFPELC-E</v>
       </c>
       <c r="C133" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D133" s="46" t="str">
@@ -25620,18 +25641,18 @@
         <v>100</v>
       </c>
       <c r="H133" s="60">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="J133" s="61">
         <v>1</v>
       </c>
       <c r="K133" s="60">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L133" s="60">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="N133" s="74" t="str">
@@ -25647,11 +25668,11 @@
       <c r="Z133" s="14"/>
       <c r="AE133" s="13"/>
       <c r="AH133" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFPELC-E</v>
       </c>
       <c r="AI133" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Pumping - Electricity</v>
       </c>
       <c r="AJ133" s="70" t="s">
@@ -25667,7 +25688,7 @@
         <v>611</v>
       </c>
       <c r="AO133" s="70" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>INFP</v>
       </c>
       <c r="AP133" s="70" t="str">
@@ -25687,28 +25708,28 @@
         <v>401</v>
       </c>
       <c r="AW133" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFP</v>
       </c>
       <c r="AX133" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY133" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:51">
       <c r="A134" s="45" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Fans - Electricity</v>
       </c>
       <c r="B134" s="45" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFFELC-E</v>
       </c>
       <c r="C134" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D134" s="46" t="str">
@@ -25727,18 +25748,18 @@
         <v>100</v>
       </c>
       <c r="H134" s="60">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="J134" s="61">
         <v>1</v>
       </c>
       <c r="K134" s="60">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L134" s="60">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="N134" s="74" t="str">
@@ -25754,11 +25775,11 @@
       <c r="Z134" s="14"/>
       <c r="AE134" s="13"/>
       <c r="AH134" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFFELC-E</v>
       </c>
       <c r="AI134" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Fans - Electricity</v>
       </c>
       <c r="AJ134" s="70" t="s">
@@ -25774,7 +25795,7 @@
         <v>611</v>
       </c>
       <c r="AO134" s="70" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>INFF</v>
       </c>
       <c r="AP134" s="70" t="str">
@@ -25794,28 +25815,28 @@
         <v>401</v>
       </c>
       <c r="AW134" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFF</v>
       </c>
       <c r="AX134" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY134" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:51">
       <c r="A135" s="45" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Other motive - Electricity</v>
       </c>
       <c r="B135" s="45" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFOELC-E</v>
       </c>
       <c r="C135" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D135" s="46" t="str">
@@ -25834,18 +25855,18 @@
         <v>100</v>
       </c>
       <c r="H135" s="60">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>4.307634622791146</v>
       </c>
       <c r="J135" s="61">
         <v>1</v>
       </c>
       <c r="K135" s="60">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.70440595169192211</v>
       </c>
       <c r="L135" s="60">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.56352476135353768</v>
       </c>
       <c r="N135" s="74" t="str">
@@ -25861,11 +25882,11 @@
       <c r="Z135" s="14"/>
       <c r="AE135" s="13"/>
       <c r="AH135" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFOELC-E</v>
       </c>
       <c r="AI135" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Other motive - Electricity</v>
       </c>
       <c r="AJ135" s="70" t="s">
@@ -25881,7 +25902,7 @@
         <v>611</v>
       </c>
       <c r="AO135" s="70" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>INFO</v>
       </c>
       <c r="AP135" s="70" t="str">
@@ -25901,28 +25922,28 @@
         <v>401</v>
       </c>
       <c r="AW135" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFO</v>
       </c>
       <c r="AX135" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY135" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.56352476135353768</v>
       </c>
     </row>
     <row r="136" spans="1:51">
       <c r="A136" s="45" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Electrochemical - Electricity</v>
       </c>
       <c r="B136" s="45" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFEELC-E</v>
       </c>
       <c r="C136" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D136" s="46" t="str">
@@ -25941,18 +25962,18 @@
         <v>100</v>
       </c>
       <c r="H136" s="60">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>52.014300931359337</v>
       </c>
       <c r="J136" s="61">
         <v>1</v>
       </c>
       <c r="K136" s="60">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>9.056647950324713</v>
       </c>
       <c r="L136" s="60">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>6.8830524422467816</v>
       </c>
       <c r="N136" s="74" t="str">
@@ -25968,11 +25989,11 @@
       <c r="Z136" s="14"/>
       <c r="AE136" s="13"/>
       <c r="AH136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFEELC-E</v>
       </c>
       <c r="AI136" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Electrochemical - Electricity</v>
       </c>
       <c r="AJ136" s="70" t="s">
@@ -25988,7 +26009,7 @@
         <v>611</v>
       </c>
       <c r="AO136" s="70" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>INFE</v>
       </c>
       <c r="AP136" s="70" t="str">
@@ -26008,14 +26029,14 @@
         <v>401</v>
       </c>
       <c r="AW136" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFE</v>
       </c>
       <c r="AX136" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY136" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>6.8830524422467816</v>
       </c>
     </row>
@@ -26064,14 +26085,14 @@
         <v>476</v>
       </c>
       <c r="AW137" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX137" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY137" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26081,7 +26102,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B138" s="45" t="str">
-        <f t="shared" ref="B138:B143" si="102">D138&amp;RIGHT(C138,3)&amp;"-E"</f>
+        <f t="shared" ref="B138:B143" si="103">D138&amp;RIGHT(C138,3)&amp;"-E"</f>
         <v>INFSCOA-E</v>
       </c>
       <c r="C138" s="46" t="str">
@@ -26104,7 +26125,7 @@
         <v>100</v>
       </c>
       <c r="H138" s="60">
-        <f t="shared" ref="H138:H143" si="103">L138/F138</f>
+        <f t="shared" ref="H138:H143" si="104">L138/F138</f>
         <v>1.8710053801776108</v>
       </c>
       <c r="J138" s="61">
@@ -26115,40 +26136,40 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="L138" s="60">
-        <f t="shared" ref="L138:L143" si="104">K138*E138</f>
+        <f t="shared" ref="L138:L143" si="105">K138*E138</f>
         <v>0.28864000000000001</v>
       </c>
       <c r="N138" s="78">
-        <f t="shared" ref="N138:N143" si="105">L138/(SUMIF($D$81:$D$187,$D138,$L$81:$L$187)+$P$76)</f>
+        <f t="shared" ref="N138:N143" si="106">L138/(SUMIF($D$81:$D$187,$D138,$L$81:$L$187)+$P$76)</f>
         <v>0.15100025110906504</v>
       </c>
       <c r="O138" s="77">
-        <f t="shared" ref="O138:Q143" si="106">MIN(1,$N138+O$75)</f>
+        <f t="shared" ref="O138:Q143" si="107">MIN(1,$N138+O$75)</f>
         <v>0.65100025110906501</v>
       </c>
       <c r="P138" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="Q138" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="R138" s="77"/>
       <c r="S138" s="78">
-        <f t="shared" ref="S138:S143" si="107">N138</f>
+        <f t="shared" ref="S138:S143" si="108">N138</f>
         <v>0.15100025110906504</v>
       </c>
       <c r="T138" s="77">
-        <f t="shared" ref="T138:V138" si="108">S138*T$75</f>
+        <f t="shared" ref="T138:V138" si="109">S138*T$75</f>
         <v>0.13590022599815854</v>
       </c>
       <c r="U138" s="77">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="V138" s="77">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="W138" s="74"/>
@@ -26156,11 +26177,11 @@
       <c r="Z138" s="14"/>
       <c r="AE138" s="13"/>
       <c r="AH138" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFSCOA-E</v>
       </c>
       <c r="AI138" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ138" s="70" t="s">
@@ -26176,7 +26197,7 @@
         <v>611</v>
       </c>
       <c r="AO138" s="70" t="str">
-        <f t="shared" ref="AO138" si="109">D138</f>
+        <f t="shared" ref="AO138" si="110">D138</f>
         <v>INFS</v>
       </c>
       <c r="AP138" s="70" t="str">
@@ -26196,14 +26217,14 @@
         <v>401</v>
       </c>
       <c r="AW138" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFS</v>
       </c>
       <c r="AX138" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY138" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1.9115199999999999</v>
       </c>
     </row>
@@ -26213,7 +26234,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B139" s="45" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>INFSGAS-E</v>
       </c>
       <c r="C139" s="46" t="str">
@@ -26236,7 +26257,7 @@
         <v>100</v>
       </c>
       <c r="H139" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>10.519738121475335</v>
       </c>
       <c r="J139" s="61">
@@ -26247,40 +26268,40 @@
         <v>2.254</v>
       </c>
       <c r="L139" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1.6228799999999999</v>
       </c>
       <c r="N139" s="78">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.84899974889093499</v>
       </c>
       <c r="O139" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="P139" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="Q139" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="R139" s="77"/>
       <c r="S139" s="78">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.84899974889093499</v>
       </c>
       <c r="T139" s="77">
-        <f t="shared" ref="T139:V139" si="110">S139*T$75</f>
+        <f t="shared" ref="T139:V139" si="111">S139*T$75</f>
         <v>0.76409977400184148</v>
       </c>
       <c r="U139" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="V139" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="W139" s="74"/>
@@ -26288,11 +26309,11 @@
       <c r="Z139" s="14"/>
       <c r="AE139" s="13"/>
       <c r="AH139" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFSGAS-E</v>
       </c>
       <c r="AI139" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ139" s="70" t="s">
@@ -26311,7 +26332,7 @@
         <v>476</v>
       </c>
       <c r="AP139" s="70" t="str">
-        <f t="shared" ref="AP139:AP143" si="111">A139</f>
+        <f t="shared" ref="AP139:AP143" si="112">A139</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ139" s="245" t="s">
@@ -26327,14 +26348,14 @@
         <v>476</v>
       </c>
       <c r="AW139" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX139" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY139" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26344,7 +26365,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B140" s="45" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>INFSOHF-E</v>
       </c>
       <c r="C140" s="46" t="str">
@@ -26367,7 +26388,7 @@
         <v>100</v>
       </c>
       <c r="H140" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="J140" s="61">
@@ -26378,40 +26399,40 @@
         <v>0</v>
       </c>
       <c r="L140" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="N140" s="78">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O140" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.5</v>
       </c>
       <c r="P140" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="Q140" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="R140" s="77"/>
       <c r="S140" s="78">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T140" s="77">
-        <f t="shared" ref="T140:V140" si="112">S140*T$75</f>
+        <f t="shared" ref="T140:V140" si="113">S140*T$75</f>
         <v>0</v>
       </c>
       <c r="U140" s="77">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="V140" s="77">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="W140" s="74"/>
@@ -26419,11 +26440,11 @@
       <c r="Z140" s="14"/>
       <c r="AE140" s="13"/>
       <c r="AH140" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFSOHF-E</v>
       </c>
       <c r="AI140" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ140" s="70" t="s">
@@ -26442,7 +26463,7 @@
         <v>476</v>
       </c>
       <c r="AP140" s="70" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ140" s="245" t="s">
@@ -26458,14 +26479,14 @@
         <v>476</v>
       </c>
       <c r="AW140" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX140" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY140" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26475,7 +26496,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B141" s="45" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>INFSOLP-E</v>
       </c>
       <c r="C141" s="46" t="str">
@@ -26498,7 +26519,7 @@
         <v>100</v>
       </c>
       <c r="H141" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="J141" s="61">
@@ -26509,40 +26530,40 @@
         <v>0</v>
       </c>
       <c r="L141" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="N141" s="78">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O141" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.5</v>
       </c>
       <c r="P141" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="Q141" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="R141" s="77"/>
       <c r="S141" s="78">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T141" s="77">
-        <f t="shared" ref="T141:V141" si="113">S141*T$75</f>
+        <f t="shared" ref="T141:V141" si="114">S141*T$75</f>
         <v>0</v>
       </c>
       <c r="U141" s="77">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="V141" s="77">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="W141" s="74"/>
@@ -26550,11 +26571,11 @@
       <c r="Z141" s="14"/>
       <c r="AE141" s="13"/>
       <c r="AH141" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFSOLP-E</v>
       </c>
       <c r="AI141" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ141" s="70" t="s">
@@ -26573,7 +26594,7 @@
         <v>476</v>
       </c>
       <c r="AP141" s="70" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ141" s="245" t="s">
@@ -26589,14 +26610,14 @@
         <v>476</v>
       </c>
       <c r="AW141" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX141" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY141" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26606,7 +26627,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B142" s="45" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>INFSELC-E</v>
       </c>
       <c r="C142" s="46" t="str">
@@ -26629,7 +26650,7 @@
         <v>100</v>
       </c>
       <c r="H142" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="J142" s="61">
@@ -26640,40 +26661,40 @@
         <v>0</v>
       </c>
       <c r="L142" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="N142" s="78">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O142" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.5</v>
       </c>
       <c r="P142" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="Q142" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="R142" s="77"/>
       <c r="S142" s="78">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T142" s="77">
-        <f t="shared" ref="T142:V142" si="114">S142*T$75</f>
+        <f t="shared" ref="T142:V142" si="115">S142*T$75</f>
         <v>0</v>
       </c>
       <c r="U142" s="77">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="V142" s="77">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="W142" s="74"/>
@@ -26681,11 +26702,11 @@
       <c r="Z142" s="14"/>
       <c r="AE142" s="13"/>
       <c r="AH142" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFSELC-E</v>
       </c>
       <c r="AI142" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ142" s="70" t="s">
@@ -26704,7 +26725,7 @@
         <v>476</v>
       </c>
       <c r="AP142" s="70" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ142" s="245" t="s">
@@ -26720,14 +26741,14 @@
         <v>476</v>
       </c>
       <c r="AW142" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX142" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY142" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26737,7 +26758,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B143" s="45" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>INFSWAS-E</v>
       </c>
       <c r="C143" s="46" t="str">
@@ -26760,7 +26781,7 @@
         <v>100</v>
       </c>
       <c r="H143" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="J143" s="61">
@@ -26771,40 +26792,40 @@
         <v>0</v>
       </c>
       <c r="L143" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="N143" s="78">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O143" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.5</v>
       </c>
       <c r="P143" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="Q143" s="77">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="R143" s="77"/>
       <c r="S143" s="78">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T143" s="77">
-        <f t="shared" ref="T143:V143" si="115">S143*T$75</f>
+        <f t="shared" ref="T143:V143" si="116">S143*T$75</f>
         <v>0</v>
       </c>
       <c r="U143" s="77">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="V143" s="77">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="W143" s="74"/>
@@ -26812,11 +26833,11 @@
       <c r="Z143" s="14"/>
       <c r="AE143" s="13"/>
       <c r="AH143" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>INFSWAS-E</v>
       </c>
       <c r="AI143" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ143" s="70" t="s">
@@ -26835,7 +26856,7 @@
         <v>476</v>
       </c>
       <c r="AP143" s="70" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ143" s="245" t="s">
@@ -26851,14 +26872,14 @@
         <v>476</v>
       </c>
       <c r="AW143" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX143" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY143" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26902,14 +26923,14 @@
         <v>476</v>
       </c>
       <c r="AW144" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX144" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY144" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26970,14 +26991,14 @@
         <v>476</v>
       </c>
       <c r="AW145" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX145" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY145" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -27038,20 +27059,20 @@
         <v>476</v>
       </c>
       <c r="AW146" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX146" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY146" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
     <row r="147" spans="1:51">
       <c r="A147" s="45" t="str">
-        <f t="shared" ref="A147:A155" si="116">A$5&amp;"-"&amp;A$17&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A147:A155" si="117">A$5&amp;"-"&amp;A$17&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Elec Heating - Electricity</v>
       </c>
       <c r="B147" s="45" t="str">
@@ -27059,7 +27080,7 @@
         <v>IFBKELC-E</v>
       </c>
       <c r="C147" s="46" t="str">
-        <f t="shared" ref="C147:C155" si="117">$P$16</f>
+        <f t="shared" ref="C147:C155" si="118">$P$16</f>
         <v>IFBELC</v>
       </c>
       <c r="D147" s="46" t="str">
@@ -27085,7 +27106,7 @@
         <v>1</v>
       </c>
       <c r="K147" s="60">
-        <f t="shared" ref="K147:K155" si="118">J147*SUMIF($C$60:$K$60,$B$145,$C61:$K61)</f>
+        <f t="shared" ref="K147:K155" si="119">J147*SUMIF($C$60:$K$60,$B$145,$C61:$K61)</f>
         <v>1.04664</v>
       </c>
       <c r="L147" s="60">
@@ -27105,11 +27126,11 @@
       <c r="Z147" s="14"/>
       <c r="AE147" s="13"/>
       <c r="AH147" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBKELC-E</v>
       </c>
       <c r="AI147" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Elec Heating - Electricity</v>
       </c>
       <c r="AJ147" s="70" t="s">
@@ -27125,7 +27146,7 @@
         <v>611</v>
       </c>
       <c r="AO147" s="70" t="str">
-        <f t="shared" ref="AO147:AO155" si="119">D147</f>
+        <f t="shared" ref="AO147:AO155" si="120">D147</f>
         <v>IFBK</v>
       </c>
       <c r="AP147" s="70" t="str">
@@ -27145,20 +27166,20 @@
         <v>401</v>
       </c>
       <c r="AW147" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBK</v>
       </c>
       <c r="AX147" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY147" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1.04664</v>
       </c>
     </row>
     <row r="148" spans="1:51">
       <c r="A148" s="45" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Compressed air - Electricity</v>
       </c>
       <c r="B148" s="45" t="str">
@@ -27166,7 +27187,7 @@
         <v>IFBAELC-E</v>
       </c>
       <c r="C148" s="46" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>IFBELC</v>
       </c>
       <c r="D148" s="46" t="str">
@@ -27185,18 +27206,18 @@
         <v>100</v>
       </c>
       <c r="H148" s="60">
-        <f t="shared" ref="H148:H155" si="120">L148/F148</f>
+        <f t="shared" ref="H148:H155" si="121">L148/F148</f>
         <v>0.25812688821752272</v>
       </c>
       <c r="J148" s="61">
         <v>1</v>
       </c>
       <c r="K148" s="60">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.59808000000000006</v>
       </c>
       <c r="L148" s="60">
-        <f t="shared" ref="L148:L155" si="121">K148*E148</f>
+        <f t="shared" ref="L148:L155" si="122">K148*E148</f>
         <v>2.9904000000000003E-2</v>
       </c>
       <c r="N148" s="74" t="str">
@@ -27234,11 +27255,11 @@
         <v>0.35</v>
       </c>
       <c r="AH148" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBAELC-E</v>
       </c>
       <c r="AI148" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Compressed air - Electricity</v>
       </c>
       <c r="AJ148" s="70" t="s">
@@ -27254,7 +27275,7 @@
         <v>611</v>
       </c>
       <c r="AO148" s="70" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>IFBA</v>
       </c>
       <c r="AP148" s="70" t="str">
@@ -27274,28 +27295,28 @@
         <v>401</v>
       </c>
       <c r="AW148" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBA</v>
       </c>
       <c r="AX148" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY148" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.9904000000000003E-2</v>
       </c>
     </row>
     <row r="149" spans="1:51">
       <c r="A149" s="45" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Lighting - Electricity</v>
       </c>
       <c r="B149" s="45" t="str">
-        <f t="shared" ref="B149:B155" si="122">D149&amp;RIGHT(C149,3)&amp;"-E"</f>
+        <f t="shared" ref="B149:B155" si="123">D149&amp;RIGHT(C149,3)&amp;"-E"</f>
         <v>IFBLELC-E</v>
       </c>
       <c r="C149" s="46" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>IFBELC</v>
       </c>
       <c r="D149" s="46" t="str">
@@ -27314,18 +27335,18 @@
         <v>100</v>
       </c>
       <c r="H149" s="60">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>1.8007226013649138</v>
       </c>
       <c r="J149" s="61">
         <v>1</v>
       </c>
       <c r="K149" s="60">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.74760000000000004</v>
       </c>
       <c r="L149" s="60">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0.22428000000000001</v>
       </c>
       <c r="N149" s="74" t="str">
@@ -27363,11 +27384,11 @@
         <v>0.35</v>
       </c>
       <c r="AH149" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBLELC-E</v>
       </c>
       <c r="AI149" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Lighting - Electricity</v>
       </c>
       <c r="AJ149" s="70" t="s">
@@ -27383,7 +27404,7 @@
         <v>611</v>
       </c>
       <c r="AO149" s="70" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>IFBL</v>
       </c>
       <c r="AP149" s="70" t="str">
@@ -27403,28 +27424,28 @@
         <v>401</v>
       </c>
       <c r="AW149" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBL</v>
       </c>
       <c r="AX149" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY149" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.22428000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:51">
       <c r="A150" s="45" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Cooling - Electricity</v>
       </c>
       <c r="B150" s="45" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>IFBCELC-E</v>
       </c>
       <c r="C150" s="46" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>IFBELC</v>
       </c>
       <c r="D150" s="46" t="str">
@@ -27443,18 +27464,18 @@
         <v>100</v>
       </c>
       <c r="H150" s="60">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>53.086755171349182</v>
       </c>
       <c r="J150" s="61">
         <v>1</v>
       </c>
       <c r="K150" s="60">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>3.4389600000000002</v>
       </c>
       <c r="L150" s="60">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>6.8779200000000005</v>
       </c>
       <c r="N150" s="74" t="str">
@@ -27492,11 +27513,11 @@
         <v>0.35</v>
       </c>
       <c r="AH150" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBCELC-E</v>
       </c>
       <c r="AI150" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Cooling - Electricity</v>
       </c>
       <c r="AJ150" s="70" t="s">
@@ -27512,7 +27533,7 @@
         <v>611</v>
       </c>
       <c r="AO150" s="70" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>IFBC</v>
       </c>
       <c r="AP150" s="70" t="str">
@@ -27532,28 +27553,28 @@
         <v>401</v>
       </c>
       <c r="AW150" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBC</v>
       </c>
       <c r="AX150" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY150" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>6.8779200000000005</v>
       </c>
     </row>
     <row r="151" spans="1:51">
       <c r="A151" s="45" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>Industry-Food, Beverage &amp; Tabacco-HVAC - Electricity</v>
       </c>
       <c r="B151" s="45" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>IFBHELC-E</v>
       </c>
       <c r="C151" s="46" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>IFBELC</v>
       </c>
       <c r="D151" s="46" t="str">
@@ -27572,18 +27593,18 @@
         <v>100</v>
       </c>
       <c r="H151" s="60">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>6.1348529746979708</v>
       </c>
       <c r="J151" s="61">
         <v>1</v>
       </c>
       <c r="K151" s="60">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.89711999999999992</v>
       </c>
       <c r="L151" s="60">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0.8074079999999999</v>
       </c>
       <c r="N151" s="74" t="str">
@@ -27621,11 +27642,11 @@
         <v>0.35</v>
       </c>
       <c r="AH151" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBHELC-E</v>
       </c>
       <c r="AI151" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-HVAC - Electricity</v>
       </c>
       <c r="AJ151" s="70" t="s">
@@ -27641,7 +27662,7 @@
         <v>611</v>
       </c>
       <c r="AO151" s="70" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>IFBH</v>
       </c>
       <c r="AP151" s="70" t="str">
@@ -27661,28 +27682,28 @@
         <v>401</v>
       </c>
       <c r="AW151" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBH</v>
       </c>
       <c r="AX151" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY151" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.8074079999999999</v>
       </c>
     </row>
     <row r="152" spans="1:51">
       <c r="A152" s="45" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Pumping - Electricity</v>
       </c>
       <c r="B152" s="45" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>IFBPELC-E</v>
       </c>
       <c r="C152" s="46" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>IFBELC</v>
       </c>
       <c r="D152" s="46" t="str">
@@ -27701,18 +27722,18 @@
         <v>100</v>
       </c>
       <c r="H152" s="60">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>27.643182568504457</v>
       </c>
       <c r="J152" s="61">
         <v>1</v>
       </c>
       <c r="K152" s="60">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>4.1865600000000001</v>
       </c>
       <c r="L152" s="60">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>3.3492480000000002</v>
       </c>
       <c r="N152" s="74" t="str">
@@ -27750,11 +27771,11 @@
         <v>0.35</v>
       </c>
       <c r="AH152" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBPELC-E</v>
       </c>
       <c r="AI152" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Pumping - Electricity</v>
       </c>
       <c r="AJ152" s="70" t="s">
@@ -27770,7 +27791,7 @@
         <v>611</v>
       </c>
       <c r="AO152" s="70" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>IFBP</v>
       </c>
       <c r="AP152" s="70" t="str">
@@ -27790,28 +27811,28 @@
         <v>401</v>
       </c>
       <c r="AW152" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBP</v>
       </c>
       <c r="AX152" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY152" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.3492480000000002</v>
       </c>
     </row>
     <row r="153" spans="1:51">
       <c r="A153" s="45" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Fans - Electricity</v>
       </c>
       <c r="B153" s="45" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>IFBFELC-E</v>
       </c>
       <c r="C153" s="46" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>IFBELC</v>
       </c>
       <c r="D153" s="46" t="str">
@@ -27830,18 +27851,18 @@
         <v>100</v>
       </c>
       <c r="H153" s="60">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>4.3747279875651461</v>
       </c>
       <c r="J153" s="61">
         <v>1</v>
       </c>
       <c r="K153" s="60">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.59808000000000006</v>
       </c>
       <c r="L153" s="60">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0.47846400000000006</v>
       </c>
       <c r="N153" s="74" t="str">
@@ -27879,11 +27900,11 @@
         <v>0.35</v>
       </c>
       <c r="AH153" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBFELC-E</v>
       </c>
       <c r="AI153" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Fans - Electricity</v>
       </c>
       <c r="AJ153" s="70" t="s">
@@ -27899,7 +27920,7 @@
         <v>611</v>
       </c>
       <c r="AO153" s="70" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>IFBF</v>
       </c>
       <c r="AP153" s="70" t="str">
@@ -27919,28 +27940,28 @@
         <v>401</v>
       </c>
       <c r="AW153" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBF</v>
       </c>
       <c r="AX153" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY153" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.47846400000000006</v>
       </c>
     </row>
     <row r="154" spans="1:51">
       <c r="A154" s="45" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Other motive - Electricity</v>
       </c>
       <c r="B154" s="45" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>IFBOELC-E</v>
       </c>
       <c r="C154" s="46" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>IFBELC</v>
       </c>
       <c r="D154" s="46" t="str">
@@ -27959,18 +27980,18 @@
         <v>100</v>
       </c>
       <c r="H154" s="60">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>19.201467665494576</v>
       </c>
       <c r="J154" s="61">
         <v>1</v>
       </c>
       <c r="K154" s="60">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>3.13992</v>
       </c>
       <c r="L154" s="60">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>2.5119360000000004</v>
       </c>
       <c r="N154" s="74" t="str">
@@ -28008,11 +28029,11 @@
         <v>0.35</v>
       </c>
       <c r="AH154" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBOELC-E</v>
       </c>
       <c r="AI154" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Other motive - Electricity</v>
       </c>
       <c r="AJ154" s="70" t="s">
@@ -28028,7 +28049,7 @@
         <v>611</v>
       </c>
       <c r="AO154" s="70" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>IFBO</v>
       </c>
       <c r="AP154" s="70" t="str">
@@ -28048,28 +28069,28 @@
         <v>401</v>
       </c>
       <c r="AW154" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBO</v>
       </c>
       <c r="AX154" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY154" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.5119360000000004</v>
       </c>
     </row>
     <row r="155" spans="1:51">
       <c r="A155" s="45" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Electrochemical - Electricity</v>
       </c>
       <c r="B155" s="45" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>IFBEELC-E</v>
       </c>
       <c r="C155" s="46" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>IFBELC</v>
       </c>
       <c r="D155" s="46" t="str">
@@ -28088,18 +28109,18 @@
         <v>100</v>
       </c>
       <c r="H155" s="60">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="J155" s="61">
         <v>1</v>
       </c>
       <c r="K155" s="60">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="L155" s="60">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="N155" s="74" t="str">
@@ -28137,11 +28158,11 @@
         <v>0.35</v>
       </c>
       <c r="AH155" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBEELC-E</v>
       </c>
       <c r="AI155" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Electrochemical - Electricity</v>
       </c>
       <c r="AJ155" s="70" t="s">
@@ -28157,7 +28178,7 @@
         <v>611</v>
       </c>
       <c r="AO155" s="70" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>IFBE</v>
       </c>
       <c r="AP155" s="70" t="str">
@@ -28177,14 +28198,14 @@
         <v>401</v>
       </c>
       <c r="AW155" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBE</v>
       </c>
       <c r="AX155" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY155" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
@@ -28255,14 +28276,14 @@
         <v>476</v>
       </c>
       <c r="AW156" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX156" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY156" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28272,7 +28293,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B157" s="45" t="str">
-        <f t="shared" ref="B157:B165" si="123">D157&amp;RIGHT(C157,3)&amp;"-E"</f>
+        <f t="shared" ref="B157:B165" si="124">D157&amp;RIGHT(C157,3)&amp;"-E"</f>
         <v>IFBSCOA-E</v>
       </c>
       <c r="C157" s="46" t="str">
@@ -28280,7 +28301,7 @@
         <v>INDCOA</v>
       </c>
       <c r="D157" s="46" t="str">
-        <f t="shared" ref="D157:D165" si="124">$B$5&amp;RIGHT($B$145,2)&amp;$B$70</f>
+        <f t="shared" ref="D157:D165" si="125">$B$5&amp;RIGHT($B$145,2)&amp;$B$70</f>
         <v>IFBS</v>
       </c>
       <c r="E157" s="58">
@@ -28295,7 +28316,7 @@
         <v>100</v>
       </c>
       <c r="H157" s="60">
-        <f t="shared" ref="H157:H165" si="125">L157/F157</f>
+        <f t="shared" ref="H157:H165" si="126">L157/F157</f>
         <v>67.505542231153186</v>
       </c>
       <c r="J157" s="61">
@@ -28310,36 +28331,36 @@
         <v>10.414080000000002</v>
       </c>
       <c r="N157" s="78">
-        <f t="shared" ref="N157:N165" si="126">L157/SUMIF($D$81:$D$187,$D157,$L$81:$L$187)</f>
+        <f t="shared" ref="N157:N165" si="127">L157/SUMIF($D$81:$D$187,$D157,$L$81:$L$187)</f>
         <v>0.25685398787785141</v>
       </c>
       <c r="O157" s="77">
-        <f t="shared" ref="O157:Q161" si="127">MIN(1,$N157+O$75)</f>
+        <f t="shared" ref="O157:Q161" si="128">MIN(1,$N157+O$75)</f>
         <v>0.75685398787785141</v>
       </c>
       <c r="P157" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="Q157" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="R157" s="77"/>
       <c r="S157" s="78">
-        <f t="shared" ref="S157:S162" si="128">N157</f>
+        <f t="shared" ref="S157:S162" si="129">N157</f>
         <v>0.25685398787785141</v>
       </c>
       <c r="T157" s="77">
-        <f t="shared" ref="T157:V157" si="129">S157*T$75</f>
+        <f t="shared" ref="T157:V157" si="130">S157*T$75</f>
         <v>0.23116858909006627</v>
       </c>
       <c r="U157" s="77">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="V157" s="77">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="W157" s="74"/>
@@ -28369,11 +28390,11 @@
         <v>0</v>
       </c>
       <c r="AH157" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBSCOA-E</v>
       </c>
       <c r="AI157" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ157" s="70" t="s">
@@ -28389,7 +28410,7 @@
         <v>611</v>
       </c>
       <c r="AO157" s="70" t="str">
-        <f t="shared" ref="AO157" si="130">D157</f>
+        <f t="shared" ref="AO157" si="131">D157</f>
         <v>IFBS</v>
       </c>
       <c r="AP157" s="70" t="str">
@@ -28409,14 +28430,14 @@
         <v>401</v>
       </c>
       <c r="AW157" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBS</v>
       </c>
       <c r="AX157" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY157" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>40.544747177343751</v>
       </c>
     </row>
@@ -28426,7 +28447,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B158" s="45" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>IFBSGAS-E</v>
       </c>
       <c r="C158" s="46" t="str">
@@ -28434,7 +28455,7 @@
         <v>INDGAS</v>
       </c>
       <c r="D158" s="46" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>IFBS</v>
       </c>
       <c r="E158" s="58">
@@ -28449,7 +28470,7 @@
         <v>100</v>
       </c>
       <c r="H158" s="60">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>34.377369400037274</v>
       </c>
       <c r="J158" s="61">
@@ -28460,40 +28481,40 @@
         <v>7.3658288574218753</v>
       </c>
       <c r="L158" s="60">
-        <f t="shared" ref="L158:L165" si="131">K158*E158</f>
+        <f t="shared" ref="L158:L165" si="132">K158*E158</f>
         <v>5.3033967773437496</v>
       </c>
       <c r="N158" s="78">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.13080354784669287</v>
       </c>
       <c r="O158" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.6308035478466929</v>
       </c>
       <c r="P158" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="Q158" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="R158" s="77"/>
       <c r="S158" s="78">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.13080354784669287</v>
       </c>
       <c r="T158" s="77">
-        <f t="shared" ref="T158:V158" si="132">S158*T$75</f>
+        <f t="shared" ref="T158:V158" si="133">S158*T$75</f>
         <v>0.11772319306202358</v>
       </c>
       <c r="U158" s="77">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="V158" s="77">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="W158" s="74"/>
@@ -28501,11 +28522,11 @@
       <c r="Z158" s="14"/>
       <c r="AE158" s="13"/>
       <c r="AH158" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBSGAS-E</v>
       </c>
       <c r="AI158" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ158" s="70" t="s">
@@ -28524,7 +28545,7 @@
         <v>476</v>
       </c>
       <c r="AP158" s="70" t="str">
-        <f t="shared" ref="AP158:AP165" si="133">A158</f>
+        <f t="shared" ref="AP158:AP165" si="134">A158</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ158" s="245" t="s">
@@ -28540,14 +28561,14 @@
         <v>476</v>
       </c>
       <c r="AW158" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX158" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY158" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28557,7 +28578,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B159" s="45" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>IFBSOHF-E</v>
       </c>
       <c r="C159" s="46" t="str">
@@ -28565,7 +28586,7 @@
         <v>INDOHF</v>
       </c>
       <c r="D159" s="46" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>IFBS</v>
       </c>
       <c r="E159" s="58">
@@ -28580,7 +28601,7 @@
         <v>100</v>
       </c>
       <c r="H159" s="60">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="J159" s="61">
@@ -28591,40 +28612,40 @@
         <v>0</v>
       </c>
       <c r="L159" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="N159" s="78">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="O159" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.5</v>
       </c>
       <c r="P159" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="Q159" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="R159" s="77"/>
       <c r="S159" s="78">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="T159" s="77">
-        <f t="shared" ref="T159:V159" si="134">S159*T$75</f>
+        <f t="shared" ref="T159:V159" si="135">S159*T$75</f>
         <v>0</v>
       </c>
       <c r="U159" s="77">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="V159" s="77">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="W159" s="74"/>
@@ -28632,11 +28653,11 @@
       <c r="Z159" s="14"/>
       <c r="AE159" s="13"/>
       <c r="AH159" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBSOHF-E</v>
       </c>
       <c r="AI159" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ159" s="70" t="s">
@@ -28655,7 +28676,7 @@
         <v>476</v>
       </c>
       <c r="AP159" s="70" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ159" s="245" t="s">
@@ -28671,14 +28692,14 @@
         <v>476</v>
       </c>
       <c r="AW159" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX159" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY159" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28688,7 +28709,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B160" s="45" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>IFBSOLP-E</v>
       </c>
       <c r="C160" s="46" t="str">
@@ -28696,7 +28717,7 @@
         <v>INDOLP</v>
       </c>
       <c r="D160" s="46" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>IFBS</v>
       </c>
       <c r="E160" s="58">
@@ -28711,7 +28732,7 @@
         <v>100</v>
       </c>
       <c r="H160" s="60">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="J160" s="61">
@@ -28722,40 +28743,40 @@
         <v>0</v>
       </c>
       <c r="L160" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="N160" s="78">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="O160" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.5</v>
       </c>
       <c r="P160" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="Q160" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="R160" s="77"/>
       <c r="S160" s="78">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="T160" s="77">
-        <f t="shared" ref="T160:V160" si="135">S160*T$75</f>
+        <f t="shared" ref="T160:V160" si="136">S160*T$75</f>
         <v>0</v>
       </c>
       <c r="U160" s="77">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="V160" s="77">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="W160" s="74"/>
@@ -28763,11 +28784,11 @@
       <c r="Z160" s="14"/>
       <c r="AE160" s="13"/>
       <c r="AH160" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBSOLP-E</v>
       </c>
       <c r="AI160" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ160" s="70" t="s">
@@ -28786,7 +28807,7 @@
         <v>476</v>
       </c>
       <c r="AP160" s="70" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ160" s="245" t="s">
@@ -28802,14 +28823,14 @@
         <v>476</v>
       </c>
       <c r="AW160" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX160" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY160" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28819,7 +28840,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B161" s="45" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>IFBSELC-E</v>
       </c>
       <c r="C161" s="46" t="str">
@@ -28827,7 +28848,7 @@
         <v>IFBELC</v>
       </c>
       <c r="D161" s="46" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>IFBS</v>
       </c>
       <c r="E161" s="58">
@@ -28842,7 +28863,7 @@
         <v>100</v>
       </c>
       <c r="H161" s="60">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>1.4731989369287615</v>
       </c>
       <c r="J161" s="61">
@@ -28853,40 +28874,40 @@
         <v>0.29904000000000003</v>
       </c>
       <c r="L161" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.22727040000000001</v>
       </c>
       <c r="N161" s="78">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>5.6054215606750127E-3</v>
       </c>
       <c r="O161" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.50560542156067501</v>
       </c>
       <c r="P161" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="Q161" s="77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="R161" s="77"/>
       <c r="S161" s="78">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>5.6054215606750127E-3</v>
       </c>
       <c r="T161" s="77">
-        <f t="shared" ref="T161:V161" si="136">S161*T$75</f>
+        <f t="shared" ref="T161:V161" si="137">S161*T$75</f>
         <v>5.0448794046075119E-3</v>
       </c>
       <c r="U161" s="77">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="V161" s="77">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="W161" s="74"/>
@@ -28894,11 +28915,11 @@
       <c r="Z161" s="14"/>
       <c r="AE161" s="13"/>
       <c r="AH161" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBSELC-E</v>
       </c>
       <c r="AI161" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ161" s="70" t="s">
@@ -28917,7 +28938,7 @@
         <v>476</v>
       </c>
       <c r="AP161" s="70" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ161" s="245" t="s">
@@ -28933,14 +28954,14 @@
         <v>476</v>
       </c>
       <c r="AW161" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX161" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY161" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28958,7 +28979,7 @@
         <v>IFBELC</v>
       </c>
       <c r="D162" s="46" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>IFBS</v>
       </c>
       <c r="E162" s="58">
@@ -28986,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="N162" s="78">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="O162" s="216">
@@ -29000,19 +29021,19 @@
       </c>
       <c r="R162" s="77"/>
       <c r="S162" s="78">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="T162" s="77">
-        <f t="shared" ref="T162:V162" si="137">S162*T$75</f>
+        <f t="shared" ref="T162:V162" si="138">S162*T$75</f>
         <v>0</v>
       </c>
       <c r="U162" s="77">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="V162" s="77">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="W162" s="74"/>
@@ -29020,11 +29041,11 @@
       <c r="Z162" s="14"/>
       <c r="AE162" s="13"/>
       <c r="AH162" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBSELC-N</v>
       </c>
       <c r="AI162" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AJ162" s="70" t="s">
@@ -29043,7 +29064,7 @@
         <v>476</v>
       </c>
       <c r="AP162" s="70" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AQ162" s="245" t="s">
@@ -29059,14 +29080,14 @@
         <v>476</v>
       </c>
       <c r="AW162" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX162" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY162" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -29082,7 +29103,7 @@
         <v>467</v>
       </c>
       <c r="D163" s="46" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>IFBS</v>
       </c>
       <c r="E163" s="58">
@@ -29110,36 +29131,36 @@
         <v>0</v>
       </c>
       <c r="N163" s="78">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="O163" s="77">
-        <f t="shared" ref="O163:Q165" si="138">MIN(1,$N163+O$75)</f>
+        <f t="shared" ref="O163:Q165" si="139">MIN(1,$N163+O$75)</f>
         <v>0.5</v>
       </c>
       <c r="P163" s="77">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1</v>
       </c>
       <c r="Q163" s="77">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1</v>
       </c>
       <c r="R163" s="77"/>
       <c r="S163" s="78">
-        <f t="shared" ref="S163:S165" si="139">N163</f>
+        <f t="shared" ref="S163:S165" si="140">N163</f>
         <v>0</v>
       </c>
       <c r="T163" s="77">
-        <f t="shared" ref="T163:V163" si="140">S163*T$75</f>
+        <f t="shared" ref="T163:V163" si="141">S163*T$75</f>
         <v>0</v>
       </c>
       <c r="U163" s="77">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="V163" s="77">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="W163" s="74"/>
@@ -29147,11 +29168,11 @@
       <c r="Z163" s="14"/>
       <c r="AE163" s="13"/>
       <c r="AH163" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBSHGN-N</v>
       </c>
       <c r="AI163" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating - Electricity - Hydrogen New</v>
       </c>
       <c r="AJ163" s="70" t="s">
@@ -29170,7 +29191,7 @@
         <v>476</v>
       </c>
       <c r="AP163" s="70" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating - Electricity - Hydrogen New</v>
       </c>
       <c r="AQ163" s="245" t="s">
@@ -29186,14 +29207,14 @@
         <v>476</v>
       </c>
       <c r="AW163" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX163" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY163" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -29203,7 +29224,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B164" s="45" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>IFBSBIB-E</v>
       </c>
       <c r="C164" s="46" t="str">
@@ -29211,7 +29232,7 @@
         <v>INDBIB</v>
       </c>
       <c r="D164" s="46" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>IFBS</v>
       </c>
       <c r="E164" s="58">
@@ -29226,7 +29247,7 @@
         <v>100</v>
       </c>
       <c r="H164" s="60">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>159.46068581059183</v>
       </c>
       <c r="J164" s="61">
@@ -29237,40 +29258,40 @@
         <v>41</v>
       </c>
       <c r="L164" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>24.599999999999998</v>
       </c>
       <c r="N164" s="78">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.60673704271478068</v>
       </c>
       <c r="O164" s="77">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1</v>
       </c>
       <c r="P164" s="77">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1</v>
       </c>
       <c r="Q164" s="77">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1</v>
       </c>
       <c r="R164" s="77"/>
       <c r="S164" s="78">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.60673704271478068</v>
       </c>
       <c r="T164" s="77">
-        <f t="shared" ref="T164:V164" si="141">S164*T$75</f>
+        <f t="shared" ref="T164:V164" si="142">S164*T$75</f>
         <v>0.54606333844330268</v>
       </c>
       <c r="U164" s="77">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="V164" s="77">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="W164" s="74"/>
@@ -29278,11 +29299,11 @@
       <c r="Z164" s="14"/>
       <c r="AE164" s="13"/>
       <c r="AH164" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBSBIB-E</v>
       </c>
       <c r="AI164" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ164" s="70" t="s">
@@ -29301,7 +29322,7 @@
         <v>476</v>
       </c>
       <c r="AP164" s="70" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ164" s="245" t="s">
@@ -29317,14 +29338,14 @@
         <v>476</v>
       </c>
       <c r="AW164" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX164" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY164" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -29334,7 +29355,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B165" s="45" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>IFBSWAS-E</v>
       </c>
       <c r="C165" s="46" t="str">
@@ -29342,7 +29363,7 @@
         <v>INDWAS</v>
       </c>
       <c r="D165" s="46" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>IFBS</v>
       </c>
       <c r="E165" s="58">
@@ -29357,7 +29378,7 @@
         <v>100</v>
       </c>
       <c r="H165" s="60">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="J165" s="61">
@@ -29368,40 +29389,40 @@
         <v>0</v>
       </c>
       <c r="L165" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="N165" s="78">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="O165" s="77">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.5</v>
       </c>
       <c r="P165" s="77">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1</v>
       </c>
       <c r="Q165" s="77">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1</v>
       </c>
       <c r="R165" s="77"/>
       <c r="S165" s="78">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="T165" s="77">
-        <f t="shared" ref="T165:V165" si="142">S165*T$75</f>
+        <f t="shared" ref="T165:V165" si="143">S165*T$75</f>
         <v>0</v>
       </c>
       <c r="U165" s="77">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="V165" s="77">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="W165" s="74"/>
@@ -29409,11 +29430,11 @@
       <c r="Z165" s="14"/>
       <c r="AE165" s="13"/>
       <c r="AH165" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>IFBSWAS-E</v>
       </c>
       <c r="AI165" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ165" s="70" t="s">
@@ -29432,7 +29453,7 @@
         <v>476</v>
       </c>
       <c r="AP165" s="70" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ165" s="245" t="s">
@@ -29448,14 +29469,14 @@
         <v>476</v>
       </c>
       <c r="AW165" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX165" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY165" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -29499,14 +29520,14 @@
         <v>476</v>
       </c>
       <c r="AW166" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX166" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY166" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -29567,14 +29588,14 @@
         <v>476</v>
       </c>
       <c r="AW167" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX167" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY167" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -29635,20 +29656,20 @@
         <v>476</v>
       </c>
       <c r="AW168" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AX168" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY168" s="266">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
     <row r="169" spans="1:51">
       <c r="A169" s="45" t="str">
-        <f t="shared" ref="A169:A177" si="143">A$5&amp;"-"&amp;A$19&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A169:A177" si="144">A$5&amp;"-"&amp;A$19&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Other-Elec Heating - Electricity</v>
       </c>
       <c r="B169" s="45" t="str">
@@ -29656,7 +29677,7 @@
         <v>IOTKELC-E</v>
       </c>
       <c r="C169" s="46" t="str">
-        <f t="shared" ref="C169:C177" si="144">$P$18</f>
+        <f t="shared" ref="C169:C177" si="145">$P$18</f>
         <v>IOTELC</v>
       </c>
       <c r="D169" s="46" t="str">
@@ -29682,7 +29703,7 @@
         <v>1</v>
       </c>
       <c r="K169" s="60">
-        <f t="shared" ref="K169:K177" si="145">J169*SUMIF($C$60:$K$60,$B$167,$C61:$K61)</f>
+        <f t="shared" ref="K169:K177" si="146">J169*SUMIF($C$60:$K$60,$B$167,$C61:$K61)</f>
         <v>2.1816720000000003</v>
       </c>
       <c r="L169" s="60">
@@ -29702,11 +29723,11 @@
       <c r="Z169" s="14"/>
       <c r="AE169" s="13"/>
       <c r="AH169" t="str">
-        <f t="shared" ref="AH169:AH188" si="146">B169</f>
+        <f t="shared" ref="AH169:AH188" si="147">B169</f>
         <v>IOTKELC-E</v>
       </c>
       <c r="AI169" t="str">
-        <f t="shared" ref="AI169:AI188" si="147">A169</f>
+        <f t="shared" ref="AI169:AI188" si="148">A169</f>
         <v>Industry-Other-Elec Heating - Electricity</v>
       </c>
       <c r="AJ169" s="70" t="s">
@@ -29722,7 +29743,7 @@
         <v>611</v>
       </c>
       <c r="AO169" s="70" t="str">
-        <f t="shared" ref="AO169:AO177" si="148">D169</f>
+        <f t="shared" ref="AO169:AO177" si="149">D169</f>
         <v>IOTK</v>
       </c>
       <c r="AP169" s="70" t="str">
@@ -29742,20 +29763,20 @@
         <v>401</v>
       </c>
       <c r="AW169" s="72" t="str">
-        <f t="shared" ref="AW169:AW188" si="149">AO169</f>
+        <f t="shared" ref="AW169:AW188" si="150">AO169</f>
         <v>IOTK</v>
       </c>
       <c r="AX169" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY169" s="266">
-        <f t="shared" ref="AY169:AY188" si="150">SUMIFS($L$81:$L$188,$D$81:$D$188,$AW169)</f>
+        <f t="shared" ref="AY169:AY188" si="151">SUMIFS($L$81:$L$188,$D$81:$D$188,$AW169)</f>
         <v>2.1816720000000003</v>
       </c>
     </row>
     <row r="170" spans="1:51">
       <c r="A170" s="45" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>Industry-Other-Compressed air - Electricity</v>
       </c>
       <c r="B170" s="45" t="str">
@@ -29763,7 +29784,7 @@
         <v>IOTAELC-E</v>
       </c>
       <c r="C170" s="46" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>IOTELC</v>
       </c>
       <c r="D170" s="46" t="str">
@@ -29782,18 +29803,18 @@
         <v>100</v>
       </c>
       <c r="H170" s="60">
-        <f t="shared" ref="H170:H176" si="151">L170/F170</f>
+        <f t="shared" ref="H170:H176" si="152">L170/F170</f>
         <v>1.0664887354337507</v>
       </c>
       <c r="J170" s="61">
         <v>1</v>
       </c>
       <c r="K170" s="60">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>2.4710543999999999</v>
       </c>
       <c r="L170" s="60">
-        <f t="shared" ref="L170:L177" si="152">K170*E170</f>
+        <f t="shared" ref="L170:L177" si="153">K170*E170</f>
         <v>0.12355272</v>
       </c>
       <c r="N170" s="74" t="str">
@@ -29809,11 +29830,11 @@
       <c r="Z170" s="14"/>
       <c r="AE170" s="13"/>
       <c r="AH170" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTAELC-E</v>
       </c>
       <c r="AI170" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-Compressed air - Electricity</v>
       </c>
       <c r="AJ170" s="70" t="s">
@@ -29829,7 +29850,7 @@
         <v>611</v>
       </c>
       <c r="AO170" s="70" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>IOTA</v>
       </c>
       <c r="AP170" s="70" t="str">
@@ -29849,28 +29870,28 @@
         <v>401</v>
       </c>
       <c r="AW170" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>IOTA</v>
       </c>
       <c r="AX170" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY170" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.12355272</v>
       </c>
     </row>
     <row r="171" spans="1:51">
       <c r="A171" s="45" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>Industry-Other-Lighting - Electricity</v>
       </c>
       <c r="B171" s="45" t="str">
-        <f t="shared" ref="B171:B177" si="153">D171&amp;RIGHT(C171,3)&amp;"-E"</f>
+        <f t="shared" ref="B171:B177" si="154">D171&amp;RIGHT(C171,3)&amp;"-E"</f>
         <v>IOTLELC-E</v>
       </c>
       <c r="C171" s="46" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>IOTELC</v>
       </c>
       <c r="D171" s="46" t="str">
@@ -29889,18 +29910,18 @@
         <v>100</v>
       </c>
       <c r="H171" s="60">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>4.3945377759935766</v>
       </c>
       <c r="J171" s="61">
         <v>1</v>
       </c>
       <c r="K171" s="60">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1.8244656000000001</v>
       </c>
       <c r="L171" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.54733968</v>
       </c>
       <c r="N171" s="74" t="str">
@@ -29938,11 +29959,11 @@
         <v>0.35</v>
       </c>
       <c r="AH171" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTLELC-E</v>
       </c>
       <c r="AI171" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-Lighting - Electricity</v>
       </c>
       <c r="AJ171" s="70" t="s">
@@ -29958,7 +29979,7 @@
         <v>611</v>
       </c>
       <c r="AO171" s="70" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>IOTL</v>
       </c>
       <c r="AP171" s="70" t="str">
@@ -29978,28 +29999,28 @@
         <v>401</v>
       </c>
       <c r="AW171" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>IOTL</v>
       </c>
       <c r="AX171" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY171" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.54733968</v>
       </c>
     </row>
     <row r="172" spans="1:51">
       <c r="A172" s="45" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>Industry-Other-Cooling - Electricity</v>
       </c>
       <c r="B172" s="45" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>IOTCELC-E</v>
       </c>
       <c r="C172" s="46" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>IOTELC</v>
       </c>
       <c r="D172" s="46" t="str">
@@ -30018,18 +30039,18 @@
         <v>100</v>
       </c>
       <c r="H172" s="60">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>17.938425439950606</v>
       </c>
       <c r="J172" s="61">
         <v>1</v>
       </c>
       <c r="K172" s="60">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1.1620512000000003</v>
       </c>
       <c r="L172" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2.3241024000000006</v>
       </c>
       <c r="N172" s="74" t="str">
@@ -30067,11 +30088,11 @@
         <v>0.35</v>
       </c>
       <c r="AH172" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTCELC-E</v>
       </c>
       <c r="AI172" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-Cooling - Electricity</v>
       </c>
       <c r="AJ172" s="70" t="s">
@@ -30087,7 +30108,7 @@
         <v>611</v>
       </c>
       <c r="AO172" s="70" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>IOTC</v>
       </c>
       <c r="AP172" s="70" t="str">
@@ -30107,28 +30128,28 @@
         <v>401</v>
       </c>
       <c r="AW172" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>IOTC</v>
       </c>
       <c r="AX172" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY172" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.3241024000000006</v>
       </c>
     </row>
     <row r="173" spans="1:51">
       <c r="A173" s="45" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>Industry-Other-HVAC - Electricity</v>
       </c>
       <c r="B173" s="45" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>IOTHELC-E</v>
       </c>
       <c r="C173" s="46" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>IOTELC</v>
       </c>
       <c r="D173" s="46" t="str">
@@ -30147,18 +30168,18 @@
         <v>100</v>
       </c>
       <c r="H173" s="60">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>13.125729655801232</v>
       </c>
       <c r="J173" s="61">
         <v>1</v>
       </c>
       <c r="K173" s="60">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1.9194192000000001</v>
       </c>
       <c r="L173" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.7274772800000002</v>
       </c>
       <c r="N173" s="74" t="str">
@@ -30196,11 +30217,11 @@
         <v>0.35</v>
       </c>
       <c r="AH173" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTHELC-E</v>
       </c>
       <c r="AI173" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-HVAC - Electricity</v>
       </c>
       <c r="AJ173" s="70" t="s">
@@ -30216,7 +30237,7 @@
         <v>611</v>
       </c>
       <c r="AO173" s="70" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>IOTH</v>
       </c>
       <c r="AP173" s="70" t="str">
@@ -30236,28 +30257,28 @@
         <v>401</v>
       </c>
       <c r="AW173" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>IOTH</v>
       </c>
       <c r="AX173" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY173" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1.7274772800000002</v>
       </c>
     </row>
     <row r="174" spans="1:51">
       <c r="A174" s="45" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>Industry-Other-Pumping - Electricity</v>
       </c>
       <c r="B174" s="45" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>IOTPELC-E</v>
       </c>
       <c r="C174" s="46" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>IOTELC</v>
       </c>
       <c r="D174" s="46" t="str">
@@ -30276,18 +30297,18 @@
         <v>100</v>
       </c>
       <c r="H174" s="60">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>19.406008583690991</v>
       </c>
       <c r="J174" s="61">
         <v>1</v>
       </c>
       <c r="K174" s="60">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>2.9390400000000003</v>
       </c>
       <c r="L174" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2.3512320000000004</v>
       </c>
       <c r="N174" s="74" t="str">
@@ -30325,11 +30346,11 @@
         <v>0.35</v>
       </c>
       <c r="AH174" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTPELC-E</v>
       </c>
       <c r="AI174" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-Pumping - Electricity</v>
       </c>
       <c r="AJ174" s="70" t="s">
@@ -30345,7 +30366,7 @@
         <v>611</v>
       </c>
       <c r="AO174" s="70" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>IOTP</v>
       </c>
       <c r="AP174" s="70" t="str">
@@ -30365,28 +30386,28 @@
         <v>401</v>
       </c>
       <c r="AW174" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>IOTP</v>
       </c>
       <c r="AX174" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY174" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.3512320000000004</v>
       </c>
     </row>
     <row r="175" spans="1:51">
       <c r="A175" s="45" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>Industry-Other-Fans - Electricity</v>
       </c>
       <c r="B175" s="45" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>IOTFELC-E</v>
       </c>
       <c r="C175" s="46" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>IOTELC</v>
       </c>
       <c r="D175" s="46" t="str">
@@ -30405,18 +30426,18 @@
         <v>100</v>
       </c>
       <c r="H175" s="60">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>9.1531703392155084</v>
       </c>
       <c r="J175" s="61">
         <v>1</v>
       </c>
       <c r="K175" s="60">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1.2513528</v>
       </c>
       <c r="L175" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.0010822400000001</v>
       </c>
       <c r="N175" s="74" t="str">
@@ -30454,11 +30475,11 @@
         <v>0.35</v>
       </c>
       <c r="AH175" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTFELC-E</v>
       </c>
       <c r="AI175" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-Fans - Electricity</v>
       </c>
       <c r="AJ175" s="70" t="s">
@@ -30474,7 +30495,7 @@
         <v>611</v>
       </c>
       <c r="AO175" s="70" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>IOTF</v>
       </c>
       <c r="AP175" s="70" t="str">
@@ -30494,28 +30515,28 @@
         <v>401</v>
       </c>
       <c r="AW175" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>IOTF</v>
       </c>
       <c r="AX175" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY175" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1.0010822400000001</v>
       </c>
     </row>
     <row r="176" spans="1:51">
       <c r="A176" s="45" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>Industry-Other-Other motive - Electricity</v>
       </c>
       <c r="B176" s="45" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>IOTOELC-E</v>
       </c>
       <c r="C176" s="46" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>IOTELC</v>
       </c>
       <c r="D176" s="46" t="str">
@@ -30534,18 +30555,18 @@
         <v>100</v>
       </c>
       <c r="H176" s="60">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>50.992255863017895</v>
       </c>
       <c r="J176" s="61">
         <v>1</v>
       </c>
       <c r="K176" s="60">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>8.3385086400000006</v>
       </c>
       <c r="L176" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>6.6708069120000006</v>
       </c>
       <c r="N176" s="74" t="str">
@@ -30583,11 +30604,11 @@
         <v>0.35</v>
       </c>
       <c r="AH176" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTOELC-E</v>
       </c>
       <c r="AI176" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-Other motive - Electricity</v>
       </c>
       <c r="AJ176" s="70" t="s">
@@ -30603,7 +30624,7 @@
         <v>611</v>
       </c>
       <c r="AO176" s="70" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>IOTO</v>
       </c>
       <c r="AP176" s="70" t="str">
@@ -30623,28 +30644,28 @@
         <v>401</v>
       </c>
       <c r="AW176" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>IOTO</v>
       </c>
       <c r="AX176" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY176" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>6.6708069120000006</v>
       </c>
     </row>
     <row r="177" spans="1:51">
       <c r="A177" s="45" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>Industry-Other-Electrochemical - Electricity</v>
       </c>
       <c r="B177" s="45" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>IOTEELC-E</v>
       </c>
       <c r="C177" s="46" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>IOTELC</v>
       </c>
       <c r="D177" s="46" t="str">
@@ -30670,11 +30691,11 @@
         <v>1</v>
       </c>
       <c r="K177" s="60">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.29435616000000003</v>
       </c>
       <c r="L177" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.22371068160000002</v>
       </c>
       <c r="N177" s="74" t="str">
@@ -30712,11 +30733,11 @@
         <v>0.35</v>
       </c>
       <c r="AH177" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTEELC-E</v>
       </c>
       <c r="AI177" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-Electrochemical - Electricity</v>
       </c>
       <c r="AJ177" s="70" t="s">
@@ -30732,7 +30753,7 @@
         <v>611</v>
       </c>
       <c r="AO177" s="70" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>IOTE</v>
       </c>
       <c r="AP177" s="70" t="str">
@@ -30752,14 +30773,14 @@
         <v>401</v>
       </c>
       <c r="AW177" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>IOTE</v>
       </c>
       <c r="AX177" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY177" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.22371068160000002</v>
       </c>
     </row>
@@ -30834,14 +30855,14 @@
         <v>476</v>
       </c>
       <c r="AW178" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>*</v>
       </c>
       <c r="AX178" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY178" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30851,7 +30872,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B179" s="45" t="str">
-        <f t="shared" ref="B179:B187" si="154">D179&amp;RIGHT(C179,3)&amp;"-E"</f>
+        <f t="shared" ref="B179:B187" si="155">D179&amp;RIGHT(C179,3)&amp;"-E"</f>
         <v>IOTSCOA-E</v>
       </c>
       <c r="C179" s="46" t="str">
@@ -30874,7 +30895,7 @@
         <v>100</v>
       </c>
       <c r="H179" s="60">
-        <f t="shared" ref="H179:H187" si="155">L179/F179</f>
+        <f t="shared" ref="H179:H187" si="156">L179/F179</f>
         <v>421.66072470344204</v>
       </c>
       <c r="J179" s="61">
@@ -30885,11 +30906,11 @@
         <v>101.64</v>
       </c>
       <c r="L179" s="60">
-        <f t="shared" ref="L179:L187" si="156">K179*E179</f>
+        <f t="shared" ref="L179:L187" si="157">K179*E179</f>
         <v>65.049599999999998</v>
       </c>
       <c r="N179" s="78">
-        <f t="shared" ref="N179:N188" si="157">L179/SUMIF($D$81:$D$187,$D179,$L$81:$L$187)</f>
+        <f t="shared" ref="N179:N188" si="158">L179/SUMIF($D$81:$D$187,$D179,$L$81:$L$187)</f>
         <v>0.94916610378800759</v>
       </c>
       <c r="O179" s="168">
@@ -30906,19 +30927,19 @@
       </c>
       <c r="R179" s="168"/>
       <c r="S179" s="78">
-        <f t="shared" ref="S179:S183" si="158">N179</f>
+        <f t="shared" ref="S179:S183" si="159">N179</f>
         <v>0.94916610378800759</v>
       </c>
       <c r="T179" s="77">
-        <f t="shared" ref="T179:V179" si="159">S179*T$75</f>
+        <f t="shared" ref="T179:V179" si="160">S179*T$75</f>
         <v>0.85424949340920686</v>
       </c>
       <c r="U179" s="77">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="V179" s="77">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="W179" s="74"/>
@@ -30948,11 +30969,11 @@
         <v>0.05</v>
       </c>
       <c r="AH179" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTSCOA-E</v>
       </c>
       <c r="AI179" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ179" s="70" t="s">
@@ -30988,14 +31009,14 @@
         <v>401</v>
       </c>
       <c r="AW179" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>IOTS</v>
       </c>
       <c r="AX179" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY179" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>68.533420800000002</v>
       </c>
     </row>
@@ -31005,7 +31026,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B180" s="45" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>IOTSGAS-E</v>
       </c>
       <c r="C180" s="46" t="str">
@@ -31028,7 +31049,7 @@
         <v>100</v>
       </c>
       <c r="H180" s="60">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>21.468853309133337</v>
       </c>
       <c r="J180" s="61">
@@ -31039,40 +31060,40 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L180" s="60">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>3.3119999999999998</v>
       </c>
       <c r="N180" s="78">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>4.8326786571260716E-2</v>
       </c>
       <c r="O180" s="77">
-        <f t="shared" ref="O180:Q182" si="160">MIN(1,$N180+O$75)</f>
+        <f t="shared" ref="O180:Q182" si="161">MIN(1,$N180+O$75)</f>
         <v>0.54832678657126066</v>
       </c>
       <c r="P180" s="77">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1</v>
       </c>
       <c r="Q180" s="77">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1</v>
       </c>
       <c r="R180" s="77"/>
       <c r="S180" s="78">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>4.8326786571260716E-2</v>
       </c>
       <c r="T180" s="77">
-        <f t="shared" ref="T180:V180" si="161">S180*T$75</f>
+        <f t="shared" ref="T180:V180" si="162">S180*T$75</f>
         <v>4.3494107914134647E-2</v>
       </c>
       <c r="U180" s="77">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="V180" s="77">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="W180" s="74"/>
@@ -31102,11 +31123,11 @@
         <v>0</v>
       </c>
       <c r="AH180" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTSGAS-E</v>
       </c>
       <c r="AI180" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ180" s="70" t="s">
@@ -31125,7 +31146,7 @@
         <v>476</v>
       </c>
       <c r="AP180" s="70" t="str">
-        <f t="shared" ref="AP180:AP186" si="162">A180</f>
+        <f t="shared" ref="AP180:AP186" si="163">A180</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ180" s="245" t="s">
@@ -31141,14 +31162,14 @@
         <v>476</v>
       </c>
       <c r="AW180" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>*</v>
       </c>
       <c r="AX180" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY180" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31158,7 +31179,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B181" s="45" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>IOTSOHF-E</v>
       </c>
       <c r="C181" s="46" t="str">
@@ -31181,7 +31202,7 @@
         <v>100</v>
       </c>
       <c r="H181" s="60">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="J181" s="61">
@@ -31192,40 +31213,40 @@
         <v>0</v>
       </c>
       <c r="L181" s="60">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="N181" s="78">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="O181" s="77">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.5</v>
       </c>
       <c r="P181" s="77">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1</v>
       </c>
       <c r="Q181" s="77">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1</v>
       </c>
       <c r="R181" s="77"/>
       <c r="S181" s="78">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="T181" s="77">
-        <f t="shared" ref="T181:V181" si="163">S181*T$75</f>
+        <f t="shared" ref="T181:V181" si="164">S181*T$75</f>
         <v>0</v>
       </c>
       <c r="U181" s="77">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="V181" s="77">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="W181" s="74"/>
@@ -31233,11 +31254,11 @@
       <c r="Z181" s="14"/>
       <c r="AE181" s="13"/>
       <c r="AH181" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTSOHF-E</v>
       </c>
       <c r="AI181" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ181" s="70" t="s">
@@ -31256,7 +31277,7 @@
         <v>476</v>
       </c>
       <c r="AP181" s="70" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ181" s="245" t="s">
@@ -31272,14 +31293,14 @@
         <v>476</v>
       </c>
       <c r="AW181" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>*</v>
       </c>
       <c r="AX181" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY181" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31289,7 +31310,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B182" s="45" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>IOTSOLP-E</v>
       </c>
       <c r="C182" s="46" t="str">
@@ -31312,7 +31333,7 @@
         <v>100</v>
       </c>
       <c r="H182" s="60">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="J182" s="61">
@@ -31323,40 +31344,40 @@
         <v>0</v>
       </c>
       <c r="L182" s="60">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="N182" s="78">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="O182" s="77">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.5</v>
       </c>
       <c r="P182" s="77">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1</v>
       </c>
       <c r="Q182" s="77">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1</v>
       </c>
       <c r="R182" s="77"/>
       <c r="S182" s="78">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="T182" s="77">
-        <f t="shared" ref="T182:V182" si="164">S182*T$75</f>
+        <f t="shared" ref="T182:V182" si="165">S182*T$75</f>
         <v>0</v>
       </c>
       <c r="U182" s="77">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="V182" s="77">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="W182" s="74"/>
@@ -31364,11 +31385,11 @@
       <c r="Z182" s="14"/>
       <c r="AE182" s="13"/>
       <c r="AH182" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTSOLP-E</v>
       </c>
       <c r="AI182" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ182" s="70" t="s">
@@ -31387,7 +31408,7 @@
         <v>476</v>
       </c>
       <c r="AP182" s="70" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ182" s="245" t="s">
@@ -31403,14 +31424,14 @@
         <v>476</v>
       </c>
       <c r="AW182" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>*</v>
       </c>
       <c r="AX182" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY182" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31420,7 +31441,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B183" s="45" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>IOTSELC-E</v>
       </c>
       <c r="C183" s="46" t="str">
@@ -31443,7 +31464,7 @@
         <v>100</v>
       </c>
       <c r="H183" s="60">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1.1137667725416478</v>
       </c>
       <c r="J183" s="61">
@@ -31454,11 +31475,11 @@
         <v>0.22608</v>
       </c>
       <c r="L183" s="60">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.1718208</v>
       </c>
       <c r="N183" s="78">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.5071096407316648E-3</v>
       </c>
       <c r="O183" s="216">
@@ -31474,19 +31495,19 @@
       </c>
       <c r="R183" s="77"/>
       <c r="S183" s="78">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>2.5071096407316648E-3</v>
       </c>
       <c r="T183" s="77">
-        <f t="shared" ref="T183:V183" si="165">S183*T$75</f>
+        <f t="shared" ref="T183:V183" si="166">S183*T$75</f>
         <v>2.2563986766584985E-3</v>
       </c>
       <c r="U183" s="77">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="V183" s="77">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="W183" s="74"/>
@@ -31494,11 +31515,11 @@
       <c r="Z183" s="14"/>
       <c r="AE183" s="13"/>
       <c r="AH183" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTSELC-E</v>
       </c>
       <c r="AI183" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ183" s="70" t="s">
@@ -31517,7 +31538,7 @@
         <v>476</v>
       </c>
       <c r="AP183" s="70" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ183" s="245" t="s">
@@ -31533,14 +31554,14 @@
         <v>476</v>
       </c>
       <c r="AW183" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>*</v>
       </c>
       <c r="AX183" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY183" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31586,7 +31607,7 @@
         <v>0</v>
       </c>
       <c r="N184" s="78">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="O184" s="216">
@@ -31600,19 +31621,19 @@
       </c>
       <c r="R184" s="77"/>
       <c r="S184" s="78">
-        <f t="shared" ref="S184:S188" si="166">N184</f>
+        <f t="shared" ref="S184:S188" si="167">N184</f>
         <v>0</v>
       </c>
       <c r="T184" s="77">
-        <f t="shared" ref="T184:V184" si="167">S184*T$75</f>
+        <f t="shared" ref="T184:V184" si="168">S184*T$75</f>
         <v>0</v>
       </c>
       <c r="U184" s="77">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="V184" s="77">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="W184" s="74"/>
@@ -31620,11 +31641,11 @@
       <c r="Z184" s="14"/>
       <c r="AE184" s="13"/>
       <c r="AH184" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTSELC-N</v>
       </c>
       <c r="AI184" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AJ184" s="70" t="s">
@@ -31643,7 +31664,7 @@
         <v>476</v>
       </c>
       <c r="AP184" s="70" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>Industry-Other-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AQ184" s="245" t="s">
@@ -31659,14 +31680,14 @@
         <v>476</v>
       </c>
       <c r="AW184" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>*</v>
       </c>
       <c r="AX184" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY184" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31710,36 +31731,36 @@
         <v>0</v>
       </c>
       <c r="N185" s="78">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="O185" s="77">
-        <f t="shared" ref="O185:Q188" si="168">MIN(1,$N185+O$75)</f>
+        <f t="shared" ref="O185:Q188" si="169">MIN(1,$N185+O$75)</f>
         <v>0.5</v>
       </c>
       <c r="P185" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="Q185" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="R185" s="77"/>
       <c r="S185" s="78">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="T185" s="77">
-        <f t="shared" ref="T185:V185" si="169">S185*T$75</f>
+        <f t="shared" ref="T185:V185" si="170">S185*T$75</f>
         <v>0</v>
       </c>
       <c r="U185" s="77">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="V185" s="77">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="W185" s="74"/>
@@ -31747,11 +31768,11 @@
       <c r="Z185" s="14"/>
       <c r="AE185" s="13"/>
       <c r="AH185" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTSHGN-E</v>
       </c>
       <c r="AI185" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AJ185" s="70" t="s">
@@ -31770,7 +31791,7 @@
         <v>476</v>
       </c>
       <c r="AP185" s="70" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>Industry-Other-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AQ185" s="245" t="s">
@@ -31786,14 +31807,14 @@
         <v>476</v>
       </c>
       <c r="AW185" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>*</v>
       </c>
       <c r="AX185" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY185" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31826,7 +31847,7 @@
         <v>100</v>
       </c>
       <c r="H186" s="60">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="J186" s="61">
@@ -31837,40 +31858,40 @@
         <v>0</v>
       </c>
       <c r="L186" s="60">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="N186" s="78">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="O186" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.5</v>
       </c>
       <c r="P186" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="Q186" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="R186" s="77"/>
       <c r="S186" s="78">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="T186" s="77">
-        <f t="shared" ref="T186:V186" si="170">S186*T$75</f>
+        <f t="shared" ref="T186:V186" si="171">S186*T$75</f>
         <v>0</v>
       </c>
       <c r="U186" s="77">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="V186" s="77">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="W186" s="74"/>
@@ -31878,11 +31899,11 @@
       <c r="Z186" s="14"/>
       <c r="AE186" s="13"/>
       <c r="AH186" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTSWAS-E</v>
       </c>
       <c r="AI186" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AJ186" s="70" t="s">
@@ -31901,7 +31922,7 @@
         <v>476</v>
       </c>
       <c r="AP186" s="70" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AQ186" s="245" t="s">
@@ -31917,14 +31938,14 @@
         <v>476</v>
       </c>
       <c r="AW186" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>*</v>
       </c>
       <c r="AX186" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY186" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31934,7 +31955,7 @@
         <v>Industry-Other-Transport -  - Existing</v>
       </c>
       <c r="B187" s="45" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>IOTRODS-E</v>
       </c>
       <c r="C187" s="46" t="str">
@@ -31955,7 +31976,7 @@
         <v>100</v>
       </c>
       <c r="H187" s="60">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>4.2</v>
       </c>
       <c r="J187" s="61">
@@ -31966,40 +31987,40 @@
         <v>4.2</v>
       </c>
       <c r="L187" s="60">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>4.2</v>
       </c>
       <c r="N187" s="78">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1</v>
       </c>
       <c r="O187" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="P187" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="Q187" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="R187" s="77"/>
       <c r="S187" s="78">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1</v>
       </c>
       <c r="T187" s="77">
-        <f t="shared" ref="T187:V187" si="171">S187*T$75</f>
+        <f t="shared" ref="T187:V187" si="172">S187*T$75</f>
         <v>0.9</v>
       </c>
       <c r="U187" s="77">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="V187" s="77">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="W187" s="74"/>
@@ -32007,11 +32028,11 @@
       <c r="Z187" s="14"/>
       <c r="AE187" s="13"/>
       <c r="AH187" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTRODS-E</v>
       </c>
       <c r="AI187" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-Transport -  - Existing</v>
       </c>
       <c r="AJ187" s="70" t="s">
@@ -32047,14 +32068,14 @@
         <v>401</v>
       </c>
       <c r="AW187" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>IOTR</v>
       </c>
       <c r="AX187" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY187" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>4.2</v>
       </c>
     </row>
@@ -32099,36 +32120,36 @@
         <v>0</v>
       </c>
       <c r="N188" s="78">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="O188" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.5</v>
       </c>
       <c r="P188" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="Q188" s="77">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="R188" s="77"/>
       <c r="S188" s="78">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="T188" s="77">
-        <f t="shared" ref="T188:V188" si="172">S188*T$75</f>
+        <f t="shared" ref="T188:V188" si="173">S188*T$75</f>
         <v>0</v>
       </c>
       <c r="U188" s="77">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="V188" s="77">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="W188" s="74"/>
@@ -32136,11 +32157,11 @@
       <c r="Z188" s="14"/>
       <c r="AE188" s="13"/>
       <c r="AH188" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>IOTRELC-E</v>
       </c>
       <c r="AI188" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>Industry-Other-Transport -  - New</v>
       </c>
       <c r="AJ188" s="70" t="s">
@@ -32175,14 +32196,14 @@
         <v>476</v>
       </c>
       <c r="AW188" s="72" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>*</v>
       </c>
       <c r="AX188" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AY188" s="266">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -41879,7 +41900,7 @@
       </c>
       <c r="H4" s="98">
         <f ca="1">NOW()</f>
-        <v>43694.700873495371</v>
+        <v>43698.705245717596</v>
       </c>
     </row>
     <row r="5" spans="1:8">

--- a/vt_REGION1_IND-OTH.xlsx
+++ b/vt_REGION1_IND-OTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AADA38-1D33-40E1-966B-6ED8BE62D21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB8599-64D9-4BAB-8297-F5846C63437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
+    <workbookView xWindow="10905" yWindow="225" windowWidth="20625" windowHeight="15435" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="99" r:id="rId1"/>
@@ -1786,7 +1786,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="837">
   <si>
     <t>TimeSlice Version</t>
   </si>
@@ -4400,6 +4400,9 @@
   </si>
   <si>
     <t>~FI_T</t>
+  </si>
+  <si>
+    <t>INDGMU</t>
   </si>
 </sst>
 </file>
@@ -14893,20 +14896,19 @@
       <sheetName val="HDRI scenarios"/>
       <sheetName val="H-DRI literature and calcs"/>
       <sheetName val="Summary Hydrogen DRI new"/>
-      <sheetName val="Summary Hydrogen DRI"/>
-      <sheetName val="HDRI-Items"/>
       <sheetName val="HDRI-TSData"/>
       <sheetName val="HDRI-TIDData"/>
       <sheetName val="IS-Items"/>
       <sheetName val="IS-TSData"/>
       <sheetName val="IS-TIDData"/>
       <sheetName val="Iron &amp; Steel"/>
+      <sheetName val="veda Process def"/>
       <sheetName val="I&amp;S SATIM input"/>
       <sheetName val="Energy Intensity"/>
-      <sheetName val="I&amp;S capacity + production"/>
+      <sheetName val="Methodology Cap &amp; Prod"/>
+      <sheetName val="Coke"/>
       <sheetName val="Energy and Emissions"/>
       <sheetName val="Scrap"/>
-      <sheetName val="Coke"/>
       <sheetName val="TNapp - Opex sheet"/>
       <sheetName val="TNapp - Capex sheet"/>
       <sheetName val="TNapp - I&amp;S intensity"/>
@@ -14917,6 +14919,9 @@
       <sheetName val="Blast furnace JPN info"/>
       <sheetName val="Vereeniging"/>
       <sheetName val="Evraz Highveld"/>
+      <sheetName val="HDRI-Items"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -14958,7 +14963,9 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14967,6 +14974,9 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Log"/>
       <sheetName val="NameConv"/>
@@ -15004,20 +15014,19 @@
       <sheetName val="CommData"/>
       <sheetName val="ITEMS_Comm (jm)"/>
       <sheetName val="AFA"/>
-      <sheetName val="vt_REGION1_IND-NMM"/>
     </sheetNames>
     <definedNames>
       <definedName name="pamsindex" refersTo="='PAMS levers'!$C$3"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8">
         <row r="3">
           <cell r="C3" t="b">
@@ -15030,34 +15039,33 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15972,8 +15980,8 @@
   </sheetPr>
   <dimension ref="A1:AY273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW119" sqref="AW119"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>
@@ -24784,7 +24792,7 @@
         <v>ICPTGMU-E</v>
       </c>
       <c r="C124" s="213" t="s">
-        <v>470</v>
+        <v>836</v>
       </c>
       <c r="D124" s="46" t="str">
         <f>$B$5&amp;RIGHT($B103,2)&amp;$B$71</f>
@@ -41900,7 +41908,7 @@
       </c>
       <c r="H4" s="98">
         <f ca="1">NOW()</f>
-        <v>43698.705245717596</v>
+        <v>43707.464790046295</v>
       </c>
     </row>
     <row r="5" spans="1:8">

--- a/vt_REGION1_IND-OTH.xlsx
+++ b/vt_REGION1_IND-OTH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB8599-64D9-4BAB-8297-F5846C63437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73A52D-18DB-4126-9A4E-67072B0436AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="225" windowWidth="20625" windowHeight="15435" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="99" r:id="rId1"/>
@@ -1153,7 +1153,6 @@
     <author>tc={B9095C67-4FBB-4A94-811E-5F4D0F103E84}</author>
     <author>tc={FD5A7AB5-70B8-41C9-BB14-94B90A8DF78A}</author>
     <author>tc={16AF8BCC-B711-41D6-95BD-A77818D0BEFF}</author>
-    <author>tc={D7AB6710-6B74-42AB-9CE0-DBB75A684CD5}</author>
     <author>tc={5C3E8C51-2AE3-4D71-A4E8-F6F154C651D3}</author>
     <author>tc={053FB0CB-74D1-468D-949E-8F84503664D8}</author>
     <author>tc={88DD101A-68D2-4551-94F4-BB819052EC8C}</author>
@@ -1469,15 +1468,7 @@
     Average of Saygin 2014 and Naegler 2015.</t>
       </text>
     </comment>
-    <comment ref="C124" authorId="15" shapeId="0" xr:uid="{D7AB6710-6B74-42AB-9CE0-DBB75A684CD5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Need to change this to ICPGMU once commodity has been added to RES/topology</t>
-      </text>
-    </comment>
-    <comment ref="K124" authorId="16" shapeId="0" xr:uid="{5C3E8C51-2AE3-4D71-A4E8-F6F154C651D3}">
+    <comment ref="K124" authorId="15" shapeId="0" xr:uid="{5C3E8C51-2AE3-4D71-A4E8-F6F154C651D3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1485,7 +1476,7 @@
     From Gas Balance - used for polymers etc.</t>
       </text>
     </comment>
-    <comment ref="O162" authorId="17" shapeId="0" xr:uid="{053FB0CB-74D1-468D-949E-8F84503664D8}">
+    <comment ref="O162" authorId="16" shapeId="0" xr:uid="{053FB0CB-74D1-468D-949E-8F84503664D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1493,7 +1484,7 @@
     Average of Saygin 2014 and Nagegler 2015</t>
       </text>
     </comment>
-    <comment ref="P184" authorId="18" shapeId="0" xr:uid="{88DD101A-68D2-4551-94F4-BB819052EC8C}">
+    <comment ref="P184" authorId="17" shapeId="0" xr:uid="{88DD101A-68D2-4551-94F4-BB819052EC8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1501,7 +1492,7 @@
     Naegler 2015.</t>
       </text>
     </comment>
-    <comment ref="C188" authorId="19" shapeId="0" xr:uid="{27E55DBF-2AA0-4EE1-B02D-134D0CB5E6D6}">
+    <comment ref="C188" authorId="18" shapeId="0" xr:uid="{27E55DBF-2AA0-4EE1-B02D-134D0CB5E6D6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1786,7 +1777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="839">
   <si>
     <t>TimeSlice Version</t>
   </si>
@@ -4403,6 +4394,12 @@
   </si>
   <si>
     <t>INDGMU</t>
+  </si>
+  <si>
+    <t>NCAP_BND~LO</t>
+  </si>
+  <si>
+    <t>* OTHERS</t>
   </si>
 </sst>
 </file>
@@ -14895,19 +14892,12 @@
       <sheetName val="PAMS and scenarios"/>
       <sheetName val="HDRI scenarios"/>
       <sheetName val="H-DRI literature and calcs"/>
-      <sheetName val="Summary Hydrogen DRI new"/>
-      <sheetName val="HDRI-TSData"/>
-      <sheetName val="HDRI-TIDData"/>
-      <sheetName val="IS-Items"/>
-      <sheetName val="IS-TSData"/>
-      <sheetName val="IS-TIDData"/>
-      <sheetName val="Iron &amp; Steel"/>
-      <sheetName val="veda Process def"/>
-      <sheetName val="I&amp;S SATIM input"/>
-      <sheetName val="Energy Intensity"/>
-      <sheetName val="Methodology Cap &amp; Prod"/>
+      <sheetName val="Summary Hydrogen DRI old"/>
+      <sheetName val="Iron and Steel input"/>
+      <sheetName val="Energy Calibration"/>
+      <sheetName val="Energy and Emissions"/>
+      <sheetName val="Capacity &amp; Production"/>
       <sheetName val="Coke"/>
-      <sheetName val="Energy and Emissions"/>
       <sheetName val="Scrap"/>
       <sheetName val="TNapp - Opex sheet"/>
       <sheetName val="TNapp - Capex sheet"/>
@@ -14919,9 +14909,16 @@
       <sheetName val="Blast furnace JPN info"/>
       <sheetName val="Vereeniging"/>
       <sheetName val="Evraz Highveld"/>
-      <sheetName val="HDRI-Items"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Summary Hydrogen DRI new"/>
+      <sheetName val="HDRI-TSData"/>
+      <sheetName val="HDRI-TIDData"/>
+      <sheetName val="IS-Items"/>
+      <sheetName val="IS-TSData"/>
+      <sheetName val="IS-TIDData"/>
+      <sheetName val="Iron &amp; Steel"/>
+      <sheetName val="veda Process def"/>
+      <sheetName val="I&amp;S SATIM input"/>
+      <sheetName val="Energy Intensity"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -14956,13 +14953,13 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
       <sheetData sheetId="28" refreshError="1"/>
       <sheetData sheetId="29" refreshError="1"/>
       <sheetData sheetId="30" refreshError="1"/>
@@ -14983,9 +14980,7 @@
       <sheetName val="G61 info data and lit"/>
       <sheetName val="G61 Scenarios Modelled"/>
       <sheetName val="G61 Plant Data"/>
-      <sheetName val="Production and Capacity"/>
-      <sheetName val="Age of cement kilns"/>
-      <sheetName val="NetZero levers"/>
+      <sheetName val="Capacity and ages -cement"/>
       <sheetName val="PAMS levers"/>
       <sheetName val="Data for SATIM"/>
       <sheetName val="NMM-TSData"/>
@@ -14994,40 +14989,42 @@
       <sheetName val="2017 inputs to SATIM"/>
       <sheetName val="NMM data"/>
       <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="ClinkerSubstitution"/>
       <sheetName val="Cement Methodology"/>
+      <sheetName val="INPUT - com defs"/>
+      <sheetName val="INPUT proc defs"/>
+      <sheetName val="INPUT - cement"/>
+      <sheetName val="Bricks methodology"/>
+      <sheetName val="Glass methodology"/>
+      <sheetName val="Lime methodology"/>
+      <sheetName val="INPUT - lime"/>
+      <sheetName val="IND_NMM_2017_Dummy_processes "/>
+      <sheetName val="ITEMS_Comm_Grp"/>
+      <sheetName val="Production and Capacity"/>
+      <sheetName val="Age of cement kilns"/>
+      <sheetName val="NetZero levers"/>
       <sheetName val="RES (Cement)"/>
       <sheetName val="IND_NMM_2017_Cement"/>
       <sheetName val="Bricks&amp;Ceramics methodology"/>
       <sheetName val="RES (Brick&amp;Ceramics)"/>
       <sheetName val="IND_NMM_2017_Bricks&amp;Ceramics"/>
-      <sheetName val="Glass methodology"/>
       <sheetName val="RES (Glass)"/>
       <sheetName val="IND_NMM_2017_Glass"/>
-      <sheetName val="Lime methodology"/>
       <sheetName val="RES (Lime)"/>
-      <sheetName val="IND_NMM_2017_Lime"/>
-      <sheetName val="IND_NMM_2017_Dummy_processes "/>
-      <sheetName val="REGIONS"/>
-      <sheetName val="ITEMS_Tech (jm)"/>
-      <sheetName val="Constraints (jm)"/>
-      <sheetName val="ITEMS_Comm_Grp"/>
-      <sheetName val="CommData"/>
-      <sheetName val="ITEMS_Comm (jm)"/>
-      <sheetName val="AFA"/>
+      <sheetName val="vt_REGION1_IND-NMM"/>
     </sheetNames>
     <definedNames>
       <definedName name="pamsindex" refersTo="='PAMS levers'!$C$3"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
         <row r="3">
           <cell r="C3" t="b">
             <v>0</v>
@@ -15039,23 +15036,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
       <sheetData sheetId="26" refreshError="1"/>
       <sheetData sheetId="27" refreshError="1"/>
       <sheetData sheetId="28" refreshError="1"/>
@@ -15066,6 +15065,8 @@
       <sheetData sheetId="33" refreshError="1"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15102,11 +15103,11 @@
       <sheetName val="ITEMS_Comm_BASE_JM "/>
       <sheetName val="CommData_BASE_JM"/>
       <sheetName val="ITEM_Tech_BASE_JM "/>
+      <sheetName val="ITEMS_P&amp;P_Constraints_JM"/>
       <sheetName val="Plants&amp;boilers_JM "/>
       <sheetName val="ProcData_Xtechs_JM"/>
       <sheetName val="ProcData_CHP_JM"/>
       <sheetName val="ITEMS_GRP_P&amp;P_JM"/>
-      <sheetName val="ITEMS_P&amp;P_Constraints_JM"/>
       <sheetName val="ITEMS_Emiss_JM"/>
       <sheetName val="Links to constraints"/>
       <sheetName val="GPS Coordinates"/>
@@ -15822,9 +15823,6 @@
   <threadedComment ref="O120" dT="2021-07-29T13:22:02.99" personId="{AFD984B0-7FCA-4548-946E-FA56C0C853B8}" id="{16AF8BCC-B711-41D6-95BD-A77818D0BEFF}">
     <text>Average of Saygin 2014 and Naegler 2015.</text>
   </threadedComment>
-  <threadedComment ref="C124" dT="2021-04-09T13:42:04.07" personId="{AFD984B0-7FCA-4548-946E-FA56C0C853B8}" id="{D7AB6710-6B74-42AB-9CE0-DBB75A684CD5}">
-    <text>Need to change this to ICPGMU once commodity has been added to RES/topology</text>
-  </threadedComment>
   <threadedComment ref="K124" dT="2022-02-22T10:46:57.65" personId="{AFD984B0-7FCA-4548-946E-FA56C0C853B8}" id="{5C3E8C51-2AE3-4D71-A4E8-F6F154C651D3}">
     <text>From Gas Balance - used for polymers etc.</text>
   </threadedComment>
@@ -15980,8 +15978,8 @@
   </sheetPr>
   <dimension ref="A1:AY273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>
@@ -19591,7 +19589,7 @@
         <v>479</v>
       </c>
       <c r="I77" s="53" t="s">
-        <v>614</v>
+        <v>837</v>
       </c>
       <c r="J77" s="53" t="s">
         <v>614</v>
@@ -19701,6 +19699,9 @@
       </c>
       <c r="H78" s="252" t="s">
         <v>445</v>
+      </c>
+      <c r="I78" s="80" t="s">
+        <v>837</v>
       </c>
       <c r="J78" s="252" t="s">
         <v>446</v>
@@ -19955,6 +19956,9 @@
         <f>L81/F81</f>
         <v>13.542964750288228</v>
       </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
       <c r="J81" s="61">
         <v>1</v>
       </c>
@@ -20067,6 +20071,9 @@
         <f t="shared" ref="H82:H89" si="32">L82/F82</f>
         <v>6.2097168769758557</v>
       </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
       <c r="J82" s="61">
         <v>1</v>
       </c>
@@ -20196,6 +20203,9 @@
         <f t="shared" si="32"/>
         <v>8.391391673487</v>
       </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
       <c r="J83" s="61">
         <v>1</v>
       </c>
@@ -20325,6 +20335,9 @@
         <f>L84/F84</f>
         <v>97.017316649008464</v>
       </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
       <c r="J84" s="61">
         <v>1</v>
       </c>
@@ -20454,6 +20467,9 @@
         <f t="shared" si="32"/>
         <v>42.353330108970681</v>
       </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
       <c r="J85" s="61">
         <v>1</v>
       </c>
@@ -20583,6 +20599,9 @@
         <f t="shared" si="32"/>
         <v>91.435770260408859</v>
       </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
       <c r="J86" s="61">
         <v>1</v>
       </c>
@@ -20712,6 +20731,9 @@
         <f t="shared" si="32"/>
         <v>39.001027897861803</v>
       </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
       <c r="J87" s="61">
         <v>1</v>
       </c>
@@ -20841,6 +20863,9 @@
         <f t="shared" si="32"/>
         <v>159.98815259718481</v>
       </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
       <c r="J88" s="61">
         <v>1</v>
       </c>
@@ -20969,6 +20994,9 @@
       <c r="H89" s="60">
         <f t="shared" si="32"/>
         <v>1.0226501154333834</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
       </c>
       <c r="J89" s="61">
         <v>1</v>
@@ -21173,6 +21201,9 @@
         <f t="shared" ref="H91:H98" si="44">L91/F91</f>
         <v>158.26382316717445</v>
       </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
       <c r="J91" s="61">
         <v>1</v>
       </c>
@@ -21327,6 +21358,9 @@
       <c r="H92" s="60">
         <f t="shared" si="44"/>
         <v>4.6671420237246384</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
       </c>
       <c r="J92" s="61">
         <v>1</v>
@@ -21460,6 +21494,9 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
       <c r="J93" s="61">
         <v>1</v>
       </c>
@@ -21591,6 +21628,9 @@
         <f t="shared" si="44"/>
         <v>0.63406489401698329</v>
       </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
       <c r="J94" s="61">
         <v>1</v>
       </c>
@@ -21722,6 +21762,9 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
       <c r="J95" s="61">
         <v>1</v>
       </c>
@@ -21850,6 +21893,9 @@
       <c r="H96" s="60">
         <v>0</v>
       </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
       <c r="J96" s="61">
         <v>1</v>
       </c>
@@ -21974,6 +22020,9 @@
       <c r="H97" s="60">
         <v>0</v>
       </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
       <c r="J97" s="61">
         <v>1</v>
       </c>
@@ -22102,6 +22151,9 @@
       </c>
       <c r="H98" s="60">
         <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" s="61">
@@ -22288,6 +22340,9 @@
         <f>L100/F100</f>
         <v>25.406351025250526</v>
       </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
       <c r="J100" s="61">
         <v>1</v>
       </c>
@@ -22416,6 +22471,9 @@
       </c>
       <c r="H101" s="60">
         <f>L101/F101</f>
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" s="61">
@@ -22701,6 +22759,9 @@
         <f>L105/F105</f>
         <v>7.0775824368057387</v>
       </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
       <c r="J105" s="61">
         <v>1</v>
       </c>
@@ -22808,6 +22869,9 @@
         <f t="shared" ref="H106:H113" si="75">L106/F106</f>
         <v>2.6192706085455337</v>
       </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
       <c r="J106" s="61">
         <v>1</v>
       </c>
@@ -22915,6 +22979,9 @@
         <f t="shared" si="75"/>
         <v>3.8980971497390611</v>
       </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
       <c r="J107" s="61">
         <v>1</v>
       </c>
@@ -23022,6 +23089,9 @@
         <f t="shared" si="75"/>
         <v>31.228002469898119</v>
       </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
       <c r="J108" s="61">
         <v>1</v>
       </c>
@@ -23129,6 +23199,9 @@
         <f t="shared" si="75"/>
         <v>5.5334852974697979</v>
       </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
       <c r="J109" s="61">
         <v>1</v>
       </c>
@@ -23236,6 +23309,9 @@
         <f t="shared" si="75"/>
         <v>93.500495212941573</v>
       </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
       <c r="J110" s="61">
         <v>1</v>
       </c>
@@ -23343,6 +23419,9 @@
         <f t="shared" si="75"/>
         <v>23.675377160098755</v>
       </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
       <c r="J111" s="61">
         <v>1</v>
       </c>
@@ -23450,6 +23529,9 @@
         <f t="shared" si="75"/>
         <v>49.483565204097246</v>
       </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
       <c r="J112" s="61">
         <v>1</v>
       </c>
@@ -23557,6 +23639,9 @@
         <f t="shared" si="75"/>
         <v>18.589187636968187</v>
       </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
       <c r="J113" s="61">
         <v>1</v>
       </c>
@@ -23716,8 +23801,11 @@
         <v>100</v>
       </c>
       <c r="H115" s="60">
-        <f t="shared" ref="H115:H122" si="79">L115/F115</f>
+        <f t="shared" ref="H115:H124" si="79">L115/F115</f>
         <v>101.08822194853181</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
       </c>
       <c r="J115" s="61">
         <v>1</v>
@@ -23851,6 +23939,9 @@
         <f t="shared" si="79"/>
         <v>17.22175406754392</v>
       </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
       <c r="J116" s="61">
         <v>1</v>
       </c>
@@ -23982,6 +24073,9 @@
         <f t="shared" si="79"/>
         <v>4.8486419913139311</v>
       </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
       <c r="J117" s="61">
         <v>1</v>
       </c>
@@ -24113,6 +24207,9 @@
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
       <c r="J118" s="61">
         <v>1</v>
       </c>
@@ -24244,6 +24341,9 @@
         <f t="shared" si="79"/>
         <v>1.9931833797886827</v>
       </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
       <c r="J119" s="61">
         <v>1</v>
       </c>
@@ -24374,6 +24474,9 @@
       <c r="H120" s="60">
         <v>0</v>
       </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
       <c r="J120" s="61">
         <v>1</v>
       </c>
@@ -24498,6 +24601,9 @@
       <c r="H121" s="60">
         <v>0</v>
       </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
       <c r="J121" s="61">
         <v>1</v>
       </c>
@@ -24626,6 +24732,9 @@
       </c>
       <c r="H122" s="60">
         <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" s="61">
@@ -24808,8 +24917,11 @@
         <v>100</v>
       </c>
       <c r="H124" s="60">
-        <f>L124/F124</f>
+        <f t="shared" si="79"/>
         <v>26.6</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
       </c>
       <c r="J124" s="61">
         <f>1-J116</f>
@@ -25117,6 +25229,9 @@
         <f>L128/F128</f>
         <v>0.88016637514453411</v>
       </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
       <c r="J128" s="61">
         <v>1</v>
       </c>
@@ -25224,6 +25339,9 @@
         <f t="shared" ref="H129:H136" si="100">L129/F129</f>
         <v>0</v>
       </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
       <c r="J129" s="61">
         <v>1</v>
       </c>
@@ -25331,6 +25449,9 @@
         <f t="shared" si="100"/>
         <v>0.24238319149805199</v>
       </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
       <c r="J130" s="61">
         <v>1</v>
       </c>
@@ -25438,6 +25559,9 @@
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
       <c r="J131" s="61">
         <v>1</v>
       </c>
@@ -25545,6 +25669,9 @@
         <f t="shared" si="100"/>
         <v>0.68814284251384494</v>
       </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
       <c r="J132" s="61">
         <v>1</v>
       </c>
@@ -25652,6 +25779,9 @@
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
       <c r="J133" s="61">
         <v>1</v>
       </c>
@@ -25759,6 +25889,9 @@
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
       <c r="J134" s="61">
         <v>1</v>
       </c>
@@ -25866,6 +25999,9 @@
         <f t="shared" si="100"/>
         <v>4.307634622791146</v>
       </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
       <c r="J135" s="61">
         <v>1</v>
       </c>
@@ -25973,6 +26109,9 @@
         <f t="shared" si="100"/>
         <v>52.014300931359337</v>
       </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
       <c r="J136" s="61">
         <v>1</v>
       </c>
@@ -26136,6 +26275,9 @@
         <f t="shared" ref="H138:H143" si="104">L138/F138</f>
         <v>1.8710053801776108</v>
       </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
       <c r="J138" s="61">
         <v>1</v>
       </c>
@@ -26268,6 +26410,9 @@
         <f t="shared" si="104"/>
         <v>10.519738121475335</v>
       </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
       <c r="J139" s="61">
         <v>1</v>
       </c>
@@ -26399,6 +26544,9 @@
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
       <c r="J140" s="61">
         <v>1</v>
       </c>
@@ -26530,6 +26678,9 @@
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
       <c r="J141" s="61">
         <v>1</v>
       </c>
@@ -26661,6 +26812,9 @@
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
       <c r="J142" s="61">
         <v>1</v>
       </c>
@@ -26790,6 +26944,9 @@
       </c>
       <c r="H143" s="60">
         <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" s="61">
@@ -27110,6 +27267,9 @@
         <f>L147/F147</f>
         <v>9.1545526108632913</v>
       </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
       <c r="J147" s="61">
         <v>1</v>
       </c>
@@ -27217,6 +27377,9 @@
         <f t="shared" ref="H148:H155" si="121">L148/F148</f>
         <v>0.25812688821752272</v>
       </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
       <c r="J148" s="61">
         <v>1</v>
       </c>
@@ -27346,6 +27509,9 @@
         <f t="shared" si="121"/>
         <v>1.8007226013649138</v>
       </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
       <c r="J149" s="61">
         <v>1</v>
       </c>
@@ -27475,6 +27641,9 @@
         <f t="shared" si="121"/>
         <v>53.086755171349182</v>
       </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
       <c r="J150" s="61">
         <v>1</v>
       </c>
@@ -27604,6 +27773,9 @@
         <f t="shared" si="121"/>
         <v>6.1348529746979708</v>
       </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
       <c r="J151" s="61">
         <v>1</v>
       </c>
@@ -27733,6 +27905,9 @@
         <f t="shared" si="121"/>
         <v>27.643182568504457</v>
       </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
       <c r="J152" s="61">
         <v>1</v>
       </c>
@@ -27862,6 +28037,9 @@
         <f t="shared" si="121"/>
         <v>4.3747279875651461</v>
       </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
       <c r="J153" s="61">
         <v>1</v>
       </c>
@@ -27991,6 +28169,9 @@
         <f t="shared" si="121"/>
         <v>19.201467665494576</v>
       </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
       <c r="J154" s="61">
         <v>1</v>
       </c>
@@ -28120,6 +28301,9 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
       <c r="J155" s="61">
         <v>1</v>
       </c>
@@ -28327,6 +28511,9 @@
         <f t="shared" ref="H157:H165" si="126">L157/F157</f>
         <v>67.505542231153186</v>
       </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
       <c r="J157" s="61">
         <v>1</v>
       </c>
@@ -28480,6 +28667,9 @@
       <c r="H158" s="60">
         <f t="shared" si="126"/>
         <v>34.377369400037274</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
       </c>
       <c r="J158" s="61">
         <v>1</v>
@@ -28612,6 +28802,9 @@
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
       <c r="J159" s="61">
         <v>1</v>
       </c>
@@ -28743,6 +28936,9 @@
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
       <c r="J160" s="61">
         <v>1</v>
       </c>
@@ -28874,6 +29070,9 @@
         <f t="shared" si="126"/>
         <v>1.4731989369287615</v>
       </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
       <c r="J161" s="61">
         <v>1</v>
       </c>
@@ -29004,6 +29203,9 @@
       <c r="H162" s="60">
         <v>0</v>
       </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
       <c r="J162" s="61">
         <v>1</v>
       </c>
@@ -29128,6 +29330,9 @@
       <c r="H163" s="60">
         <v>0</v>
       </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
       <c r="J163" s="61">
         <v>1</v>
       </c>
@@ -29258,6 +29463,9 @@
         <f t="shared" si="126"/>
         <v>159.46068581059183</v>
       </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
       <c r="J164" s="61">
         <v>1</v>
       </c>
@@ -29389,6 +29597,9 @@
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
       <c r="J165" s="61">
         <v>1</v>
       </c>
@@ -29490,7 +29701,7 @@
     </row>
     <row r="166" spans="1:51" ht="51.95" customHeight="1" thickBot="1">
       <c r="A166" s="244" t="s">
-        <v>620</v>
+        <v>838</v>
       </c>
       <c r="B166" s="252"/>
       <c r="C166" s="252"/>
@@ -29707,6 +29918,9 @@
         <f>L169/F169</f>
         <v>19.082235633691948</v>
       </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
       <c r="J169" s="61">
         <v>1</v>
       </c>
@@ -29814,6 +30028,9 @@
         <f t="shared" ref="H170:H176" si="152">L170/F170</f>
         <v>1.0664887354337507</v>
       </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
       <c r="J170" s="61">
         <v>1</v>
       </c>
@@ -29921,6 +30138,9 @@
         <f t="shared" si="152"/>
         <v>4.3945377759935766</v>
       </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
       <c r="J171" s="61">
         <v>1</v>
       </c>
@@ -30050,6 +30270,9 @@
         <f t="shared" si="152"/>
         <v>17.938425439950606</v>
       </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
       <c r="J172" s="61">
         <v>1</v>
       </c>
@@ -30179,6 +30402,9 @@
         <f t="shared" si="152"/>
         <v>13.125729655801232</v>
       </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
       <c r="J173" s="61">
         <v>1</v>
       </c>
@@ -30308,6 +30534,9 @@
         <f t="shared" si="152"/>
         <v>19.406008583690991</v>
       </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
       <c r="J174" s="61">
         <v>1</v>
       </c>
@@ -30437,6 +30666,9 @@
         <f t="shared" si="152"/>
         <v>9.1531703392155084</v>
       </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
       <c r="J175" s="61">
         <v>1</v>
       </c>
@@ -30566,6 +30798,9 @@
         <f t="shared" si="152"/>
         <v>50.992255863017895</v>
       </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
       <c r="J176" s="61">
         <v>1</v>
       </c>
@@ -30695,6 +30930,9 @@
         <f>L177/F177</f>
         <v>1.6905515121287691</v>
       </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
       <c r="J177" s="61">
         <v>1</v>
       </c>
@@ -30906,6 +31144,9 @@
         <f t="shared" ref="H179:H187" si="156">L179/F179</f>
         <v>421.66072470344204</v>
       </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
       <c r="J179" s="61">
         <v>1</v>
       </c>
@@ -31060,6 +31301,9 @@
         <f t="shared" si="156"/>
         <v>21.468853309133337</v>
       </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
       <c r="J180" s="61">
         <v>1</v>
       </c>
@@ -31211,6 +31455,9 @@
       </c>
       <c r="H181" s="60">
         <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" s="61">
@@ -31344,6 +31591,9 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
       <c r="J182" s="61">
         <v>1</v>
       </c>
@@ -31475,6 +31725,9 @@
         <f t="shared" si="156"/>
         <v>1.1137667725416478</v>
       </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
       <c r="J183" s="61">
         <v>1</v>
       </c>
@@ -31604,6 +31857,9 @@
       <c r="H184" s="60">
         <v>0</v>
       </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
       <c r="J184" s="61">
         <v>1</v>
       </c>
@@ -31728,6 +31984,9 @@
       <c r="H185" s="60">
         <v>0</v>
       </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
       <c r="J185" s="61">
         <v>1</v>
       </c>
@@ -31858,6 +32117,9 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
       <c r="J186" s="61">
         <v>1</v>
       </c>
@@ -31987,6 +32249,9 @@
         <f t="shared" si="156"/>
         <v>4.2</v>
       </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
       <c r="J187" s="61">
         <v>1</v>
       </c>
@@ -32115,6 +32380,9 @@
       </c>
       <c r="H188" s="60">
         <f>L188/F188</f>
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>0</v>
       </c>
       <c r="J188" s="61">
@@ -41908,7 +42176,7 @@
       </c>
       <c r="H4" s="98">
         <f ca="1">NOW()</f>
-        <v>43707.464790046295</v>
+        <v>43715.596303356484</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -48419,7 +48687,7 @@
   </sheetPr>
   <dimension ref="A1:AX271"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L108" sqref="A102:L108"/>
     </sheetView>
   </sheetViews>

--- a/vt_REGION1_IND-OTH.xlsx
+++ b/vt_REGION1_IND-OTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73A52D-18DB-4126-9A4E-67072B0436AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B466046-126A-41D7-95BD-3022024685D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
   </bookViews>
@@ -15978,8 +15978,8 @@
   </sheetPr>
   <dimension ref="A1:AY273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82:E83"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>
@@ -42176,7 +42176,7 @@
       </c>
       <c r="H4" s="98">
         <f ca="1">NOW()</f>
-        <v>43715.596303356484</v>
+        <v>43727.434962037034</v>
       </c>
     </row>
     <row r="5" spans="1:8">

--- a/vt_REGION1_IND-OTH.xlsx
+++ b/vt_REGION1_IND-OTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B466046-126A-41D7-95BD-3022024685D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1764753D-7C9C-4A77-9C55-F1EC4FF463FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
+    <workbookView xWindow="-5340" yWindow="-21720" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="99" r:id="rId1"/>
@@ -14989,15 +14989,15 @@
       <sheetName val="2017 inputs to SATIM"/>
       <sheetName val="NMM data"/>
       <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="INPUT - com defs"/>
+      <sheetName val="INPUT proc defs"/>
       <sheetName val="ClinkerSubstitution"/>
       <sheetName val="Cement Methodology"/>
-      <sheetName val="INPUT - com defs"/>
-      <sheetName val="INPUT proc defs"/>
       <sheetName val="INPUT - cement"/>
       <sheetName val="Bricks methodology"/>
       <sheetName val="Glass methodology"/>
       <sheetName val="Lime methodology"/>
+      <sheetName val="Sheet2"/>
       <sheetName val="INPUT - lime"/>
       <sheetName val="IND_NMM_2017_Dummy_processes "/>
       <sheetName val="ITEMS_Comm_Grp"/>
@@ -15051,10 +15051,10 @@
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
       <sheetData sheetId="26" refreshError="1"/>
       <sheetData sheetId="27" refreshError="1"/>
       <sheetData sheetId="28" refreshError="1"/>
@@ -15186,6 +15186,8 @@
       <sheetName val="ANSv2-692-ProcData"/>
       <sheetName val="ProcData_F_Mn_Cr - PAMS"/>
       <sheetName val="NetZero work"/>
+      <sheetName val="Chrome methodology"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="Production and Capacity"/>
       <sheetName val="RES of chrome industry with EE"/>
       <sheetName val="ANSv2-692-ConstrData"/>
@@ -15196,7 +15198,6 @@
       <sheetName val="ANSv2-692-TS TRADE"/>
       <sheetName val="ANSv2-692-TID TRADE"/>
       <sheetName val="ANSv2-692-TS&amp;TID TRADE"/>
-      <sheetName val="vt_REGION1_IND-FA"/>
     </sheetNames>
     <definedNames>
       <definedName name="FA_PAMS_index" refersTo="='Index'!$J$5"/>
@@ -15242,7 +15243,8 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15978,8 +15980,8 @@
   </sheetPr>
   <dimension ref="A1:AY273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>
@@ -21748,8 +21750,8 @@
         <v>IMIS</v>
       </c>
       <c r="E95" s="58">
-        <f>Methodology!C44</f>
-        <v>0.6</v>
+        <f>Methodology!C27</f>
+        <v>0.76</v>
       </c>
       <c r="F95" s="60">
         <f>SUMIF(AFA!$C$3:$L$3,RIGHT(D95,1),AFA!$C$4:$L$4)</f>
@@ -42176,7 +42178,7 @@
       </c>
       <c r="H4" s="98">
         <f ca="1">NOW()</f>
-        <v>43727.434962037034</v>
+        <v>43741.375756597219</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -46324,7 +46326,7 @@
   </sheetPr>
   <dimension ref="B1:AE103"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>

--- a/vt_REGION1_IND-OTH.xlsx
+++ b/vt_REGION1_IND-OTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAFD61B-8BB1-40C5-9570-D4A2CC46998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34353FE8-7F9C-4EEA-9C35-33448AE7739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="99" r:id="rId1"/>
@@ -15941,10 +15941,10 @@
     <tabColor theme="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AQ190"/>
+  <dimension ref="A1:AU190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O165" sqref="O165"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>
@@ -18933,7 +18933,7 @@
       <c r="N64" s="2"/>
       <c r="AM64" s="72"/>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:47">
       <c r="A65" s="65" t="str">
         <f>$A$35</f>
         <v>HVAC</v>
@@ -18989,7 +18989,7 @@
       <c r="N65" s="2"/>
       <c r="AM65" s="254"/>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:47">
       <c r="A66" s="65" t="str">
         <f>$A$36</f>
         <v>Pumping</v>
@@ -19045,7 +19045,7 @@
       <c r="N66" s="2"/>
       <c r="AM66" s="254"/>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:47">
       <c r="A67" s="65" t="str">
         <f>$A$37</f>
         <v>Fans</v>
@@ -19100,7 +19100,7 @@
       </c>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:47">
       <c r="A68" s="65" t="str">
         <f>$A$38</f>
         <v>Other motive</v>
@@ -19155,7 +19155,7 @@
       </c>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:47">
       <c r="A69" s="65" t="str">
         <f>$A$39</f>
         <v>Electrochemical</v>
@@ -19210,7 +19210,7 @@
       </c>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:47">
       <c r="A70" s="143" t="str">
         <f>$A$40</f>
         <v>boiler/process heating</v>
@@ -19265,7 +19265,7 @@
       </c>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:47">
       <c r="A71" s="65" t="str">
         <f>A41</f>
         <v>Non-Energy Use</v>
@@ -19285,7 +19285,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:47">
       <c r="A72" s="65" t="str">
         <f>A42</f>
         <v>Transport</v>
@@ -19305,7 +19305,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:47">
       <c r="A73" s="49" t="str">
         <f>A58</f>
         <v>Total</v>
@@ -19360,7 +19360,7 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:47">
       <c r="A74" s="50"/>
       <c r="B74" s="51"/>
       <c r="C74" s="52"/>
@@ -19384,7 +19384,7 @@
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" spans="1:43" ht="12.75" customHeight="1">
+    <row r="75" spans="1:47" ht="12.75" customHeight="1">
       <c r="A75" s="62"/>
       <c r="B75" s="63"/>
       <c r="C75" s="43"/>
@@ -19419,30 +19419,30 @@
       <c r="V75" s="2">
         <v>0</v>
       </c>
-      <c r="Z75" s="255" t="s">
+      <c r="AD75" s="255" t="s">
         <v>833</v>
       </c>
-      <c r="AA75" s="256"/>
-      <c r="AB75" s="256"/>
-      <c r="AC75" s="256"/>
-      <c r="AD75" s="256"/>
       <c r="AE75" s="256"/>
-      <c r="AG75" s="259" t="s">
-        <v>622</v>
-      </c>
+      <c r="AF75" s="256"/>
+      <c r="AG75" s="256"/>
       <c r="AH75" s="256"/>
       <c r="AI75" s="256"/>
-      <c r="AJ75" s="256"/>
-      <c r="AK75" s="256"/>
+      <c r="AK75" s="259" t="s">
+        <v>622</v>
+      </c>
       <c r="AL75" s="256"/>
-      <c r="AN75" s="259" t="s">
+      <c r="AM75" s="256"/>
+      <c r="AN75" s="256"/>
+      <c r="AO75" s="256"/>
+      <c r="AP75" s="256"/>
+      <c r="AR75" s="259" t="s">
         <v>834</v>
       </c>
-      <c r="AO75" s="259"/>
-      <c r="AP75" s="259"/>
-      <c r="AQ75" s="259"/>
-    </row>
-    <row r="76" spans="1:43" ht="15">
+      <c r="AS75" s="259"/>
+      <c r="AT75" s="259"/>
+      <c r="AU75" s="259"/>
+    </row>
+    <row r="76" spans="1:47" ht="15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="36"/>
@@ -19470,55 +19470,54 @@
       <c r="U76" s="74"/>
       <c r="V76" s="74"/>
       <c r="W76" s="74"/>
-      <c r="X76" s="74"/>
-      <c r="Z76" s="257" t="s">
+      <c r="AD76" s="257" t="s">
         <v>431</v>
       </c>
-      <c r="AA76" s="257" t="s">
+      <c r="AE76" s="257" t="s">
         <v>430</v>
       </c>
-      <c r="AB76" s="257" t="s">
+      <c r="AF76" s="257" t="s">
         <v>606</v>
       </c>
-      <c r="AC76" s="257" t="s">
+      <c r="AG76" s="257" t="s">
         <v>607</v>
       </c>
-      <c r="AD76" s="257" t="s">
+      <c r="AH76" s="257" t="s">
         <v>608</v>
       </c>
-      <c r="AE76" s="257" t="s">
+      <c r="AI76" s="257" t="s">
         <v>609</v>
       </c>
-      <c r="AG76" s="257" t="s">
+      <c r="AK76" s="257" t="s">
         <v>485</v>
       </c>
-      <c r="AH76" s="257" t="s">
+      <c r="AL76" s="257" t="s">
         <v>486</v>
       </c>
-      <c r="AI76" s="257" t="s">
+      <c r="AM76" s="257" t="s">
         <v>487</v>
       </c>
-      <c r="AJ76" s="257" t="s">
+      <c r="AN76" s="257" t="s">
         <v>623</v>
       </c>
-      <c r="AK76" s="257" t="s">
+      <c r="AO76" s="257" t="s">
         <v>624</v>
       </c>
-      <c r="AL76" s="257"/>
-      <c r="AN76" s="259" t="s">
+      <c r="AP76" s="257"/>
+      <c r="AR76" s="259" t="s">
         <v>625</v>
       </c>
-      <c r="AO76" s="259" t="s">
+      <c r="AS76" s="259" t="s">
         <v>485</v>
       </c>
-      <c r="AP76" s="259" t="s">
+      <c r="AT76" s="259" t="s">
         <v>626</v>
       </c>
-      <c r="AQ76" s="259">
+      <c r="AU76" s="259">
         <v>2017</v>
       </c>
     </row>
-    <row r="77" spans="1:43" ht="38.25">
+    <row r="77" spans="1:47" ht="38.25">
       <c r="A77" s="53" t="s">
         <v>430</v>
       </c>
@@ -19596,36 +19595,35 @@
       <c r="W77" s="53" t="s">
         <v>614</v>
       </c>
-      <c r="X77" s="74"/>
-      <c r="Z77" s="72" t="s">
+      <c r="AD77" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AA77" s="72"/>
-      <c r="AB77" s="72"/>
-      <c r="AC77" s="72"/>
-      <c r="AD77" s="72"/>
       <c r="AE77" s="72"/>
-      <c r="AG77" s="72" t="s">
-        <v>476</v>
-      </c>
+      <c r="AF77" s="72"/>
+      <c r="AG77" s="72"/>
       <c r="AH77" s="72"/>
       <c r="AI77" s="72"/>
-      <c r="AJ77" s="72"/>
-      <c r="AK77" s="72"/>
-      <c r="AN77" s="72" t="s">
+      <c r="AK77" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO77" s="72" t="s">
+      <c r="AL77" s="72"/>
+      <c r="AM77" s="72"/>
+      <c r="AN77" s="72"/>
+      <c r="AO77" s="72"/>
+      <c r="AR77" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="AS77" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="AP77" s="72" t="s">
+      <c r="AT77" s="72" t="s">
         <v>628</v>
       </c>
-      <c r="AQ77" s="72" t="s">
+      <c r="AU77" s="72" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="78" spans="1:43" ht="51.95" customHeight="1" thickBot="1">
+    <row r="78" spans="1:47" ht="51.95" customHeight="1" thickBot="1">
       <c r="A78" s="244" t="s">
         <v>615</v>
       </c>
@@ -19678,29 +19676,29 @@
       <c r="V78" s="252"/>
       <c r="W78" s="252"/>
       <c r="X78" s="74"/>
-      <c r="Z78" s="72" t="s">
+      <c r="AD78" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AA78" s="72"/>
-      <c r="AB78" s="72"/>
-      <c r="AC78" s="72"/>
-      <c r="AD78" s="72"/>
       <c r="AE78" s="72"/>
-      <c r="AG78" s="72" t="s">
-        <v>476</v>
-      </c>
+      <c r="AF78" s="72"/>
+      <c r="AG78" s="72"/>
       <c r="AH78" s="72"/>
       <c r="AI78" s="72"/>
-      <c r="AJ78" s="72"/>
-      <c r="AK78" s="72"/>
-      <c r="AN78" s="72" t="s">
+      <c r="AK78" s="72" t="s">
         <v>476</v>
       </c>
+      <c r="AL78" s="72"/>
+      <c r="AM78" s="72"/>
+      <c r="AN78" s="72"/>
       <c r="AO78" s="72"/>
-      <c r="AP78" s="72"/>
-      <c r="AQ78" s="72"/>
-    </row>
-    <row r="79" spans="1:43">
+      <c r="AR78" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="AS78" s="72"/>
+      <c r="AT78" s="72"/>
+      <c r="AU78" s="72"/>
+    </row>
+    <row r="79" spans="1:47">
       <c r="A79" s="12" t="s">
         <v>476</v>
       </c>
@@ -19759,29 +19757,29 @@
       </c>
       <c r="W79" s="74"/>
       <c r="X79" s="74"/>
-      <c r="Z79" s="72" t="s">
+      <c r="AD79" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AA79" s="72"/>
-      <c r="AB79" s="72"/>
-      <c r="AC79" s="72"/>
-      <c r="AD79" s="72"/>
       <c r="AE79" s="72"/>
-      <c r="AG79" s="72" t="s">
+      <c r="AF79" s="72"/>
+      <c r="AG79" s="72"/>
+      <c r="AH79" s="72"/>
+      <c r="AI79" s="72"/>
+      <c r="AK79" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AH79" s="70"/>
-      <c r="AI79" s="245"/>
-      <c r="AJ79" s="70"/>
-      <c r="AK79" s="70"/>
-      <c r="AN79" s="72" t="s">
+      <c r="AL79" s="70"/>
+      <c r="AM79" s="245"/>
+      <c r="AN79" s="70"/>
+      <c r="AO79" s="70"/>
+      <c r="AR79" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO79" s="72"/>
-      <c r="AP79" s="72"/>
-      <c r="AQ79" s="260"/>
-    </row>
-    <row r="80" spans="1:43">
+      <c r="AS79" s="72"/>
+      <c r="AT79" s="72"/>
+      <c r="AU79" s="260"/>
+    </row>
+    <row r="80" spans="1:47">
       <c r="A80" s="12" t="s">
         <v>476</v>
       </c>
@@ -19823,29 +19821,29 @@
       <c r="V80" s="74"/>
       <c r="W80" s="74"/>
       <c r="X80" s="74"/>
-      <c r="Z80" s="26" t="s">
+      <c r="AD80" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AA80" s="70"/>
-      <c r="AB80" s="70"/>
-      <c r="AC80" s="70"/>
-      <c r="AD80" s="70"/>
       <c r="AE80" s="70"/>
-      <c r="AG80" s="72" t="s">
+      <c r="AF80" s="70"/>
+      <c r="AG80" s="70"/>
+      <c r="AH80" s="70"/>
+      <c r="AI80" s="70"/>
+      <c r="AK80" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AH80" s="70"/>
-      <c r="AI80" s="245"/>
-      <c r="AJ80" s="70"/>
-      <c r="AK80" s="70"/>
-      <c r="AN80" s="72" t="s">
+      <c r="AL80" s="70"/>
+      <c r="AM80" s="245"/>
+      <c r="AN80" s="70"/>
+      <c r="AO80" s="70"/>
+      <c r="AR80" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO80" s="72"/>
-      <c r="AP80" s="72"/>
-      <c r="AQ80" s="260"/>
-    </row>
-    <row r="81" spans="1:43">
+      <c r="AS80" s="72"/>
+      <c r="AT80" s="72"/>
+      <c r="AU80" s="260"/>
+    </row>
+    <row r="81" spans="1:47">
       <c r="A81" s="45" t="str">
         <f>IF(VLOOKUP(MID(D81,2,2),$B$10:$M$19,12,FALSE),"","\I:")&amp;A$5&amp;"-"&amp;A$10&amp;"-"&amp;A61&amp;" - Electricity"</f>
         <v>Industry-Mining-Elec Heating - Electricity</v>
@@ -19905,59 +19903,59 @@
       <c r="V81" s="74"/>
       <c r="W81" s="74"/>
       <c r="X81" s="74"/>
-      <c r="Z81" t="str">
+      <c r="AD81" t="str">
         <f>B81</f>
         <v>IMIKELC-E</v>
       </c>
-      <c r="AA81" t="str">
+      <c r="AE81" t="str">
         <f>A81</f>
         <v>Industry-Mining-Elec Heating - Electricity</v>
       </c>
-      <c r="AB81" s="70" t="s">
+      <c r="AF81" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC81" s="70" t="s">
+      <c r="AG81" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD81" s="70" t="s">
+      <c r="AH81" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE81" s="70" t="s">
+      <c r="AI81" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG81" s="70" t="str">
+      <c r="AK81" s="70" t="str">
         <f>D81</f>
         <v>IMIK</v>
       </c>
-      <c r="AH81" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG81,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG81,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL81" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK81,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK81,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - Elec Heating</v>
       </c>
-      <c r="AI81" s="245" t="s">
+      <c r="AM81" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ81" s="70" t="s">
+      <c r="AN81" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK81" s="70" t="s">
+      <c r="AO81" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN81" s="254" t="s">
+      <c r="AR81" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO81" s="72" t="str">
-        <f>AG81</f>
+      <c r="AS81" s="72" t="str">
+        <f>AK81</f>
         <v>IMIK</v>
       </c>
-      <c r="AP81" s="72" t="s">
+      <c r="AT81" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="AQ81" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO81)</f>
+      <c r="AU81" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS81)</f>
         <v>1.5483671599004531</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:47">
       <c r="A82" s="45" t="str">
         <f t="shared" ref="A82:A89" si="31">A$5&amp;"-"&amp;A$10&amp;"-"&amp;A62&amp;" - Electricity"</f>
         <v>Industry-Mining-Compressed air - Electricity</v>
@@ -20012,59 +20010,59 @@
       <c r="V82" s="74"/>
       <c r="W82" s="74"/>
       <c r="X82" s="74"/>
-      <c r="Z82" t="str">
+      <c r="AD82" t="str">
         <f>B82</f>
         <v>IMIAELC-E</v>
       </c>
-      <c r="AA82" t="str">
+      <c r="AE82" t="str">
         <f>A82</f>
         <v>Industry-Mining-Compressed air - Electricity</v>
       </c>
-      <c r="AB82" s="70" t="s">
+      <c r="AF82" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC82" s="70" t="s">
+      <c r="AG82" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD82" s="70" t="s">
+      <c r="AH82" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE82" s="70" t="s">
+      <c r="AI82" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG82" s="70" t="str">
+      <c r="AK82" s="70" t="str">
         <f>D82</f>
         <v>IMIA</v>
       </c>
-      <c r="AH82" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG82,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG82,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL82" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK82,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK82,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - Compressed air</v>
       </c>
-      <c r="AI82" s="245" t="s">
+      <c r="AM82" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ82" s="70" t="s">
+      <c r="AN82" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK82" s="70" t="s">
+      <c r="AO82" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN82" s="254" t="s">
+      <c r="AR82" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO82" s="72" t="str">
-        <f t="shared" ref="AO82:AO84" si="34">AG82</f>
+      <c r="AS82" s="72" t="str">
+        <f t="shared" ref="AS82:AS84" si="34">AK82</f>
         <v>IMIA</v>
       </c>
-      <c r="AP82" s="254" t="s">
+      <c r="AT82" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ82" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO82)</f>
+      <c r="AU82" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS82)</f>
         <v>0.71939570019765287</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:47">
       <c r="A83" s="45" t="str">
         <f t="shared" si="31"/>
         <v>Industry-Mining-Lighting - Electricity</v>
@@ -20119,59 +20117,59 @@
       <c r="V83" s="74"/>
       <c r="W83" s="74"/>
       <c r="X83" s="74"/>
-      <c r="Z83" t="str">
+      <c r="AD83" t="str">
         <f>B83</f>
         <v>IMILELC-E</v>
       </c>
-      <c r="AA83" t="str">
+      <c r="AE83" t="str">
         <f>A83</f>
         <v>Industry-Mining-Lighting - Electricity</v>
       </c>
-      <c r="AB83" s="70" t="s">
+      <c r="AF83" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC83" s="70" t="s">
+      <c r="AG83" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD83" s="70" t="s">
+      <c r="AH83" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE83" s="70" t="s">
+      <c r="AI83" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG83" s="70" t="str">
+      <c r="AK83" s="70" t="str">
         <f>D83</f>
         <v>IMIL</v>
       </c>
-      <c r="AH83" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG83,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG83,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL83" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK83,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK83,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - Lighting</v>
       </c>
-      <c r="AI83" s="245" t="s">
+      <c r="AM83" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ83" s="70" t="s">
+      <c r="AN83" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK83" s="70" t="s">
+      <c r="AO83" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN83" s="254" t="s">
+      <c r="AR83" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO83" s="72" t="str">
+      <c r="AS83" s="72" t="str">
         <f t="shared" si="34"/>
         <v>IMIL</v>
       </c>
-      <c r="AP83" s="254" t="s">
+      <c r="AT83" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ83" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO83)</f>
+      <c r="AU83" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS83)</f>
         <v>1.0451478329328059</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:47">
       <c r="A84" s="45" t="str">
         <f t="shared" si="31"/>
         <v>Industry-Mining-Cooling - Electricity</v>
@@ -20226,59 +20224,59 @@
       <c r="V84" s="74"/>
       <c r="W84" s="74"/>
       <c r="X84" s="74"/>
-      <c r="Z84" t="str">
+      <c r="AD84" t="str">
         <f>B84</f>
         <v>IMICELC-E</v>
       </c>
-      <c r="AA84" t="str">
+      <c r="AE84" t="str">
         <f>A84</f>
         <v>Industry-Mining-Cooling - Electricity</v>
       </c>
-      <c r="AB84" s="70" t="s">
+      <c r="AF84" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC84" s="70" t="s">
+      <c r="AG84" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD84" s="70" t="s">
+      <c r="AH84" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE84" s="70" t="s">
+      <c r="AI84" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG84" s="70" t="str">
+      <c r="AK84" s="70" t="str">
         <f>D84</f>
         <v>IMIC</v>
       </c>
-      <c r="AH84" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG84,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG84,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL84" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK84,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK84,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - Cooling</v>
       </c>
-      <c r="AI84" s="245" t="s">
+      <c r="AM84" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ84" s="70" t="s">
+      <c r="AN84" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK84" s="70" t="s">
+      <c r="AO84" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN84" s="254" t="s">
+      <c r="AR84" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO84" s="72" t="str">
+      <c r="AS84" s="72" t="str">
         <f t="shared" si="34"/>
         <v>IMIC</v>
       </c>
-      <c r="AP84" s="72" t="s">
+      <c r="AT84" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="AQ84" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO84)</f>
+      <c r="AU84" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS84)</f>
         <v>12.569563545045538</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:47">
       <c r="A85" s="45" t="str">
         <f t="shared" si="31"/>
         <v>Industry-Mining-HVAC - Electricity</v>
@@ -20333,59 +20331,59 @@
       <c r="V85" s="74"/>
       <c r="W85" s="74"/>
       <c r="X85" s="74"/>
-      <c r="Z85" t="str">
+      <c r="AD85" t="str">
         <f>B85</f>
         <v>IMIHELC-E</v>
       </c>
-      <c r="AA85" t="str">
+      <c r="AE85" t="str">
         <f>A85</f>
         <v>Industry-Mining-HVAC - Electricity</v>
       </c>
-      <c r="AB85" s="70" t="s">
+      <c r="AF85" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC85" s="70" t="s">
+      <c r="AG85" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD85" s="70" t="s">
+      <c r="AH85" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE85" s="70" t="s">
+      <c r="AI85" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG85" s="70" t="str">
+      <c r="AK85" s="70" t="str">
         <f>D85</f>
         <v>IMIH</v>
       </c>
-      <c r="AH85" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG85,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG85,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL85" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK85,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK85,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - HVAC</v>
       </c>
-      <c r="AI85" s="245" t="s">
+      <c r="AM85" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ85" s="70" t="s">
+      <c r="AN85" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK85" s="70" t="s">
+      <c r="AO85" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN85" s="254" t="s">
+      <c r="AR85" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO85" s="72" t="str">
-        <f t="shared" ref="AO85:AO101" si="37">AG85</f>
+      <c r="AS85" s="72" t="str">
+        <f t="shared" ref="AS85:AS101" si="37">AK85</f>
         <v>IMIH</v>
       </c>
-      <c r="AP85" s="254" t="s">
+      <c r="AT85" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ85" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO85)</f>
+      <c r="AU85" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS85)</f>
         <v>5.5741217756416317</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:47">
       <c r="A86" s="45" t="str">
         <f t="shared" si="31"/>
         <v>Industry-Mining-Pumping - Electricity</v>
@@ -20440,59 +20438,59 @@
       <c r="V86" s="74"/>
       <c r="W86" s="74"/>
       <c r="X86" s="74"/>
-      <c r="Z86" t="str">
+      <c r="AD86" t="str">
         <f>B86</f>
         <v>IMIPELC-E</v>
       </c>
-      <c r="AA86" t="str">
+      <c r="AE86" t="str">
         <f>A86</f>
         <v>Industry-Mining-Pumping - Electricity</v>
       </c>
-      <c r="AB86" s="70" t="s">
+      <c r="AF86" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC86" s="70" t="s">
+      <c r="AG86" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD86" s="70" t="s">
+      <c r="AH86" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE86" s="70" t="s">
+      <c r="AI86" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG86" s="70" t="str">
+      <c r="AK86" s="70" t="str">
         <f>D86</f>
         <v>IMIP</v>
       </c>
-      <c r="AH86" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG86,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG86,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL86" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK86,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK86,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - Pumping</v>
       </c>
-      <c r="AI86" s="245" t="s">
+      <c r="AM86" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ86" s="70" t="s">
+      <c r="AN86" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK86" s="70" t="s">
+      <c r="AO86" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN86" s="254" t="s">
+      <c r="AR86" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO86" s="72" t="str">
+      <c r="AS86" s="72" t="str">
         <f t="shared" si="37"/>
         <v>IMIP</v>
       </c>
-      <c r="AP86" s="254" t="s">
+      <c r="AT86" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ86" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO86)</f>
+      <c r="AU86" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS86)</f>
         <v>11.078357924751138</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:47">
       <c r="A87" s="45" t="str">
         <f t="shared" si="31"/>
         <v>Industry-Mining-Fans - Electricity</v>
@@ -20547,59 +20545,59 @@
       <c r="V87" s="74"/>
       <c r="W87" s="74"/>
       <c r="X87" s="74"/>
-      <c r="Z87" t="str">
+      <c r="AD87" t="str">
         <f>B87</f>
         <v>IMIFELC-E</v>
       </c>
-      <c r="AA87" t="str">
+      <c r="AE87" t="str">
         <f>A87</f>
         <v>Industry-Mining-Fans - Electricity</v>
       </c>
-      <c r="AB87" s="70" t="s">
+      <c r="AF87" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC87" s="70" t="s">
+      <c r="AG87" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD87" s="70" t="s">
+      <c r="AH87" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE87" s="70" t="s">
+      <c r="AI87" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG87" s="70" t="str">
+      <c r="AK87" s="70" t="str">
         <f>D87</f>
         <v>IMIF</v>
       </c>
-      <c r="AH87" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG87,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG87,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL87" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK87,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK87,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - Fans</v>
       </c>
-      <c r="AI87" s="245" t="s">
+      <c r="AM87" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ87" s="70" t="s">
+      <c r="AN87" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK87" s="70" t="s">
+      <c r="AO87" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN87" s="254" t="s">
+      <c r="AR87" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO87" s="72" t="str">
+      <c r="AS87" s="72" t="str">
         <f t="shared" si="37"/>
         <v>IMIF</v>
       </c>
-      <c r="AP87" s="72" t="s">
+      <c r="AT87" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="AQ87" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO87)</f>
+      <c r="AU87" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS87)</f>
         <v>4.2655424211891448</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:47">
       <c r="A88" s="45" t="str">
         <f t="shared" si="31"/>
         <v>Industry-Mining-Other motive - Electricity</v>
@@ -20654,59 +20652,59 @@
       <c r="V88" s="74"/>
       <c r="W88" s="74"/>
       <c r="X88" s="74"/>
-      <c r="Z88" t="str">
+      <c r="AD88" t="str">
         <f>B88</f>
         <v>IMIOELC-E</v>
       </c>
-      <c r="AA88" t="str">
+      <c r="AE88" t="str">
         <f>A88</f>
         <v>Industry-Mining-Other motive - Electricity</v>
       </c>
-      <c r="AB88" s="70" t="s">
+      <c r="AF88" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC88" s="70" t="s">
+      <c r="AG88" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD88" s="70" t="s">
+      <c r="AH88" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE88" s="70" t="s">
+      <c r="AI88" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG88" s="70" t="str">
+      <c r="AK88" s="70" t="str">
         <f>D88</f>
         <v>IMIO</v>
       </c>
-      <c r="AH88" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG88,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG88,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL88" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK88,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK88,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - Other motive</v>
       </c>
-      <c r="AI88" s="245" t="s">
+      <c r="AM88" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ88" s="70" t="s">
+      <c r="AN88" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK88" s="70" t="s">
+      <c r="AO88" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN88" s="254" t="s">
+      <c r="AR88" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO88" s="72" t="str">
+      <c r="AS88" s="72" t="str">
         <f t="shared" si="37"/>
         <v>IMIO</v>
       </c>
-      <c r="AP88" s="254" t="s">
+      <c r="AT88" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ88" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO88)</f>
+      <c r="AU88" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS88)</f>
         <v>20.929650122763714</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:47">
       <c r="A89" s="45" t="str">
         <f t="shared" si="31"/>
         <v>Industry-Mining-Electrochemical - Electricity</v>
@@ -20761,59 +20759,59 @@
       <c r="V89" s="74"/>
       <c r="W89" s="74"/>
       <c r="X89" s="74"/>
-      <c r="Z89" t="str">
+      <c r="AD89" t="str">
         <f>B89</f>
         <v>IMIEELC-E</v>
       </c>
-      <c r="AA89" t="str">
+      <c r="AE89" t="str">
         <f>A89</f>
         <v>Industry-Mining-Electrochemical - Electricity</v>
       </c>
-      <c r="AB89" s="70" t="s">
+      <c r="AF89" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC89" s="70" t="s">
+      <c r="AG89" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD89" s="70" t="s">
+      <c r="AH89" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE89" s="70" t="s">
+      <c r="AI89" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG89" s="70" t="str">
+      <c r="AK89" s="70" t="str">
         <f>D89</f>
         <v>IMIE</v>
       </c>
-      <c r="AH89" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG89,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG89,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL89" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK89,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK89,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - Electrochemical</v>
       </c>
-      <c r="AI89" s="245" t="s">
+      <c r="AM89" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ89" s="70" t="s">
+      <c r="AN89" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK89" s="70" t="s">
+      <c r="AO89" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN89" s="254" t="s">
+      <c r="AR89" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO89" s="72" t="str">
+      <c r="AS89" s="72" t="str">
         <f t="shared" si="37"/>
         <v>IMIE</v>
       </c>
-      <c r="AP89" s="254" t="s">
+      <c r="AT89" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ89" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO89)</f>
+      <c r="AU89" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS89)</f>
         <v>0.13532728977529962</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:47">
       <c r="A90" s="45" t="s">
         <v>476</v>
       </c>
@@ -20837,32 +20835,32 @@
       <c r="V90" s="74"/>
       <c r="W90" s="74"/>
       <c r="X90" s="74"/>
-      <c r="Z90" s="26" t="s">
+      <c r="AD90" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB90" s="70"/>
-      <c r="AC90" s="70"/>
-      <c r="AD90" s="70"/>
-      <c r="AE90" s="70"/>
-      <c r="AG90" s="26" t="s">
+      <c r="AF90" s="70"/>
+      <c r="AG90" s="70"/>
+      <c r="AH90" s="70"/>
+      <c r="AI90" s="70"/>
+      <c r="AK90" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN90" s="254" t="s">
+      <c r="AR90" s="254" t="s">
         <v>476</v>
       </c>
-      <c r="AO90" s="72" t="str">
+      <c r="AS90" s="72" t="str">
         <f t="shared" si="37"/>
         <v>*</v>
       </c>
-      <c r="AP90" s="72" t="s">
+      <c r="AT90" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="AQ90" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO90)</f>
+      <c r="AU90" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS90)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:47">
       <c r="A91" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$10&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C91,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
@@ -20943,59 +20941,59 @@
       </c>
       <c r="W91" s="74"/>
       <c r="X91" s="74"/>
-      <c r="Z91" t="str">
+      <c r="AD91" t="str">
         <f>B91</f>
         <v>IMISCOA-E</v>
       </c>
-      <c r="AA91" t="str">
+      <c r="AE91" t="str">
         <f>A91</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB91" s="70" t="s">
+      <c r="AF91" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC91" s="70" t="s">
+      <c r="AG91" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD91" s="70" t="s">
+      <c r="AH91" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE91" s="70" t="s">
+      <c r="AI91" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG91" s="70" t="str">
+      <c r="AK91" s="70" t="str">
         <f>D91</f>
         <v>IMIS</v>
       </c>
-      <c r="AH91" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG91,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG91,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL91" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK91,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK91,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - boiler/process heating</v>
       </c>
-      <c r="AI91" s="245" t="s">
+      <c r="AM91" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ91" s="70" t="s">
+      <c r="AN91" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK91" s="70" t="s">
+      <c r="AO91" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN91" s="254" t="s">
+      <c r="AR91" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO91" s="72" t="str">
+      <c r="AS91" s="72" t="str">
         <f t="shared" si="37"/>
         <v>IMIS</v>
       </c>
-      <c r="AP91" s="254" t="s">
+      <c r="AT91" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ91" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO91)</f>
+      <c r="AU91" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS91)</f>
         <v>25.233177191199999</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:47">
       <c r="A92" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$10&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C92,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
@@ -21076,58 +21074,58 @@
       </c>
       <c r="W92" s="74"/>
       <c r="X92" s="74"/>
-      <c r="Z92" t="str">
+      <c r="AD92" t="str">
         <f>B92</f>
         <v>IMISGAS-E</v>
       </c>
-      <c r="AA92" t="str">
+      <c r="AE92" t="str">
         <f>A92</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB92" s="70" t="s">
+      <c r="AF92" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC92" s="70" t="s">
+      <c r="AG92" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD92" s="70" t="s">
+      <c r="AH92" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE92" s="70" t="s">
+      <c r="AI92" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG92" s="26" t="s">
+      <c r="AK92" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH92" s="70" t="str">
+      <c r="AL92" s="70" t="str">
         <f>A92</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI92" s="245" t="s">
+      <c r="AM92" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ92" s="70" t="s">
+      <c r="AN92" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK92" s="70" t="s">
+      <c r="AO92" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN92" s="72" t="s">
+      <c r="AR92" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO92" s="72" t="str">
+      <c r="AS92" s="72" t="str">
         <f t="shared" si="37"/>
         <v>*</v>
       </c>
-      <c r="AP92" s="254" t="s">
+      <c r="AT92" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ92" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO92)</f>
+      <c r="AU92" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS92)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:47">
       <c r="A93" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$10&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C93,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
@@ -21207,58 +21205,58 @@
         <v>0</v>
       </c>
       <c r="W93" s="74"/>
-      <c r="Z93" t="str">
+      <c r="AD93" t="str">
         <f>B93</f>
         <v>IMISOHF-E</v>
       </c>
-      <c r="AA93" t="str">
+      <c r="AE93" t="str">
         <f>A93</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB93" s="70" t="s">
+      <c r="AF93" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC93" s="70" t="s">
+      <c r="AG93" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD93" s="70" t="s">
+      <c r="AH93" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE93" s="70" t="s">
+      <c r="AI93" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG93" s="26" t="s">
+      <c r="AK93" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH93" s="70" t="str">
+      <c r="AL93" s="70" t="str">
         <f>A93</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI93" s="245" t="s">
+      <c r="AM93" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ93" s="70" t="s">
+      <c r="AN93" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK93" s="70" t="s">
+      <c r="AO93" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN93" s="72" t="s">
+      <c r="AR93" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO93" s="72" t="str">
+      <c r="AS93" s="72" t="str">
         <f t="shared" si="37"/>
         <v>*</v>
       </c>
-      <c r="AP93" s="72" t="s">
+      <c r="AT93" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="AQ93" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO93)</f>
+      <c r="AU93" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS93)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:47">
       <c r="A94" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$10&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C94,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
@@ -21338,58 +21336,58 @@
         <v>0</v>
       </c>
       <c r="W94" s="74"/>
-      <c r="Z94" t="str">
+      <c r="AD94" t="str">
         <f>B94</f>
         <v>IMISOLP-E</v>
       </c>
-      <c r="AA94" t="str">
+      <c r="AE94" t="str">
         <f>A94</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB94" s="70" t="s">
+      <c r="AF94" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC94" s="70" t="s">
+      <c r="AG94" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD94" s="70" t="s">
+      <c r="AH94" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE94" s="70" t="s">
+      <c r="AI94" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG94" s="26" t="s">
+      <c r="AK94" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH94" s="70" t="str">
+      <c r="AL94" s="70" t="str">
         <f>A94</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI94" s="245" t="s">
+      <c r="AM94" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ94" s="70" t="s">
+      <c r="AN94" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK94" s="70" t="s">
+      <c r="AO94" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN94" s="72" t="s">
+      <c r="AR94" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO94" s="72" t="str">
+      <c r="AS94" s="72" t="str">
         <f t="shared" si="37"/>
         <v>*</v>
       </c>
-      <c r="AP94" s="254" t="s">
+      <c r="AT94" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ94" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO94)</f>
+      <c r="AU94" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS94)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="95" spans="1:43" ht="15">
+    <row r="95" spans="1:47" ht="15">
       <c r="A95" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$10&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C95,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
@@ -21468,58 +21466,58 @@
         <v>0</v>
       </c>
       <c r="W95" s="74"/>
-      <c r="Z95" t="str">
+      <c r="AD95" t="str">
         <f>B95</f>
         <v>IMISELC-E</v>
       </c>
-      <c r="AA95" t="str">
+      <c r="AE95" t="str">
         <f>A95</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB95" s="70" t="s">
+      <c r="AF95" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC95" s="70" t="s">
+      <c r="AG95" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD95" s="70" t="s">
+      <c r="AH95" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE95" s="70" t="s">
+      <c r="AI95" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG95" s="26" t="s">
+      <c r="AK95" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH95" s="70" t="str">
+      <c r="AL95" s="70" t="str">
         <f>A95</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI95" s="245" t="s">
+      <c r="AM95" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ95" s="70" t="s">
+      <c r="AN95" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK95" s="70" t="s">
+      <c r="AO95" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN95" s="72" t="s">
+      <c r="AR95" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO95" s="72" t="str">
+      <c r="AS95" s="72" t="str">
         <f t="shared" si="37"/>
         <v>*</v>
       </c>
-      <c r="AP95" s="254" t="s">
+      <c r="AT95" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ95" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO95)</f>
+      <c r="AU95" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS95)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="96" spans="1:43" ht="15">
+    <row r="96" spans="1:47" ht="15">
       <c r="A96" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$10&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C96,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Heat Pump New"</f>
         <v>Industry-Mining-boiler/process heating -  - Heat Pump New</v>
@@ -21593,58 +21591,58 @@
         <v>0</v>
       </c>
       <c r="W96" s="74"/>
-      <c r="Z96" t="str">
+      <c r="AD96" t="str">
         <f>B96</f>
         <v>IMISELC-N</v>
       </c>
-      <c r="AA96" t="str">
+      <c r="AE96" t="str">
         <f>A96</f>
         <v>Industry-Mining-boiler/process heating -  - Heat Pump New</v>
       </c>
-      <c r="AB96" s="70" t="s">
+      <c r="AF96" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC96" s="70" t="s">
+      <c r="AG96" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD96" s="70" t="s">
+      <c r="AH96" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE96" s="70" t="s">
+      <c r="AI96" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG96" s="26" t="s">
+      <c r="AK96" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH96" s="70" t="str">
+      <c r="AL96" s="70" t="str">
         <f>A96</f>
         <v>Industry-Mining-boiler/process heating -  - Heat Pump New</v>
       </c>
-      <c r="AI96" s="245" t="s">
+      <c r="AM96" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ96" s="70" t="s">
+      <c r="AN96" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK96" s="70" t="s">
+      <c r="AO96" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN96" s="72" t="s">
+      <c r="AR96" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO96" s="72" t="str">
+      <c r="AS96" s="72" t="str">
         <f t="shared" si="37"/>
         <v>*</v>
       </c>
-      <c r="AP96" s="72" t="s">
+      <c r="AT96" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="AQ96" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO96)</f>
+      <c r="AU96" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS96)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:47">
       <c r="A97" s="45" t="s">
         <v>466</v>
       </c>
@@ -21691,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="77">
-        <f t="shared" ref="O97:Q98" si="52">MIN(1,$N97+O$75)</f>
+        <f t="shared" ref="O97:Q97" si="52">MIN(1,$N97+O$75)</f>
         <v>0.5</v>
       </c>
       <c r="P97" s="77">
@@ -21720,58 +21718,58 @@
         <v>0</v>
       </c>
       <c r="W97" s="74"/>
-      <c r="Z97" t="str">
+      <c r="AD97" t="str">
         <f>B97</f>
         <v>IMISHGN-N</v>
       </c>
-      <c r="AA97" t="str">
+      <c r="AE97" t="str">
         <f>A97</f>
         <v>Industry-Mining-boiler/process heating - Hydrogen - New</v>
       </c>
-      <c r="AB97" s="70" t="s">
+      <c r="AF97" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC97" s="70" t="s">
+      <c r="AG97" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD97" s="70" t="s">
+      <c r="AH97" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE97" s="70" t="s">
+      <c r="AI97" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG97" s="26" t="s">
+      <c r="AK97" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH97" s="70" t="str">
+      <c r="AL97" s="70" t="str">
         <f>A97</f>
         <v>Industry-Mining-boiler/process heating - Hydrogen - New</v>
       </c>
-      <c r="AI97" s="245" t="s">
+      <c r="AM97" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ97" s="70" t="s">
+      <c r="AN97" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK97" s="70" t="s">
+      <c r="AO97" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN97" s="72" t="s">
+      <c r="AR97" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO97" s="72" t="str">
+      <c r="AS97" s="72" t="str">
         <f t="shared" si="37"/>
         <v>*</v>
       </c>
-      <c r="AP97" s="254" t="s">
+      <c r="AT97" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ97" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO97)</f>
+      <c r="AU97" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS97)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:47">
       <c r="A98" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$10&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C98,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
@@ -21850,58 +21848,58 @@
         <v>0</v>
       </c>
       <c r="W98" s="74"/>
-      <c r="Z98" t="str">
+      <c r="AD98" t="str">
         <f>B98</f>
         <v>IMISWAS-E</v>
       </c>
-      <c r="AA98" t="str">
+      <c r="AE98" t="str">
         <f>A98</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB98" s="70" t="s">
+      <c r="AF98" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC98" s="70" t="s">
+      <c r="AG98" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD98" s="70" t="s">
+      <c r="AH98" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE98" s="70" t="s">
+      <c r="AI98" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG98" s="26" t="s">
+      <c r="AK98" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH98" s="70" t="str">
+      <c r="AL98" s="70" t="str">
         <f>A98</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI98" s="245" t="s">
+      <c r="AM98" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ98" s="70" t="s">
+      <c r="AN98" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK98" s="70" t="s">
+      <c r="AO98" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN98" s="72" t="s">
+      <c r="AR98" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO98" s="72" t="str">
+      <c r="AS98" s="72" t="str">
         <f t="shared" si="37"/>
         <v>*</v>
       </c>
-      <c r="AP98" s="254" t="s">
+      <c r="AT98" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ98" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO98)</f>
+      <c r="AU98" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS98)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:47">
       <c r="A99" s="45" t="s">
         <v>618</v>
       </c>
@@ -21928,32 +21926,32 @@
       <c r="U99" s="74"/>
       <c r="V99" s="74"/>
       <c r="W99" s="74"/>
-      <c r="Z99" s="26" t="s">
+      <c r="AD99" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB99" s="70"/>
-      <c r="AC99" s="70"/>
-      <c r="AD99" s="70"/>
-      <c r="AE99" s="70"/>
-      <c r="AG99" s="26" t="s">
+      <c r="AF99" s="70"/>
+      <c r="AG99" s="70"/>
+      <c r="AH99" s="70"/>
+      <c r="AI99" s="70"/>
+      <c r="AK99" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN99" s="72" t="s">
+      <c r="AR99" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO99" s="72" t="str">
+      <c r="AS99" s="72" t="str">
         <f t="shared" si="37"/>
         <v>*</v>
       </c>
-      <c r="AP99" s="72" t="s">
+      <c r="AT99" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="AQ99" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO99)</f>
+      <c r="AU99" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS99)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:47">
       <c r="A100" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$10&amp;"-"&amp;A$42&amp;" - "&amp;VLOOKUP(RIGHT(C100,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Mining-Transport -  - Existing</v>
@@ -22031,59 +22029,59 @@
         <v>0</v>
       </c>
       <c r="W100" s="74"/>
-      <c r="Z100" t="str">
+      <c r="AD100" t="str">
         <f>B100</f>
         <v>IMIRODS-E</v>
       </c>
-      <c r="AA100" t="str">
+      <c r="AE100" t="str">
         <f>A100</f>
         <v>Industry-Mining-Transport -  - Existing</v>
       </c>
-      <c r="AB100" s="70" t="s">
+      <c r="AF100" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC100" s="70" t="s">
+      <c r="AG100" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD100" s="70" t="s">
+      <c r="AH100" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE100" s="70" t="s">
+      <c r="AI100" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG100" s="70" t="str">
+      <c r="AK100" s="70" t="str">
         <f>D100</f>
         <v>IMIR</v>
       </c>
-      <c r="AH100" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG100,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG100,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL100" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK100,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK100,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Mining - Transport</v>
       </c>
-      <c r="AI100" s="245" t="s">
+      <c r="AM100" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ100" s="70" t="s">
+      <c r="AN100" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK100" s="70" t="s">
+      <c r="AO100" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN100" s="254" t="s">
+      <c r="AR100" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO100" s="72" t="str">
+      <c r="AS100" s="72" t="str">
         <f t="shared" si="37"/>
         <v>IMIR</v>
       </c>
-      <c r="AP100" s="254" t="s">
+      <c r="AT100" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ100" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO100)</f>
+      <c r="AU100" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS100)</f>
         <v>25.406351025250526</v>
       </c>
     </row>
-    <row r="101" spans="1:43" ht="15">
+    <row r="101" spans="1:47" ht="15">
       <c r="A101" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$10&amp;"-"&amp;A$42&amp;" - "&amp;VLOOKUP(RIGHT(C101,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - New"</f>
         <v>Industry-Mining-Transport -  - New</v>
@@ -22161,58 +22159,58 @@
         <v>0</v>
       </c>
       <c r="W101" s="74"/>
-      <c r="Z101" t="str">
+      <c r="AD101" t="str">
         <f>B101</f>
         <v>IMIRELC-E</v>
       </c>
-      <c r="AA101" t="str">
+      <c r="AE101" t="str">
         <f>A101</f>
         <v>Industry-Mining-Transport -  - New</v>
       </c>
-      <c r="AB101" s="70" t="s">
+      <c r="AF101" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC101" s="70" t="s">
+      <c r="AG101" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD101" s="70" t="s">
+      <c r="AH101" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE101" s="70" t="s">
+      <c r="AI101" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG101" s="70" t="s">
+      <c r="AK101" s="70" t="s">
         <v>476</v>
       </c>
-      <c r="AH101" s="70" t="str">
+      <c r="AL101" s="70" t="str">
         <f>A101</f>
         <v>Industry-Mining-Transport -  - New</v>
       </c>
-      <c r="AI101" s="245" t="s">
+      <c r="AM101" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ101" s="70" t="s">
+      <c r="AN101" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK101" s="70" t="s">
+      <c r="AO101" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN101" s="72" t="s">
+      <c r="AR101" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO101" s="72" t="str">
+      <c r="AS101" s="72" t="str">
         <f t="shared" si="37"/>
         <v>*</v>
       </c>
-      <c r="AP101" s="254" t="s">
+      <c r="AT101" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ101" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO101)</f>
+      <c r="AU101" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS101)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="102" spans="1:43" ht="51.95" customHeight="1" thickBot="1">
+    <row r="102" spans="1:47" ht="51.95" customHeight="1" thickBot="1">
       <c r="A102" s="244" t="s">
         <v>616</v>
       </c>
@@ -22235,25 +22233,25 @@
       <c r="U102" s="74"/>
       <c r="V102" s="74"/>
       <c r="W102" s="74"/>
-      <c r="Z102" s="26" t="s">
+      <c r="AD102" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB102" s="70"/>
-      <c r="AC102" s="70"/>
-      <c r="AD102" s="70"/>
-      <c r="AE102" s="70"/>
-      <c r="AG102" s="26" t="s">
+      <c r="AF102" s="70"/>
+      <c r="AG102" s="70"/>
+      <c r="AH102" s="70"/>
+      <c r="AI102" s="70"/>
+      <c r="AK102" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN102" s="72" t="s">
+      <c r="AR102" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO102" s="72" t="str">
-        <f t="shared" ref="AO102:AO104" si="58">AG102</f>
+      <c r="AS102" s="72" t="str">
+        <f t="shared" ref="AS102:AS104" si="58">AK102</f>
         <v>*</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:47">
       <c r="A103" s="12" t="s">
         <v>476</v>
       </c>
@@ -22279,25 +22277,25 @@
       <c r="U103" s="74"/>
       <c r="V103" s="74"/>
       <c r="W103" s="74"/>
-      <c r="Z103" s="26" t="s">
+      <c r="AD103" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB103" s="70"/>
-      <c r="AC103" s="70"/>
-      <c r="AD103" s="70"/>
-      <c r="AE103" s="70"/>
-      <c r="AG103" s="26" t="s">
+      <c r="AF103" s="70"/>
+      <c r="AG103" s="70"/>
+      <c r="AH103" s="70"/>
+      <c r="AI103" s="70"/>
+      <c r="AK103" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN103" s="72" t="s">
+      <c r="AR103" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO103" s="72" t="str">
+      <c r="AS103" s="72" t="str">
         <f t="shared" si="58"/>
         <v>*</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:47">
       <c r="A104" s="12" t="s">
         <v>476</v>
       </c>
@@ -22337,25 +22335,25 @@
       <c r="U104" s="74"/>
       <c r="V104" s="74"/>
       <c r="W104" s="74"/>
-      <c r="Z104" s="26" t="s">
+      <c r="AD104" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB104" s="70"/>
-      <c r="AC104" s="70"/>
-      <c r="AD104" s="70"/>
-      <c r="AE104" s="70"/>
-      <c r="AG104" s="26" t="s">
+      <c r="AF104" s="70"/>
+      <c r="AG104" s="70"/>
+      <c r="AH104" s="70"/>
+      <c r="AI104" s="70"/>
+      <c r="AK104" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN104" s="72" t="s">
+      <c r="AR104" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO104" s="72" t="str">
+      <c r="AS104" s="72" t="str">
         <f t="shared" si="58"/>
         <v>*</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:47">
       <c r="A105" s="45" t="str">
         <f t="shared" ref="A105:A113" si="59">A$5&amp;"-"&amp;A$14&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Chemicals-Elec Heating - Electricity</v>
@@ -22410,59 +22408,59 @@
       <c r="U105" s="74"/>
       <c r="V105" s="74"/>
       <c r="W105" s="74"/>
-      <c r="Z105" t="str">
+      <c r="AD105" t="str">
         <f>B105</f>
         <v>ICPKELC-E</v>
       </c>
-      <c r="AA105" t="str">
+      <c r="AE105" t="str">
         <f>A105</f>
         <v>Industry-Chemicals-Elec Heating - Electricity</v>
       </c>
-      <c r="AB105" s="70" t="s">
+      <c r="AF105" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC105" s="70" t="s">
+      <c r="AG105" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD105" s="70" t="s">
+      <c r="AH105" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE105" s="70" t="s">
+      <c r="AI105" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG105" s="70" t="str">
+      <c r="AK105" s="70" t="str">
         <f>D105</f>
         <v>ICPK</v>
       </c>
-      <c r="AH105" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG105,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG105,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL105" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK105,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK105,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - Elec Heating</v>
       </c>
-      <c r="AI105" s="245" t="s">
+      <c r="AM105" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ105" s="70" t="s">
+      <c r="AN105" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK105" s="70" t="s">
+      <c r="AO105" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN105" s="254" t="s">
+      <c r="AR105" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO105" s="72" t="str">
-        <f t="shared" ref="AO105:AO168" si="62">AG105</f>
+      <c r="AS105" s="72" t="str">
+        <f t="shared" ref="AS105:AS168" si="62">AK105</f>
         <v>ICPK</v>
       </c>
-      <c r="AP105" s="254" t="s">
+      <c r="AT105" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ105" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO105)</f>
+      <c r="AU105" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS105)</f>
         <v>0.80918000000000012</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:47">
       <c r="A106" s="45" t="str">
         <f t="shared" si="59"/>
         <v>Industry-Chemicals-Compressed air - Electricity</v>
@@ -22517,59 +22515,59 @@
       <c r="U106" s="74"/>
       <c r="V106" s="74"/>
       <c r="W106" s="74"/>
-      <c r="Z106" t="str">
+      <c r="AD106" t="str">
         <f>B106</f>
         <v>ICPAELC-E</v>
       </c>
-      <c r="AA106" t="str">
+      <c r="AE106" t="str">
         <f>A106</f>
         <v>Industry-Chemicals-Compressed air - Electricity</v>
       </c>
-      <c r="AB106" s="70" t="s">
+      <c r="AF106" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC106" s="70" t="s">
+      <c r="AG106" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD106" s="70" t="s">
+      <c r="AH106" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE106" s="70" t="s">
+      <c r="AI106" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG106" s="70" t="str">
+      <c r="AK106" s="70" t="str">
         <f>D106</f>
         <v>ICPA</v>
       </c>
-      <c r="AH106" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG106,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG106,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL106" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK106,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK106,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - Compressed air</v>
       </c>
-      <c r="AI106" s="245" t="s">
+      <c r="AM106" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ106" s="70" t="s">
+      <c r="AN106" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK106" s="70" t="s">
+      <c r="AO106" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN106" s="254" t="s">
+      <c r="AR106" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO106" s="72" t="str">
+      <c r="AS106" s="72" t="str">
         <f t="shared" si="62"/>
         <v>ICPA</v>
       </c>
-      <c r="AP106" s="254" t="s">
+      <c r="AT106" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ106" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO106)</f>
+      <c r="AU106" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS106)</f>
         <v>0.30344250000000006</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:47">
       <c r="A107" s="45" t="str">
         <f t="shared" si="59"/>
         <v>Industry-Chemicals-Lighting - Electricity</v>
@@ -22624,59 +22622,59 @@
       <c r="U107" s="74"/>
       <c r="V107" s="74"/>
       <c r="W107" s="74"/>
-      <c r="Z107" t="str">
+      <c r="AD107" t="str">
         <f>B107</f>
         <v>ICPLELC-E</v>
       </c>
-      <c r="AA107" t="str">
+      <c r="AE107" t="str">
         <f>A107</f>
         <v>Industry-Chemicals-Lighting - Electricity</v>
       </c>
-      <c r="AB107" s="70" t="s">
+      <c r="AF107" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC107" s="70" t="s">
+      <c r="AG107" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD107" s="70" t="s">
+      <c r="AH107" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE107" s="70" t="s">
+      <c r="AI107" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG107" s="70" t="str">
+      <c r="AK107" s="70" t="str">
         <f>D107</f>
         <v>ICPL</v>
       </c>
-      <c r="AH107" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG107,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG107,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL107" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK107,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK107,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - Lighting</v>
       </c>
-      <c r="AI107" s="245" t="s">
+      <c r="AM107" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ107" s="70" t="s">
+      <c r="AN107" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK107" s="70" t="s">
+      <c r="AO107" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN107" s="254" t="s">
+      <c r="AR107" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO107" s="72" t="str">
+      <c r="AS107" s="72" t="str">
         <f t="shared" si="62"/>
         <v>ICPL</v>
       </c>
-      <c r="AP107" s="254" t="s">
+      <c r="AT107" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ107" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO107)</f>
+      <c r="AU107" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS107)</f>
         <v>0.48550800000000005</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:47">
       <c r="A108" s="45" t="str">
         <f t="shared" si="59"/>
         <v>Industry-Chemicals-Cooling - Electricity</v>
@@ -22731,59 +22729,59 @@
       <c r="U108" s="74"/>
       <c r="V108" s="74"/>
       <c r="W108" s="74"/>
-      <c r="Z108" t="str">
+      <c r="AD108" t="str">
         <f>B108</f>
         <v>ICPCELC-E</v>
       </c>
-      <c r="AA108" t="str">
+      <c r="AE108" t="str">
         <f>A108</f>
         <v>Industry-Chemicals-Cooling - Electricity</v>
       </c>
-      <c r="AB108" s="70" t="s">
+      <c r="AF108" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC108" s="70" t="s">
+      <c r="AG108" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD108" s="70" t="s">
+      <c r="AH108" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE108" s="70" t="s">
+      <c r="AI108" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG108" s="70" t="str">
+      <c r="AK108" s="70" t="str">
         <f>D108</f>
         <v>ICPC</v>
       </c>
-      <c r="AH108" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG108,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG108,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL108" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK108,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK108,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - Cooling</v>
       </c>
-      <c r="AI108" s="245" t="s">
+      <c r="AM108" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ108" s="70" t="s">
+      <c r="AN108" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK108" s="70" t="s">
+      <c r="AO108" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN108" s="254" t="s">
+      <c r="AR108" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO108" s="72" t="str">
+      <c r="AS108" s="72" t="str">
         <f t="shared" si="62"/>
         <v>ICPC</v>
       </c>
-      <c r="AP108" s="254" t="s">
+      <c r="AT108" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ108" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO108)</f>
+      <c r="AU108" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS108)</f>
         <v>4.0459000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:47">
       <c r="A109" s="45" t="str">
         <f t="shared" si="59"/>
         <v>Industry-Chemicals-HVAC - Electricity</v>
@@ -22838,59 +22836,59 @@
       <c r="U109" s="74"/>
       <c r="V109" s="74"/>
       <c r="W109" s="74"/>
-      <c r="Z109" t="str">
+      <c r="AD109" t="str">
         <f>B109</f>
         <v>ICPHELC-E</v>
       </c>
-      <c r="AA109" t="str">
+      <c r="AE109" t="str">
         <f>A109</f>
         <v>Industry-Chemicals-HVAC - Electricity</v>
       </c>
-      <c r="AB109" s="70" t="s">
+      <c r="AF109" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC109" s="70" t="s">
+      <c r="AG109" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD109" s="70" t="s">
+      <c r="AH109" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE109" s="70" t="s">
+      <c r="AI109" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG109" s="70" t="str">
+      <c r="AK109" s="70" t="str">
         <f>D109</f>
         <v>ICPH</v>
       </c>
-      <c r="AH109" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG109,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG109,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL109" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK109,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK109,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - HVAC</v>
       </c>
-      <c r="AI109" s="245" t="s">
+      <c r="AM109" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ109" s="70" t="s">
+      <c r="AN109" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK109" s="70" t="s">
+      <c r="AO109" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN109" s="254" t="s">
+      <c r="AR109" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO109" s="72" t="str">
+      <c r="AS109" s="72" t="str">
         <f t="shared" si="62"/>
         <v>ICPH</v>
       </c>
-      <c r="AP109" s="254" t="s">
+      <c r="AT109" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ109" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO109)</f>
+      <c r="AU109" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS109)</f>
         <v>0.72826200000000008</v>
       </c>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:47">
       <c r="A110" s="45" t="str">
         <f t="shared" si="59"/>
         <v>Industry-Chemicals-Pumping - Electricity</v>
@@ -22945,59 +22943,59 @@
       <c r="U110" s="74"/>
       <c r="V110" s="74"/>
       <c r="W110" s="74"/>
-      <c r="Z110" t="str">
+      <c r="AD110" t="str">
         <f>B110</f>
         <v>ICPPELC-E</v>
       </c>
-      <c r="AA110" t="str">
+      <c r="AE110" t="str">
         <f>A110</f>
         <v>Industry-Chemicals-Pumping - Electricity</v>
       </c>
-      <c r="AB110" s="70" t="s">
+      <c r="AF110" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC110" s="70" t="s">
+      <c r="AG110" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD110" s="70" t="s">
+      <c r="AH110" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE110" s="70" t="s">
+      <c r="AI110" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG110" s="70" t="str">
+      <c r="AK110" s="70" t="str">
         <f>D110</f>
         <v>ICPP</v>
       </c>
-      <c r="AH110" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG110,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG110,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL110" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK110,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK110,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - Pumping</v>
       </c>
-      <c r="AI110" s="245" t="s">
+      <c r="AM110" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ110" s="70" t="s">
+      <c r="AN110" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK110" s="70" t="s">
+      <c r="AO110" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN110" s="254" t="s">
+      <c r="AR110" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO110" s="72" t="str">
+      <c r="AS110" s="72" t="str">
         <f t="shared" si="62"/>
         <v>ICPP</v>
       </c>
-      <c r="AP110" s="254" t="s">
+      <c r="AT110" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ110" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO110)</f>
+      <c r="AU110" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS110)</f>
         <v>11.328520000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:47">
       <c r="A111" s="45" t="str">
         <f t="shared" si="59"/>
         <v>Industry-Chemicals-Fans - Electricity</v>
@@ -23052,59 +23050,59 @@
       <c r="U111" s="74"/>
       <c r="V111" s="74"/>
       <c r="W111" s="74"/>
-      <c r="Z111" t="str">
+      <c r="AD111" t="str">
         <f>B111</f>
         <v>ICPFELC-E</v>
       </c>
-      <c r="AA111" t="str">
+      <c r="AE111" t="str">
         <f>A111</f>
         <v>Industry-Chemicals-Fans - Electricity</v>
       </c>
-      <c r="AB111" s="70" t="s">
+      <c r="AF111" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC111" s="70" t="s">
+      <c r="AG111" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD111" s="70" t="s">
+      <c r="AH111" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE111" s="70" t="s">
+      <c r="AI111" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG111" s="70" t="str">
+      <c r="AK111" s="70" t="str">
         <f>D111</f>
         <v>ICPF</v>
       </c>
-      <c r="AH111" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG111,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG111,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL111" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK111,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK111,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - Fans</v>
       </c>
-      <c r="AI111" s="245" t="s">
+      <c r="AM111" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ111" s="70" t="s">
+      <c r="AN111" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK111" s="70" t="s">
+      <c r="AO111" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN111" s="254" t="s">
+      <c r="AR111" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO111" s="72" t="str">
+      <c r="AS111" s="72" t="str">
         <f t="shared" si="62"/>
         <v>ICPF</v>
       </c>
-      <c r="AP111" s="254" t="s">
+      <c r="AT111" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ111" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO111)</f>
+      <c r="AU111" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS111)</f>
         <v>2.5893760000000006</v>
       </c>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:47">
       <c r="A112" s="45" t="str">
         <f t="shared" si="59"/>
         <v>Industry-Chemicals-Other motive - Electricity</v>
@@ -23159,59 +23157,59 @@
       <c r="U112" s="74"/>
       <c r="V112" s="74"/>
       <c r="W112" s="74"/>
-      <c r="Z112" t="str">
+      <c r="AD112" t="str">
         <f>B112</f>
         <v>ICPOELC-E</v>
       </c>
-      <c r="AA112" t="str">
+      <c r="AE112" t="str">
         <f>A112</f>
         <v>Industry-Chemicals-Other motive - Electricity</v>
       </c>
-      <c r="AB112" s="70" t="s">
+      <c r="AF112" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC112" s="70" t="s">
+      <c r="AG112" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD112" s="70" t="s">
+      <c r="AH112" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE112" s="70" t="s">
+      <c r="AI112" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG112" s="70" t="str">
+      <c r="AK112" s="70" t="str">
         <f>D112</f>
         <v>ICPO</v>
       </c>
-      <c r="AH112" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG112,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG112,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL112" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK112,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK112,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - Other motive</v>
       </c>
-      <c r="AI112" s="245" t="s">
+      <c r="AM112" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ112" s="70" t="s">
+      <c r="AN112" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK112" s="70" t="s">
+      <c r="AO112" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN112" s="254" t="s">
+      <c r="AR112" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO112" s="72" t="str">
+      <c r="AS112" s="72" t="str">
         <f t="shared" si="62"/>
         <v>ICPO</v>
       </c>
-      <c r="AP112" s="254" t="s">
+      <c r="AT112" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ112" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO112)</f>
+      <c r="AU112" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS112)</f>
         <v>6.473440000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:47">
       <c r="A113" s="45" t="str">
         <f t="shared" si="59"/>
         <v>Industry-Chemicals-Electrochemical - Electricity</v>
@@ -23266,59 +23264,59 @@
       <c r="U113" s="74"/>
       <c r="V113" s="74"/>
       <c r="W113" s="74"/>
-      <c r="Z113" t="str">
+      <c r="AD113" t="str">
         <f>B113</f>
         <v>ICPEELC-E</v>
       </c>
-      <c r="AA113" t="str">
+      <c r="AE113" t="str">
         <f>A113</f>
         <v>Industry-Chemicals-Electrochemical - Electricity</v>
       </c>
-      <c r="AB113" s="70" t="s">
+      <c r="AF113" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC113" s="70" t="s">
+      <c r="AG113" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD113" s="70" t="s">
+      <c r="AH113" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE113" s="70" t="s">
+      <c r="AI113" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG113" s="70" t="str">
+      <c r="AK113" s="70" t="str">
         <f>D113</f>
         <v>ICPE</v>
       </c>
-      <c r="AH113" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG113,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG113,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL113" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK113,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK113,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - Electrochemical</v>
       </c>
-      <c r="AI113" s="245" t="s">
+      <c r="AM113" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ113" s="70" t="s">
+      <c r="AN113" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK113" s="70" t="s">
+      <c r="AO113" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN113" s="254" t="s">
+      <c r="AR113" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO113" s="72" t="str">
+      <c r="AS113" s="72" t="str">
         <f t="shared" si="62"/>
         <v>ICPE</v>
       </c>
-      <c r="AP113" s="254" t="s">
+      <c r="AT113" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ113" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO113)</f>
+      <c r="AU113" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS113)</f>
         <v>2.4599072000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:47">
       <c r="A114" s="45" t="s">
         <v>476</v>
       </c>
@@ -23346,32 +23344,32 @@
       <c r="U114" s="74"/>
       <c r="V114" s="74"/>
       <c r="W114" s="74"/>
-      <c r="Z114" s="26" t="s">
+      <c r="AD114" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB114" s="70"/>
-      <c r="AC114" s="70"/>
-      <c r="AD114" s="70"/>
-      <c r="AE114" s="70"/>
-      <c r="AG114" s="26" t="s">
+      <c r="AF114" s="70"/>
+      <c r="AG114" s="70"/>
+      <c r="AH114" s="70"/>
+      <c r="AI114" s="70"/>
+      <c r="AK114" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN114" s="72" t="s">
+      <c r="AR114" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO114" s="72" t="str">
+      <c r="AS114" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP114" s="254" t="s">
+      <c r="AT114" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ114" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO114)</f>
+      <c r="AU114" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS114)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="115" spans="1:43" ht="14.25" customHeight="1">
+    <row r="115" spans="1:47" ht="14.25" customHeight="1">
       <c r="A115" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$14&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C115,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
@@ -23450,59 +23448,59 @@
         <v>0</v>
       </c>
       <c r="W115" s="74"/>
-      <c r="Z115" t="str">
+      <c r="AD115" t="str">
         <f>B115</f>
         <v>ICPSCLE-E</v>
       </c>
-      <c r="AA115" t="str">
+      <c r="AE115" t="str">
         <f>A115</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB115" s="70" t="s">
+      <c r="AF115" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC115" s="70" t="s">
+      <c r="AG115" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD115" s="70" t="s">
+      <c r="AH115" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE115" s="70" t="s">
+      <c r="AI115" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG115" s="70" t="str">
+      <c r="AK115" s="70" t="str">
         <f>D115</f>
         <v>ICPS</v>
       </c>
-      <c r="AH115" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG115,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG115,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL115" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK115,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK115,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - boiler/process heating</v>
       </c>
-      <c r="AI115" s="245" t="s">
+      <c r="AM115" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ115" s="70" t="s">
+      <c r="AN115" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK115" s="70" t="s">
+      <c r="AO115" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN115" s="254" t="s">
+      <c r="AR115" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO115" s="72" t="str">
+      <c r="AS115" s="72" t="str">
         <f t="shared" si="62"/>
         <v>ICPS</v>
       </c>
-      <c r="AP115" s="254" t="s">
+      <c r="AT115" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ115" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO115)</f>
+      <c r="AU115" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS115)</f>
         <v>19.307168400000002</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:47">
       <c r="A116" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$14&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C116,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
@@ -23582,58 +23580,58 @@
         <v>0</v>
       </c>
       <c r="W116" s="74"/>
-      <c r="Z116" t="str">
+      <c r="AD116" t="str">
         <f>B116</f>
         <v>ICPSGAS-E</v>
       </c>
-      <c r="AA116" t="str">
+      <c r="AE116" t="str">
         <f>A116</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB116" s="70" t="s">
+      <c r="AF116" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC116" s="70" t="s">
+      <c r="AG116" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD116" s="70" t="s">
+      <c r="AH116" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE116" s="70" t="s">
+      <c r="AI116" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG116" s="26" t="s">
+      <c r="AK116" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH116" s="70" t="str">
+      <c r="AL116" s="70" t="str">
         <f>A116</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI116" s="245" t="s">
+      <c r="AM116" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ116" s="70" t="s">
+      <c r="AN116" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK116" s="70" t="s">
+      <c r="AO116" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN116" s="72" t="s">
+      <c r="AR116" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO116" s="72" t="str">
+      <c r="AS116" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP116" s="254" t="s">
+      <c r="AT116" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ116" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO116)</f>
+      <c r="AU116" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS116)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:47">
       <c r="A117" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$14&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C117,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
@@ -23713,58 +23711,58 @@
         <v>0</v>
       </c>
       <c r="W117" s="74"/>
-      <c r="Z117" t="str">
+      <c r="AD117" t="str">
         <f>B117</f>
         <v>ICPSOHF-E</v>
       </c>
-      <c r="AA117" t="str">
+      <c r="AE117" t="str">
         <f>A117</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB117" s="70" t="s">
+      <c r="AF117" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC117" s="70" t="s">
+      <c r="AG117" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD117" s="70" t="s">
+      <c r="AH117" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE117" s="70" t="s">
+      <c r="AI117" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG117" s="26" t="s">
+      <c r="AK117" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH117" s="70" t="str">
+      <c r="AL117" s="70" t="str">
         <f>A117</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI117" s="245" t="s">
+      <c r="AM117" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ117" s="70" t="s">
+      <c r="AN117" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK117" s="70" t="s">
+      <c r="AO117" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN117" s="72" t="s">
+      <c r="AR117" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO117" s="72" t="str">
+      <c r="AS117" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP117" s="254" t="s">
+      <c r="AT117" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ117" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO117)</f>
+      <c r="AU117" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS117)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:47">
       <c r="A118" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$14&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C118,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
@@ -23844,58 +23842,58 @@
         <v>0</v>
       </c>
       <c r="W118" s="74"/>
-      <c r="Z118" t="str">
+      <c r="AD118" t="str">
         <f>B118</f>
         <v>ICPSOLP-E</v>
       </c>
-      <c r="AA118" t="str">
+      <c r="AE118" t="str">
         <f>A118</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB118" s="70" t="s">
+      <c r="AF118" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC118" s="70" t="s">
+      <c r="AG118" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD118" s="70" t="s">
+      <c r="AH118" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE118" s="70" t="s">
+      <c r="AI118" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG118" s="26" t="s">
+      <c r="AK118" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH118" s="70" t="str">
+      <c r="AL118" s="70" t="str">
         <f>A118</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI118" s="245" t="s">
+      <c r="AM118" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ118" s="70" t="s">
+      <c r="AN118" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK118" s="70" t="s">
+      <c r="AO118" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN118" s="72" t="s">
+      <c r="AR118" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO118" s="72" t="str">
+      <c r="AS118" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP118" s="254" t="s">
+      <c r="AT118" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ118" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO118)</f>
+      <c r="AU118" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS118)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="119" spans="1:43" ht="15">
+    <row r="119" spans="1:47" ht="15">
       <c r="A119" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$14&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C119,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
@@ -23975,58 +23973,58 @@
         <v>0</v>
       </c>
       <c r="W119" s="74"/>
-      <c r="Z119" t="str">
+      <c r="AD119" t="str">
         <f>B119</f>
         <v>ICPSELC-E</v>
       </c>
-      <c r="AA119" t="str">
+      <c r="AE119" t="str">
         <f>A119</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB119" s="70" t="s">
+      <c r="AF119" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC119" s="70" t="s">
+      <c r="AG119" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD119" s="70" t="s">
+      <c r="AH119" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE119" s="70" t="s">
+      <c r="AI119" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG119" s="26" t="s">
+      <c r="AK119" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH119" s="70" t="str">
+      <c r="AL119" s="70" t="str">
         <f>A119</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI119" s="245" t="s">
+      <c r="AM119" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ119" s="70" t="s">
+      <c r="AN119" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK119" s="70" t="s">
+      <c r="AO119" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN119" s="72" t="s">
+      <c r="AR119" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO119" s="72" t="str">
+      <c r="AS119" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP119" s="254" t="s">
+      <c r="AT119" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ119" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO119)</f>
+      <c r="AU119" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS119)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="120" spans="1:43" ht="15">
+    <row r="120" spans="1:47" ht="15">
       <c r="A120" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$14&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C120,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Heat Pump New"</f>
         <v>Industry-Chemicals-boiler/process heating -  - Heat Pump New</v>
@@ -24101,58 +24099,58 @@
         <v>0</v>
       </c>
       <c r="W120" s="74"/>
-      <c r="Z120" t="str">
+      <c r="AD120" t="str">
         <f>B120</f>
         <v>ICPSELC-N</v>
       </c>
-      <c r="AA120" t="str">
+      <c r="AE120" t="str">
         <f>A120</f>
         <v>Industry-Chemicals-boiler/process heating -  - Heat Pump New</v>
       </c>
-      <c r="AB120" s="70" t="s">
+      <c r="AF120" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC120" s="70" t="s">
+      <c r="AG120" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD120" s="70" t="s">
+      <c r="AH120" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE120" s="70" t="s">
+      <c r="AI120" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG120" s="26" t="s">
+      <c r="AK120" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH120" s="70" t="str">
+      <c r="AL120" s="70" t="str">
         <f>A120</f>
         <v>Industry-Chemicals-boiler/process heating -  - Heat Pump New</v>
       </c>
-      <c r="AI120" s="245" t="s">
+      <c r="AM120" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ120" s="70" t="s">
+      <c r="AN120" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK120" s="70" t="s">
+      <c r="AO120" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN120" s="72" t="s">
+      <c r="AR120" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO120" s="72" t="str">
+      <c r="AS120" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP120" s="254" t="s">
+      <c r="AT120" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ120" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO120)</f>
+      <c r="AU120" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS120)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:47">
       <c r="A121" s="45" t="s">
         <v>469</v>
       </c>
@@ -24228,58 +24226,58 @@
         <v>0</v>
       </c>
       <c r="W121" s="74"/>
-      <c r="Z121" t="str">
+      <c r="AD121" t="str">
         <f>B121</f>
         <v>ICPSHGN-N</v>
       </c>
-      <c r="AA121" t="str">
+      <c r="AE121" t="str">
         <f>A121</f>
         <v>Industry-Chemicals-boiler/process heating - Hydrogen - New</v>
       </c>
-      <c r="AB121" s="70" t="s">
+      <c r="AF121" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC121" s="70" t="s">
+      <c r="AG121" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD121" s="70" t="s">
+      <c r="AH121" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE121" s="70" t="s">
+      <c r="AI121" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG121" s="26" t="s">
+      <c r="AK121" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH121" s="70" t="str">
+      <c r="AL121" s="70" t="str">
         <f>A121</f>
         <v>Industry-Chemicals-boiler/process heating - Hydrogen - New</v>
       </c>
-      <c r="AI121" s="245" t="s">
+      <c r="AM121" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ121" s="70" t="s">
+      <c r="AN121" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK121" s="70" t="s">
+      <c r="AO121" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN121" s="72" t="s">
+      <c r="AR121" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO121" s="72" t="str">
+      <c r="AS121" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP121" s="254" t="s">
+      <c r="AT121" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ121" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO121)</f>
+      <c r="AU121" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS121)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="122" spans="1:43">
+    <row r="122" spans="1:47">
       <c r="A122" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$14&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C122,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
@@ -24358,58 +24356,58 @@
         <v>0</v>
       </c>
       <c r="W122" s="74"/>
-      <c r="Z122" t="str">
+      <c r="AD122" t="str">
         <f>B122</f>
         <v>ICPSWAS-E</v>
       </c>
-      <c r="AA122" t="str">
+      <c r="AE122" t="str">
         <f>A122</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB122" s="70" t="s">
+      <c r="AF122" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC122" s="70" t="s">
+      <c r="AG122" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD122" s="70" t="s">
+      <c r="AH122" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE122" s="70" t="s">
+      <c r="AI122" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG122" s="26" t="s">
+      <c r="AK122" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH122" s="70" t="str">
+      <c r="AL122" s="70" t="str">
         <f>A122</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI122" s="245" t="s">
+      <c r="AM122" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ122" s="70" t="s">
+      <c r="AN122" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK122" s="70" t="s">
+      <c r="AO122" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN122" s="72" t="s">
+      <c r="AR122" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO122" s="72" t="str">
+      <c r="AS122" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP122" s="254" t="s">
+      <c r="AT122" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ122" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO122)</f>
+      <c r="AU122" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS122)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="123" spans="1:43">
+    <row r="123" spans="1:47">
       <c r="A123" s="45" t="s">
         <v>619</v>
       </c>
@@ -24436,32 +24434,32 @@
       <c r="U123" s="74"/>
       <c r="V123" s="74"/>
       <c r="W123" s="74"/>
-      <c r="Z123" s="26" t="s">
+      <c r="AD123" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB123" s="70"/>
-      <c r="AC123" s="70"/>
-      <c r="AD123" s="70"/>
-      <c r="AE123" s="70"/>
-      <c r="AG123" s="26" t="s">
+      <c r="AF123" s="70"/>
+      <c r="AG123" s="70"/>
+      <c r="AH123" s="70"/>
+      <c r="AI123" s="70"/>
+      <c r="AK123" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN123" s="72" t="s">
+      <c r="AR123" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO123" s="72" t="str">
+      <c r="AS123" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP123" s="254" t="s">
+      <c r="AT123" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ123" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO123)</f>
+      <c r="AU123" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS123)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="124" spans="1:43" ht="15">
+    <row r="124" spans="1:47" ht="15">
       <c r="A124" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$14&amp;"-"&amp;A$71&amp;" - "&amp;VLOOKUP(RIGHT(C124,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Chemicals-Non-Energy Use -  - Existing</v>
@@ -24539,59 +24537,59 @@
       </c>
       <c r="W124" s="74"/>
       <c r="X124" s="77"/>
-      <c r="Z124" t="str">
+      <c r="AD124" t="str">
         <f>B124</f>
         <v>ICPTGMU-E</v>
       </c>
-      <c r="AA124" t="str">
+      <c r="AE124" t="str">
         <f>A124</f>
         <v>Industry-Chemicals-Non-Energy Use -  - Existing</v>
       </c>
-      <c r="AB124" s="70" t="s">
+      <c r="AF124" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC124" s="70" t="s">
+      <c r="AG124" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD124" s="70" t="s">
+      <c r="AH124" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE124" s="70" t="s">
+      <c r="AI124" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG124" s="70" t="str">
+      <c r="AK124" s="70" t="str">
         <f>D124</f>
         <v>ICPT</v>
       </c>
-      <c r="AH124" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG124,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG124,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL124" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK124,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK124,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Chemicals - Non-Energy Use</v>
       </c>
-      <c r="AI124" s="245" t="s">
+      <c r="AM124" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ124" s="70" t="s">
+      <c r="AN124" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK124" s="70" t="s">
+      <c r="AO124" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN124" s="254" t="s">
+      <c r="AR124" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO124" s="72" t="str">
+      <c r="AS124" s="72" t="str">
         <f t="shared" si="62"/>
         <v>ICPT</v>
       </c>
-      <c r="AP124" s="254" t="s">
+      <c r="AT124" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ124" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO124)</f>
+      <c r="AU124" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS124)</f>
         <v>26.6</v>
       </c>
     </row>
-    <row r="125" spans="1:43" ht="51.95" customHeight="1" thickBot="1">
+    <row r="125" spans="1:47" ht="51.95" customHeight="1" thickBot="1">
       <c r="A125" s="244" t="s">
         <v>617</v>
       </c>
@@ -24614,32 +24612,32 @@
       <c r="U125" s="74"/>
       <c r="V125" s="74"/>
       <c r="W125" s="74"/>
-      <c r="Z125" s="26" t="s">
+      <c r="AD125" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB125" s="70"/>
-      <c r="AC125" s="70"/>
-      <c r="AD125" s="70"/>
-      <c r="AE125" s="70"/>
-      <c r="AG125" s="26" t="s">
+      <c r="AF125" s="70"/>
+      <c r="AG125" s="70"/>
+      <c r="AH125" s="70"/>
+      <c r="AI125" s="70"/>
+      <c r="AK125" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN125" s="72" t="s">
+      <c r="AR125" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO125" s="72" t="str">
+      <c r="AS125" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP125" s="254" t="s">
+      <c r="AT125" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ125" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO125)</f>
+      <c r="AU125" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS125)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:47">
       <c r="A126" s="12" t="s">
         <v>476</v>
       </c>
@@ -24665,32 +24663,32 @@
       <c r="U126" s="74"/>
       <c r="V126" s="74"/>
       <c r="W126" s="74"/>
-      <c r="Z126" s="26" t="s">
+      <c r="AD126" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB126" s="70"/>
-      <c r="AC126" s="70"/>
-      <c r="AD126" s="70"/>
-      <c r="AE126" s="70"/>
-      <c r="AG126" s="26" t="s">
+      <c r="AF126" s="70"/>
+      <c r="AG126" s="70"/>
+      <c r="AH126" s="70"/>
+      <c r="AI126" s="70"/>
+      <c r="AK126" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN126" s="72" t="s">
+      <c r="AR126" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO126" s="72" t="str">
+      <c r="AS126" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP126" s="254" t="s">
+      <c r="AT126" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ126" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO126)</f>
+      <c r="AU126" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS126)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:47">
       <c r="A127" s="12" t="s">
         <v>476</v>
       </c>
@@ -24730,32 +24728,32 @@
       <c r="U127" s="74"/>
       <c r="V127" s="74"/>
       <c r="W127" s="74"/>
-      <c r="Z127" s="26" t="s">
+      <c r="AD127" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB127" s="70"/>
-      <c r="AC127" s="70"/>
-      <c r="AD127" s="70"/>
-      <c r="AE127" s="70"/>
-      <c r="AG127" s="26" t="s">
+      <c r="AF127" s="70"/>
+      <c r="AG127" s="70"/>
+      <c r="AH127" s="70"/>
+      <c r="AI127" s="70"/>
+      <c r="AK127" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN127" s="72" t="s">
+      <c r="AR127" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO127" s="72" t="str">
+      <c r="AS127" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP127" s="254" t="s">
+      <c r="AT127" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ127" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO127)</f>
+      <c r="AU127" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS127)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:47">
       <c r="A128" s="45" t="str">
         <f t="shared" ref="A128:A136" si="82">A$5&amp;"-"&amp;A$15&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Elec Heating - Electricity</v>
@@ -24810,59 +24808,59 @@
       <c r="U128" s="74"/>
       <c r="V128" s="74"/>
       <c r="W128" s="74"/>
-      <c r="Z128" t="str">
+      <c r="AD128" t="str">
         <f>B128</f>
         <v>INFKELC-E</v>
       </c>
-      <c r="AA128" t="str">
+      <c r="AE128" t="str">
         <f>A128</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Elec Heating - Electricity</v>
       </c>
-      <c r="AB128" s="70" t="s">
+      <c r="AF128" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC128" s="70" t="s">
+      <c r="AG128" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD128" s="70" t="s">
+      <c r="AH128" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE128" s="70" t="s">
+      <c r="AI128" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG128" s="70" t="str">
+      <c r="AK128" s="70" t="str">
         <f>D128</f>
         <v>INFK</v>
       </c>
-      <c r="AH128" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG128,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG128,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL128" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK128,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK128,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Precious &amp; Non-Ferrous metals - Elec Heating</v>
       </c>
-      <c r="AI128" s="245" t="s">
+      <c r="AM128" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ128" s="70" t="s">
+      <c r="AN128" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK128" s="70" t="s">
+      <c r="AO128" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN128" s="254" t="s">
+      <c r="AR128" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO128" s="72" t="str">
+      <c r="AS128" s="72" t="str">
         <f t="shared" si="62"/>
         <v>INFK</v>
       </c>
-      <c r="AP128" s="254" t="s">
+      <c r="AT128" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ128" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO128)</f>
+      <c r="AU128" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS128)</f>
         <v>0.10062942167027458</v>
       </c>
     </row>
-    <row r="129" spans="1:43">
+    <row r="129" spans="1:47">
       <c r="A129" s="45" t="str">
         <f t="shared" si="82"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Compressed air - Electricity</v>
@@ -24917,59 +24915,59 @@
       <c r="U129" s="74"/>
       <c r="V129" s="74"/>
       <c r="W129" s="74"/>
-      <c r="Z129" t="str">
+      <c r="AD129" t="str">
         <f>B129</f>
         <v>INFAELC-E</v>
       </c>
-      <c r="AA129" t="str">
+      <c r="AE129" t="str">
         <f>A129</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Compressed air - Electricity</v>
       </c>
-      <c r="AB129" s="70" t="s">
+      <c r="AF129" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC129" s="70" t="s">
+      <c r="AG129" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD129" s="70" t="s">
+      <c r="AH129" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE129" s="70" t="s">
+      <c r="AI129" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG129" s="70" t="str">
+      <c r="AK129" s="70" t="str">
         <f>D129</f>
         <v>INFA</v>
       </c>
-      <c r="AH129" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG129,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG129,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL129" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK129,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK129,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Precious &amp; Non-Ferrous metals - Compressed air</v>
       </c>
-      <c r="AI129" s="245" t="s">
+      <c r="AM129" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ129" s="70" t="s">
+      <c r="AN129" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK129" s="70" t="s">
+      <c r="AO129" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN129" s="254" t="s">
+      <c r="AR129" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO129" s="72" t="str">
+      <c r="AS129" s="72" t="str">
         <f t="shared" si="62"/>
         <v>INFA</v>
       </c>
-      <c r="AP129" s="254" t="s">
+      <c r="AT129" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ129" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO129)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:43">
+      <c r="AU129" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:47">
       <c r="A130" s="45" t="str">
         <f t="shared" si="82"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Lighting - Electricity</v>
@@ -25024,59 +25022,59 @@
       <c r="U130" s="74"/>
       <c r="V130" s="74"/>
       <c r="W130" s="74"/>
-      <c r="Z130" t="str">
+      <c r="AD130" t="str">
         <f>B130</f>
         <v>INFLELC-E</v>
       </c>
-      <c r="AA130" t="str">
+      <c r="AE130" t="str">
         <f>A130</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Lighting - Electricity</v>
       </c>
-      <c r="AB130" s="70" t="s">
+      <c r="AF130" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC130" s="70" t="s">
+      <c r="AG130" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD130" s="70" t="s">
+      <c r="AH130" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE130" s="70" t="s">
+      <c r="AI130" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG130" s="70" t="str">
+      <c r="AK130" s="70" t="str">
         <f>D130</f>
         <v>INFL</v>
       </c>
-      <c r="AH130" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG130,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG130,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL130" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK130,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK130,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Precious &amp; Non-Ferrous metals - Lighting</v>
       </c>
-      <c r="AI130" s="245" t="s">
+      <c r="AM130" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ130" s="70" t="s">
+      <c r="AN130" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK130" s="70" t="s">
+      <c r="AO130" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN130" s="254" t="s">
+      <c r="AR130" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO130" s="72" t="str">
+      <c r="AS130" s="72" t="str">
         <f t="shared" si="62"/>
         <v>INFL</v>
       </c>
-      <c r="AP130" s="254" t="s">
+      <c r="AT130" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ130" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO130)</f>
+      <c r="AU130" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS130)</f>
         <v>3.0188826501082372E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:43">
+    <row r="131" spans="1:47">
       <c r="A131" s="45" t="str">
         <f t="shared" si="82"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Cooling - Electricity</v>
@@ -25131,59 +25129,59 @@
       <c r="U131" s="74"/>
       <c r="V131" s="74"/>
       <c r="W131" s="74"/>
-      <c r="Z131" t="str">
+      <c r="AD131" t="str">
         <f>B131</f>
         <v>INFCELC-E</v>
       </c>
-      <c r="AA131" t="str">
+      <c r="AE131" t="str">
         <f>A131</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Cooling - Electricity</v>
       </c>
-      <c r="AB131" s="70" t="s">
+      <c r="AF131" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC131" s="70" t="s">
+      <c r="AG131" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD131" s="70" t="s">
+      <c r="AH131" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE131" s="70" t="s">
+      <c r="AI131" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG131" s="70" t="str">
+      <c r="AK131" s="70" t="str">
         <f>D131</f>
         <v>INFC</v>
       </c>
-      <c r="AH131" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG131,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG131,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL131" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK131,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK131,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Precious &amp; Non-Ferrous metals - Cooling</v>
       </c>
-      <c r="AI131" s="245" t="s">
+      <c r="AM131" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ131" s="70" t="s">
+      <c r="AN131" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK131" s="70" t="s">
+      <c r="AO131" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN131" s="254" t="s">
+      <c r="AR131" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO131" s="72" t="str">
+      <c r="AS131" s="72" t="str">
         <f t="shared" si="62"/>
         <v>INFC</v>
       </c>
-      <c r="AP131" s="254" t="s">
+      <c r="AT131" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ131" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO131)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:43">
+      <c r="AU131" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:47">
       <c r="A132" s="45" t="str">
         <f t="shared" si="82"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-HVAC - Electricity</v>
@@ -25238,59 +25236,59 @@
       <c r="U132" s="74"/>
       <c r="V132" s="74"/>
       <c r="W132" s="74"/>
-      <c r="Z132" t="str">
+      <c r="AD132" t="str">
         <f>B132</f>
         <v>INFHELC-E</v>
       </c>
-      <c r="AA132" t="str">
+      <c r="AE132" t="str">
         <f>A132</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-HVAC - Electricity</v>
       </c>
-      <c r="AB132" s="70" t="s">
+      <c r="AF132" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC132" s="70" t="s">
+      <c r="AG132" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD132" s="70" t="s">
+      <c r="AH132" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE132" s="70" t="s">
+      <c r="AI132" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG132" s="70" t="str">
+      <c r="AK132" s="70" t="str">
         <f>D132</f>
         <v>INFH</v>
       </c>
-      <c r="AH132" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG132,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG132,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL132" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK132,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK132,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Precious &amp; Non-Ferrous metals - HVAC</v>
       </c>
-      <c r="AI132" s="245" t="s">
+      <c r="AM132" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ132" s="70" t="s">
+      <c r="AN132" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK132" s="70" t="s">
+      <c r="AO132" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN132" s="254" t="s">
+      <c r="AR132" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO132" s="72" t="str">
+      <c r="AS132" s="72" t="str">
         <f t="shared" si="62"/>
         <v>INFH</v>
       </c>
-      <c r="AP132" s="254" t="s">
+      <c r="AT132" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ132" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO132)</f>
+      <c r="AU132" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS132)</f>
         <v>9.056647950324713E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:43">
+    <row r="133" spans="1:47">
       <c r="A133" s="45" t="str">
         <f t="shared" si="82"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Pumping - Electricity</v>
@@ -25345,59 +25343,59 @@
       <c r="U133" s="74"/>
       <c r="V133" s="74"/>
       <c r="W133" s="74"/>
-      <c r="Z133" t="str">
+      <c r="AD133" t="str">
         <f>B133</f>
         <v>INFPELC-E</v>
       </c>
-      <c r="AA133" t="str">
+      <c r="AE133" t="str">
         <f>A133</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Pumping - Electricity</v>
       </c>
-      <c r="AB133" s="70" t="s">
+      <c r="AF133" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC133" s="70" t="s">
+      <c r="AG133" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD133" s="70" t="s">
+      <c r="AH133" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE133" s="70" t="s">
+      <c r="AI133" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG133" s="70" t="str">
+      <c r="AK133" s="70" t="str">
         <f>D133</f>
         <v>INFP</v>
       </c>
-      <c r="AH133" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG133,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG133,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL133" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK133,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK133,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Precious &amp; Non-Ferrous metals - Pumping</v>
       </c>
-      <c r="AI133" s="245" t="s">
+      <c r="AM133" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ133" s="70" t="s">
+      <c r="AN133" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK133" s="70" t="s">
+      <c r="AO133" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN133" s="254" t="s">
+      <c r="AR133" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO133" s="72" t="str">
+      <c r="AS133" s="72" t="str">
         <f t="shared" si="62"/>
         <v>INFP</v>
       </c>
-      <c r="AP133" s="254" t="s">
+      <c r="AT133" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ133" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO133)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:43">
+      <c r="AU133" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:47">
       <c r="A134" s="45" t="str">
         <f t="shared" si="82"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Fans - Electricity</v>
@@ -25452,59 +25450,59 @@
       <c r="U134" s="74"/>
       <c r="V134" s="74"/>
       <c r="W134" s="74"/>
-      <c r="Z134" t="str">
+      <c r="AD134" t="str">
         <f>B134</f>
         <v>INFFELC-E</v>
       </c>
-      <c r="AA134" t="str">
+      <c r="AE134" t="str">
         <f>A134</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Fans - Electricity</v>
       </c>
-      <c r="AB134" s="70" t="s">
+      <c r="AF134" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC134" s="70" t="s">
+      <c r="AG134" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD134" s="70" t="s">
+      <c r="AH134" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE134" s="70" t="s">
+      <c r="AI134" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG134" s="70" t="str">
+      <c r="AK134" s="70" t="str">
         <f>D134</f>
         <v>INFF</v>
       </c>
-      <c r="AH134" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG134,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG134,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL134" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK134,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK134,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Precious &amp; Non-Ferrous metals - Fans</v>
       </c>
-      <c r="AI134" s="245" t="s">
+      <c r="AM134" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ134" s="70" t="s">
+      <c r="AN134" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK134" s="70" t="s">
+      <c r="AO134" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN134" s="254" t="s">
+      <c r="AR134" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO134" s="72" t="str">
+      <c r="AS134" s="72" t="str">
         <f t="shared" si="62"/>
         <v>INFF</v>
       </c>
-      <c r="AP134" s="254" t="s">
+      <c r="AT134" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ134" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO134)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:43">
+      <c r="AU134" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:47">
       <c r="A135" s="45" t="str">
         <f t="shared" si="82"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Other motive - Electricity</v>
@@ -25559,59 +25557,59 @@
       <c r="U135" s="74"/>
       <c r="V135" s="74"/>
       <c r="W135" s="74"/>
-      <c r="Z135" t="str">
+      <c r="AD135" t="str">
         <f>B135</f>
         <v>INFOELC-E</v>
       </c>
-      <c r="AA135" t="str">
+      <c r="AE135" t="str">
         <f>A135</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Other motive - Electricity</v>
       </c>
-      <c r="AB135" s="70" t="s">
+      <c r="AF135" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC135" s="70" t="s">
+      <c r="AG135" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD135" s="70" t="s">
+      <c r="AH135" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE135" s="70" t="s">
+      <c r="AI135" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG135" s="70" t="str">
+      <c r="AK135" s="70" t="str">
         <f>D135</f>
         <v>INFO</v>
       </c>
-      <c r="AH135" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG135,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG135,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL135" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK135,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK135,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Precious &amp; Non-Ferrous metals - Other motive</v>
       </c>
-      <c r="AI135" s="245" t="s">
+      <c r="AM135" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ135" s="70" t="s">
+      <c r="AN135" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK135" s="70" t="s">
+      <c r="AO135" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN135" s="254" t="s">
+      <c r="AR135" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO135" s="72" t="str">
+      <c r="AS135" s="72" t="str">
         <f t="shared" si="62"/>
         <v>INFO</v>
       </c>
-      <c r="AP135" s="254" t="s">
+      <c r="AT135" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ135" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO135)</f>
+      <c r="AU135" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS135)</f>
         <v>0.56352476135353768</v>
       </c>
     </row>
-    <row r="136" spans="1:43">
+    <row r="136" spans="1:47">
       <c r="A136" s="45" t="str">
         <f t="shared" si="82"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Electrochemical - Electricity</v>
@@ -25666,59 +25664,59 @@
       <c r="U136" s="74"/>
       <c r="V136" s="74"/>
       <c r="W136" s="74"/>
-      <c r="Z136" t="str">
+      <c r="AD136" t="str">
         <f>B136</f>
         <v>INFEELC-E</v>
       </c>
-      <c r="AA136" t="str">
+      <c r="AE136" t="str">
         <f>A136</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Electrochemical - Electricity</v>
       </c>
-      <c r="AB136" s="70" t="s">
+      <c r="AF136" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC136" s="70" t="s">
+      <c r="AG136" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD136" s="70" t="s">
+      <c r="AH136" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE136" s="70" t="s">
+      <c r="AI136" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG136" s="70" t="str">
+      <c r="AK136" s="70" t="str">
         <f>D136</f>
         <v>INFE</v>
       </c>
-      <c r="AH136" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG136,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG136,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL136" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK136,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK136,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Precious &amp; Non-Ferrous metals - Electrochemical</v>
       </c>
-      <c r="AI136" s="245" t="s">
+      <c r="AM136" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ136" s="70" t="s">
+      <c r="AN136" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK136" s="70" t="s">
+      <c r="AO136" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN136" s="254" t="s">
+      <c r="AR136" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO136" s="72" t="str">
+      <c r="AS136" s="72" t="str">
         <f t="shared" si="62"/>
         <v>INFE</v>
       </c>
-      <c r="AP136" s="254" t="s">
+      <c r="AT136" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ136" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO136)</f>
+      <c r="AU136" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS136)</f>
         <v>6.8830524422467816</v>
       </c>
     </row>
-    <row r="137" spans="1:43">
+    <row r="137" spans="1:47">
       <c r="A137" s="45" t="s">
         <v>476</v>
       </c>
@@ -25746,32 +25744,32 @@
       <c r="U137" s="74"/>
       <c r="V137" s="74"/>
       <c r="W137" s="74"/>
-      <c r="Z137" s="26" t="s">
+      <c r="AD137" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB137" s="70"/>
-      <c r="AC137" s="70"/>
-      <c r="AD137" s="70"/>
-      <c r="AE137" s="70"/>
-      <c r="AG137" s="26" t="s">
+      <c r="AF137" s="70"/>
+      <c r="AG137" s="70"/>
+      <c r="AH137" s="70"/>
+      <c r="AI137" s="70"/>
+      <c r="AK137" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN137" s="72" t="s">
+      <c r="AR137" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO137" s="72" t="str">
+      <c r="AS137" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP137" s="254" t="s">
+      <c r="AT137" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ137" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO137)</f>
+      <c r="AU137" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS137)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="138" spans="1:43">
+    <row r="138" spans="1:47">
       <c r="A138" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$15&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C138,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
@@ -25822,7 +25820,7 @@
         <v>0.15100025110906504</v>
       </c>
       <c r="O138" s="77">
-        <f t="shared" ref="O138:Q143" si="92">MIN(1,$N138+O$75)</f>
+        <f t="shared" ref="O138:Q142" si="92">MIN(1,$N138+O$75)</f>
         <v>0.65100025110906501</v>
       </c>
       <c r="P138" s="77">
@@ -25851,59 +25849,59 @@
         <v>0</v>
       </c>
       <c r="W138" s="74"/>
-      <c r="Z138" t="str">
+      <c r="AD138" t="str">
         <f>B138</f>
         <v>INFSCOA-E</v>
       </c>
-      <c r="AA138" t="str">
+      <c r="AE138" t="str">
         <f>A138</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB138" s="70" t="s">
+      <c r="AF138" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC138" s="70" t="s">
+      <c r="AG138" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD138" s="70" t="s">
+      <c r="AH138" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE138" s="70" t="s">
+      <c r="AI138" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG138" s="70" t="str">
+      <c r="AK138" s="70" t="str">
         <f>D138</f>
         <v>INFS</v>
       </c>
-      <c r="AH138" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG138,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG138,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL138" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK138,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK138,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Precious &amp; Non-Ferrous metals - boiler/process heating</v>
       </c>
-      <c r="AI138" s="245" t="s">
+      <c r="AM138" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ138" s="70" t="s">
+      <c r="AN138" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK138" s="70" t="s">
+      <c r="AO138" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN138" s="254" t="s">
+      <c r="AR138" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO138" s="72" t="str">
+      <c r="AS138" s="72" t="str">
         <f t="shared" si="62"/>
         <v>INFS</v>
       </c>
-      <c r="AP138" s="254" t="s">
+      <c r="AT138" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ138" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO138)</f>
+      <c r="AU138" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS138)</f>
         <v>1.9115199999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:43">
+    <row r="139" spans="1:47">
       <c r="A139" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$15&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C139,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
@@ -25983,58 +25981,58 @@
         <v>0</v>
       </c>
       <c r="W139" s="74"/>
-      <c r="Z139" t="str">
+      <c r="AD139" t="str">
         <f>B139</f>
         <v>INFSGAS-E</v>
       </c>
-      <c r="AA139" t="str">
+      <c r="AE139" t="str">
         <f>A139</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB139" s="70" t="s">
+      <c r="AF139" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC139" s="70" t="s">
+      <c r="AG139" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD139" s="70" t="s">
+      <c r="AH139" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE139" s="70" t="s">
+      <c r="AI139" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG139" s="26" t="s">
+      <c r="AK139" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH139" s="70" t="str">
+      <c r="AL139" s="70" t="str">
         <f>A139</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI139" s="245" t="s">
+      <c r="AM139" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ139" s="70" t="s">
+      <c r="AN139" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK139" s="70" t="s">
+      <c r="AO139" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN139" s="72" t="s">
+      <c r="AR139" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO139" s="72" t="str">
+      <c r="AS139" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP139" s="254" t="s">
+      <c r="AT139" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ139" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO139)</f>
+      <c r="AU139" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS139)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="140" spans="1:43">
+    <row r="140" spans="1:47">
       <c r="A140" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$15&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C140,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
@@ -26114,58 +26112,58 @@
         <v>0</v>
       </c>
       <c r="W140" s="74"/>
-      <c r="Z140" t="str">
+      <c r="AD140" t="str">
         <f>B140</f>
         <v>INFSOHF-E</v>
       </c>
-      <c r="AA140" t="str">
+      <c r="AE140" t="str">
         <f>A140</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB140" s="70" t="s">
+      <c r="AF140" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC140" s="70" t="s">
+      <c r="AG140" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD140" s="70" t="s">
+      <c r="AH140" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE140" s="70" t="s">
+      <c r="AI140" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG140" s="26" t="s">
+      <c r="AK140" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH140" s="70" t="str">
+      <c r="AL140" s="70" t="str">
         <f>A140</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI140" s="245" t="s">
+      <c r="AM140" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ140" s="70" t="s">
+      <c r="AN140" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK140" s="70" t="s">
+      <c r="AO140" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN140" s="72" t="s">
+      <c r="AR140" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO140" s="72" t="str">
+      <c r="AS140" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP140" s="254" t="s">
+      <c r="AT140" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ140" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO140)</f>
+      <c r="AU140" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS140)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="141" spans="1:43">
+    <row r="141" spans="1:47">
       <c r="A141" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$15&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C141,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
@@ -26245,58 +26243,58 @@
         <v>0</v>
       </c>
       <c r="W141" s="74"/>
-      <c r="Z141" t="str">
+      <c r="AD141" t="str">
         <f>B141</f>
         <v>INFSOLP-E</v>
       </c>
-      <c r="AA141" t="str">
+      <c r="AE141" t="str">
         <f>A141</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB141" s="70" t="s">
+      <c r="AF141" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC141" s="70" t="s">
+      <c r="AG141" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD141" s="70" t="s">
+      <c r="AH141" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE141" s="70" t="s">
+      <c r="AI141" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG141" s="26" t="s">
+      <c r="AK141" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH141" s="70" t="str">
+      <c r="AL141" s="70" t="str">
         <f>A141</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI141" s="245" t="s">
+      <c r="AM141" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ141" s="70" t="s">
+      <c r="AN141" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK141" s="70" t="s">
+      <c r="AO141" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN141" s="72" t="s">
+      <c r="AR141" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO141" s="72" t="str">
+      <c r="AS141" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP141" s="254" t="s">
+      <c r="AT141" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ141" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO141)</f>
+      <c r="AU141" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS141)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="142" spans="1:43">
+    <row r="142" spans="1:47">
       <c r="A142" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$15&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C142,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
@@ -26376,58 +26374,58 @@
         <v>0</v>
       </c>
       <c r="W142" s="74"/>
-      <c r="Z142" t="str">
+      <c r="AD142" t="str">
         <f>B142</f>
         <v>INFSELC-E</v>
       </c>
-      <c r="AA142" t="str">
+      <c r="AE142" t="str">
         <f>A142</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB142" s="70" t="s">
+      <c r="AF142" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC142" s="70" t="s">
+      <c r="AG142" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD142" s="70" t="s">
+      <c r="AH142" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE142" s="70" t="s">
+      <c r="AI142" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG142" s="26" t="s">
+      <c r="AK142" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH142" s="70" t="str">
+      <c r="AL142" s="70" t="str">
         <f>A142</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI142" s="245" t="s">
+      <c r="AM142" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ142" s="70" t="s">
+      <c r="AN142" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK142" s="70" t="s">
+      <c r="AO142" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN142" s="72" t="s">
+      <c r="AR142" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO142" s="72" t="str">
+      <c r="AS142" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP142" s="254" t="s">
+      <c r="AT142" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ142" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO142)</f>
+      <c r="AU142" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS142)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="143" spans="1:43">
+    <row r="143" spans="1:47">
       <c r="A143" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$15&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C143,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
@@ -26506,58 +26504,58 @@
         <v>0</v>
       </c>
       <c r="W143" s="74"/>
-      <c r="Z143" t="str">
+      <c r="AD143" t="str">
         <f>B143</f>
         <v>INFSWAS-E</v>
       </c>
-      <c r="AA143" t="str">
+      <c r="AE143" t="str">
         <f>A143</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB143" s="70" t="s">
+      <c r="AF143" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC143" s="70" t="s">
+      <c r="AG143" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD143" s="70" t="s">
+      <c r="AH143" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE143" s="70" t="s">
+      <c r="AI143" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG143" s="26" t="s">
+      <c r="AK143" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH143" s="70" t="str">
+      <c r="AL143" s="70" t="str">
         <f>A143</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI143" s="245" t="s">
+      <c r="AM143" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ143" s="70" t="s">
+      <c r="AN143" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK143" s="70" t="s">
+      <c r="AO143" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN143" s="72" t="s">
+      <c r="AR143" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO143" s="72" t="str">
+      <c r="AS143" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP143" s="254" t="s">
+      <c r="AT143" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ143" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO143)</f>
+      <c r="AU143" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS143)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="144" spans="1:43" ht="51.95" customHeight="1" thickBot="1">
+    <row r="144" spans="1:47" ht="51.95" customHeight="1" thickBot="1">
       <c r="A144" s="244" t="s">
         <v>620</v>
       </c>
@@ -26580,32 +26578,32 @@
       <c r="U144" s="74"/>
       <c r="V144" s="74"/>
       <c r="W144" s="74"/>
-      <c r="Z144" s="26" t="s">
+      <c r="AD144" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB144" s="70"/>
-      <c r="AC144" s="70"/>
-      <c r="AD144" s="70"/>
-      <c r="AE144" s="70"/>
-      <c r="AG144" s="26" t="s">
+      <c r="AF144" s="70"/>
+      <c r="AG144" s="70"/>
+      <c r="AH144" s="70"/>
+      <c r="AI144" s="70"/>
+      <c r="AK144" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN144" s="72" t="s">
+      <c r="AR144" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO144" s="72" t="str">
+      <c r="AS144" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP144" s="254" t="s">
+      <c r="AT144" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ144" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO144)</f>
+      <c r="AU144" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS144)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="145" spans="1:43">
+    <row r="145" spans="1:47">
       <c r="A145" s="12" t="s">
         <v>476</v>
       </c>
@@ -26645,32 +26643,32 @@
       <c r="U145" s="74"/>
       <c r="V145" s="74"/>
       <c r="W145" s="74"/>
-      <c r="Z145" s="26" t="s">
+      <c r="AD145" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB145" s="70"/>
-      <c r="AC145" s="70"/>
-      <c r="AD145" s="70"/>
-      <c r="AE145" s="70"/>
-      <c r="AG145" s="26" t="s">
+      <c r="AF145" s="70"/>
+      <c r="AG145" s="70"/>
+      <c r="AH145" s="70"/>
+      <c r="AI145" s="70"/>
+      <c r="AK145" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN145" s="72" t="s">
+      <c r="AR145" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO145" s="72" t="str">
+      <c r="AS145" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP145" s="254" t="s">
+      <c r="AT145" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ145" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO145)</f>
+      <c r="AU145" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS145)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="146" spans="1:43">
+    <row r="146" spans="1:47">
       <c r="A146" s="12" t="s">
         <v>476</v>
       </c>
@@ -26710,32 +26708,32 @@
       <c r="U146" s="74"/>
       <c r="V146" s="74"/>
       <c r="W146" s="74"/>
-      <c r="Z146" s="26" t="s">
+      <c r="AD146" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB146" s="70"/>
-      <c r="AC146" s="70"/>
-      <c r="AD146" s="70"/>
-      <c r="AE146" s="70"/>
-      <c r="AG146" s="26" t="s">
+      <c r="AF146" s="70"/>
+      <c r="AG146" s="70"/>
+      <c r="AH146" s="70"/>
+      <c r="AI146" s="70"/>
+      <c r="AK146" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN146" s="72" t="s">
+      <c r="AR146" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO146" s="72" t="str">
+      <c r="AS146" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP146" s="254" t="s">
+      <c r="AT146" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ146" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO146)</f>
+      <c r="AU146" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS146)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="147" spans="1:43">
+    <row r="147" spans="1:47">
       <c r="A147" s="45" t="str">
         <f t="shared" ref="A147:A155" si="100">A$5&amp;"-"&amp;A$17&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Elec Heating - Electricity</v>
@@ -26790,59 +26788,59 @@
       <c r="U147" s="74"/>
       <c r="V147" s="74"/>
       <c r="W147" s="74"/>
-      <c r="Z147" t="str">
+      <c r="AD147" t="str">
         <f>B147</f>
         <v>IFBKELC-E</v>
       </c>
-      <c r="AA147" t="str">
+      <c r="AE147" t="str">
         <f>A147</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Elec Heating - Electricity</v>
       </c>
-      <c r="AB147" s="70" t="s">
+      <c r="AF147" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC147" s="70" t="s">
+      <c r="AG147" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD147" s="70" t="s">
+      <c r="AH147" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE147" s="70" t="s">
+      <c r="AI147" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG147" s="70" t="str">
+      <c r="AK147" s="70" t="str">
         <f>D147</f>
         <v>IFBK</v>
       </c>
-      <c r="AH147" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG147,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG147,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL147" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK147,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK147,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Food, Beverage &amp; Tabacco - Elec Heating</v>
       </c>
-      <c r="AI147" s="245" t="s">
+      <c r="AM147" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ147" s="70" t="s">
+      <c r="AN147" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK147" s="70" t="s">
+      <c r="AO147" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN147" s="254" t="s">
+      <c r="AR147" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO147" s="72" t="str">
+      <c r="AS147" s="72" t="str">
         <f t="shared" si="62"/>
         <v>IFBK</v>
       </c>
-      <c r="AP147" s="254" t="s">
+      <c r="AT147" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ147" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO147)</f>
+      <c r="AU147" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS147)</f>
         <v>1.04664</v>
       </c>
     </row>
-    <row r="148" spans="1:43">
+    <row r="148" spans="1:47">
       <c r="A148" s="45" t="str">
         <f t="shared" si="100"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Compressed air - Electricity</v>
@@ -26897,59 +26895,59 @@
       <c r="U148" s="74"/>
       <c r="V148" s="74"/>
       <c r="W148" s="74"/>
-      <c r="Z148" t="str">
+      <c r="AD148" t="str">
         <f>B148</f>
         <v>IFBAELC-E</v>
       </c>
-      <c r="AA148" t="str">
+      <c r="AE148" t="str">
         <f>A148</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Compressed air - Electricity</v>
       </c>
-      <c r="AB148" s="70" t="s">
+      <c r="AF148" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC148" s="70" t="s">
+      <c r="AG148" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD148" s="70" t="s">
+      <c r="AH148" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE148" s="70" t="s">
+      <c r="AI148" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG148" s="70" t="str">
+      <c r="AK148" s="70" t="str">
         <f>D148</f>
         <v>IFBA</v>
       </c>
-      <c r="AH148" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG148,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG148,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL148" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK148,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK148,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Food, Beverage &amp; Tabacco - Compressed air</v>
       </c>
-      <c r="AI148" s="245" t="s">
+      <c r="AM148" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ148" s="70" t="s">
+      <c r="AN148" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK148" s="70" t="s">
+      <c r="AO148" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN148" s="254" t="s">
+      <c r="AR148" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO148" s="72" t="str">
+      <c r="AS148" s="72" t="str">
         <f t="shared" si="62"/>
         <v>IFBA</v>
       </c>
-      <c r="AP148" s="254" t="s">
+      <c r="AT148" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ148" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO148)</f>
+      <c r="AU148" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS148)</f>
         <v>2.9904000000000003E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:43">
+    <row r="149" spans="1:47">
       <c r="A149" s="45" t="str">
         <f t="shared" si="100"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Lighting - Electricity</v>
@@ -27004,59 +27002,59 @@
       <c r="U149" s="74"/>
       <c r="V149" s="74"/>
       <c r="W149" s="74"/>
-      <c r="Z149" t="str">
+      <c r="AD149" t="str">
         <f>B149</f>
         <v>IFBLELC-E</v>
       </c>
-      <c r="AA149" t="str">
+      <c r="AE149" t="str">
         <f>A149</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Lighting - Electricity</v>
       </c>
-      <c r="AB149" s="70" t="s">
+      <c r="AF149" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC149" s="70" t="s">
+      <c r="AG149" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD149" s="70" t="s">
+      <c r="AH149" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE149" s="70" t="s">
+      <c r="AI149" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG149" s="70" t="str">
+      <c r="AK149" s="70" t="str">
         <f>D149</f>
         <v>IFBL</v>
       </c>
-      <c r="AH149" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG149,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG149,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL149" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK149,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK149,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Food, Beverage &amp; Tabacco - Lighting</v>
       </c>
-      <c r="AI149" s="245" t="s">
+      <c r="AM149" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ149" s="70" t="s">
+      <c r="AN149" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK149" s="70" t="s">
+      <c r="AO149" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN149" s="254" t="s">
+      <c r="AR149" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO149" s="72" t="str">
+      <c r="AS149" s="72" t="str">
         <f t="shared" si="62"/>
         <v>IFBL</v>
       </c>
-      <c r="AP149" s="254" t="s">
+      <c r="AT149" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ149" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO149)</f>
+      <c r="AU149" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS149)</f>
         <v>0.22428000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:43">
+    <row r="150" spans="1:47">
       <c r="A150" s="45" t="str">
         <f t="shared" si="100"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Cooling - Electricity</v>
@@ -27111,59 +27109,59 @@
       <c r="U150" s="74"/>
       <c r="V150" s="74"/>
       <c r="W150" s="74"/>
-      <c r="Z150" t="str">
+      <c r="AD150" t="str">
         <f>B150</f>
         <v>IFBCELC-E</v>
       </c>
-      <c r="AA150" t="str">
+      <c r="AE150" t="str">
         <f>A150</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Cooling - Electricity</v>
       </c>
-      <c r="AB150" s="70" t="s">
+      <c r="AF150" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC150" s="70" t="s">
+      <c r="AG150" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD150" s="70" t="s">
+      <c r="AH150" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE150" s="70" t="s">
+      <c r="AI150" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG150" s="70" t="str">
+      <c r="AK150" s="70" t="str">
         <f>D150</f>
         <v>IFBC</v>
       </c>
-      <c r="AH150" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG150,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG150,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL150" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK150,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK150,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Food, Beverage &amp; Tabacco - Cooling</v>
       </c>
-      <c r="AI150" s="245" t="s">
+      <c r="AM150" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ150" s="70" t="s">
+      <c r="AN150" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK150" s="70" t="s">
+      <c r="AO150" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN150" s="254" t="s">
+      <c r="AR150" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO150" s="72" t="str">
+      <c r="AS150" s="72" t="str">
         <f t="shared" si="62"/>
         <v>IFBC</v>
       </c>
-      <c r="AP150" s="254" t="s">
+      <c r="AT150" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ150" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO150)</f>
+      <c r="AU150" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS150)</f>
         <v>6.8779200000000005</v>
       </c>
     </row>
-    <row r="151" spans="1:43">
+    <row r="151" spans="1:47">
       <c r="A151" s="45" t="str">
         <f t="shared" si="100"/>
         <v>Industry-Food, Beverage &amp; Tabacco-HVAC - Electricity</v>
@@ -27218,59 +27216,59 @@
       <c r="U151" s="74"/>
       <c r="V151" s="74"/>
       <c r="W151" s="74"/>
-      <c r="Z151" t="str">
+      <c r="AD151" t="str">
         <f>B151</f>
         <v>IFBHELC-E</v>
       </c>
-      <c r="AA151" t="str">
+      <c r="AE151" t="str">
         <f>A151</f>
         <v>Industry-Food, Beverage &amp; Tabacco-HVAC - Electricity</v>
       </c>
-      <c r="AB151" s="70" t="s">
+      <c r="AF151" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC151" s="70" t="s">
+      <c r="AG151" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD151" s="70" t="s">
+      <c r="AH151" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE151" s="70" t="s">
+      <c r="AI151" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG151" s="70" t="str">
+      <c r="AK151" s="70" t="str">
         <f>D151</f>
         <v>IFBH</v>
       </c>
-      <c r="AH151" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG151,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG151,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL151" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK151,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK151,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Food, Beverage &amp; Tabacco - HVAC</v>
       </c>
-      <c r="AI151" s="245" t="s">
+      <c r="AM151" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ151" s="70" t="s">
+      <c r="AN151" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK151" s="70" t="s">
+      <c r="AO151" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN151" s="254" t="s">
+      <c r="AR151" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO151" s="72" t="str">
+      <c r="AS151" s="72" t="str">
         <f t="shared" si="62"/>
         <v>IFBH</v>
       </c>
-      <c r="AP151" s="254" t="s">
+      <c r="AT151" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ151" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO151)</f>
+      <c r="AU151" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS151)</f>
         <v>0.8074079999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:43">
+    <row r="152" spans="1:47">
       <c r="A152" s="45" t="str">
         <f t="shared" si="100"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Pumping - Electricity</v>
@@ -27325,59 +27323,59 @@
       <c r="U152" s="74"/>
       <c r="V152" s="74"/>
       <c r="W152" s="74"/>
-      <c r="Z152" t="str">
+      <c r="AD152" t="str">
         <f>B152</f>
         <v>IFBPELC-E</v>
       </c>
-      <c r="AA152" t="str">
+      <c r="AE152" t="str">
         <f>A152</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Pumping - Electricity</v>
       </c>
-      <c r="AB152" s="70" t="s">
+      <c r="AF152" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC152" s="70" t="s">
+      <c r="AG152" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD152" s="70" t="s">
+      <c r="AH152" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE152" s="70" t="s">
+      <c r="AI152" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG152" s="70" t="str">
+      <c r="AK152" s="70" t="str">
         <f>D152</f>
         <v>IFBP</v>
       </c>
-      <c r="AH152" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG152,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG152,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL152" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK152,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK152,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Food, Beverage &amp; Tabacco - Pumping</v>
       </c>
-      <c r="AI152" s="245" t="s">
+      <c r="AM152" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ152" s="70" t="s">
+      <c r="AN152" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK152" s="70" t="s">
+      <c r="AO152" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN152" s="254" t="s">
+      <c r="AR152" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO152" s="72" t="str">
+      <c r="AS152" s="72" t="str">
         <f t="shared" si="62"/>
         <v>IFBP</v>
       </c>
-      <c r="AP152" s="254" t="s">
+      <c r="AT152" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ152" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO152)</f>
+      <c r="AU152" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS152)</f>
         <v>3.3492480000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:43">
+    <row r="153" spans="1:47">
       <c r="A153" s="45" t="str">
         <f t="shared" si="100"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Fans - Electricity</v>
@@ -27432,59 +27430,59 @@
       <c r="U153" s="74"/>
       <c r="V153" s="74"/>
       <c r="W153" s="74"/>
-      <c r="Z153" t="str">
+      <c r="AD153" t="str">
         <f>B153</f>
         <v>IFBFELC-E</v>
       </c>
-      <c r="AA153" t="str">
+      <c r="AE153" t="str">
         <f>A153</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Fans - Electricity</v>
       </c>
-      <c r="AB153" s="70" t="s">
+      <c r="AF153" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC153" s="70" t="s">
+      <c r="AG153" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD153" s="70" t="s">
+      <c r="AH153" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE153" s="70" t="s">
+      <c r="AI153" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG153" s="70" t="str">
+      <c r="AK153" s="70" t="str">
         <f>D153</f>
         <v>IFBF</v>
       </c>
-      <c r="AH153" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG153,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG153,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL153" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK153,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK153,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Food, Beverage &amp; Tabacco - Fans</v>
       </c>
-      <c r="AI153" s="245" t="s">
+      <c r="AM153" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ153" s="70" t="s">
+      <c r="AN153" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK153" s="70" t="s">
+      <c r="AO153" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN153" s="254" t="s">
+      <c r="AR153" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO153" s="72" t="str">
+      <c r="AS153" s="72" t="str">
         <f t="shared" si="62"/>
         <v>IFBF</v>
       </c>
-      <c r="AP153" s="254" t="s">
+      <c r="AT153" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ153" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO153)</f>
+      <c r="AU153" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS153)</f>
         <v>0.47846400000000006</v>
       </c>
     </row>
-    <row r="154" spans="1:43">
+    <row r="154" spans="1:47">
       <c r="A154" s="45" t="str">
         <f t="shared" si="100"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Other motive - Electricity</v>
@@ -27539,59 +27537,59 @@
       <c r="U154" s="74"/>
       <c r="V154" s="74"/>
       <c r="W154" s="74"/>
-      <c r="Z154" t="str">
+      <c r="AD154" t="str">
         <f>B154</f>
         <v>IFBOELC-E</v>
       </c>
-      <c r="AA154" t="str">
+      <c r="AE154" t="str">
         <f>A154</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Other motive - Electricity</v>
       </c>
-      <c r="AB154" s="70" t="s">
+      <c r="AF154" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC154" s="70" t="s">
+      <c r="AG154" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD154" s="70" t="s">
+      <c r="AH154" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE154" s="70" t="s">
+      <c r="AI154" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG154" s="70" t="str">
+      <c r="AK154" s="70" t="str">
         <f>D154</f>
         <v>IFBO</v>
       </c>
-      <c r="AH154" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG154,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG154,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL154" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK154,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK154,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Food, Beverage &amp; Tabacco - Other motive</v>
       </c>
-      <c r="AI154" s="245" t="s">
+      <c r="AM154" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ154" s="70" t="s">
+      <c r="AN154" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK154" s="70" t="s">
+      <c r="AO154" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN154" s="254" t="s">
+      <c r="AR154" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO154" s="72" t="str">
+      <c r="AS154" s="72" t="str">
         <f t="shared" si="62"/>
         <v>IFBO</v>
       </c>
-      <c r="AP154" s="254" t="s">
+      <c r="AT154" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ154" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO154)</f>
+      <c r="AU154" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS154)</f>
         <v>2.5119360000000004</v>
       </c>
     </row>
-    <row r="155" spans="1:43">
+    <row r="155" spans="1:47">
       <c r="A155" s="45" t="str">
         <f t="shared" si="100"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Electrochemical - Electricity</v>
@@ -27646,59 +27644,59 @@
       <c r="U155" s="74"/>
       <c r="V155" s="74"/>
       <c r="W155" s="74"/>
-      <c r="Z155" t="str">
+      <c r="AD155" t="str">
         <f>B155</f>
         <v>IFBEELC-E</v>
       </c>
-      <c r="AA155" t="str">
+      <c r="AE155" t="str">
         <f>A155</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Electrochemical - Electricity</v>
       </c>
-      <c r="AB155" s="70" t="s">
+      <c r="AF155" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC155" s="70" t="s">
+      <c r="AG155" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD155" s="70" t="s">
+      <c r="AH155" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE155" s="70" t="s">
+      <c r="AI155" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG155" s="70" t="str">
+      <c r="AK155" s="70" t="str">
         <f>D155</f>
         <v>IFBE</v>
       </c>
-      <c r="AH155" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG155,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG155,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL155" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK155,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK155,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Food, Beverage &amp; Tabacco - Electrochemical</v>
       </c>
-      <c r="AI155" s="245" t="s">
+      <c r="AM155" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ155" s="70" t="s">
+      <c r="AN155" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK155" s="70" t="s">
+      <c r="AO155" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN155" s="254" t="s">
+      <c r="AR155" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO155" s="72" t="str">
+      <c r="AS155" s="72" t="str">
         <f t="shared" si="62"/>
         <v>IFBE</v>
       </c>
-      <c r="AP155" s="254" t="s">
+      <c r="AT155" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ155" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO155)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:43">
+      <c r="AU155" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:47">
       <c r="A156" s="45" t="s">
         <v>476</v>
       </c>
@@ -27726,32 +27724,32 @@
       <c r="U156" s="74"/>
       <c r="V156" s="74"/>
       <c r="W156" s="74"/>
-      <c r="Z156" s="26" t="s">
+      <c r="AD156" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB156" s="70"/>
-      <c r="AC156" s="70"/>
-      <c r="AD156" s="70"/>
-      <c r="AE156" s="70"/>
-      <c r="AG156" s="26" t="s">
+      <c r="AF156" s="70"/>
+      <c r="AG156" s="70"/>
+      <c r="AH156" s="70"/>
+      <c r="AI156" s="70"/>
+      <c r="AK156" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN156" s="72" t="s">
+      <c r="AR156" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO156" s="72" t="str">
+      <c r="AS156" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP156" s="254" t="s">
+      <c r="AT156" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ156" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO156)</f>
+      <c r="AU156" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS156)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="157" spans="1:43">
+    <row r="157" spans="1:47">
       <c r="A157" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$17&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C157,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
@@ -27831,59 +27829,59 @@
         <v>0</v>
       </c>
       <c r="W157" s="74"/>
-      <c r="Z157" t="str">
+      <c r="AD157" t="str">
         <f>B157</f>
         <v>IFBSCOA-E</v>
       </c>
-      <c r="AA157" t="str">
+      <c r="AE157" t="str">
         <f>A157</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB157" s="70" t="s">
+      <c r="AF157" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC157" s="70" t="s">
+      <c r="AG157" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD157" s="70" t="s">
+      <c r="AH157" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE157" s="70" t="s">
+      <c r="AI157" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG157" s="70" t="str">
+      <c r="AK157" s="70" t="str">
         <f>D157</f>
         <v>IFBS</v>
       </c>
-      <c r="AH157" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG157,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG157,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL157" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK157,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK157,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Food, Beverage &amp; Tabacco - boiler/process heating</v>
       </c>
-      <c r="AI157" s="245" t="s">
+      <c r="AM157" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ157" s="70" t="s">
+      <c r="AN157" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK157" s="70" t="s">
+      <c r="AO157" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN157" s="254" t="s">
+      <c r="AR157" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO157" s="72" t="str">
+      <c r="AS157" s="72" t="str">
         <f t="shared" si="62"/>
         <v>IFBS</v>
       </c>
-      <c r="AP157" s="254" t="s">
+      <c r="AT157" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ157" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO157)</f>
+      <c r="AU157" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS157)</f>
         <v>40.544747177343751</v>
       </c>
     </row>
-    <row r="158" spans="1:43">
+    <row r="158" spans="1:47">
       <c r="A158" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$17&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C158,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
@@ -27963,58 +27961,58 @@
         <v>0</v>
       </c>
       <c r="W158" s="74"/>
-      <c r="Z158" t="str">
+      <c r="AD158" t="str">
         <f>B158</f>
         <v>IFBSGAS-E</v>
       </c>
-      <c r="AA158" t="str">
+      <c r="AE158" t="str">
         <f>A158</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB158" s="70" t="s">
+      <c r="AF158" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC158" s="70" t="s">
+      <c r="AG158" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD158" s="70" t="s">
+      <c r="AH158" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE158" s="70" t="s">
+      <c r="AI158" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG158" s="26" t="s">
+      <c r="AK158" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH158" s="70" t="str">
+      <c r="AL158" s="70" t="str">
         <f>A158</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI158" s="245" t="s">
+      <c r="AM158" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ158" s="70" t="s">
+      <c r="AN158" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK158" s="70" t="s">
+      <c r="AO158" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN158" s="72" t="s">
+      <c r="AR158" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO158" s="72" t="str">
+      <c r="AS158" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP158" s="254" t="s">
+      <c r="AT158" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ158" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO158)</f>
+      <c r="AU158" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS158)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="159" spans="1:43">
+    <row r="159" spans="1:47">
       <c r="A159" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$17&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C159,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
@@ -28094,58 +28092,58 @@
         <v>0</v>
       </c>
       <c r="W159" s="74"/>
-      <c r="Z159" t="str">
+      <c r="AD159" t="str">
         <f>B159</f>
         <v>IFBSOHF-E</v>
       </c>
-      <c r="AA159" t="str">
+      <c r="AE159" t="str">
         <f>A159</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB159" s="70" t="s">
+      <c r="AF159" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC159" s="70" t="s">
+      <c r="AG159" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD159" s="70" t="s">
+      <c r="AH159" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE159" s="70" t="s">
+      <c r="AI159" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG159" s="26" t="s">
+      <c r="AK159" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH159" s="70" t="str">
+      <c r="AL159" s="70" t="str">
         <f>A159</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI159" s="245" t="s">
+      <c r="AM159" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ159" s="70" t="s">
+      <c r="AN159" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK159" s="70" t="s">
+      <c r="AO159" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN159" s="72" t="s">
+      <c r="AR159" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO159" s="72" t="str">
+      <c r="AS159" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP159" s="254" t="s">
+      <c r="AT159" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ159" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO159)</f>
+      <c r="AU159" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS159)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="160" spans="1:43">
+    <row r="160" spans="1:47">
       <c r="A160" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$17&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C160,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
@@ -28225,58 +28223,58 @@
         <v>0</v>
       </c>
       <c r="W160" s="74"/>
-      <c r="Z160" t="str">
+      <c r="AD160" t="str">
         <f>B160</f>
         <v>IFBSOLP-E</v>
       </c>
-      <c r="AA160" t="str">
+      <c r="AE160" t="str">
         <f>A160</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB160" s="70" t="s">
+      <c r="AF160" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC160" s="70" t="s">
+      <c r="AG160" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD160" s="70" t="s">
+      <c r="AH160" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE160" s="70" t="s">
+      <c r="AI160" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG160" s="26" t="s">
+      <c r="AK160" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH160" s="70" t="str">
+      <c r="AL160" s="70" t="str">
         <f>A160</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI160" s="245" t="s">
+      <c r="AM160" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ160" s="70" t="s">
+      <c r="AN160" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK160" s="70" t="s">
+      <c r="AO160" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN160" s="72" t="s">
+      <c r="AR160" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO160" s="72" t="str">
+      <c r="AS160" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP160" s="254" t="s">
+      <c r="AT160" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ160" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO160)</f>
+      <c r="AU160" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS160)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="161" spans="1:43">
+    <row r="161" spans="1:47">
       <c r="A161" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$17&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C161,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
@@ -28356,58 +28354,58 @@
         <v>0</v>
       </c>
       <c r="W161" s="74"/>
-      <c r="Z161" t="str">
+      <c r="AD161" t="str">
         <f>B161</f>
         <v>IFBSELC-E</v>
       </c>
-      <c r="AA161" t="str">
+      <c r="AE161" t="str">
         <f>A161</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB161" s="70" t="s">
+      <c r="AF161" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC161" s="70" t="s">
+      <c r="AG161" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD161" s="70" t="s">
+      <c r="AH161" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE161" s="70" t="s">
+      <c r="AI161" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG161" s="26" t="s">
+      <c r="AK161" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH161" s="70" t="str">
+      <c r="AL161" s="70" t="str">
         <f>A161</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI161" s="245" t="s">
+      <c r="AM161" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ161" s="70" t="s">
+      <c r="AN161" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK161" s="70" t="s">
+      <c r="AO161" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN161" s="72" t="s">
+      <c r="AR161" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO161" s="72" t="str">
+      <c r="AS161" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP161" s="254" t="s">
+      <c r="AT161" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ161" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO161)</f>
+      <c r="AU161" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS161)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="162" spans="1:43" ht="15">
+    <row r="162" spans="1:47" ht="15">
       <c r="A162" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$17&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C162,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Heat Pump New"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Heat Pump New</v>
@@ -28482,58 +28480,58 @@
         <v>0</v>
       </c>
       <c r="W162" s="74"/>
-      <c r="Z162" t="str">
+      <c r="AD162" t="str">
         <f>B162</f>
         <v>IFBSELC-N</v>
       </c>
-      <c r="AA162" t="str">
+      <c r="AE162" t="str">
         <f>A162</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Heat Pump New</v>
       </c>
-      <c r="AB162" s="70" t="s">
+      <c r="AF162" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC162" s="70" t="s">
+      <c r="AG162" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD162" s="70" t="s">
+      <c r="AH162" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE162" s="70" t="s">
+      <c r="AI162" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG162" s="26" t="s">
+      <c r="AK162" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH162" s="70" t="str">
+      <c r="AL162" s="70" t="str">
         <f>A162</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Heat Pump New</v>
       </c>
-      <c r="AI162" s="245" t="s">
+      <c r="AM162" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ162" s="70" t="s">
+      <c r="AN162" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK162" s="70" t="s">
+      <c r="AO162" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN162" s="72" t="s">
+      <c r="AR162" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO162" s="72" t="str">
+      <c r="AS162" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP162" s="254" t="s">
+      <c r="AT162" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ162" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO162)</f>
+      <c r="AU162" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS162)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="163" spans="1:43">
+    <row r="163" spans="1:47">
       <c r="A163" s="45" t="s">
         <v>471</v>
       </c>
@@ -28609,58 +28607,58 @@
         <v>0</v>
       </c>
       <c r="W163" s="74"/>
-      <c r="Z163" t="str">
+      <c r="AD163" t="str">
         <f>B163</f>
         <v>IFBSHGN-N</v>
       </c>
-      <c r="AA163" t="str">
+      <c r="AE163" t="str">
         <f>A163</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating - Electricity - Hydrogen New</v>
       </c>
-      <c r="AB163" s="70" t="s">
+      <c r="AF163" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC163" s="70" t="s">
+      <c r="AG163" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD163" s="70" t="s">
+      <c r="AH163" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE163" s="70" t="s">
+      <c r="AI163" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG163" s="26" t="s">
+      <c r="AK163" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH163" s="70" t="str">
+      <c r="AL163" s="70" t="str">
         <f>A163</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating - Electricity - Hydrogen New</v>
       </c>
-      <c r="AI163" s="245" t="s">
+      <c r="AM163" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ163" s="70" t="s">
+      <c r="AN163" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK163" s="70" t="s">
+      <c r="AO163" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN163" s="72" t="s">
+      <c r="AR163" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO163" s="72" t="str">
+      <c r="AS163" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP163" s="254" t="s">
+      <c r="AT163" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ163" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO163)</f>
+      <c r="AU163" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS163)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="164" spans="1:43">
+    <row r="164" spans="1:47">
       <c r="A164" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$17&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C164,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
@@ -28740,58 +28738,58 @@
         <v>0</v>
       </c>
       <c r="W164" s="74"/>
-      <c r="Z164" t="str">
+      <c r="AD164" t="str">
         <f>B164</f>
         <v>IFBSBIB-E</v>
       </c>
-      <c r="AA164" t="str">
+      <c r="AE164" t="str">
         <f>A164</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB164" s="70" t="s">
+      <c r="AF164" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC164" s="70" t="s">
+      <c r="AG164" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD164" s="70" t="s">
+      <c r="AH164" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE164" s="70" t="s">
+      <c r="AI164" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG164" s="26" t="s">
+      <c r="AK164" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH164" s="70" t="str">
+      <c r="AL164" s="70" t="str">
         <f>A164</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI164" s="245" t="s">
+      <c r="AM164" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ164" s="70" t="s">
+      <c r="AN164" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK164" s="70" t="s">
+      <c r="AO164" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN164" s="72" t="s">
+      <c r="AR164" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO164" s="72" t="str">
+      <c r="AS164" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP164" s="254" t="s">
+      <c r="AT164" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ164" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO164)</f>
+      <c r="AU164" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS164)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="165" spans="1:43">
+    <row r="165" spans="1:47">
       <c r="A165" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$17&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C165,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
@@ -28869,58 +28867,58 @@
         <v>0</v>
       </c>
       <c r="W165" s="74"/>
-      <c r="Z165" t="str">
+      <c r="AD165" t="str">
         <f>B165</f>
         <v>IFBSWAS-E</v>
       </c>
-      <c r="AA165" t="str">
+      <c r="AE165" t="str">
         <f>A165</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB165" s="70" t="s">
+      <c r="AF165" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC165" s="70" t="s">
+      <c r="AG165" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD165" s="70" t="s">
+      <c r="AH165" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE165" s="70" t="s">
+      <c r="AI165" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG165" s="26" t="s">
+      <c r="AK165" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH165" s="70" t="str">
+      <c r="AL165" s="70" t="str">
         <f>A165</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI165" s="245" t="s">
+      <c r="AM165" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ165" s="70" t="s">
+      <c r="AN165" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK165" s="70" t="s">
+      <c r="AO165" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN165" s="72" t="s">
+      <c r="AR165" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO165" s="72" t="str">
+      <c r="AS165" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP165" s="254" t="s">
+      <c r="AT165" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ165" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO165)</f>
+      <c r="AU165" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS165)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="166" spans="1:43" ht="51.95" customHeight="1" thickBot="1">
+    <row r="166" spans="1:47" ht="51.95" customHeight="1" thickBot="1">
       <c r="A166" s="244" t="s">
         <v>837</v>
       </c>
@@ -28943,32 +28941,32 @@
       <c r="U166" s="74"/>
       <c r="V166" s="74"/>
       <c r="W166" s="74"/>
-      <c r="Z166" s="26" t="s">
+      <c r="AD166" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB166" s="70"/>
-      <c r="AC166" s="70"/>
-      <c r="AD166" s="70"/>
-      <c r="AE166" s="70"/>
-      <c r="AG166" s="26" t="s">
+      <c r="AF166" s="70"/>
+      <c r="AG166" s="70"/>
+      <c r="AH166" s="70"/>
+      <c r="AI166" s="70"/>
+      <c r="AK166" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN166" s="72" t="s">
+      <c r="AR166" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO166" s="72" t="str">
+      <c r="AS166" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP166" s="254" t="s">
+      <c r="AT166" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ166" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO166)</f>
+      <c r="AU166" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS166)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="167" spans="1:43">
+    <row r="167" spans="1:47">
       <c r="A167" s="12" t="s">
         <v>476</v>
       </c>
@@ -29008,32 +29006,32 @@
       <c r="U167" s="74"/>
       <c r="V167" s="74"/>
       <c r="W167" s="74"/>
-      <c r="Z167" s="26" t="s">
+      <c r="AD167" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB167" s="70"/>
-      <c r="AC167" s="70"/>
-      <c r="AD167" s="70"/>
-      <c r="AE167" s="70"/>
-      <c r="AG167" s="26" t="s">
+      <c r="AF167" s="70"/>
+      <c r="AG167" s="70"/>
+      <c r="AH167" s="70"/>
+      <c r="AI167" s="70"/>
+      <c r="AK167" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN167" s="72" t="s">
+      <c r="AR167" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO167" s="72" t="str">
+      <c r="AS167" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP167" s="254" t="s">
+      <c r="AT167" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ167" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO167)</f>
+      <c r="AU167" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS167)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="168" spans="1:43">
+    <row r="168" spans="1:47">
       <c r="A168" s="12" t="s">
         <v>476</v>
       </c>
@@ -29073,32 +29071,32 @@
       <c r="U168" s="74"/>
       <c r="V168" s="74"/>
       <c r="W168" s="74"/>
-      <c r="Z168" s="26" t="s">
+      <c r="AD168" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB168" s="70"/>
-      <c r="AC168" s="70"/>
-      <c r="AD168" s="70"/>
-      <c r="AE168" s="70"/>
-      <c r="AG168" s="26" t="s">
+      <c r="AF168" s="70"/>
+      <c r="AG168" s="70"/>
+      <c r="AH168" s="70"/>
+      <c r="AI168" s="70"/>
+      <c r="AK168" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AN168" s="72" t="s">
+      <c r="AR168" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO168" s="72" t="str">
+      <c r="AS168" s="72" t="str">
         <f t="shared" si="62"/>
         <v>*</v>
       </c>
-      <c r="AP168" s="254" t="s">
+      <c r="AT168" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ168" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO168)</f>
+      <c r="AU168" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS168)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="169" spans="1:43">
+    <row r="169" spans="1:47">
       <c r="A169" s="45" t="str">
         <f t="shared" ref="A169:A177" si="124">A$5&amp;"-"&amp;A$19&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Other-Elec Heating - Electricity</v>
@@ -29153,59 +29151,59 @@
       <c r="U169" s="74"/>
       <c r="V169" s="74"/>
       <c r="W169" s="74"/>
-      <c r="Z169" t="str">
+      <c r="AD169" t="str">
         <f>B169</f>
         <v>IOTKELC-E</v>
       </c>
-      <c r="AA169" t="str">
+      <c r="AE169" t="str">
         <f>A169</f>
         <v>Industry-Other-Elec Heating - Electricity</v>
       </c>
-      <c r="AB169" s="70" t="s">
+      <c r="AF169" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC169" s="70" t="s">
+      <c r="AG169" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD169" s="70" t="s">
+      <c r="AH169" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE169" s="70" t="s">
+      <c r="AI169" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG169" s="70" t="str">
+      <c r="AK169" s="70" t="str">
         <f>D169</f>
         <v>IOTK</v>
       </c>
-      <c r="AH169" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG169,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG169,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL169" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK169,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK169,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - Elec Heating</v>
       </c>
-      <c r="AI169" s="245" t="s">
+      <c r="AM169" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ169" s="70" t="s">
+      <c r="AN169" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK169" s="70" t="s">
+      <c r="AO169" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN169" s="254" t="s">
+      <c r="AR169" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO169" s="72" t="str">
-        <f t="shared" ref="AO169:AO188" si="127">AG169</f>
+      <c r="AS169" s="72" t="str">
+        <f t="shared" ref="AS169:AS188" si="127">AK169</f>
         <v>IOTK</v>
       </c>
-      <c r="AP169" s="254" t="s">
+      <c r="AT169" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ169" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO169)</f>
+      <c r="AU169" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS169)</f>
         <v>2.1816720000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:43">
+    <row r="170" spans="1:47">
       <c r="A170" s="45" t="str">
         <f t="shared" si="124"/>
         <v>Industry-Other-Compressed air - Electricity</v>
@@ -29260,59 +29258,59 @@
       <c r="U170" s="74"/>
       <c r="V170" s="74"/>
       <c r="W170" s="74"/>
-      <c r="Z170" t="str">
+      <c r="AD170" t="str">
         <f>B170</f>
         <v>IOTAELC-E</v>
       </c>
-      <c r="AA170" t="str">
+      <c r="AE170" t="str">
         <f>A170</f>
         <v>Industry-Other-Compressed air - Electricity</v>
       </c>
-      <c r="AB170" s="70" t="s">
+      <c r="AF170" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC170" s="70" t="s">
+      <c r="AG170" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD170" s="70" t="s">
+      <c r="AH170" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE170" s="70" t="s">
+      <c r="AI170" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG170" s="70" t="str">
+      <c r="AK170" s="70" t="str">
         <f>D170</f>
         <v>IOTA</v>
       </c>
-      <c r="AH170" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG170,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG170,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL170" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK170,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK170,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - Compressed air</v>
       </c>
-      <c r="AI170" s="245" t="s">
+      <c r="AM170" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ170" s="70" t="s">
+      <c r="AN170" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK170" s="70" t="s">
+      <c r="AO170" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN170" s="254" t="s">
+      <c r="AR170" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO170" s="72" t="str">
+      <c r="AS170" s="72" t="str">
         <f t="shared" si="127"/>
         <v>IOTA</v>
       </c>
-      <c r="AP170" s="254" t="s">
+      <c r="AT170" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ170" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO170)</f>
+      <c r="AU170" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS170)</f>
         <v>0.12355272</v>
       </c>
     </row>
-    <row r="171" spans="1:43">
+    <row r="171" spans="1:47">
       <c r="A171" s="45" t="str">
         <f t="shared" si="124"/>
         <v>Industry-Other-Lighting - Electricity</v>
@@ -29367,59 +29365,59 @@
       <c r="U171" s="74"/>
       <c r="V171" s="74"/>
       <c r="W171" s="74"/>
-      <c r="Z171" t="str">
+      <c r="AD171" t="str">
         <f>B171</f>
         <v>IOTLELC-E</v>
       </c>
-      <c r="AA171" t="str">
+      <c r="AE171" t="str">
         <f>A171</f>
         <v>Industry-Other-Lighting - Electricity</v>
       </c>
-      <c r="AB171" s="70" t="s">
+      <c r="AF171" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC171" s="70" t="s">
+      <c r="AG171" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD171" s="70" t="s">
+      <c r="AH171" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE171" s="70" t="s">
+      <c r="AI171" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG171" s="70" t="str">
+      <c r="AK171" s="70" t="str">
         <f>D171</f>
         <v>IOTL</v>
       </c>
-      <c r="AH171" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG171,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG171,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL171" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK171,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK171,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - Lighting</v>
       </c>
-      <c r="AI171" s="245" t="s">
+      <c r="AM171" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ171" s="70" t="s">
+      <c r="AN171" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK171" s="70" t="s">
+      <c r="AO171" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN171" s="254" t="s">
+      <c r="AR171" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO171" s="72" t="str">
+      <c r="AS171" s="72" t="str">
         <f t="shared" si="127"/>
         <v>IOTL</v>
       </c>
-      <c r="AP171" s="254" t="s">
+      <c r="AT171" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ171" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO171)</f>
+      <c r="AU171" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS171)</f>
         <v>0.54733968</v>
       </c>
     </row>
-    <row r="172" spans="1:43">
+    <row r="172" spans="1:47">
       <c r="A172" s="45" t="str">
         <f t="shared" si="124"/>
         <v>Industry-Other-Cooling - Electricity</v>
@@ -29474,59 +29472,59 @@
       <c r="U172" s="74"/>
       <c r="V172" s="74"/>
       <c r="W172" s="74"/>
-      <c r="Z172" t="str">
+      <c r="AD172" t="str">
         <f>B172</f>
         <v>IOTCELC-E</v>
       </c>
-      <c r="AA172" t="str">
+      <c r="AE172" t="str">
         <f>A172</f>
         <v>Industry-Other-Cooling - Electricity</v>
       </c>
-      <c r="AB172" s="70" t="s">
+      <c r="AF172" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC172" s="70" t="s">
+      <c r="AG172" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD172" s="70" t="s">
+      <c r="AH172" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE172" s="70" t="s">
+      <c r="AI172" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG172" s="70" t="str">
+      <c r="AK172" s="70" t="str">
         <f>D172</f>
         <v>IOTC</v>
       </c>
-      <c r="AH172" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG172,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG172,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL172" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK172,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK172,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - Cooling</v>
       </c>
-      <c r="AI172" s="245" t="s">
+      <c r="AM172" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ172" s="70" t="s">
+      <c r="AN172" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK172" s="70" t="s">
+      <c r="AO172" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN172" s="254" t="s">
+      <c r="AR172" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO172" s="72" t="str">
+      <c r="AS172" s="72" t="str">
         <f t="shared" si="127"/>
         <v>IOTC</v>
       </c>
-      <c r="AP172" s="254" t="s">
+      <c r="AT172" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ172" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO172)</f>
+      <c r="AU172" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS172)</f>
         <v>2.3241024000000006</v>
       </c>
     </row>
-    <row r="173" spans="1:43">
+    <row r="173" spans="1:47">
       <c r="A173" s="45" t="str">
         <f t="shared" si="124"/>
         <v>Industry-Other-HVAC - Electricity</v>
@@ -29581,59 +29579,59 @@
       <c r="U173" s="74"/>
       <c r="V173" s="74"/>
       <c r="W173" s="74"/>
-      <c r="Z173" t="str">
+      <c r="AD173" t="str">
         <f>B173</f>
         <v>IOTHELC-E</v>
       </c>
-      <c r="AA173" t="str">
+      <c r="AE173" t="str">
         <f>A173</f>
         <v>Industry-Other-HVAC - Electricity</v>
       </c>
-      <c r="AB173" s="70" t="s">
+      <c r="AF173" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC173" s="70" t="s">
+      <c r="AG173" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD173" s="70" t="s">
+      <c r="AH173" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE173" s="70" t="s">
+      <c r="AI173" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG173" s="70" t="str">
+      <c r="AK173" s="70" t="str">
         <f>D173</f>
         <v>IOTH</v>
       </c>
-      <c r="AH173" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG173,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG173,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL173" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK173,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK173,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - HVAC</v>
       </c>
-      <c r="AI173" s="245" t="s">
+      <c r="AM173" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ173" s="70" t="s">
+      <c r="AN173" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK173" s="70" t="s">
+      <c r="AO173" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN173" s="254" t="s">
+      <c r="AR173" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO173" s="72" t="str">
+      <c r="AS173" s="72" t="str">
         <f t="shared" si="127"/>
         <v>IOTH</v>
       </c>
-      <c r="AP173" s="254" t="s">
+      <c r="AT173" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ173" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO173)</f>
+      <c r="AU173" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS173)</f>
         <v>1.7274772800000002</v>
       </c>
     </row>
-    <row r="174" spans="1:43">
+    <row r="174" spans="1:47">
       <c r="A174" s="45" t="str">
         <f t="shared" si="124"/>
         <v>Industry-Other-Pumping - Electricity</v>
@@ -29688,59 +29686,59 @@
       <c r="U174" s="74"/>
       <c r="V174" s="74"/>
       <c r="W174" s="74"/>
-      <c r="Z174" t="str">
+      <c r="AD174" t="str">
         <f>B174</f>
         <v>IOTPELC-E</v>
       </c>
-      <c r="AA174" t="str">
+      <c r="AE174" t="str">
         <f>A174</f>
         <v>Industry-Other-Pumping - Electricity</v>
       </c>
-      <c r="AB174" s="70" t="s">
+      <c r="AF174" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC174" s="70" t="s">
+      <c r="AG174" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD174" s="70" t="s">
+      <c r="AH174" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE174" s="70" t="s">
+      <c r="AI174" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG174" s="70" t="str">
+      <c r="AK174" s="70" t="str">
         <f>D174</f>
         <v>IOTP</v>
       </c>
-      <c r="AH174" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG174,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG174,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL174" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK174,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK174,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - Pumping</v>
       </c>
-      <c r="AI174" s="245" t="s">
+      <c r="AM174" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ174" s="70" t="s">
+      <c r="AN174" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK174" s="70" t="s">
+      <c r="AO174" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN174" s="254" t="s">
+      <c r="AR174" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO174" s="72" t="str">
+      <c r="AS174" s="72" t="str">
         <f t="shared" si="127"/>
         <v>IOTP</v>
       </c>
-      <c r="AP174" s="254" t="s">
+      <c r="AT174" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ174" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO174)</f>
+      <c r="AU174" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS174)</f>
         <v>2.3512320000000004</v>
       </c>
     </row>
-    <row r="175" spans="1:43">
+    <row r="175" spans="1:47">
       <c r="A175" s="45" t="str">
         <f t="shared" si="124"/>
         <v>Industry-Other-Fans - Electricity</v>
@@ -29795,59 +29793,59 @@
       <c r="U175" s="74"/>
       <c r="V175" s="74"/>
       <c r="W175" s="74"/>
-      <c r="Z175" t="str">
+      <c r="AD175" t="str">
         <f>B175</f>
         <v>IOTFELC-E</v>
       </c>
-      <c r="AA175" t="str">
+      <c r="AE175" t="str">
         <f>A175</f>
         <v>Industry-Other-Fans - Electricity</v>
       </c>
-      <c r="AB175" s="70" t="s">
+      <c r="AF175" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC175" s="70" t="s">
+      <c r="AG175" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD175" s="70" t="s">
+      <c r="AH175" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE175" s="70" t="s">
+      <c r="AI175" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG175" s="70" t="str">
+      <c r="AK175" s="70" t="str">
         <f>D175</f>
         <v>IOTF</v>
       </c>
-      <c r="AH175" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG175,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG175,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL175" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK175,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK175,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - Fans</v>
       </c>
-      <c r="AI175" s="245" t="s">
+      <c r="AM175" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ175" s="70" t="s">
+      <c r="AN175" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK175" s="70" t="s">
+      <c r="AO175" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN175" s="254" t="s">
+      <c r="AR175" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO175" s="72" t="str">
+      <c r="AS175" s="72" t="str">
         <f t="shared" si="127"/>
         <v>IOTF</v>
       </c>
-      <c r="AP175" s="254" t="s">
+      <c r="AT175" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ175" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO175)</f>
+      <c r="AU175" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS175)</f>
         <v>1.0010822400000001</v>
       </c>
     </row>
-    <row r="176" spans="1:43">
+    <row r="176" spans="1:47">
       <c r="A176" s="45" t="str">
         <f t="shared" si="124"/>
         <v>Industry-Other-Other motive - Electricity</v>
@@ -29902,59 +29900,59 @@
       <c r="U176" s="74"/>
       <c r="V176" s="74"/>
       <c r="W176" s="74"/>
-      <c r="Z176" t="str">
+      <c r="AD176" t="str">
         <f>B176</f>
         <v>IOTOELC-E</v>
       </c>
-      <c r="AA176" t="str">
+      <c r="AE176" t="str">
         <f>A176</f>
         <v>Industry-Other-Other motive - Electricity</v>
       </c>
-      <c r="AB176" s="70" t="s">
+      <c r="AF176" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC176" s="70" t="s">
+      <c r="AG176" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD176" s="70" t="s">
+      <c r="AH176" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE176" s="70" t="s">
+      <c r="AI176" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG176" s="70" t="str">
+      <c r="AK176" s="70" t="str">
         <f>D176</f>
         <v>IOTO</v>
       </c>
-      <c r="AH176" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG176,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG176,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL176" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK176,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK176,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - Other motive</v>
       </c>
-      <c r="AI176" s="245" t="s">
+      <c r="AM176" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ176" s="70" t="s">
+      <c r="AN176" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK176" s="70" t="s">
+      <c r="AO176" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN176" s="254" t="s">
+      <c r="AR176" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO176" s="72" t="str">
+      <c r="AS176" s="72" t="str">
         <f t="shared" si="127"/>
         <v>IOTO</v>
       </c>
-      <c r="AP176" s="254" t="s">
+      <c r="AT176" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ176" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO176)</f>
+      <c r="AU176" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS176)</f>
         <v>6.6708069120000006</v>
       </c>
     </row>
-    <row r="177" spans="1:43">
+    <row r="177" spans="1:47">
       <c r="A177" s="45" t="str">
         <f t="shared" si="124"/>
         <v>Industry-Other-Electrochemical - Electricity</v>
@@ -30009,59 +30007,59 @@
       <c r="U177" s="74"/>
       <c r="V177" s="74"/>
       <c r="W177" s="74"/>
-      <c r="Z177" t="str">
+      <c r="AD177" t="str">
         <f>B177</f>
         <v>IOTEELC-E</v>
       </c>
-      <c r="AA177" t="str">
+      <c r="AE177" t="str">
         <f>A177</f>
         <v>Industry-Other-Electrochemical - Electricity</v>
       </c>
-      <c r="AB177" s="70" t="s">
+      <c r="AF177" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC177" s="70" t="s">
+      <c r="AG177" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD177" s="70" t="s">
+      <c r="AH177" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE177" s="70" t="s">
+      <c r="AI177" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG177" s="70" t="str">
+      <c r="AK177" s="70" t="str">
         <f>D177</f>
         <v>IOTE</v>
       </c>
-      <c r="AH177" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG177,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG177,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL177" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK177,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK177,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - Electrochemical</v>
       </c>
-      <c r="AI177" s="245" t="s">
+      <c r="AM177" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ177" s="70" t="s">
+      <c r="AN177" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK177" s="70" t="s">
+      <c r="AO177" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN177" s="254" t="s">
+      <c r="AR177" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO177" s="72" t="str">
+      <c r="AS177" s="72" t="str">
         <f t="shared" si="127"/>
         <v>IOTE</v>
       </c>
-      <c r="AP177" s="254" t="s">
+      <c r="AT177" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ177" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO177)</f>
+      <c r="AU177" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS177)</f>
         <v>0.22371068160000002</v>
       </c>
     </row>
-    <row r="178" spans="1:43">
+    <row r="178" spans="1:47">
       <c r="A178" s="45" t="s">
         <v>476</v>
       </c>
@@ -30089,36 +30087,36 @@
       <c r="U178" s="74"/>
       <c r="V178" s="74"/>
       <c r="W178" s="74"/>
-      <c r="Z178" s="26" t="s">
+      <c r="AD178" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AB178" s="70"/>
-      <c r="AC178" s="70"/>
-      <c r="AD178" s="70"/>
-      <c r="AE178" s="70"/>
-      <c r="AG178" s="70" t="s">
+      <c r="AF178" s="70"/>
+      <c r="AG178" s="70"/>
+      <c r="AH178" s="70"/>
+      <c r="AI178" s="70"/>
+      <c r="AK178" s="70" t="s">
         <v>476</v>
       </c>
-      <c r="AH178" s="70"/>
-      <c r="AI178" s="245"/>
-      <c r="AJ178" s="70"/>
-      <c r="AK178" s="70"/>
-      <c r="AN178" s="72" t="s">
+      <c r="AL178" s="70"/>
+      <c r="AM178" s="245"/>
+      <c r="AN178" s="70"/>
+      <c r="AO178" s="70"/>
+      <c r="AR178" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO178" s="72" t="str">
+      <c r="AS178" s="72" t="str">
         <f t="shared" si="127"/>
         <v>*</v>
       </c>
-      <c r="AP178" s="254" t="s">
+      <c r="AT178" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ178" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO178)</f>
+      <c r="AU178" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS178)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="179" spans="1:43">
+    <row r="179" spans="1:47">
       <c r="A179" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$19&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C179,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
@@ -30198,59 +30196,59 @@
         <v>0</v>
       </c>
       <c r="W179" s="74"/>
-      <c r="Z179" t="str">
+      <c r="AD179" t="str">
         <f>B179</f>
         <v>IOTSCOA-E</v>
       </c>
-      <c r="AA179" t="str">
+      <c r="AE179" t="str">
         <f>A179</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB179" s="70" t="s">
+      <c r="AF179" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC179" s="70" t="s">
+      <c r="AG179" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD179" s="70" t="s">
+      <c r="AH179" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE179" s="70" t="s">
+      <c r="AI179" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG179" s="70" t="str">
+      <c r="AK179" s="70" t="str">
         <f>D179</f>
         <v>IOTS</v>
       </c>
-      <c r="AH179" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG179,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG179,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL179" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK179,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK179,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - boiler/process heating</v>
       </c>
-      <c r="AI179" s="245" t="s">
+      <c r="AM179" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ179" s="70" t="s">
+      <c r="AN179" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK179" s="70" t="s">
+      <c r="AO179" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN179" s="254" t="s">
+      <c r="AR179" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO179" s="72" t="str">
+      <c r="AS179" s="72" t="str">
         <f t="shared" si="127"/>
         <v>IOTS</v>
       </c>
-      <c r="AP179" s="254" t="s">
+      <c r="AT179" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ179" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO179)</f>
+      <c r="AU179" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS179)</f>
         <v>68.533420800000002</v>
       </c>
     </row>
-    <row r="180" spans="1:43">
+    <row r="180" spans="1:47">
       <c r="A180" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$19&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C180,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
@@ -30330,58 +30328,58 @@
         <v>0</v>
       </c>
       <c r="W180" s="74"/>
-      <c r="Z180" t="str">
+      <c r="AD180" t="str">
         <f>B180</f>
         <v>IOTSGAS-E</v>
       </c>
-      <c r="AA180" t="str">
+      <c r="AE180" t="str">
         <f>A180</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB180" s="70" t="s">
+      <c r="AF180" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC180" s="70" t="s">
+      <c r="AG180" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD180" s="70" t="s">
+      <c r="AH180" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE180" s="70" t="s">
+      <c r="AI180" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG180" s="26" t="s">
+      <c r="AK180" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH180" s="70" t="str">
+      <c r="AL180" s="70" t="str">
         <f>A180</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI180" s="245" t="s">
+      <c r="AM180" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ180" s="70" t="s">
+      <c r="AN180" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK180" s="70" t="s">
+      <c r="AO180" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN180" s="72" t="s">
+      <c r="AR180" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO180" s="72" t="str">
+      <c r="AS180" s="72" t="str">
         <f t="shared" si="127"/>
         <v>*</v>
       </c>
-      <c r="AP180" s="254" t="s">
+      <c r="AT180" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ180" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO180)</f>
+      <c r="AU180" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS180)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="181" spans="1:43">
+    <row r="181" spans="1:47">
       <c r="A181" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$19&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C181,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
@@ -30461,58 +30459,58 @@
         <v>0</v>
       </c>
       <c r="W181" s="74"/>
-      <c r="Z181" t="str">
+      <c r="AD181" t="str">
         <f>B181</f>
         <v>IOTSOHF-E</v>
       </c>
-      <c r="AA181" t="str">
+      <c r="AE181" t="str">
         <f>A181</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB181" s="70" t="s">
+      <c r="AF181" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC181" s="70" t="s">
+      <c r="AG181" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD181" s="70" t="s">
+      <c r="AH181" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE181" s="70" t="s">
+      <c r="AI181" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG181" s="26" t="s">
+      <c r="AK181" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH181" s="70" t="str">
+      <c r="AL181" s="70" t="str">
         <f>A181</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI181" s="245" t="s">
+      <c r="AM181" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ181" s="70" t="s">
+      <c r="AN181" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK181" s="70" t="s">
+      <c r="AO181" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN181" s="72" t="s">
+      <c r="AR181" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO181" s="72" t="str">
+      <c r="AS181" s="72" t="str">
         <f t="shared" si="127"/>
         <v>*</v>
       </c>
-      <c r="AP181" s="254" t="s">
+      <c r="AT181" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ181" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO181)</f>
+      <c r="AU181" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS181)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="182" spans="1:43">
+    <row r="182" spans="1:47">
       <c r="A182" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$19&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C182,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
@@ -30592,58 +30590,58 @@
         <v>0</v>
       </c>
       <c r="W182" s="74"/>
-      <c r="Z182" t="str">
+      <c r="AD182" t="str">
         <f>B182</f>
         <v>IOTSOLP-E</v>
       </c>
-      <c r="AA182" t="str">
+      <c r="AE182" t="str">
         <f>A182</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB182" s="70" t="s">
+      <c r="AF182" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC182" s="70" t="s">
+      <c r="AG182" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD182" s="70" t="s">
+      <c r="AH182" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE182" s="70" t="s">
+      <c r="AI182" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG182" s="26" t="s">
+      <c r="AK182" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH182" s="70" t="str">
+      <c r="AL182" s="70" t="str">
         <f>A182</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI182" s="245" t="s">
+      <c r="AM182" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ182" s="70" t="s">
+      <c r="AN182" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK182" s="70" t="s">
+      <c r="AO182" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN182" s="72" t="s">
+      <c r="AR182" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO182" s="72" t="str">
+      <c r="AS182" s="72" t="str">
         <f t="shared" si="127"/>
         <v>*</v>
       </c>
-      <c r="AP182" s="254" t="s">
+      <c r="AT182" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ182" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO182)</f>
+      <c r="AU182" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS182)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="183" spans="1:43" ht="15">
+    <row r="183" spans="1:47" ht="15">
       <c r="A183" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$19&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C183,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
@@ -30722,58 +30720,58 @@
         <v>0</v>
       </c>
       <c r="W183" s="74"/>
-      <c r="Z183" t="str">
+      <c r="AD183" t="str">
         <f>B183</f>
         <v>IOTSELC-E</v>
       </c>
-      <c r="AA183" t="str">
+      <c r="AE183" t="str">
         <f>A183</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB183" s="70" t="s">
+      <c r="AF183" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC183" s="70" t="s">
+      <c r="AG183" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD183" s="70" t="s">
+      <c r="AH183" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE183" s="70" t="s">
+      <c r="AI183" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG183" s="26" t="s">
+      <c r="AK183" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH183" s="70" t="str">
+      <c r="AL183" s="70" t="str">
         <f>A183</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI183" s="245" t="s">
+      <c r="AM183" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ183" s="70" t="s">
+      <c r="AN183" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK183" s="70" t="s">
+      <c r="AO183" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN183" s="72" t="s">
+      <c r="AR183" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO183" s="72" t="str">
+      <c r="AS183" s="72" t="str">
         <f t="shared" si="127"/>
         <v>*</v>
       </c>
-      <c r="AP183" s="254" t="s">
+      <c r="AT183" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ183" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO183)</f>
+      <c r="AU183" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS183)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="184" spans="1:43" ht="15">
+    <row r="184" spans="1:47" ht="15">
       <c r="A184" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$19&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C184,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Heat Pump New"</f>
         <v>Industry-Other-boiler/process heating -  - Heat Pump New</v>
@@ -30848,58 +30846,58 @@
         <v>0</v>
       </c>
       <c r="W184" s="74"/>
-      <c r="Z184" t="str">
+      <c r="AD184" t="str">
         <f>B184</f>
         <v>IOTSELC-N</v>
       </c>
-      <c r="AA184" t="str">
+      <c r="AE184" t="str">
         <f>A184</f>
         <v>Industry-Other-boiler/process heating -  - Heat Pump New</v>
       </c>
-      <c r="AB184" s="70" t="s">
+      <c r="AF184" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC184" s="70" t="s">
+      <c r="AG184" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD184" s="70" t="s">
+      <c r="AH184" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE184" s="70" t="s">
+      <c r="AI184" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG184" s="26" t="s">
+      <c r="AK184" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH184" s="70" t="str">
+      <c r="AL184" s="70" t="str">
         <f>A184</f>
         <v>Industry-Other-boiler/process heating -  - Heat Pump New</v>
       </c>
-      <c r="AI184" s="245" t="s">
+      <c r="AM184" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ184" s="70" t="s">
+      <c r="AN184" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK184" s="70" t="s">
+      <c r="AO184" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN184" s="72" t="s">
+      <c r="AR184" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO184" s="72" t="str">
+      <c r="AS184" s="72" t="str">
         <f t="shared" si="127"/>
         <v>*</v>
       </c>
-      <c r="AP184" s="254" t="s">
+      <c r="AT184" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ184" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO184)</f>
+      <c r="AU184" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS184)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="185" spans="1:43">
+    <row r="185" spans="1:47">
       <c r="A185" s="45" t="s">
         <v>472</v>
       </c>
@@ -30975,58 +30973,58 @@
         <v>0</v>
       </c>
       <c r="W185" s="74"/>
-      <c r="Z185" t="str">
+      <c r="AD185" t="str">
         <f>B185</f>
         <v>IOTSHGN-E</v>
       </c>
-      <c r="AA185" t="str">
+      <c r="AE185" t="str">
         <f>A185</f>
         <v>Industry-Other-boiler/process heating - Hydrogen - New</v>
       </c>
-      <c r="AB185" s="70" t="s">
+      <c r="AF185" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC185" s="70" t="s">
+      <c r="AG185" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD185" s="70" t="s">
+      <c r="AH185" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE185" s="70" t="s">
+      <c r="AI185" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG185" s="26" t="s">
+      <c r="AK185" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH185" s="70" t="str">
+      <c r="AL185" s="70" t="str">
         <f>A185</f>
         <v>Industry-Other-boiler/process heating - Hydrogen - New</v>
       </c>
-      <c r="AI185" s="245" t="s">
+      <c r="AM185" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ185" s="70" t="s">
+      <c r="AN185" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK185" s="70" t="s">
+      <c r="AO185" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN185" s="72" t="s">
+      <c r="AR185" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO185" s="72" t="str">
+      <c r="AS185" s="72" t="str">
         <f t="shared" si="127"/>
         <v>*</v>
       </c>
-      <c r="AP185" s="254" t="s">
+      <c r="AT185" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ185" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO185)</f>
+      <c r="AU185" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS185)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="186" spans="1:43">
+    <row r="186" spans="1:47">
       <c r="A186" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$19&amp;"-"&amp;A$70&amp;" - "&amp;VLOOKUP(RIGHT(C186,3),NameConv!$E$4:$G$23,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
@@ -31105,58 +31103,58 @@
         <v>0</v>
       </c>
       <c r="W186" s="74"/>
-      <c r="Z186" t="str">
+      <c r="AD186" t="str">
         <f>B186</f>
         <v>IOTSWAS-E</v>
       </c>
-      <c r="AA186" t="str">
+      <c r="AE186" t="str">
         <f>A186</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AB186" s="70" t="s">
+      <c r="AF186" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC186" s="70" t="s">
+      <c r="AG186" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD186" s="70" t="s">
+      <c r="AH186" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE186" s="70" t="s">
+      <c r="AI186" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG186" s="26" t="s">
+      <c r="AK186" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH186" s="70" t="str">
+      <c r="AL186" s="70" t="str">
         <f>A186</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
-      <c r="AI186" s="245" t="s">
+      <c r="AM186" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ186" s="70" t="s">
+      <c r="AN186" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK186" s="70" t="s">
+      <c r="AO186" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN186" s="72" t="s">
+      <c r="AR186" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO186" s="72" t="str">
+      <c r="AS186" s="72" t="str">
         <f t="shared" si="127"/>
         <v>*</v>
       </c>
-      <c r="AP186" s="254" t="s">
+      <c r="AT186" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ186" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO186)</f>
+      <c r="AU186" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS186)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="187" spans="1:43">
+    <row r="187" spans="1:47">
       <c r="A187" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$19&amp;"-"&amp;A$42&amp;" - "&amp;VLOOKUP(RIGHT(C187,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - Existing"</f>
         <v>Industry-Other-Transport -  - Existing</v>
@@ -31234,59 +31232,59 @@
         <v>0</v>
       </c>
       <c r="W187" s="74"/>
-      <c r="Z187" t="str">
+      <c r="AD187" t="str">
         <f>B187</f>
         <v>IOTRODS-E</v>
       </c>
-      <c r="AA187" t="str">
+      <c r="AE187" t="str">
         <f>A187</f>
         <v>Industry-Other-Transport -  - Existing</v>
       </c>
-      <c r="AB187" s="70" t="s">
+      <c r="AF187" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC187" s="70" t="s">
+      <c r="AG187" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD187" s="70" t="s">
+      <c r="AH187" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE187" s="70" t="s">
+      <c r="AI187" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG187" s="70" t="str">
+      <c r="AK187" s="70" t="str">
         <f>D187</f>
         <v>IOTR</v>
       </c>
-      <c r="AH187" s="70" t="str">
-        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AG187,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AG187,1),NameConv!$D$42:$E$53,2,FALSE)</f>
+      <c r="AL187" s="70" t="str">
+        <f>"Industry - "&amp;VLOOKUP(RIGHT(LEFT(AK187,3),2),NameConv!$E$21:$F$301,2,FALSE)&amp;" - " &amp;VLOOKUP(RIGHT(AK187,1),NameConv!$D$42:$E$53,2,FALSE)</f>
         <v>Industry - Other - Transport</v>
       </c>
-      <c r="AI187" s="245" t="s">
+      <c r="AM187" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ187" s="70" t="s">
+      <c r="AN187" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK187" s="70" t="s">
+      <c r="AO187" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AN187" s="254" t="s">
+      <c r="AR187" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="AO187" s="72" t="str">
+      <c r="AS187" s="72" t="str">
         <f t="shared" si="127"/>
         <v>IOTR</v>
       </c>
-      <c r="AP187" s="254" t="s">
+      <c r="AT187" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ187" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO187)</f>
+      <c r="AU187" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS187)</f>
         <v>4.2</v>
       </c>
     </row>
-    <row r="188" spans="1:43" ht="15">
+    <row r="188" spans="1:47" ht="15">
       <c r="A188" s="45" t="str">
         <f>A$5&amp;"-"&amp;A$19&amp;"-"&amp;A$42&amp;" - "&amp;VLOOKUP(RIGHT(C188,3),NameConv!$E$4:$G$20,2,FALSE)&amp;" - New"</f>
         <v>Industry-Other-Transport -  - New</v>
@@ -31363,58 +31361,58 @@
         <v>0</v>
       </c>
       <c r="W188" s="74"/>
-      <c r="Z188" t="str">
+      <c r="AD188" t="str">
         <f>B188</f>
         <v>IOTRELC-E</v>
       </c>
-      <c r="AA188" t="str">
+      <c r="AE188" t="str">
         <f>A188</f>
         <v>Industry-Other-Transport -  - New</v>
       </c>
-      <c r="AB188" s="70" t="s">
+      <c r="AF188" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC188" s="70" t="s">
+      <c r="AG188" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="AD188" s="70" t="s">
+      <c r="AH188" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="AE188" s="70" t="s">
+      <c r="AI188" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="AG188" s="26" t="s">
+      <c r="AK188" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="AH188" s="70" t="str">
+      <c r="AL188" s="70" t="str">
         <f>A188</f>
         <v>Industry-Other-Transport -  - New</v>
       </c>
-      <c r="AI188" s="245" t="s">
+      <c r="AM188" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="AJ188" s="70" t="s">
+      <c r="AN188" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="AK188" s="70" t="s">
+      <c r="AO188" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="AN188" s="72" t="s">
+      <c r="AR188" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AO188" s="72" t="str">
+      <c r="AS188" s="72" t="str">
         <f t="shared" si="127"/>
         <v>*</v>
       </c>
-      <c r="AP188" s="254" t="s">
+      <c r="AT188" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="AQ188" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AO188)</f>
+      <c r="AU188" s="260">
+        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS188)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
-    <row r="189" spans="1:43">
+    <row r="189" spans="1:47">
       <c r="P189" s="74" t="str">
         <f>""</f>
         <v/>
@@ -31424,11 +31422,11 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:43" s="82" customFormat="1" ht="15">
+    <row r="190" spans="1:47" s="82" customFormat="1" ht="15">
       <c r="B190" s="81"/>
       <c r="K190" s="83"/>
       <c r="M190"/>
-      <c r="Y190"/>
+      <c r="AC190"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
@@ -40300,7 +40298,7 @@
       </c>
       <c r="H4" s="98">
         <f ca="1">NOW()</f>
-        <v>43749.470029861113</v>
+        <v>43750.623995486108</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -46811,8 +46809,8 @@
   </sheetPr>
   <dimension ref="A1:AX271"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L108" sqref="A102:L108"/>
+    <sheetView topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T225" sqref="T225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>

--- a/vt_REGION1_IND-OTH.xlsx
+++ b/vt_REGION1_IND-OTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34353FE8-7F9C-4EEA-9C35-33448AE7739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F743C75-E51A-4FAD-A58F-E08CFBF57C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
   </bookViews>
@@ -15943,8 +15943,8 @@
   </sheetPr>
   <dimension ref="A1:AU190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J181" sqref="J181"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q185" sqref="Q185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>
@@ -19904,11 +19904,11 @@
       <c r="W81" s="74"/>
       <c r="X81" s="74"/>
       <c r="AD81" t="str">
-        <f>B81</f>
+        <f t="shared" ref="AD81:AD89" si="31">B81</f>
         <v>IMIKELC-E</v>
       </c>
       <c r="AE81" t="str">
-        <f>A81</f>
+        <f t="shared" ref="AE81:AE89" si="32">A81</f>
         <v>Industry-Mining-Elec Heating - Electricity</v>
       </c>
       <c r="AF81" s="70" t="s">
@@ -19924,7 +19924,7 @@
         <v>611</v>
       </c>
       <c r="AK81" s="70" t="str">
-        <f>D81</f>
+        <f t="shared" ref="AK81:AK89" si="33">D81</f>
         <v>IMIK</v>
       </c>
       <c r="AL81" s="70" t="str">
@@ -19951,13 +19951,13 @@
         <v>387</v>
       </c>
       <c r="AU81" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS81)</f>
+        <f t="shared" ref="AU81:AU101" si="34">SUMIFS($L$81:$L$188,$D$81:$D$188,$AS81)</f>
         <v>1.5483671599004531</v>
       </c>
     </row>
     <row r="82" spans="1:47">
       <c r="A82" s="45" t="str">
-        <f t="shared" ref="A82:A89" si="31">A$5&amp;"-"&amp;A$10&amp;"-"&amp;A62&amp;" - Electricity"</f>
+        <f t="shared" ref="A82:A89" si="35">A$5&amp;"-"&amp;A$10&amp;"-"&amp;A62&amp;" - Electricity"</f>
         <v>Industry-Mining-Compressed air - Electricity</v>
       </c>
       <c r="B82" s="45" t="str">
@@ -19984,7 +19984,7 @@
         <v>100</v>
       </c>
       <c r="H82" s="60">
-        <f t="shared" ref="H82:H89" si="32">L82/F82</f>
+        <f t="shared" ref="H82:H89" si="36">L82/F82</f>
         <v>6.2097168769758557</v>
       </c>
       <c r="I82">
@@ -19998,7 +19998,7 @@
         <v>14.387914003953057</v>
       </c>
       <c r="L82" s="60">
-        <f t="shared" ref="L82:L89" si="33">K82*E82</f>
+        <f t="shared" ref="L82:L89" si="37">K82*E82</f>
         <v>0.71939570019765287</v>
       </c>
       <c r="N82" s="74" t="str">
@@ -20011,11 +20011,11 @@
       <c r="W82" s="74"/>
       <c r="X82" s="74"/>
       <c r="AD82" t="str">
-        <f>B82</f>
+        <f t="shared" si="31"/>
         <v>IMIAELC-E</v>
       </c>
       <c r="AE82" t="str">
-        <f>A82</f>
+        <f t="shared" si="32"/>
         <v>Industry-Mining-Compressed air - Electricity</v>
       </c>
       <c r="AF82" s="70" t="s">
@@ -20031,7 +20031,7 @@
         <v>611</v>
       </c>
       <c r="AK82" s="70" t="str">
-        <f>D82</f>
+        <f t="shared" si="33"/>
         <v>IMIA</v>
       </c>
       <c r="AL82" s="70" t="str">
@@ -20051,24 +20051,24 @@
         <v>401</v>
       </c>
       <c r="AS82" s="72" t="str">
-        <f t="shared" ref="AS82:AS84" si="34">AK82</f>
+        <f t="shared" ref="AS82:AS84" si="38">AK82</f>
         <v>IMIA</v>
       </c>
       <c r="AT82" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU82" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS82)</f>
+        <f t="shared" si="34"/>
         <v>0.71939570019765287</v>
       </c>
     </row>
     <row r="83" spans="1:47">
       <c r="A83" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>Industry-Mining-Lighting - Electricity</v>
       </c>
       <c r="B83" s="45" t="str">
-        <f t="shared" ref="B83:B89" si="35">D83&amp;RIGHT(C83,3)&amp;"-E"</f>
+        <f t="shared" ref="B83:B89" si="39">D83&amp;RIGHT(C83,3)&amp;"-E"</f>
         <v>IMILELC-E</v>
       </c>
       <c r="C83" s="46" t="str">
@@ -20091,7 +20091,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.391391673487</v>
       </c>
       <c r="I83">
@@ -20101,11 +20101,11 @@
         <v>1</v>
       </c>
       <c r="K83" s="60">
-        <f t="shared" ref="K83:K89" si="36">J83*SUMIF($C$60:$K$60,$B$79,$C63:$K63)</f>
+        <f t="shared" ref="K83:K89" si="40">J83*SUMIF($C$60:$K$60,$B$79,$C63:$K63)</f>
         <v>3.4838261097760195</v>
       </c>
       <c r="L83" s="60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1.0451478329328059</v>
       </c>
       <c r="N83" s="74" t="str">
@@ -20118,11 +20118,11 @@
       <c r="W83" s="74"/>
       <c r="X83" s="74"/>
       <c r="AD83" t="str">
-        <f>B83</f>
+        <f t="shared" si="31"/>
         <v>IMILELC-E</v>
       </c>
       <c r="AE83" t="str">
-        <f>A83</f>
+        <f t="shared" si="32"/>
         <v>Industry-Mining-Lighting - Electricity</v>
       </c>
       <c r="AF83" s="70" t="s">
@@ -20138,7 +20138,7 @@
         <v>611</v>
       </c>
       <c r="AK83" s="70" t="str">
-        <f>D83</f>
+        <f t="shared" si="33"/>
         <v>IMIL</v>
       </c>
       <c r="AL83" s="70" t="str">
@@ -20158,24 +20158,24 @@
         <v>401</v>
       </c>
       <c r="AS83" s="72" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>IMIL</v>
       </c>
       <c r="AT83" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU83" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS83)</f>
+        <f t="shared" si="34"/>
         <v>1.0451478329328059</v>
       </c>
     </row>
     <row r="84" spans="1:47">
       <c r="A84" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>Industry-Mining-Cooling - Electricity</v>
       </c>
       <c r="B84" s="45" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>IMICELC-E</v>
       </c>
       <c r="C84" s="46" t="str">
@@ -20225,11 +20225,11 @@
       <c r="W84" s="74"/>
       <c r="X84" s="74"/>
       <c r="AD84" t="str">
-        <f>B84</f>
+        <f t="shared" si="31"/>
         <v>IMICELC-E</v>
       </c>
       <c r="AE84" t="str">
-        <f>A84</f>
+        <f t="shared" si="32"/>
         <v>Industry-Mining-Cooling - Electricity</v>
       </c>
       <c r="AF84" s="70" t="s">
@@ -20245,7 +20245,7 @@
         <v>611</v>
       </c>
       <c r="AK84" s="70" t="str">
-        <f>D84</f>
+        <f t="shared" si="33"/>
         <v>IMIC</v>
       </c>
       <c r="AL84" s="70" t="str">
@@ -20265,24 +20265,24 @@
         <v>401</v>
       </c>
       <c r="AS84" s="72" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>IMIC</v>
       </c>
       <c r="AT84" s="72" t="s">
         <v>387</v>
       </c>
       <c r="AU84" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS84)</f>
+        <f t="shared" si="34"/>
         <v>12.569563545045538</v>
       </c>
     </row>
     <row r="85" spans="1:47">
       <c r="A85" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>Industry-Mining-HVAC - Electricity</v>
       </c>
       <c r="B85" s="45" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>IMIHELC-E</v>
       </c>
       <c r="C85" s="46" t="str">
@@ -20305,7 +20305,7 @@
         <v>100</v>
       </c>
       <c r="H85" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>42.353330108970681</v>
       </c>
       <c r="I85">
@@ -20315,11 +20315,11 @@
         <v>1</v>
       </c>
       <c r="K85" s="60">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>6.1934686396018126</v>
       </c>
       <c r="L85" s="60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.5741217756416317</v>
       </c>
       <c r="N85" s="74" t="str">
@@ -20332,11 +20332,11 @@
       <c r="W85" s="74"/>
       <c r="X85" s="74"/>
       <c r="AD85" t="str">
-        <f>B85</f>
+        <f t="shared" si="31"/>
         <v>IMIHELC-E</v>
       </c>
       <c r="AE85" t="str">
-        <f>A85</f>
+        <f t="shared" si="32"/>
         <v>Industry-Mining-HVAC - Electricity</v>
       </c>
       <c r="AF85" s="70" t="s">
@@ -20352,7 +20352,7 @@
         <v>611</v>
       </c>
       <c r="AK85" s="70" t="str">
-        <f>D85</f>
+        <f t="shared" si="33"/>
         <v>IMIH</v>
       </c>
       <c r="AL85" s="70" t="str">
@@ -20372,24 +20372,24 @@
         <v>401</v>
       </c>
       <c r="AS85" s="72" t="str">
-        <f t="shared" ref="AS85:AS101" si="37">AK85</f>
+        <f t="shared" ref="AS85:AS101" si="41">AK85</f>
         <v>IMIH</v>
       </c>
       <c r="AT85" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU85" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS85)</f>
+        <f t="shared" si="34"/>
         <v>5.5741217756416317</v>
       </c>
     </row>
     <row r="86" spans="1:47">
       <c r="A86" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>Industry-Mining-Pumping - Electricity</v>
       </c>
       <c r="B86" s="45" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>IMIPELC-E</v>
       </c>
       <c r="C86" s="46" t="str">
@@ -20412,7 +20412,7 @@
         <v>100</v>
       </c>
       <c r="H86" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>91.435770260408859</v>
       </c>
       <c r="I86">
@@ -20422,11 +20422,11 @@
         <v>1</v>
       </c>
       <c r="K86" s="60">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13.847947405938921</v>
       </c>
       <c r="L86" s="60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>11.078357924751138</v>
       </c>
       <c r="N86" s="74" t="str">
@@ -20439,11 +20439,11 @@
       <c r="W86" s="74"/>
       <c r="X86" s="74"/>
       <c r="AD86" t="str">
-        <f>B86</f>
+        <f t="shared" si="31"/>
         <v>IMIPELC-E</v>
       </c>
       <c r="AE86" t="str">
-        <f>A86</f>
+        <f t="shared" si="32"/>
         <v>Industry-Mining-Pumping - Electricity</v>
       </c>
       <c r="AF86" s="70" t="s">
@@ -20459,7 +20459,7 @@
         <v>611</v>
       </c>
       <c r="AK86" s="70" t="str">
-        <f>D86</f>
+        <f t="shared" si="33"/>
         <v>IMIP</v>
       </c>
       <c r="AL86" s="70" t="str">
@@ -20479,24 +20479,24 @@
         <v>401</v>
       </c>
       <c r="AS86" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>IMIP</v>
       </c>
       <c r="AT86" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU86" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS86)</f>
+        <f t="shared" si="34"/>
         <v>11.078357924751138</v>
       </c>
     </row>
     <row r="87" spans="1:47">
       <c r="A87" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>Industry-Mining-Fans - Electricity</v>
       </c>
       <c r="B87" s="45" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>IMIFELC-E</v>
       </c>
       <c r="C87" s="46" t="str">
@@ -20519,7 +20519,7 @@
         <v>100</v>
       </c>
       <c r="H87" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>39.001027897861803</v>
       </c>
       <c r="I87">
@@ -20529,11 +20529,11 @@
         <v>1</v>
       </c>
       <c r="K87" s="60">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.3319280264864313</v>
       </c>
       <c r="L87" s="60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>4.2655424211891448</v>
       </c>
       <c r="N87" s="74" t="str">
@@ -20546,11 +20546,11 @@
       <c r="W87" s="74"/>
       <c r="X87" s="74"/>
       <c r="AD87" t="str">
-        <f>B87</f>
+        <f t="shared" si="31"/>
         <v>IMIFELC-E</v>
       </c>
       <c r="AE87" t="str">
-        <f>A87</f>
+        <f t="shared" si="32"/>
         <v>Industry-Mining-Fans - Electricity</v>
       </c>
       <c r="AF87" s="70" t="s">
@@ -20566,7 +20566,7 @@
         <v>611</v>
       </c>
       <c r="AK87" s="70" t="str">
-        <f>D87</f>
+        <f t="shared" si="33"/>
         <v>IMIF</v>
       </c>
       <c r="AL87" s="70" t="str">
@@ -20586,24 +20586,24 @@
         <v>401</v>
       </c>
       <c r="AS87" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>IMIF</v>
       </c>
       <c r="AT87" s="72" t="s">
         <v>387</v>
       </c>
       <c r="AU87" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS87)</f>
+        <f t="shared" si="34"/>
         <v>4.2655424211891448</v>
       </c>
     </row>
     <row r="88" spans="1:47">
       <c r="A88" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>Industry-Mining-Other motive - Electricity</v>
       </c>
       <c r="B88" s="45" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>IMIOELC-E</v>
       </c>
       <c r="C88" s="46" t="str">
@@ -20626,7 +20626,7 @@
         <v>100</v>
       </c>
       <c r="H88" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>159.98815259718481</v>
       </c>
       <c r="I88">
@@ -20636,11 +20636,11 @@
         <v>1</v>
       </c>
       <c r="K88" s="60">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>26.16206265345464</v>
       </c>
       <c r="L88" s="60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20.929650122763714</v>
       </c>
       <c r="N88" s="74" t="str">
@@ -20653,11 +20653,11 @@
       <c r="W88" s="74"/>
       <c r="X88" s="74"/>
       <c r="AD88" t="str">
-        <f>B88</f>
+        <f t="shared" si="31"/>
         <v>IMIOELC-E</v>
       </c>
       <c r="AE88" t="str">
-        <f>A88</f>
+        <f t="shared" si="32"/>
         <v>Industry-Mining-Other motive - Electricity</v>
       </c>
       <c r="AF88" s="70" t="s">
@@ -20673,7 +20673,7 @@
         <v>611</v>
       </c>
       <c r="AK88" s="70" t="str">
-        <f>D88</f>
+        <f t="shared" si="33"/>
         <v>IMIO</v>
       </c>
       <c r="AL88" s="70" t="str">
@@ -20693,24 +20693,24 @@
         <v>401</v>
       </c>
       <c r="AS88" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>IMIO</v>
       </c>
       <c r="AT88" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU88" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS88)</f>
+        <f t="shared" si="34"/>
         <v>20.929650122763714</v>
       </c>
     </row>
     <row r="89" spans="1:47">
       <c r="A89" s="45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>Industry-Mining-Electrochemical - Electricity</v>
       </c>
       <c r="B89" s="45" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>IMIEELC-E</v>
       </c>
       <c r="C89" s="46" t="str">
@@ -20733,7 +20733,7 @@
         <v>100</v>
       </c>
       <c r="H89" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.0226501154333834</v>
       </c>
       <c r="I89">
@@ -20743,11 +20743,11 @@
         <v>1</v>
       </c>
       <c r="K89" s="60">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.17806222338855213</v>
       </c>
       <c r="L89" s="60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.13532728977529962</v>
       </c>
       <c r="N89" s="74" t="str">
@@ -20760,11 +20760,11 @@
       <c r="W89" s="74"/>
       <c r="X89" s="74"/>
       <c r="AD89" t="str">
-        <f>B89</f>
+        <f t="shared" si="31"/>
         <v>IMIEELC-E</v>
       </c>
       <c r="AE89" t="str">
-        <f>A89</f>
+        <f t="shared" si="32"/>
         <v>Industry-Mining-Electrochemical - Electricity</v>
       </c>
       <c r="AF89" s="70" t="s">
@@ -20780,7 +20780,7 @@
         <v>611</v>
       </c>
       <c r="AK89" s="70" t="str">
-        <f>D89</f>
+        <f t="shared" si="33"/>
         <v>IMIE</v>
       </c>
       <c r="AL89" s="70" t="str">
@@ -20800,14 +20800,14 @@
         <v>401</v>
       </c>
       <c r="AS89" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>IMIE</v>
       </c>
       <c r="AT89" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU89" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS89)</f>
+        <f t="shared" si="34"/>
         <v>0.13532728977529962</v>
       </c>
     </row>
@@ -20849,14 +20849,14 @@
         <v>476</v>
       </c>
       <c r="AS90" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>*</v>
       </c>
       <c r="AT90" s="72" t="s">
         <v>387</v>
       </c>
       <c r="AU90" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS90)</f>
+        <f t="shared" si="34"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -20866,7 +20866,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B91" s="45" t="str">
-        <f t="shared" ref="B91:B98" si="38">D91&amp;RIGHT(C91,3)&amp;"-E"</f>
+        <f t="shared" ref="B91:B98" si="42">D91&amp;RIGHT(C91,3)&amp;"-E"</f>
         <v>IMISCOA-E</v>
       </c>
       <c r="C91" s="46" t="str">
@@ -20874,7 +20874,7 @@
         <v>INDCOA</v>
       </c>
       <c r="D91" s="46" t="str">
-        <f t="shared" ref="D91:D97" si="39">$B$5&amp;RIGHT($B$79,2)&amp;$B$70</f>
+        <f t="shared" ref="D91:D97" si="43">$B$5&amp;RIGHT($B$79,2)&amp;$B$70</f>
         <v>IMIS</v>
       </c>
       <c r="E91" s="58">
@@ -20889,7 +20889,7 @@
         <v>100</v>
       </c>
       <c r="H91" s="60">
-        <f t="shared" ref="H91:H98" si="40">L91/F91</f>
+        <f t="shared" ref="H91:H98" si="44">L91/F91</f>
         <v>158.26382316717445</v>
       </c>
       <c r="I91">
@@ -20903,11 +20903,11 @@
         <v>38.149000000000001</v>
       </c>
       <c r="L91" s="60">
-        <f t="shared" ref="L91:L98" si="41">K91*E91</f>
+        <f t="shared" ref="L91:L98" si="45">K91*E91</f>
         <v>24.41536</v>
       </c>
       <c r="N91" s="78">
-        <f t="shared" ref="N91:N98" si="42">L91/(SUMIF($D$81:$D$187,$D91,$L$81:$L$187)+$P$76)</f>
+        <f t="shared" ref="N91:N98" si="46">L91/(SUMIF($D$81:$D$187,$D91,$L$81:$L$187)+$P$76)</f>
         <v>0.96758960692888052</v>
       </c>
       <c r="O91" s="77">
@@ -20915,11 +20915,11 @@
         <v>1</v>
       </c>
       <c r="P91" s="77">
-        <f t="shared" ref="P91:Q91" si="43">MIN(1,$N91+P$75)</f>
+        <f t="shared" ref="P91:Q91" si="47">MIN(1,$N91+P$75)</f>
         <v>1</v>
       </c>
       <c r="Q91" s="77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="R91" s="77"/>
@@ -20932,21 +20932,21 @@
         <v>0.87083064623599249</v>
       </c>
       <c r="U91" s="77">
-        <f t="shared" ref="U91:V91" si="44">T91*U$75</f>
+        <f t="shared" ref="U91:V91" si="48">T91*U$75</f>
         <v>0</v>
       </c>
       <c r="V91" s="77">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W91" s="74"/>
       <c r="X91" s="74"/>
       <c r="AD91" t="str">
-        <f>B91</f>
+        <f t="shared" ref="AD91:AD98" si="49">B91</f>
         <v>IMISCOA-E</v>
       </c>
       <c r="AE91" t="str">
-        <f>A91</f>
+        <f t="shared" ref="AE91:AE98" si="50">A91</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF91" s="70" t="s">
@@ -20982,14 +20982,14 @@
         <v>401</v>
       </c>
       <c r="AS91" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>IMIS</v>
       </c>
       <c r="AT91" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU91" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS91)</f>
+        <f t="shared" si="34"/>
         <v>25.233177191199999</v>
       </c>
     </row>
@@ -20999,7 +20999,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B92" s="45" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>IMISGAS-E</v>
       </c>
       <c r="C92" s="46" t="str">
@@ -21007,7 +21007,7 @@
         <v>INDGAS</v>
       </c>
       <c r="D92" s="46" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>IMIS</v>
       </c>
       <c r="E92" s="58">
@@ -21022,7 +21022,7 @@
         <v>100</v>
       </c>
       <c r="H92" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>4.6671420237246384</v>
       </c>
       <c r="I92">
@@ -21036,50 +21036,50 @@
         <v>1</v>
       </c>
       <c r="L92" s="60">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.72</v>
       </c>
       <c r="N92" s="78">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2.8533862166635837E-2</v>
       </c>
       <c r="O92" s="77">
-        <f t="shared" ref="O92:Q94" si="45">MIN(1,$N92+O$75)</f>
+        <f t="shared" ref="O92:Q94" si="51">MIN(1,$N92+O$75)</f>
         <v>0.52853386216663578</v>
       </c>
       <c r="P92" s="77">
-        <f t="shared" si="45"/>
-        <v>1</v>
+        <f>O92</f>
+        <v>0.52853386216663578</v>
       </c>
       <c r="Q92" s="77">
-        <f t="shared" si="45"/>
-        <v>1</v>
+        <f>P92</f>
+        <v>0.52853386216663578</v>
       </c>
       <c r="R92" s="77"/>
       <c r="S92" s="78">
-        <f t="shared" ref="S92:S101" si="46">N92</f>
+        <f t="shared" ref="S92:S101" si="52">N92</f>
         <v>2.8533862166635837E-2</v>
       </c>
       <c r="T92" s="77">
-        <f t="shared" ref="T92:V92" si="47">S92*T$75</f>
+        <f t="shared" ref="T92:V92" si="53">S92*T$75</f>
         <v>2.5680475949972255E-2</v>
       </c>
       <c r="U92" s="77">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V92" s="77">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W92" s="74"/>
       <c r="X92" s="74"/>
       <c r="AD92" t="str">
-        <f>B92</f>
+        <f t="shared" si="49"/>
         <v>IMISGAS-E</v>
       </c>
       <c r="AE92" t="str">
-        <f>A92</f>
+        <f t="shared" si="50"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF92" s="70" t="s">
@@ -21098,7 +21098,7 @@
         <v>476</v>
       </c>
       <c r="AL92" s="70" t="str">
-        <f>A92</f>
+        <f t="shared" ref="AL92:AL98" si="54">A92</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM92" s="245" t="s">
@@ -21114,14 +21114,14 @@
         <v>476</v>
       </c>
       <c r="AS92" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>*</v>
       </c>
       <c r="AT92" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU92" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS92)</f>
+        <f t="shared" si="34"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -21131,7 +21131,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B93" s="45" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>IMISOHF-E</v>
       </c>
       <c r="C93" s="46" t="str">
@@ -21139,7 +21139,7 @@
         <v>INDOHF</v>
       </c>
       <c r="D93" s="46" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>IMIS</v>
       </c>
       <c r="E93" s="58">
@@ -21154,7 +21154,7 @@
         <v>100</v>
       </c>
       <c r="H93" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I93">
@@ -21168,49 +21168,49 @@
         <v>0</v>
       </c>
       <c r="L93" s="60">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N93" s="78">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O93" s="77">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.5</v>
       </c>
       <c r="P93" s="77">
-        <f t="shared" si="45"/>
-        <v>1</v>
+        <f>O93</f>
+        <v>0.5</v>
       </c>
       <c r="Q93" s="77">
-        <f t="shared" si="45"/>
-        <v>1</v>
+        <f>P93</f>
+        <v>0.5</v>
       </c>
       <c r="R93" s="77"/>
       <c r="S93" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T93" s="77">
-        <f t="shared" ref="T93:V93" si="48">S93*T$75</f>
+        <f t="shared" ref="T93:V93" si="55">S93*T$75</f>
         <v>0</v>
       </c>
       <c r="U93" s="77">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="V93" s="77">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="W93" s="74"/>
       <c r="AD93" t="str">
-        <f>B93</f>
+        <f t="shared" si="49"/>
         <v>IMISOHF-E</v>
       </c>
       <c r="AE93" t="str">
-        <f>A93</f>
+        <f t="shared" si="50"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF93" s="70" t="s">
@@ -21229,7 +21229,7 @@
         <v>476</v>
       </c>
       <c r="AL93" s="70" t="str">
-        <f>A93</f>
+        <f t="shared" si="54"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM93" s="245" t="s">
@@ -21245,14 +21245,14 @@
         <v>476</v>
       </c>
       <c r="AS93" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>*</v>
       </c>
       <c r="AT93" s="72" t="s">
         <v>387</v>
       </c>
       <c r="AU93" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS93)</f>
+        <f t="shared" si="34"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -21262,7 +21262,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B94" s="45" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>IMISOLP-E</v>
       </c>
       <c r="C94" s="46" t="str">
@@ -21270,7 +21270,7 @@
         <v>INDOLP</v>
       </c>
       <c r="D94" s="46" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>IMIS</v>
       </c>
       <c r="E94" s="58">
@@ -21285,7 +21285,7 @@
         <v>100</v>
       </c>
       <c r="H94" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.63406489401698329</v>
       </c>
       <c r="I94">
@@ -21299,49 +21299,49 @@
         <v>0.13585721000000001</v>
       </c>
       <c r="L94" s="60">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.78171912E-2</v>
       </c>
       <c r="N94" s="78">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3.8765309044836997E-3</v>
       </c>
       <c r="O94" s="77">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.5038765309044837</v>
       </c>
       <c r="P94" s="77">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Q94" s="77">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="R94" s="77"/>
       <c r="S94" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>3.8765309044836997E-3</v>
       </c>
       <c r="T94" s="77">
-        <f t="shared" ref="T94:V94" si="49">S94*T$75</f>
+        <f t="shared" ref="T94:V94" si="56">S94*T$75</f>
         <v>3.4888778140353296E-3</v>
       </c>
       <c r="U94" s="77">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V94" s="77">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="W94" s="74"/>
       <c r="AD94" t="str">
-        <f>B94</f>
+        <f t="shared" si="49"/>
         <v>IMISOLP-E</v>
       </c>
       <c r="AE94" t="str">
-        <f>A94</f>
+        <f t="shared" si="50"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF94" s="70" t="s">
@@ -21360,7 +21360,7 @@
         <v>476</v>
       </c>
       <c r="AL94" s="70" t="str">
-        <f>A94</f>
+        <f t="shared" si="54"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM94" s="245" t="s">
@@ -21376,14 +21376,14 @@
         <v>476</v>
       </c>
       <c r="AS94" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>*</v>
       </c>
       <c r="AT94" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU94" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS94)</f>
+        <f t="shared" si="34"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -21393,7 +21393,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B95" s="45" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>IMISELC-E</v>
       </c>
       <c r="C95" s="46" t="str">
@@ -21401,7 +21401,7 @@
         <v>IMIELC</v>
       </c>
       <c r="D95" s="46" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>IMIS</v>
       </c>
       <c r="E95" s="58">
@@ -21416,7 +21416,7 @@
         <v>100</v>
       </c>
       <c r="H95" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I95">
@@ -21434,7 +21434,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="78">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O95" s="216">
@@ -21450,28 +21450,28 @@
       </c>
       <c r="R95" s="77"/>
       <c r="S95" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T95" s="77">
-        <f t="shared" ref="T95:V95" si="50">S95*T$75</f>
+        <f t="shared" ref="T95:V95" si="57">S95*T$75</f>
         <v>0</v>
       </c>
       <c r="U95" s="77">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V95" s="77">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W95" s="74"/>
       <c r="AD95" t="str">
-        <f>B95</f>
+        <f t="shared" si="49"/>
         <v>IMISELC-E</v>
       </c>
       <c r="AE95" t="str">
-        <f>A95</f>
+        <f t="shared" si="50"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF95" s="70" t="s">
@@ -21490,7 +21490,7 @@
         <v>476</v>
       </c>
       <c r="AL95" s="70" t="str">
-        <f>A95</f>
+        <f t="shared" si="54"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM95" s="245" t="s">
@@ -21506,14 +21506,14 @@
         <v>476</v>
       </c>
       <c r="AS95" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>*</v>
       </c>
       <c r="AT95" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU95" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS95)</f>
+        <f t="shared" si="34"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -21531,7 +21531,7 @@
         <v>IMIELC</v>
       </c>
       <c r="D96" s="46" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>IMIS</v>
       </c>
       <c r="E96" s="58">
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="78">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O96" s="216">
@@ -21575,28 +21575,28 @@
       </c>
       <c r="R96" s="77"/>
       <c r="S96" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T96" s="77">
-        <f t="shared" ref="T96:V96" si="51">S96*T$75</f>
+        <f t="shared" ref="T96:V96" si="58">S96*T$75</f>
         <v>0</v>
       </c>
       <c r="U96" s="77">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="V96" s="77">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="W96" s="74"/>
       <c r="AD96" t="str">
-        <f>B96</f>
+        <f t="shared" si="49"/>
         <v>IMISELC-N</v>
       </c>
       <c r="AE96" t="str">
-        <f>A96</f>
+        <f t="shared" si="50"/>
         <v>Industry-Mining-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AF96" s="70" t="s">
@@ -21615,7 +21615,7 @@
         <v>476</v>
       </c>
       <c r="AL96" s="70" t="str">
-        <f>A96</f>
+        <f t="shared" si="54"/>
         <v>Industry-Mining-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AM96" s="245" t="s">
@@ -21631,14 +21631,14 @@
         <v>476</v>
       </c>
       <c r="AS96" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>*</v>
       </c>
       <c r="AT96" s="72" t="s">
         <v>387</v>
       </c>
       <c r="AU96" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS96)</f>
+        <f t="shared" si="34"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -21654,7 +21654,7 @@
         <v>467</v>
       </c>
       <c r="D97" s="46" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>IMIS</v>
       </c>
       <c r="E97" s="58">
@@ -21685,45 +21685,45 @@
         <v>0</v>
       </c>
       <c r="N97" s="78">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O97" s="77">
-        <f t="shared" ref="O97:Q97" si="52">MIN(1,$N97+O$75)</f>
+        <f t="shared" ref="O97:Q97" si="59">MIN(1,$N97+O$75)</f>
         <v>0.5</v>
       </c>
       <c r="P97" s="77">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="Q97" s="77">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="R97" s="77"/>
       <c r="S97" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T97" s="77">
-        <f t="shared" ref="T97:V97" si="53">S97*T$75</f>
+        <f t="shared" ref="T97:V97" si="60">S97*T$75</f>
         <v>0</v>
       </c>
       <c r="U97" s="77">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="V97" s="77">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W97" s="74"/>
       <c r="AD97" t="str">
-        <f>B97</f>
+        <f t="shared" si="49"/>
         <v>IMISHGN-N</v>
       </c>
       <c r="AE97" t="str">
-        <f>A97</f>
+        <f t="shared" si="50"/>
         <v>Industry-Mining-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AF97" s="70" t="s">
@@ -21742,7 +21742,7 @@
         <v>476</v>
       </c>
       <c r="AL97" s="70" t="str">
-        <f>A97</f>
+        <f t="shared" si="54"/>
         <v>Industry-Mining-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AM97" s="245" t="s">
@@ -21758,14 +21758,14 @@
         <v>476</v>
       </c>
       <c r="AS97" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>*</v>
       </c>
       <c r="AT97" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU97" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS97)</f>
+        <f t="shared" si="34"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -21775,7 +21775,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B98" s="45" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>IMISWAS-E</v>
       </c>
       <c r="C98" s="46" t="str">
@@ -21798,7 +21798,7 @@
         <v>100</v>
       </c>
       <c r="H98" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I98">
@@ -21812,11 +21812,11 @@
         <v>0</v>
       </c>
       <c r="L98" s="60">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N98" s="78">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O98" s="77">
@@ -21832,28 +21832,28 @@
       </c>
       <c r="R98" s="77"/>
       <c r="S98" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T98" s="77">
-        <f t="shared" ref="T98:V98" si="54">S98*T$75</f>
+        <f t="shared" ref="T98:V98" si="61">S98*T$75</f>
         <v>0</v>
       </c>
       <c r="U98" s="77">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="V98" s="77">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="W98" s="74"/>
       <c r="AD98" t="str">
-        <f>B98</f>
+        <f t="shared" si="49"/>
         <v>IMISWAS-E</v>
       </c>
       <c r="AE98" t="str">
-        <f>A98</f>
+        <f t="shared" si="50"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF98" s="70" t="s">
@@ -21872,7 +21872,7 @@
         <v>476</v>
       </c>
       <c r="AL98" s="70" t="str">
-        <f>A98</f>
+        <f t="shared" si="54"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM98" s="245" t="s">
@@ -21888,14 +21888,14 @@
         <v>476</v>
       </c>
       <c r="AS98" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>*</v>
       </c>
       <c r="AT98" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU98" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS98)</f>
+        <f t="shared" si="34"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -21940,14 +21940,14 @@
         <v>476</v>
       </c>
       <c r="AS99" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>*</v>
       </c>
       <c r="AT99" s="72" t="s">
         <v>387</v>
       </c>
       <c r="AU99" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS99)</f>
+        <f t="shared" si="34"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -22000,32 +22000,32 @@
         <v>1</v>
       </c>
       <c r="O100" s="77">
-        <f t="shared" ref="O100:Q101" si="55">MIN(1,$N100+O$75)</f>
+        <f t="shared" ref="O100:Q101" si="62">MIN(1,$N100+O$75)</f>
         <v>1</v>
       </c>
       <c r="P100" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="Q100" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="R100" s="77"/>
       <c r="S100" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="T100" s="77">
-        <f t="shared" ref="T100:V100" si="56">S100*T$75</f>
+        <f t="shared" ref="T100:V100" si="63">S100*T$75</f>
         <v>0.9</v>
       </c>
       <c r="U100" s="77">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="V100" s="77">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W100" s="74"/>
@@ -22070,14 +22070,14 @@
         <v>401</v>
       </c>
       <c r="AS100" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>IMIR</v>
       </c>
       <c r="AT100" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU100" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS100)</f>
+        <f t="shared" si="34"/>
         <v>25.406351025250526</v>
       </c>
     </row>
@@ -22130,32 +22130,32 @@
         <v>0</v>
       </c>
       <c r="O101" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.5</v>
       </c>
       <c r="P101" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="Q101" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="R101" s="77"/>
       <c r="S101" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T101" s="77">
-        <f t="shared" ref="T101:V101" si="57">S101*T$75</f>
+        <f t="shared" ref="T101:V101" si="64">S101*T$75</f>
         <v>0</v>
       </c>
       <c r="U101" s="77">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="V101" s="77">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="W101" s="74"/>
@@ -22199,14 +22199,14 @@
         <v>476</v>
       </c>
       <c r="AS101" s="72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>*</v>
       </c>
       <c r="AT101" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU101" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS101)</f>
+        <f t="shared" si="34"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -22247,7 +22247,7 @@
         <v>476</v>
       </c>
       <c r="AS102" s="72" t="str">
-        <f t="shared" ref="AS102:AS104" si="58">AK102</f>
+        <f t="shared" ref="AS102:AS104" si="65">AK102</f>
         <v>*</v>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
         <v>476</v>
       </c>
       <c r="AS103" s="72" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>*</v>
       </c>
     </row>
@@ -22349,13 +22349,13 @@
         <v>476</v>
       </c>
       <c r="AS104" s="72" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>*</v>
       </c>
     </row>
     <row r="105" spans="1:47">
       <c r="A105" s="45" t="str">
-        <f t="shared" ref="A105:A113" si="59">A$5&amp;"-"&amp;A$14&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A105:A113" si="66">A$5&amp;"-"&amp;A$14&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Chemicals-Elec Heating - Electricity</v>
       </c>
       <c r="B105" s="45" t="str">
@@ -22363,7 +22363,7 @@
         <v>ICPKELC-E</v>
       </c>
       <c r="C105" s="46" t="str">
-        <f t="shared" ref="C105:C113" si="60">$P$13</f>
+        <f t="shared" ref="C105:C113" si="67">$P$13</f>
         <v>ICPELC</v>
       </c>
       <c r="D105" s="46" t="str">
@@ -22392,7 +22392,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="60">
-        <f t="shared" ref="K105:K113" si="61">J105*SUMIF($C$60:$K$60,$B$103,$C61:$K61)</f>
+        <f t="shared" ref="K105:K113" si="68">J105*SUMIF($C$60:$K$60,$B$103,$C61:$K61)</f>
         <v>0.80918000000000012</v>
       </c>
       <c r="L105" s="60">
@@ -22409,11 +22409,11 @@
       <c r="V105" s="74"/>
       <c r="W105" s="74"/>
       <c r="AD105" t="str">
-        <f>B105</f>
+        <f t="shared" ref="AD105:AD113" si="69">B105</f>
         <v>ICPKELC-E</v>
       </c>
       <c r="AE105" t="str">
-        <f>A105</f>
+        <f t="shared" ref="AE105:AE113" si="70">A105</f>
         <v>Industry-Chemicals-Elec Heating - Electricity</v>
       </c>
       <c r="AF105" s="70" t="s">
@@ -22429,7 +22429,7 @@
         <v>611</v>
       </c>
       <c r="AK105" s="70" t="str">
-        <f>D105</f>
+        <f t="shared" ref="AK105:AK113" si="71">D105</f>
         <v>ICPK</v>
       </c>
       <c r="AL105" s="70" t="str">
@@ -22449,20 +22449,20 @@
         <v>401</v>
       </c>
       <c r="AS105" s="72" t="str">
-        <f t="shared" ref="AS105:AS168" si="62">AK105</f>
+        <f t="shared" ref="AS105:AS168" si="72">AK105</f>
         <v>ICPK</v>
       </c>
       <c r="AT105" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU105" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS105)</f>
+        <f t="shared" ref="AU105:AU136" si="73">SUMIFS($L$81:$L$188,$D$81:$D$188,$AS105)</f>
         <v>0.80918000000000012</v>
       </c>
     </row>
     <row r="106" spans="1:47">
       <c r="A106" s="45" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>Industry-Chemicals-Compressed air - Electricity</v>
       </c>
       <c r="B106" s="45" t="str">
@@ -22470,7 +22470,7 @@
         <v>ICPAELC-E</v>
       </c>
       <c r="C106" s="46" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>ICPELC</v>
       </c>
       <c r="D106" s="46" t="str">
@@ -22489,7 +22489,7 @@
         <v>100</v>
       </c>
       <c r="H106" s="60">
-        <f t="shared" ref="H106:H113" si="63">L106/F106</f>
+        <f t="shared" ref="H106:H113" si="74">L106/F106</f>
         <v>2.6192706085455337</v>
       </c>
       <c r="I106">
@@ -22499,11 +22499,11 @@
         <v>1</v>
       </c>
       <c r="K106" s="60">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>6.0688500000000003</v>
       </c>
       <c r="L106" s="60">
-        <f t="shared" ref="L106:L113" si="64">K106*E106</f>
+        <f t="shared" ref="L106:L113" si="75">K106*E106</f>
         <v>0.30344250000000006</v>
       </c>
       <c r="N106" s="74" t="str">
@@ -22516,11 +22516,11 @@
       <c r="V106" s="74"/>
       <c r="W106" s="74"/>
       <c r="AD106" t="str">
-        <f>B106</f>
+        <f t="shared" si="69"/>
         <v>ICPAELC-E</v>
       </c>
       <c r="AE106" t="str">
-        <f>A106</f>
+        <f t="shared" si="70"/>
         <v>Industry-Chemicals-Compressed air - Electricity</v>
       </c>
       <c r="AF106" s="70" t="s">
@@ -22536,7 +22536,7 @@
         <v>611</v>
       </c>
       <c r="AK106" s="70" t="str">
-        <f>D106</f>
+        <f t="shared" si="71"/>
         <v>ICPA</v>
       </c>
       <c r="AL106" s="70" t="str">
@@ -22556,28 +22556,28 @@
         <v>401</v>
       </c>
       <c r="AS106" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>ICPA</v>
       </c>
       <c r="AT106" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU106" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS106)</f>
+        <f t="shared" si="73"/>
         <v>0.30344250000000006</v>
       </c>
     </row>
     <row r="107" spans="1:47">
       <c r="A107" s="45" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>Industry-Chemicals-Lighting - Electricity</v>
       </c>
       <c r="B107" s="45" t="str">
-        <f t="shared" ref="B107:B113" si="65">D107&amp;RIGHT(C107,3)&amp;"-E"</f>
+        <f t="shared" ref="B107:B113" si="76">D107&amp;RIGHT(C107,3)&amp;"-E"</f>
         <v>ICPLELC-E</v>
       </c>
       <c r="C107" s="46" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>ICPELC</v>
       </c>
       <c r="D107" s="46" t="str">
@@ -22596,7 +22596,7 @@
         <v>100</v>
       </c>
       <c r="H107" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>3.8980971497390611</v>
       </c>
       <c r="I107">
@@ -22606,11 +22606,11 @@
         <v>1</v>
       </c>
       <c r="K107" s="60">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1.6183600000000002</v>
       </c>
       <c r="L107" s="60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.48550800000000005</v>
       </c>
       <c r="N107" s="74" t="str">
@@ -22623,11 +22623,11 @@
       <c r="V107" s="74"/>
       <c r="W107" s="74"/>
       <c r="AD107" t="str">
-        <f>B107</f>
+        <f t="shared" si="69"/>
         <v>ICPLELC-E</v>
       </c>
       <c r="AE107" t="str">
-        <f>A107</f>
+        <f t="shared" si="70"/>
         <v>Industry-Chemicals-Lighting - Electricity</v>
       </c>
       <c r="AF107" s="70" t="s">
@@ -22643,7 +22643,7 @@
         <v>611</v>
       </c>
       <c r="AK107" s="70" t="str">
-        <f>D107</f>
+        <f t="shared" si="71"/>
         <v>ICPL</v>
       </c>
       <c r="AL107" s="70" t="str">
@@ -22663,28 +22663,28 @@
         <v>401</v>
       </c>
       <c r="AS107" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>ICPL</v>
       </c>
       <c r="AT107" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU107" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS107)</f>
+        <f t="shared" si="73"/>
         <v>0.48550800000000005</v>
       </c>
     </row>
     <row r="108" spans="1:47">
       <c r="A108" s="45" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>Industry-Chemicals-Cooling - Electricity</v>
       </c>
       <c r="B108" s="45" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>ICPCELC-E</v>
       </c>
       <c r="C108" s="46" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>ICPELC</v>
       </c>
       <c r="D108" s="46" t="str">
@@ -22703,7 +22703,7 @@
         <v>100</v>
       </c>
       <c r="H108" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>31.228002469898119</v>
       </c>
       <c r="I108">
@@ -22713,11 +22713,11 @@
         <v>1</v>
       </c>
       <c r="K108" s="60">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>2.0229500000000002</v>
       </c>
       <c r="L108" s="60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>4.0459000000000005</v>
       </c>
       <c r="N108" s="74" t="str">
@@ -22730,11 +22730,11 @@
       <c r="V108" s="74"/>
       <c r="W108" s="74"/>
       <c r="AD108" t="str">
-        <f>B108</f>
+        <f t="shared" si="69"/>
         <v>ICPCELC-E</v>
       </c>
       <c r="AE108" t="str">
-        <f>A108</f>
+        <f t="shared" si="70"/>
         <v>Industry-Chemicals-Cooling - Electricity</v>
       </c>
       <c r="AF108" s="70" t="s">
@@ -22750,7 +22750,7 @@
         <v>611</v>
       </c>
       <c r="AK108" s="70" t="str">
-        <f>D108</f>
+        <f t="shared" si="71"/>
         <v>ICPC</v>
       </c>
       <c r="AL108" s="70" t="str">
@@ -22770,28 +22770,28 @@
         <v>401</v>
       </c>
       <c r="AS108" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>ICPC</v>
       </c>
       <c r="AT108" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU108" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS108)</f>
+        <f t="shared" si="73"/>
         <v>4.0459000000000005</v>
       </c>
     </row>
     <row r="109" spans="1:47">
       <c r="A109" s="45" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>Industry-Chemicals-HVAC - Electricity</v>
       </c>
       <c r="B109" s="45" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>ICPHELC-E</v>
       </c>
       <c r="C109" s="46" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>ICPELC</v>
       </c>
       <c r="D109" s="46" t="str">
@@ -22810,7 +22810,7 @@
         <v>100</v>
       </c>
       <c r="H109" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>5.5334852974697979</v>
       </c>
       <c r="I109">
@@ -22820,11 +22820,11 @@
         <v>1</v>
       </c>
       <c r="K109" s="60">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0.80918000000000012</v>
       </c>
       <c r="L109" s="60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.72826200000000008</v>
       </c>
       <c r="N109" s="74" t="str">
@@ -22837,11 +22837,11 @@
       <c r="V109" s="74"/>
       <c r="W109" s="74"/>
       <c r="AD109" t="str">
-        <f>B109</f>
+        <f t="shared" si="69"/>
         <v>ICPHELC-E</v>
       </c>
       <c r="AE109" t="str">
-        <f>A109</f>
+        <f t="shared" si="70"/>
         <v>Industry-Chemicals-HVAC - Electricity</v>
       </c>
       <c r="AF109" s="70" t="s">
@@ -22857,7 +22857,7 @@
         <v>611</v>
       </c>
       <c r="AK109" s="70" t="str">
-        <f>D109</f>
+        <f t="shared" si="71"/>
         <v>ICPH</v>
       </c>
       <c r="AL109" s="70" t="str">
@@ -22877,28 +22877,28 @@
         <v>401</v>
       </c>
       <c r="AS109" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>ICPH</v>
       </c>
       <c r="AT109" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU109" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS109)</f>
+        <f t="shared" si="73"/>
         <v>0.72826200000000008</v>
       </c>
     </row>
     <row r="110" spans="1:47">
       <c r="A110" s="45" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>Industry-Chemicals-Pumping - Electricity</v>
       </c>
       <c r="B110" s="45" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>ICPPELC-E</v>
       </c>
       <c r="C110" s="46" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>ICPELC</v>
       </c>
       <c r="D110" s="46" t="str">
@@ -22917,7 +22917,7 @@
         <v>100</v>
       </c>
       <c r="H110" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>93.500495212941573</v>
       </c>
       <c r="I110">
@@ -22927,7 +22927,7 @@
         <v>1</v>
       </c>
       <c r="K110" s="60">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>14.16065</v>
       </c>
       <c r="L110" s="60">
@@ -22944,11 +22944,11 @@
       <c r="V110" s="74"/>
       <c r="W110" s="74"/>
       <c r="AD110" t="str">
-        <f>B110</f>
+        <f t="shared" si="69"/>
         <v>ICPPELC-E</v>
       </c>
       <c r="AE110" t="str">
-        <f>A110</f>
+        <f t="shared" si="70"/>
         <v>Industry-Chemicals-Pumping - Electricity</v>
       </c>
       <c r="AF110" s="70" t="s">
@@ -22964,7 +22964,7 @@
         <v>611</v>
       </c>
       <c r="AK110" s="70" t="str">
-        <f>D110</f>
+        <f t="shared" si="71"/>
         <v>ICPP</v>
       </c>
       <c r="AL110" s="70" t="str">
@@ -22984,28 +22984,28 @@
         <v>401</v>
       </c>
       <c r="AS110" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>ICPP</v>
       </c>
       <c r="AT110" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU110" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS110)</f>
+        <f t="shared" si="73"/>
         <v>11.328520000000001</v>
       </c>
     </row>
     <row r="111" spans="1:47">
       <c r="A111" s="45" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>Industry-Chemicals-Fans - Electricity</v>
       </c>
       <c r="B111" s="45" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>ICPFELC-E</v>
       </c>
       <c r="C111" s="46" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>ICPELC</v>
       </c>
       <c r="D111" s="46" t="str">
@@ -23024,7 +23024,7 @@
         <v>100</v>
       </c>
       <c r="H111" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>23.675377160098755</v>
       </c>
       <c r="I111">
@@ -23034,11 +23034,11 @@
         <v>1</v>
       </c>
       <c r="K111" s="60">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>3.2367200000000005</v>
       </c>
       <c r="L111" s="60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>2.5893760000000006</v>
       </c>
       <c r="N111" s="74" t="str">
@@ -23051,11 +23051,11 @@
       <c r="V111" s="74"/>
       <c r="W111" s="74"/>
       <c r="AD111" t="str">
-        <f>B111</f>
+        <f t="shared" si="69"/>
         <v>ICPFELC-E</v>
       </c>
       <c r="AE111" t="str">
-        <f>A111</f>
+        <f t="shared" si="70"/>
         <v>Industry-Chemicals-Fans - Electricity</v>
       </c>
       <c r="AF111" s="70" t="s">
@@ -23071,7 +23071,7 @@
         <v>611</v>
       </c>
       <c r="AK111" s="70" t="str">
-        <f>D111</f>
+        <f t="shared" si="71"/>
         <v>ICPF</v>
       </c>
       <c r="AL111" s="70" t="str">
@@ -23091,28 +23091,28 @@
         <v>401</v>
       </c>
       <c r="AS111" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>ICPF</v>
       </c>
       <c r="AT111" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU111" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS111)</f>
+        <f t="shared" si="73"/>
         <v>2.5893760000000006</v>
       </c>
     </row>
     <row r="112" spans="1:47">
       <c r="A112" s="45" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>Industry-Chemicals-Other motive - Electricity</v>
       </c>
       <c r="B112" s="45" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>ICPOELC-E</v>
       </c>
       <c r="C112" s="46" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>ICPELC</v>
       </c>
       <c r="D112" s="46" t="str">
@@ -23131,7 +23131,7 @@
         <v>100</v>
       </c>
       <c r="H112" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>49.483565204097246</v>
       </c>
       <c r="I112">
@@ -23141,11 +23141,11 @@
         <v>1</v>
       </c>
       <c r="K112" s="60">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>8.091800000000001</v>
       </c>
       <c r="L112" s="60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>6.473440000000001</v>
       </c>
       <c r="N112" s="74" t="str">
@@ -23158,11 +23158,11 @@
       <c r="V112" s="74"/>
       <c r="W112" s="74"/>
       <c r="AD112" t="str">
-        <f>B112</f>
+        <f t="shared" si="69"/>
         <v>ICPOELC-E</v>
       </c>
       <c r="AE112" t="str">
-        <f>A112</f>
+        <f t="shared" si="70"/>
         <v>Industry-Chemicals-Other motive - Electricity</v>
       </c>
       <c r="AF112" s="70" t="s">
@@ -23178,7 +23178,7 @@
         <v>611</v>
       </c>
       <c r="AK112" s="70" t="str">
-        <f>D112</f>
+        <f t="shared" si="71"/>
         <v>ICPO</v>
       </c>
       <c r="AL112" s="70" t="str">
@@ -23198,28 +23198,28 @@
         <v>401</v>
       </c>
       <c r="AS112" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>ICPO</v>
       </c>
       <c r="AT112" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU112" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS112)</f>
+        <f t="shared" si="73"/>
         <v>6.473440000000001</v>
       </c>
     </row>
     <row r="113" spans="1:47">
       <c r="A113" s="45" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>Industry-Chemicals-Electrochemical - Electricity</v>
       </c>
       <c r="B113" s="45" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>ICPEELC-E</v>
       </c>
       <c r="C113" s="46" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>ICPELC</v>
       </c>
       <c r="D113" s="46" t="str">
@@ -23238,7 +23238,7 @@
         <v>100</v>
       </c>
       <c r="H113" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>18.589187636968187</v>
       </c>
       <c r="I113">
@@ -23248,11 +23248,11 @@
         <v>1</v>
       </c>
       <c r="K113" s="60">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>3.2367200000000005</v>
       </c>
       <c r="L113" s="60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>2.4599072000000004</v>
       </c>
       <c r="N113" s="74" t="str">
@@ -23265,11 +23265,11 @@
       <c r="V113" s="74"/>
       <c r="W113" s="74"/>
       <c r="AD113" t="str">
-        <f>B113</f>
+        <f t="shared" si="69"/>
         <v>ICPEELC-E</v>
       </c>
       <c r="AE113" t="str">
-        <f>A113</f>
+        <f t="shared" si="70"/>
         <v>Industry-Chemicals-Electrochemical - Electricity</v>
       </c>
       <c r="AF113" s="70" t="s">
@@ -23285,7 +23285,7 @@
         <v>611</v>
       </c>
       <c r="AK113" s="70" t="str">
-        <f>D113</f>
+        <f t="shared" si="71"/>
         <v>ICPE</v>
       </c>
       <c r="AL113" s="70" t="str">
@@ -23305,14 +23305,14 @@
         <v>401</v>
       </c>
       <c r="AS113" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>ICPE</v>
       </c>
       <c r="AT113" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU113" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS113)</f>
+        <f t="shared" si="73"/>
         <v>2.4599072000000004</v>
       </c>
     </row>
@@ -23358,14 +23358,14 @@
         <v>476</v>
       </c>
       <c r="AS114" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT114" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU114" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS114)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -23375,7 +23375,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B115" s="45" t="str">
-        <f t="shared" ref="B115:B122" si="66">D115&amp;RIGHT(C115,3)&amp;"-E"</f>
+        <f t="shared" ref="B115:B122" si="77">D115&amp;RIGHT(C115,3)&amp;"-E"</f>
         <v>ICPSCLE-E</v>
       </c>
       <c r="C115" s="46" t="s">
@@ -23397,7 +23397,7 @@
         <v>100</v>
       </c>
       <c r="H115" s="60">
-        <f t="shared" ref="H115:H124" si="67">L115/F115</f>
+        <f t="shared" ref="H115:H124" si="78">L115/F115</f>
         <v>101.08822194853181</v>
       </c>
       <c r="I115">
@@ -23411,49 +23411,49 @@
         <v>24.367000000000001</v>
       </c>
       <c r="L115" s="60">
-        <f t="shared" ref="L115:L122" si="68">K115*E115</f>
+        <f t="shared" ref="L115:L122" si="79">K115*E115</f>
         <v>15.594880000000002</v>
       </c>
       <c r="N115" s="196">
-        <f t="shared" ref="N115:N122" si="69">L115/(SUMIF($D$81:$D$187,$D115,$L$81:$L$187)+$P$76)</f>
+        <f t="shared" ref="N115:N122" si="80">L115/(SUMIF($D$81:$D$187,$D115,$L$81:$L$187)+$P$76)</f>
         <v>0.8077248655478656</v>
       </c>
       <c r="O115" s="77">
-        <f t="shared" ref="O115:Q124" si="70">MIN(1,$N115+O$75)</f>
+        <f t="shared" ref="O115:Q124" si="81">MIN(1,$N115+O$75)</f>
         <v>1</v>
       </c>
       <c r="P115" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="Q115" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="R115" s="77"/>
       <c r="S115" s="78">
-        <f t="shared" ref="S115:S122" si="71">N115</f>
+        <f t="shared" ref="S115:S122" si="82">N115</f>
         <v>0.8077248655478656</v>
       </c>
       <c r="T115" s="77">
-        <f t="shared" ref="T115:V115" si="72">S115*T$75</f>
+        <f t="shared" ref="T115:V115" si="83">S115*T$75</f>
         <v>0.72695237899307907</v>
       </c>
       <c r="U115" s="77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="V115" s="77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="W115" s="74"/>
       <c r="AD115" t="str">
-        <f>B115</f>
+        <f t="shared" ref="AD115:AD122" si="84">B115</f>
         <v>ICPSCLE-E</v>
       </c>
       <c r="AE115" t="str">
-        <f>A115</f>
+        <f t="shared" ref="AE115:AE122" si="85">A115</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF115" s="70" t="s">
@@ -23489,14 +23489,14 @@
         <v>401</v>
       </c>
       <c r="AS115" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>ICPS</v>
       </c>
       <c r="AT115" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU115" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS115)</f>
+        <f t="shared" si="73"/>
         <v>19.307168400000002</v>
       </c>
     </row>
@@ -23506,7 +23506,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B116" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>ICPSGAS-E</v>
       </c>
       <c r="C116" s="46" t="str">
@@ -23529,7 +23529,7 @@
         <v>100</v>
       </c>
       <c r="H116" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>17.22175406754392</v>
       </c>
       <c r="I116">
@@ -23543,49 +23543,49 @@
         <v>3.69</v>
       </c>
       <c r="L116" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>2.6568000000000001</v>
       </c>
       <c r="N116" s="78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.13760692116820195</v>
       </c>
       <c r="O116" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.63760692116820195</v>
       </c>
       <c r="P116" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="Q116" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="R116" s="77"/>
       <c r="S116" s="78">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.13760692116820195</v>
       </c>
       <c r="T116" s="77">
-        <f t="shared" ref="T116:V116" si="73">S116*T$75</f>
+        <f t="shared" ref="T116:V116" si="86">S116*T$75</f>
         <v>0.12384622905138175</v>
       </c>
       <c r="U116" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="V116" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="W116" s="74"/>
       <c r="AD116" t="str">
-        <f>B116</f>
+        <f t="shared" si="84"/>
         <v>ICPSGAS-E</v>
       </c>
       <c r="AE116" t="str">
-        <f>A116</f>
+        <f t="shared" si="85"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF116" s="70" t="s">
@@ -23604,7 +23604,7 @@
         <v>476</v>
       </c>
       <c r="AL116" s="70" t="str">
-        <f>A116</f>
+        <f t="shared" ref="AL116:AL122" si="87">A116</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM116" s="245" t="s">
@@ -23620,14 +23620,14 @@
         <v>476</v>
       </c>
       <c r="AS116" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT116" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU116" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS116)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -23637,7 +23637,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B117" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>ICPSOHF-E</v>
       </c>
       <c r="C117" s="46" t="str">
@@ -23660,7 +23660,7 @@
         <v>100</v>
       </c>
       <c r="H117" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>4.8486419913139311</v>
       </c>
       <c r="I117">
@@ -23674,49 +23674,49 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L117" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.74800000000000011</v>
       </c>
       <c r="N117" s="78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>3.8742087109987604E-2</v>
       </c>
       <c r="O117" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.53874208710998761</v>
       </c>
       <c r="P117" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="Q117" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="R117" s="77"/>
       <c r="S117" s="78">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>3.8742087109987604E-2</v>
       </c>
       <c r="T117" s="77">
-        <f t="shared" ref="T117:V117" si="74">S117*T$75</f>
+        <f t="shared" ref="T117:V117" si="88">S117*T$75</f>
         <v>3.4867878398988847E-2</v>
       </c>
       <c r="U117" s="77">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="V117" s="77">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="W117" s="74"/>
       <c r="AD117" t="str">
-        <f>B117</f>
+        <f t="shared" si="84"/>
         <v>ICPSOHF-E</v>
       </c>
       <c r="AE117" t="str">
-        <f>A117</f>
+        <f t="shared" si="85"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF117" s="70" t="s">
@@ -23735,7 +23735,7 @@
         <v>476</v>
       </c>
       <c r="AL117" s="70" t="str">
-        <f>A117</f>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM117" s="245" t="s">
@@ -23751,14 +23751,14 @@
         <v>476</v>
       </c>
       <c r="AS117" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT117" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU117" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS117)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B118" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>ICPSOLP-E</v>
       </c>
       <c r="C118" s="46" t="str">
@@ -23791,7 +23791,7 @@
         <v>100</v>
       </c>
       <c r="H118" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="I118">
@@ -23805,49 +23805,49 @@
         <v>0</v>
       </c>
       <c r="L118" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N118" s="78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O118" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="P118" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="Q118" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="R118" s="77"/>
       <c r="S118" s="78">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T118" s="77">
-        <f t="shared" ref="T118:V118" si="75">S118*T$75</f>
+        <f t="shared" ref="T118:V118" si="89">S118*T$75</f>
         <v>0</v>
       </c>
       <c r="U118" s="77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="V118" s="77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="W118" s="74"/>
       <c r="AD118" t="str">
-        <f>B118</f>
+        <f t="shared" si="84"/>
         <v>ICPSOLP-E</v>
       </c>
       <c r="AE118" t="str">
-        <f>A118</f>
+        <f t="shared" si="85"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF118" s="70" t="s">
@@ -23866,7 +23866,7 @@
         <v>476</v>
       </c>
       <c r="AL118" s="70" t="str">
-        <f>A118</f>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM118" s="245" t="s">
@@ -23882,14 +23882,14 @@
         <v>476</v>
       </c>
       <c r="AS118" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT118" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU118" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS118)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -23899,7 +23899,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B119" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>ICPSELC-E</v>
       </c>
       <c r="C119" s="46" t="str">
@@ -23922,7 +23922,7 @@
         <v>100</v>
       </c>
       <c r="H119" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>1.9931833797886827</v>
       </c>
       <c r="I119">
@@ -23936,15 +23936,15 @@
         <v>0.40459000000000006</v>
       </c>
       <c r="L119" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.30748840000000005</v>
       </c>
       <c r="N119" s="196">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.5926126173944805E-2</v>
       </c>
       <c r="O119" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.51592612617394484</v>
       </c>
       <c r="P119" s="216">
@@ -23957,28 +23957,28 @@
       </c>
       <c r="R119" s="77"/>
       <c r="S119" s="78">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>1.5926126173944805E-2</v>
       </c>
       <c r="T119" s="77">
-        <f t="shared" ref="T119:V119" si="76">S119*T$75</f>
+        <f t="shared" ref="T119:V119" si="90">S119*T$75</f>
         <v>1.4333513556550326E-2</v>
       </c>
       <c r="U119" s="77">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="V119" s="77">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="W119" s="74"/>
       <c r="AD119" t="str">
-        <f>B119</f>
+        <f t="shared" si="84"/>
         <v>ICPSELC-E</v>
       </c>
       <c r="AE119" t="str">
-        <f>A119</f>
+        <f t="shared" si="85"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF119" s="70" t="s">
@@ -23997,7 +23997,7 @@
         <v>476</v>
       </c>
       <c r="AL119" s="70" t="str">
-        <f>A119</f>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM119" s="245" t="s">
@@ -24013,14 +24013,14 @@
         <v>476</v>
       </c>
       <c r="AS119" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT119" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU119" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS119)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="196">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O120" s="216">
@@ -24083,28 +24083,28 @@
       </c>
       <c r="R120" s="77"/>
       <c r="S120" s="78">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T120" s="77">
-        <f t="shared" ref="T120:V120" si="77">S120*T$75</f>
+        <f t="shared" ref="T120:V120" si="91">S120*T$75</f>
         <v>0</v>
       </c>
       <c r="U120" s="77">
-        <f t="shared" si="77"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="V120" s="77">
-        <f t="shared" si="77"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="W120" s="74"/>
       <c r="AD120" t="str">
-        <f>B120</f>
+        <f t="shared" si="84"/>
         <v>ICPSELC-N</v>
       </c>
       <c r="AE120" t="str">
-        <f>A120</f>
+        <f t="shared" si="85"/>
         <v>Industry-Chemicals-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AF120" s="70" t="s">
@@ -24123,7 +24123,7 @@
         <v>476</v>
       </c>
       <c r="AL120" s="70" t="str">
-        <f>A120</f>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AM120" s="245" t="s">
@@ -24139,14 +24139,14 @@
         <v>476</v>
       </c>
       <c r="AS120" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT120" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU120" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS120)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24193,45 +24193,45 @@
         <v>0</v>
       </c>
       <c r="N121" s="196">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O121" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="P121" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="Q121" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="R121" s="77"/>
       <c r="S121" s="78">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T121" s="77">
-        <f t="shared" ref="T121:V121" si="78">S121*T$75</f>
+        <f t="shared" ref="T121:V121" si="92">S121*T$75</f>
         <v>0</v>
       </c>
       <c r="U121" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="V121" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="W121" s="74"/>
       <c r="AD121" t="str">
-        <f>B121</f>
+        <f t="shared" si="84"/>
         <v>ICPSHGN-N</v>
       </c>
       <c r="AE121" t="str">
-        <f>A121</f>
+        <f t="shared" si="85"/>
         <v>Industry-Chemicals-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AF121" s="70" t="s">
@@ -24250,7 +24250,7 @@
         <v>476</v>
       </c>
       <c r="AL121" s="70" t="str">
-        <f>A121</f>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AM121" s="245" t="s">
@@ -24266,14 +24266,14 @@
         <v>476</v>
       </c>
       <c r="AS121" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT121" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU121" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS121)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24283,7 +24283,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B122" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>ICPSWAS-E</v>
       </c>
       <c r="C122" s="46" t="str">
@@ -24306,7 +24306,7 @@
         <v>100</v>
       </c>
       <c r="H122" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="I122">
@@ -24320,11 +24320,11 @@
         <v>0</v>
       </c>
       <c r="L122" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N122" s="78">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O122" s="77">
@@ -24340,28 +24340,28 @@
       </c>
       <c r="R122" s="77"/>
       <c r="S122" s="78">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T122" s="77">
-        <f t="shared" ref="T122:V122" si="79">S122*T$75</f>
+        <f t="shared" ref="T122:V122" si="93">S122*T$75</f>
         <v>0</v>
       </c>
       <c r="U122" s="77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="V122" s="77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="W122" s="74"/>
       <c r="AD122" t="str">
-        <f>B122</f>
+        <f t="shared" si="84"/>
         <v>ICPSWAS-E</v>
       </c>
       <c r="AE122" t="str">
-        <f>A122</f>
+        <f t="shared" si="85"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF122" s="70" t="s">
@@ -24380,7 +24380,7 @@
         <v>476</v>
       </c>
       <c r="AL122" s="70" t="str">
-        <f>A122</f>
+        <f t="shared" si="87"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM122" s="245" t="s">
@@ -24396,14 +24396,14 @@
         <v>476</v>
       </c>
       <c r="AS122" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT122" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU122" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS122)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24448,14 +24448,14 @@
         <v>476</v>
       </c>
       <c r="AS123" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT123" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU123" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS123)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24485,7 +24485,7 @@
         <v>100</v>
       </c>
       <c r="H124" s="60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>26.6</v>
       </c>
       <c r="I124">
@@ -24507,20 +24507,20 @@
         <v>1</v>
       </c>
       <c r="O124" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="P124" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="Q124" s="77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="R124" s="77"/>
       <c r="S124" s="78">
-        <f t="shared" ref="S124" si="80">N124</f>
+        <f t="shared" ref="S124" si="94">N124</f>
         <v>1</v>
       </c>
       <c r="T124" s="77">
@@ -24528,11 +24528,11 @@
         <v>0.9</v>
       </c>
       <c r="U124" s="77">
-        <f t="shared" ref="U124:V124" si="81">T124*U$75</f>
+        <f t="shared" ref="U124:V124" si="95">T124*U$75</f>
         <v>0</v>
       </c>
       <c r="V124" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="W124" s="74"/>
@@ -24578,14 +24578,14 @@
         <v>401</v>
       </c>
       <c r="AS124" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>ICPT</v>
       </c>
       <c r="AT124" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU124" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS124)</f>
+        <f t="shared" si="73"/>
         <v>26.6</v>
       </c>
     </row>
@@ -24626,14 +24626,14 @@
         <v>476</v>
       </c>
       <c r="AS125" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT125" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU125" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS125)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24677,14 +24677,14 @@
         <v>476</v>
       </c>
       <c r="AS126" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT126" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU126" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS126)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24742,20 +24742,20 @@
         <v>476</v>
       </c>
       <c r="AS127" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT127" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU127" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS127)</f>
+        <f t="shared" si="73"/>
         <v>338.97013191086643</v>
       </c>
     </row>
     <row r="128" spans="1:47">
       <c r="A128" s="45" t="str">
-        <f t="shared" ref="A128:A136" si="82">A$5&amp;"-"&amp;A$15&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A128:A136" si="96">A$5&amp;"-"&amp;A$15&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Elec Heating - Electricity</v>
       </c>
       <c r="B128" s="45" t="str">
@@ -24763,7 +24763,7 @@
         <v>INFKELC-E</v>
       </c>
       <c r="C128" s="46" t="str">
-        <f t="shared" ref="C128:C136" si="83">$P$14</f>
+        <f t="shared" ref="C128:C136" si="97">$P$14</f>
         <v>INFELC</v>
       </c>
       <c r="D128" s="46" t="str">
@@ -24792,7 +24792,7 @@
         <v>1</v>
       </c>
       <c r="K128" s="60">
-        <f t="shared" ref="K128:K136" si="84">J128*SUMIF($C$60:$K$60,$B$126,$C61:$K61)</f>
+        <f t="shared" ref="K128:K136" si="98">J128*SUMIF($C$60:$K$60,$B$126,$C61:$K61)</f>
         <v>0.10062942167027458</v>
       </c>
       <c r="L128" s="60">
@@ -24809,11 +24809,11 @@
       <c r="V128" s="74"/>
       <c r="W128" s="74"/>
       <c r="AD128" t="str">
-        <f>B128</f>
+        <f t="shared" ref="AD128:AD136" si="99">B128</f>
         <v>INFKELC-E</v>
       </c>
       <c r="AE128" t="str">
-        <f>A128</f>
+        <f t="shared" ref="AE128:AE136" si="100">A128</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Elec Heating - Electricity</v>
       </c>
       <c r="AF128" s="70" t="s">
@@ -24829,7 +24829,7 @@
         <v>611</v>
       </c>
       <c r="AK128" s="70" t="str">
-        <f>D128</f>
+        <f t="shared" ref="AK128:AK136" si="101">D128</f>
         <v>INFK</v>
       </c>
       <c r="AL128" s="70" t="str">
@@ -24849,20 +24849,20 @@
         <v>401</v>
       </c>
       <c r="AS128" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>INFK</v>
       </c>
       <c r="AT128" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU128" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS128)</f>
+        <f t="shared" si="73"/>
         <v>0.10062942167027458</v>
       </c>
     </row>
     <row r="129" spans="1:47">
       <c r="A129" s="45" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Compressed air - Electricity</v>
       </c>
       <c r="B129" s="45" t="str">
@@ -24870,7 +24870,7 @@
         <v>INFAELC-E</v>
       </c>
       <c r="C129" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D129" s="46" t="str">
@@ -24889,7 +24889,7 @@
         <v>100</v>
       </c>
       <c r="H129" s="60">
-        <f t="shared" ref="H129:H136" si="85">L129/F129</f>
+        <f t="shared" ref="H129:H136" si="102">L129/F129</f>
         <v>0</v>
       </c>
       <c r="I129">
@@ -24899,11 +24899,11 @@
         <v>1</v>
       </c>
       <c r="K129" s="60">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L129" s="60">
-        <f t="shared" ref="L129:L136" si="86">K129*E129</f>
+        <f t="shared" ref="L129:L136" si="103">K129*E129</f>
         <v>0</v>
       </c>
       <c r="N129" s="74" t="str">
@@ -24916,11 +24916,11 @@
       <c r="V129" s="74"/>
       <c r="W129" s="74"/>
       <c r="AD129" t="str">
-        <f>B129</f>
+        <f t="shared" si="99"/>
         <v>INFAELC-E</v>
       </c>
       <c r="AE129" t="str">
-        <f>A129</f>
+        <f t="shared" si="100"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Compressed air - Electricity</v>
       </c>
       <c r="AF129" s="70" t="s">
@@ -24936,7 +24936,7 @@
         <v>611</v>
       </c>
       <c r="AK129" s="70" t="str">
-        <f>D129</f>
+        <f t="shared" si="101"/>
         <v>INFA</v>
       </c>
       <c r="AL129" s="70" t="str">
@@ -24956,28 +24956,28 @@
         <v>401</v>
       </c>
       <c r="AS129" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>INFA</v>
       </c>
       <c r="AT129" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU129" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS129)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:47">
       <c r="A130" s="45" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Lighting - Electricity</v>
       </c>
       <c r="B130" s="45" t="str">
-        <f t="shared" ref="B130:B136" si="87">D130&amp;RIGHT(C130,3)&amp;"-E"</f>
+        <f t="shared" ref="B130:B136" si="104">D130&amp;RIGHT(C130,3)&amp;"-E"</f>
         <v>INFLELC-E</v>
       </c>
       <c r="C130" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D130" s="46" t="str">
@@ -24996,7 +24996,7 @@
         <v>100</v>
       </c>
       <c r="H130" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0.24238319149805199</v>
       </c>
       <c r="I130">
@@ -25006,11 +25006,11 @@
         <v>1</v>
       </c>
       <c r="K130" s="60">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>0.10062942167027458</v>
       </c>
       <c r="L130" s="60">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>3.0188826501082372E-2</v>
       </c>
       <c r="N130" s="74" t="str">
@@ -25023,11 +25023,11 @@
       <c r="V130" s="74"/>
       <c r="W130" s="74"/>
       <c r="AD130" t="str">
-        <f>B130</f>
+        <f t="shared" si="99"/>
         <v>INFLELC-E</v>
       </c>
       <c r="AE130" t="str">
-        <f>A130</f>
+        <f t="shared" si="100"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Lighting - Electricity</v>
       </c>
       <c r="AF130" s="70" t="s">
@@ -25043,7 +25043,7 @@
         <v>611</v>
       </c>
       <c r="AK130" s="70" t="str">
-        <f>D130</f>
+        <f t="shared" si="101"/>
         <v>INFL</v>
       </c>
       <c r="AL130" s="70" t="str">
@@ -25063,28 +25063,28 @@
         <v>401</v>
       </c>
       <c r="AS130" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>INFL</v>
       </c>
       <c r="AT130" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU130" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS130)</f>
+        <f t="shared" si="73"/>
         <v>3.0188826501082372E-2</v>
       </c>
     </row>
     <row r="131" spans="1:47">
       <c r="A131" s="45" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Cooling - Electricity</v>
       </c>
       <c r="B131" s="45" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>INFCELC-E</v>
       </c>
       <c r="C131" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D131" s="46" t="str">
@@ -25103,7 +25103,7 @@
         <v>100</v>
       </c>
       <c r="H131" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="I131">
@@ -25113,11 +25113,11 @@
         <v>1</v>
       </c>
       <c r="K131" s="60">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L131" s="60">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N131" s="74" t="str">
@@ -25130,11 +25130,11 @@
       <c r="V131" s="74"/>
       <c r="W131" s="74"/>
       <c r="AD131" t="str">
-        <f>B131</f>
+        <f t="shared" si="99"/>
         <v>INFCELC-E</v>
       </c>
       <c r="AE131" t="str">
-        <f>A131</f>
+        <f t="shared" si="100"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Cooling - Electricity</v>
       </c>
       <c r="AF131" s="70" t="s">
@@ -25150,7 +25150,7 @@
         <v>611</v>
       </c>
       <c r="AK131" s="70" t="str">
-        <f>D131</f>
+        <f t="shared" si="101"/>
         <v>INFC</v>
       </c>
       <c r="AL131" s="70" t="str">
@@ -25170,28 +25170,28 @@
         <v>401</v>
       </c>
       <c r="AS131" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>INFC</v>
       </c>
       <c r="AT131" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU131" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS131)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:47">
       <c r="A132" s="45" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-HVAC - Electricity</v>
       </c>
       <c r="B132" s="45" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>INFHELC-E</v>
       </c>
       <c r="C132" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D132" s="46" t="str">
@@ -25210,7 +25210,7 @@
         <v>100</v>
       </c>
       <c r="H132" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0.68814284251384494</v>
       </c>
       <c r="I132">
@@ -25220,11 +25220,11 @@
         <v>1</v>
       </c>
       <c r="K132" s="60">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>0.10062942167027458</v>
       </c>
       <c r="L132" s="60">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>9.056647950324713E-2</v>
       </c>
       <c r="N132" s="74" t="str">
@@ -25237,11 +25237,11 @@
       <c r="V132" s="74"/>
       <c r="W132" s="74"/>
       <c r="AD132" t="str">
-        <f>B132</f>
+        <f t="shared" si="99"/>
         <v>INFHELC-E</v>
       </c>
       <c r="AE132" t="str">
-        <f>A132</f>
+        <f t="shared" si="100"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-HVAC - Electricity</v>
       </c>
       <c r="AF132" s="70" t="s">
@@ -25257,7 +25257,7 @@
         <v>611</v>
       </c>
       <c r="AK132" s="70" t="str">
-        <f>D132</f>
+        <f t="shared" si="101"/>
         <v>INFH</v>
       </c>
       <c r="AL132" s="70" t="str">
@@ -25277,28 +25277,28 @@
         <v>401</v>
       </c>
       <c r="AS132" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>INFH</v>
       </c>
       <c r="AT132" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU132" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS132)</f>
+        <f t="shared" si="73"/>
         <v>9.056647950324713E-2</v>
       </c>
     </row>
     <row r="133" spans="1:47">
       <c r="A133" s="45" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Pumping - Electricity</v>
       </c>
       <c r="B133" s="45" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>INFPELC-E</v>
       </c>
       <c r="C133" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D133" s="46" t="str">
@@ -25317,7 +25317,7 @@
         <v>100</v>
       </c>
       <c r="H133" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="I133">
@@ -25327,11 +25327,11 @@
         <v>1</v>
       </c>
       <c r="K133" s="60">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L133" s="60">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N133" s="74" t="str">
@@ -25344,11 +25344,11 @@
       <c r="V133" s="74"/>
       <c r="W133" s="74"/>
       <c r="AD133" t="str">
-        <f>B133</f>
+        <f t="shared" si="99"/>
         <v>INFPELC-E</v>
       </c>
       <c r="AE133" t="str">
-        <f>A133</f>
+        <f t="shared" si="100"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Pumping - Electricity</v>
       </c>
       <c r="AF133" s="70" t="s">
@@ -25364,7 +25364,7 @@
         <v>611</v>
       </c>
       <c r="AK133" s="70" t="str">
-        <f>D133</f>
+        <f t="shared" si="101"/>
         <v>INFP</v>
       </c>
       <c r="AL133" s="70" t="str">
@@ -25384,28 +25384,28 @@
         <v>401</v>
       </c>
       <c r="AS133" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>INFP</v>
       </c>
       <c r="AT133" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU133" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS133)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:47">
       <c r="A134" s="45" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Fans - Electricity</v>
       </c>
       <c r="B134" s="45" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>INFFELC-E</v>
       </c>
       <c r="C134" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D134" s="46" t="str">
@@ -25424,7 +25424,7 @@
         <v>100</v>
       </c>
       <c r="H134" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="I134">
@@ -25434,11 +25434,11 @@
         <v>1</v>
       </c>
       <c r="K134" s="60">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L134" s="60">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N134" s="74" t="str">
@@ -25451,11 +25451,11 @@
       <c r="V134" s="74"/>
       <c r="W134" s="74"/>
       <c r="AD134" t="str">
-        <f>B134</f>
+        <f t="shared" si="99"/>
         <v>INFFELC-E</v>
       </c>
       <c r="AE134" t="str">
-        <f>A134</f>
+        <f t="shared" si="100"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Fans - Electricity</v>
       </c>
       <c r="AF134" s="70" t="s">
@@ -25471,7 +25471,7 @@
         <v>611</v>
       </c>
       <c r="AK134" s="70" t="str">
-        <f>D134</f>
+        <f t="shared" si="101"/>
         <v>INFF</v>
       </c>
       <c r="AL134" s="70" t="str">
@@ -25491,28 +25491,28 @@
         <v>401</v>
       </c>
       <c r="AS134" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>INFF</v>
       </c>
       <c r="AT134" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU134" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS134)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:47">
       <c r="A135" s="45" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Other motive - Electricity</v>
       </c>
       <c r="B135" s="45" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>INFOELC-E</v>
       </c>
       <c r="C135" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D135" s="46" t="str">
@@ -25531,7 +25531,7 @@
         <v>100</v>
       </c>
       <c r="H135" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>4.307634622791146</v>
       </c>
       <c r="I135">
@@ -25541,11 +25541,11 @@
         <v>1</v>
       </c>
       <c r="K135" s="60">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>0.70440595169192211</v>
       </c>
       <c r="L135" s="60">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>0.56352476135353768</v>
       </c>
       <c r="N135" s="74" t="str">
@@ -25558,11 +25558,11 @@
       <c r="V135" s="74"/>
       <c r="W135" s="74"/>
       <c r="AD135" t="str">
-        <f>B135</f>
+        <f t="shared" si="99"/>
         <v>INFOELC-E</v>
       </c>
       <c r="AE135" t="str">
-        <f>A135</f>
+        <f t="shared" si="100"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Other motive - Electricity</v>
       </c>
       <c r="AF135" s="70" t="s">
@@ -25578,7 +25578,7 @@
         <v>611</v>
       </c>
       <c r="AK135" s="70" t="str">
-        <f>D135</f>
+        <f t="shared" si="101"/>
         <v>INFO</v>
       </c>
       <c r="AL135" s="70" t="str">
@@ -25598,28 +25598,28 @@
         <v>401</v>
       </c>
       <c r="AS135" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>INFO</v>
       </c>
       <c r="AT135" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU135" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS135)</f>
+        <f t="shared" si="73"/>
         <v>0.56352476135353768</v>
       </c>
     </row>
     <row r="136" spans="1:47">
       <c r="A136" s="45" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Electrochemical - Electricity</v>
       </c>
       <c r="B136" s="45" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>INFEELC-E</v>
       </c>
       <c r="C136" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>INFELC</v>
       </c>
       <c r="D136" s="46" t="str">
@@ -25638,7 +25638,7 @@
         <v>100</v>
       </c>
       <c r="H136" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>52.014300931359337</v>
       </c>
       <c r="I136">
@@ -25648,11 +25648,11 @@
         <v>1</v>
       </c>
       <c r="K136" s="60">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>9.056647950324713</v>
       </c>
       <c r="L136" s="60">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>6.8830524422467816</v>
       </c>
       <c r="N136" s="74" t="str">
@@ -25665,11 +25665,11 @@
       <c r="V136" s="74"/>
       <c r="W136" s="74"/>
       <c r="AD136" t="str">
-        <f>B136</f>
+        <f t="shared" si="99"/>
         <v>INFEELC-E</v>
       </c>
       <c r="AE136" t="str">
-        <f>A136</f>
+        <f t="shared" si="100"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Electrochemical - Electricity</v>
       </c>
       <c r="AF136" s="70" t="s">
@@ -25685,7 +25685,7 @@
         <v>611</v>
       </c>
       <c r="AK136" s="70" t="str">
-        <f>D136</f>
+        <f t="shared" si="101"/>
         <v>INFE</v>
       </c>
       <c r="AL136" s="70" t="str">
@@ -25705,14 +25705,14 @@
         <v>401</v>
       </c>
       <c r="AS136" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>INFE</v>
       </c>
       <c r="AT136" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU136" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS136)</f>
+        <f t="shared" si="73"/>
         <v>6.8830524422467816</v>
       </c>
     </row>
@@ -25758,14 +25758,14 @@
         <v>476</v>
       </c>
       <c r="AS137" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT137" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU137" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS137)</f>
+        <f t="shared" ref="AU137:AU168" si="105">SUMIFS($L$81:$L$188,$D$81:$D$188,$AS137)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -25775,7 +25775,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B138" s="45" t="str">
-        <f t="shared" ref="B138:B143" si="88">D138&amp;RIGHT(C138,3)&amp;"-E"</f>
+        <f t="shared" ref="B138:B143" si="106">D138&amp;RIGHT(C138,3)&amp;"-E"</f>
         <v>INFSCOA-E</v>
       </c>
       <c r="C138" s="46" t="str">
@@ -25798,7 +25798,7 @@
         <v>100</v>
       </c>
       <c r="H138" s="60">
-        <f t="shared" ref="H138:H143" si="89">L138/F138</f>
+        <f t="shared" ref="H138:H143" si="107">L138/F138</f>
         <v>1.8710053801776108</v>
       </c>
       <c r="I138">
@@ -25812,49 +25812,49 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="L138" s="60">
-        <f t="shared" ref="L138:L143" si="90">K138*E138</f>
+        <f t="shared" ref="L138:L143" si="108">K138*E138</f>
         <v>0.28864000000000001</v>
       </c>
       <c r="N138" s="78">
-        <f t="shared" ref="N138:N143" si="91">L138/(SUMIF($D$81:$D$187,$D138,$L$81:$L$187)+$P$76)</f>
+        <f t="shared" ref="N138:N143" si="109">L138/(SUMIF($D$81:$D$187,$D138,$L$81:$L$187)+$P$76)</f>
         <v>0.15100025110906504</v>
       </c>
       <c r="O138" s="77">
-        <f t="shared" ref="O138:Q142" si="92">MIN(1,$N138+O$75)</f>
+        <f t="shared" ref="O138:Q142" si="110">MIN(1,$N138+O$75)</f>
         <v>0.65100025110906501</v>
       </c>
       <c r="P138" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="Q138" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="R138" s="77"/>
       <c r="S138" s="78">
-        <f t="shared" ref="S138:S143" si="93">N138</f>
+        <f t="shared" ref="S138:S143" si="111">N138</f>
         <v>0.15100025110906504</v>
       </c>
       <c r="T138" s="77">
-        <f t="shared" ref="T138:V138" si="94">S138*T$75</f>
+        <f t="shared" ref="T138:V138" si="112">S138*T$75</f>
         <v>0.13590022599815854</v>
       </c>
       <c r="U138" s="77">
-        <f t="shared" si="94"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="V138" s="77">
-        <f t="shared" si="94"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="W138" s="74"/>
       <c r="AD138" t="str">
-        <f>B138</f>
+        <f t="shared" ref="AD138:AD143" si="113">B138</f>
         <v>INFSCOA-E</v>
       </c>
       <c r="AE138" t="str">
-        <f>A138</f>
+        <f t="shared" ref="AE138:AE143" si="114">A138</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF138" s="70" t="s">
@@ -25890,14 +25890,14 @@
         <v>401</v>
       </c>
       <c r="AS138" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>INFS</v>
       </c>
       <c r="AT138" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU138" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS138)</f>
+        <f t="shared" si="105"/>
         <v>1.9115199999999999</v>
       </c>
     </row>
@@ -25907,7 +25907,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B139" s="45" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="106"/>
         <v>INFSGAS-E</v>
       </c>
       <c r="C139" s="46" t="str">
@@ -25930,7 +25930,7 @@
         <v>100</v>
       </c>
       <c r="H139" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>10.519738121475335</v>
       </c>
       <c r="I139">
@@ -25944,49 +25944,49 @@
         <v>2.254</v>
       </c>
       <c r="L139" s="60">
-        <f t="shared" si="90"/>
+        <f t="shared" si="108"/>
         <v>1.6228799999999999</v>
       </c>
       <c r="N139" s="78">
-        <f t="shared" si="91"/>
+        <f t="shared" si="109"/>
         <v>0.84899974889093499</v>
       </c>
       <c r="O139" s="77">
-        <f t="shared" si="92"/>
-        <v>1</v>
+        <f>N139</f>
+        <v>0.84899974889093499</v>
       </c>
       <c r="P139" s="77">
-        <f t="shared" si="92"/>
-        <v>1</v>
+        <f>O139</f>
+        <v>0.84899974889093499</v>
       </c>
       <c r="Q139" s="77">
-        <f t="shared" si="92"/>
-        <v>1</v>
+        <f>P139</f>
+        <v>0.84899974889093499</v>
       </c>
       <c r="R139" s="77"/>
       <c r="S139" s="78">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0.84899974889093499</v>
       </c>
       <c r="T139" s="77">
-        <f t="shared" ref="T139:V139" si="95">S139*T$75</f>
+        <f t="shared" ref="T139:V139" si="115">S139*T$75</f>
         <v>0.76409977400184148</v>
       </c>
       <c r="U139" s="77">
-        <f t="shared" si="95"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="V139" s="77">
-        <f t="shared" si="95"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="W139" s="74"/>
       <c r="AD139" t="str">
-        <f>B139</f>
+        <f t="shared" si="113"/>
         <v>INFSGAS-E</v>
       </c>
       <c r="AE139" t="str">
-        <f>A139</f>
+        <f t="shared" si="114"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF139" s="70" t="s">
@@ -26021,14 +26021,14 @@
         <v>476</v>
       </c>
       <c r="AS139" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT139" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU139" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS139)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26038,7 +26038,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B140" s="45" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="106"/>
         <v>INFSOHF-E</v>
       </c>
       <c r="C140" s="46" t="str">
@@ -26061,7 +26061,7 @@
         <v>100</v>
       </c>
       <c r="H140" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="I140">
@@ -26075,49 +26075,49 @@
         <v>0</v>
       </c>
       <c r="L140" s="60">
-        <f t="shared" si="90"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N140" s="78">
-        <f t="shared" si="91"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="O140" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>0.5</v>
       </c>
       <c r="P140" s="77">
-        <f t="shared" si="92"/>
-        <v>1</v>
+        <f>O140</f>
+        <v>0.5</v>
       </c>
       <c r="Q140" s="77">
-        <f t="shared" si="92"/>
-        <v>1</v>
+        <f>P140</f>
+        <v>0.5</v>
       </c>
       <c r="R140" s="77"/>
       <c r="S140" s="78">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="T140" s="77">
-        <f t="shared" ref="T140:V140" si="96">S140*T$75</f>
+        <f t="shared" ref="T140:V140" si="116">S140*T$75</f>
         <v>0</v>
       </c>
       <c r="U140" s="77">
-        <f t="shared" si="96"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="V140" s="77">
-        <f t="shared" si="96"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="W140" s="74"/>
       <c r="AD140" t="str">
-        <f>B140</f>
+        <f t="shared" si="113"/>
         <v>INFSOHF-E</v>
       </c>
       <c r="AE140" t="str">
-        <f>A140</f>
+        <f t="shared" si="114"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF140" s="70" t="s">
@@ -26152,14 +26152,14 @@
         <v>476</v>
       </c>
       <c r="AS140" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT140" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU140" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS140)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26169,7 +26169,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B141" s="45" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="106"/>
         <v>INFSOLP-E</v>
       </c>
       <c r="C141" s="46" t="str">
@@ -26192,7 +26192,7 @@
         <v>100</v>
       </c>
       <c r="H141" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="I141">
@@ -26206,49 +26206,49 @@
         <v>0</v>
       </c>
       <c r="L141" s="60">
-        <f t="shared" si="90"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N141" s="78">
-        <f t="shared" si="91"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="O141" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>0.5</v>
       </c>
       <c r="P141" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="Q141" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="R141" s="77"/>
       <c r="S141" s="78">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="T141" s="77">
-        <f t="shared" ref="T141:V141" si="97">S141*T$75</f>
+        <f t="shared" ref="T141:V141" si="117">S141*T$75</f>
         <v>0</v>
       </c>
       <c r="U141" s="77">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="V141" s="77">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="W141" s="74"/>
       <c r="AD141" t="str">
-        <f>B141</f>
+        <f t="shared" si="113"/>
         <v>INFSOLP-E</v>
       </c>
       <c r="AE141" t="str">
-        <f>A141</f>
+        <f t="shared" si="114"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF141" s="70" t="s">
@@ -26283,14 +26283,14 @@
         <v>476</v>
       </c>
       <c r="AS141" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT141" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU141" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS141)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26300,7 +26300,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B142" s="45" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="106"/>
         <v>INFSELC-E</v>
       </c>
       <c r="C142" s="46" t="str">
@@ -26323,7 +26323,7 @@
         <v>100</v>
       </c>
       <c r="H142" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="I142">
@@ -26337,49 +26337,49 @@
         <v>0</v>
       </c>
       <c r="L142" s="60">
-        <f t="shared" si="90"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N142" s="78">
-        <f t="shared" si="91"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="O142" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>0.5</v>
       </c>
       <c r="P142" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="Q142" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="R142" s="77"/>
       <c r="S142" s="78">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="T142" s="77">
-        <f t="shared" ref="T142:V142" si="98">S142*T$75</f>
+        <f t="shared" ref="T142:V142" si="118">S142*T$75</f>
         <v>0</v>
       </c>
       <c r="U142" s="77">
-        <f t="shared" si="98"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="V142" s="77">
-        <f t="shared" si="98"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="W142" s="74"/>
       <c r="AD142" t="str">
-        <f>B142</f>
+        <f t="shared" si="113"/>
         <v>INFSELC-E</v>
       </c>
       <c r="AE142" t="str">
-        <f>A142</f>
+        <f t="shared" si="114"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF142" s="70" t="s">
@@ -26414,14 +26414,14 @@
         <v>476</v>
       </c>
       <c r="AS142" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT142" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU142" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS142)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26431,7 +26431,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B143" s="45" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="106"/>
         <v>INFSWAS-E</v>
       </c>
       <c r="C143" s="46" t="str">
@@ -26454,7 +26454,7 @@
         <v>100</v>
       </c>
       <c r="H143" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="I143">
@@ -26468,11 +26468,11 @@
         <v>0</v>
       </c>
       <c r="L143" s="60">
-        <f t="shared" si="90"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N143" s="78">
-        <f t="shared" si="91"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="O143" s="77">
@@ -26488,28 +26488,28 @@
       </c>
       <c r="R143" s="77"/>
       <c r="S143" s="78">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="T143" s="77">
-        <f t="shared" ref="T143:V143" si="99">S143*T$75</f>
+        <f t="shared" ref="T143:V143" si="119">S143*T$75</f>
         <v>0</v>
       </c>
       <c r="U143" s="77">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V143" s="77">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W143" s="74"/>
       <c r="AD143" t="str">
-        <f>B143</f>
+        <f t="shared" si="113"/>
         <v>INFSWAS-E</v>
       </c>
       <c r="AE143" t="str">
-        <f>A143</f>
+        <f t="shared" si="114"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF143" s="70" t="s">
@@ -26544,14 +26544,14 @@
         <v>476</v>
       </c>
       <c r="AS143" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT143" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU143" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS143)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26592,14 +26592,14 @@
         <v>476</v>
       </c>
       <c r="AS144" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT144" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU144" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS144)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26657,14 +26657,14 @@
         <v>476</v>
       </c>
       <c r="AS145" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT145" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU145" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS145)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26722,20 +26722,20 @@
         <v>476</v>
       </c>
       <c r="AS146" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT146" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU146" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS146)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
     <row r="147" spans="1:47">
       <c r="A147" s="45" t="str">
-        <f t="shared" ref="A147:A155" si="100">A$5&amp;"-"&amp;A$17&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A147:A155" si="120">A$5&amp;"-"&amp;A$17&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Elec Heating - Electricity</v>
       </c>
       <c r="B147" s="45" t="str">
@@ -26743,7 +26743,7 @@
         <v>IFBKELC-E</v>
       </c>
       <c r="C147" s="46" t="str">
-        <f t="shared" ref="C147:C155" si="101">$P$16</f>
+        <f t="shared" ref="C147:C155" si="121">$P$16</f>
         <v>IFBELC</v>
       </c>
       <c r="D147" s="46" t="str">
@@ -26772,7 +26772,7 @@
         <v>1</v>
       </c>
       <c r="K147" s="60">
-        <f t="shared" ref="K147:K155" si="102">J147*SUMIF($C$60:$K$60,$B$145,$C61:$K61)</f>
+        <f t="shared" ref="K147:K155" si="122">J147*SUMIF($C$60:$K$60,$B$145,$C61:$K61)</f>
         <v>1.04664</v>
       </c>
       <c r="L147" s="60">
@@ -26789,11 +26789,11 @@
       <c r="V147" s="74"/>
       <c r="W147" s="74"/>
       <c r="AD147" t="str">
-        <f>B147</f>
+        <f t="shared" ref="AD147:AD155" si="123">B147</f>
         <v>IFBKELC-E</v>
       </c>
       <c r="AE147" t="str">
-        <f>A147</f>
+        <f t="shared" ref="AE147:AE155" si="124">A147</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Elec Heating - Electricity</v>
       </c>
       <c r="AF147" s="70" t="s">
@@ -26809,7 +26809,7 @@
         <v>611</v>
       </c>
       <c r="AK147" s="70" t="str">
-        <f>D147</f>
+        <f t="shared" ref="AK147:AK155" si="125">D147</f>
         <v>IFBK</v>
       </c>
       <c r="AL147" s="70" t="str">
@@ -26829,20 +26829,20 @@
         <v>401</v>
       </c>
       <c r="AS147" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>IFBK</v>
       </c>
       <c r="AT147" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU147" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS147)</f>
+        <f t="shared" si="105"/>
         <v>1.04664</v>
       </c>
     </row>
     <row r="148" spans="1:47">
       <c r="A148" s="45" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Compressed air - Electricity</v>
       </c>
       <c r="B148" s="45" t="str">
@@ -26850,7 +26850,7 @@
         <v>IFBAELC-E</v>
       </c>
       <c r="C148" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>IFBELC</v>
       </c>
       <c r="D148" s="46" t="str">
@@ -26869,7 +26869,7 @@
         <v>100</v>
       </c>
       <c r="H148" s="60">
-        <f t="shared" ref="H148:H155" si="103">L148/F148</f>
+        <f t="shared" ref="H148:H155" si="126">L148/F148</f>
         <v>0.25812688821752272</v>
       </c>
       <c r="I148">
@@ -26879,11 +26879,11 @@
         <v>1</v>
       </c>
       <c r="K148" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>0.59808000000000006</v>
       </c>
       <c r="L148" s="60">
-        <f t="shared" ref="L148:L155" si="104">K148*E148</f>
+        <f t="shared" ref="L148:L155" si="127">K148*E148</f>
         <v>2.9904000000000003E-2</v>
       </c>
       <c r="N148" s="74" t="str">
@@ -26896,11 +26896,11 @@
       <c r="V148" s="74"/>
       <c r="W148" s="74"/>
       <c r="AD148" t="str">
-        <f>B148</f>
+        <f t="shared" si="123"/>
         <v>IFBAELC-E</v>
       </c>
       <c r="AE148" t="str">
-        <f>A148</f>
+        <f t="shared" si="124"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Compressed air - Electricity</v>
       </c>
       <c r="AF148" s="70" t="s">
@@ -26916,7 +26916,7 @@
         <v>611</v>
       </c>
       <c r="AK148" s="70" t="str">
-        <f>D148</f>
+        <f t="shared" si="125"/>
         <v>IFBA</v>
       </c>
       <c r="AL148" s="70" t="str">
@@ -26936,28 +26936,28 @@
         <v>401</v>
       </c>
       <c r="AS148" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>IFBA</v>
       </c>
       <c r="AT148" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU148" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS148)</f>
+        <f t="shared" si="105"/>
         <v>2.9904000000000003E-2</v>
       </c>
     </row>
     <row r="149" spans="1:47">
       <c r="A149" s="45" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Lighting - Electricity</v>
       </c>
       <c r="B149" s="45" t="str">
-        <f t="shared" ref="B149:B155" si="105">D149&amp;RIGHT(C149,3)&amp;"-E"</f>
+        <f t="shared" ref="B149:B155" si="128">D149&amp;RIGHT(C149,3)&amp;"-E"</f>
         <v>IFBLELC-E</v>
       </c>
       <c r="C149" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>IFBELC</v>
       </c>
       <c r="D149" s="46" t="str">
@@ -26976,7 +26976,7 @@
         <v>100</v>
       </c>
       <c r="H149" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>1.8007226013649138</v>
       </c>
       <c r="I149">
@@ -26986,11 +26986,11 @@
         <v>1</v>
       </c>
       <c r="K149" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>0.74760000000000004</v>
       </c>
       <c r="L149" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0.22428000000000001</v>
       </c>
       <c r="N149" s="74" t="str">
@@ -27003,11 +27003,11 @@
       <c r="V149" s="74"/>
       <c r="W149" s="74"/>
       <c r="AD149" t="str">
-        <f>B149</f>
+        <f t="shared" si="123"/>
         <v>IFBLELC-E</v>
       </c>
       <c r="AE149" t="str">
-        <f>A149</f>
+        <f t="shared" si="124"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Lighting - Electricity</v>
       </c>
       <c r="AF149" s="70" t="s">
@@ -27023,7 +27023,7 @@
         <v>611</v>
       </c>
       <c r="AK149" s="70" t="str">
-        <f>D149</f>
+        <f t="shared" si="125"/>
         <v>IFBL</v>
       </c>
       <c r="AL149" s="70" t="str">
@@ -27043,28 +27043,28 @@
         <v>401</v>
       </c>
       <c r="AS149" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>IFBL</v>
       </c>
       <c r="AT149" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU149" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS149)</f>
+        <f t="shared" si="105"/>
         <v>0.22428000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:47">
       <c r="A150" s="45" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Cooling - Electricity</v>
       </c>
       <c r="B150" s="45" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>IFBCELC-E</v>
       </c>
       <c r="C150" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>IFBELC</v>
       </c>
       <c r="D150" s="46" t="str">
@@ -27083,7 +27083,7 @@
         <v>100</v>
       </c>
       <c r="H150" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>53.086755171349182</v>
       </c>
       <c r="I150">
@@ -27093,11 +27093,11 @@
         <v>1</v>
       </c>
       <c r="K150" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>3.4389600000000002</v>
       </c>
       <c r="L150" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>6.8779200000000005</v>
       </c>
       <c r="N150" s="74" t="str">
@@ -27110,11 +27110,11 @@
       <c r="V150" s="74"/>
       <c r="W150" s="74"/>
       <c r="AD150" t="str">
-        <f>B150</f>
+        <f t="shared" si="123"/>
         <v>IFBCELC-E</v>
       </c>
       <c r="AE150" t="str">
-        <f>A150</f>
+        <f t="shared" si="124"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Cooling - Electricity</v>
       </c>
       <c r="AF150" s="70" t="s">
@@ -27130,7 +27130,7 @@
         <v>611</v>
       </c>
       <c r="AK150" s="70" t="str">
-        <f>D150</f>
+        <f t="shared" si="125"/>
         <v>IFBC</v>
       </c>
       <c r="AL150" s="70" t="str">
@@ -27150,28 +27150,28 @@
         <v>401</v>
       </c>
       <c r="AS150" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>IFBC</v>
       </c>
       <c r="AT150" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU150" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS150)</f>
+        <f t="shared" si="105"/>
         <v>6.8779200000000005</v>
       </c>
     </row>
     <row r="151" spans="1:47">
       <c r="A151" s="45" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>Industry-Food, Beverage &amp; Tabacco-HVAC - Electricity</v>
       </c>
       <c r="B151" s="45" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>IFBHELC-E</v>
       </c>
       <c r="C151" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>IFBELC</v>
       </c>
       <c r="D151" s="46" t="str">
@@ -27190,7 +27190,7 @@
         <v>100</v>
       </c>
       <c r="H151" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>6.1348529746979708</v>
       </c>
       <c r="I151">
@@ -27200,11 +27200,11 @@
         <v>1</v>
       </c>
       <c r="K151" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>0.89711999999999992</v>
       </c>
       <c r="L151" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0.8074079999999999</v>
       </c>
       <c r="N151" s="74" t="str">
@@ -27217,11 +27217,11 @@
       <c r="V151" s="74"/>
       <c r="W151" s="74"/>
       <c r="AD151" t="str">
-        <f>B151</f>
+        <f t="shared" si="123"/>
         <v>IFBHELC-E</v>
       </c>
       <c r="AE151" t="str">
-        <f>A151</f>
+        <f t="shared" si="124"/>
         <v>Industry-Food, Beverage &amp; Tabacco-HVAC - Electricity</v>
       </c>
       <c r="AF151" s="70" t="s">
@@ -27237,7 +27237,7 @@
         <v>611</v>
       </c>
       <c r="AK151" s="70" t="str">
-        <f>D151</f>
+        <f t="shared" si="125"/>
         <v>IFBH</v>
       </c>
       <c r="AL151" s="70" t="str">
@@ -27257,28 +27257,28 @@
         <v>401</v>
       </c>
       <c r="AS151" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>IFBH</v>
       </c>
       <c r="AT151" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU151" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS151)</f>
+        <f t="shared" si="105"/>
         <v>0.8074079999999999</v>
       </c>
     </row>
     <row r="152" spans="1:47">
       <c r="A152" s="45" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Pumping - Electricity</v>
       </c>
       <c r="B152" s="45" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>IFBPELC-E</v>
       </c>
       <c r="C152" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>IFBELC</v>
       </c>
       <c r="D152" s="46" t="str">
@@ -27297,7 +27297,7 @@
         <v>100</v>
       </c>
       <c r="H152" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>27.643182568504457</v>
       </c>
       <c r="I152">
@@ -27307,11 +27307,11 @@
         <v>1</v>
       </c>
       <c r="K152" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>4.1865600000000001</v>
       </c>
       <c r="L152" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>3.3492480000000002</v>
       </c>
       <c r="N152" s="74" t="str">
@@ -27324,11 +27324,11 @@
       <c r="V152" s="74"/>
       <c r="W152" s="74"/>
       <c r="AD152" t="str">
-        <f>B152</f>
+        <f t="shared" si="123"/>
         <v>IFBPELC-E</v>
       </c>
       <c r="AE152" t="str">
-        <f>A152</f>
+        <f t="shared" si="124"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Pumping - Electricity</v>
       </c>
       <c r="AF152" s="70" t="s">
@@ -27344,7 +27344,7 @@
         <v>611</v>
       </c>
       <c r="AK152" s="70" t="str">
-        <f>D152</f>
+        <f t="shared" si="125"/>
         <v>IFBP</v>
       </c>
       <c r="AL152" s="70" t="str">
@@ -27364,28 +27364,28 @@
         <v>401</v>
       </c>
       <c r="AS152" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>IFBP</v>
       </c>
       <c r="AT152" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU152" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS152)</f>
+        <f t="shared" si="105"/>
         <v>3.3492480000000002</v>
       </c>
     </row>
     <row r="153" spans="1:47">
       <c r="A153" s="45" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Fans - Electricity</v>
       </c>
       <c r="B153" s="45" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>IFBFELC-E</v>
       </c>
       <c r="C153" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>IFBELC</v>
       </c>
       <c r="D153" s="46" t="str">
@@ -27404,7 +27404,7 @@
         <v>100</v>
       </c>
       <c r="H153" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>4.3747279875651461</v>
       </c>
       <c r="I153">
@@ -27414,11 +27414,11 @@
         <v>1</v>
       </c>
       <c r="K153" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>0.59808000000000006</v>
       </c>
       <c r="L153" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0.47846400000000006</v>
       </c>
       <c r="N153" s="74" t="str">
@@ -27431,11 +27431,11 @@
       <c r="V153" s="74"/>
       <c r="W153" s="74"/>
       <c r="AD153" t="str">
-        <f>B153</f>
+        <f t="shared" si="123"/>
         <v>IFBFELC-E</v>
       </c>
       <c r="AE153" t="str">
-        <f>A153</f>
+        <f t="shared" si="124"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Fans - Electricity</v>
       </c>
       <c r="AF153" s="70" t="s">
@@ -27451,7 +27451,7 @@
         <v>611</v>
       </c>
       <c r="AK153" s="70" t="str">
-        <f>D153</f>
+        <f t="shared" si="125"/>
         <v>IFBF</v>
       </c>
       <c r="AL153" s="70" t="str">
@@ -27471,28 +27471,28 @@
         <v>401</v>
       </c>
       <c r="AS153" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>IFBF</v>
       </c>
       <c r="AT153" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU153" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS153)</f>
+        <f t="shared" si="105"/>
         <v>0.47846400000000006</v>
       </c>
     </row>
     <row r="154" spans="1:47">
       <c r="A154" s="45" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Other motive - Electricity</v>
       </c>
       <c r="B154" s="45" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>IFBOELC-E</v>
       </c>
       <c r="C154" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>IFBELC</v>
       </c>
       <c r="D154" s="46" t="str">
@@ -27511,7 +27511,7 @@
         <v>100</v>
       </c>
       <c r="H154" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>19.201467665494576</v>
       </c>
       <c r="I154">
@@ -27521,11 +27521,11 @@
         <v>1</v>
       </c>
       <c r="K154" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>3.13992</v>
       </c>
       <c r="L154" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>2.5119360000000004</v>
       </c>
       <c r="N154" s="74" t="str">
@@ -27538,11 +27538,11 @@
       <c r="V154" s="74"/>
       <c r="W154" s="74"/>
       <c r="AD154" t="str">
-        <f>B154</f>
+        <f t="shared" si="123"/>
         <v>IFBOELC-E</v>
       </c>
       <c r="AE154" t="str">
-        <f>A154</f>
+        <f t="shared" si="124"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Other motive - Electricity</v>
       </c>
       <c r="AF154" s="70" t="s">
@@ -27558,7 +27558,7 @@
         <v>611</v>
       </c>
       <c r="AK154" s="70" t="str">
-        <f>D154</f>
+        <f t="shared" si="125"/>
         <v>IFBO</v>
       </c>
       <c r="AL154" s="70" t="str">
@@ -27578,28 +27578,28 @@
         <v>401</v>
       </c>
       <c r="AS154" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>IFBO</v>
       </c>
       <c r="AT154" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU154" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS154)</f>
+        <f t="shared" si="105"/>
         <v>2.5119360000000004</v>
       </c>
     </row>
     <row r="155" spans="1:47">
       <c r="A155" s="45" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Electrochemical - Electricity</v>
       </c>
       <c r="B155" s="45" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>IFBEELC-E</v>
       </c>
       <c r="C155" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>IFBELC</v>
       </c>
       <c r="D155" s="46" t="str">
@@ -27618,7 +27618,7 @@
         <v>100</v>
       </c>
       <c r="H155" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="I155">
@@ -27628,11 +27628,11 @@
         <v>1</v>
       </c>
       <c r="K155" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L155" s="60">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="N155" s="74" t="str">
@@ -27645,11 +27645,11 @@
       <c r="V155" s="74"/>
       <c r="W155" s="74"/>
       <c r="AD155" t="str">
-        <f>B155</f>
+        <f t="shared" si="123"/>
         <v>IFBEELC-E</v>
       </c>
       <c r="AE155" t="str">
-        <f>A155</f>
+        <f t="shared" si="124"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Electrochemical - Electricity</v>
       </c>
       <c r="AF155" s="70" t="s">
@@ -27665,7 +27665,7 @@
         <v>611</v>
       </c>
       <c r="AK155" s="70" t="str">
-        <f>D155</f>
+        <f t="shared" si="125"/>
         <v>IFBE</v>
       </c>
       <c r="AL155" s="70" t="str">
@@ -27685,14 +27685,14 @@
         <v>401</v>
       </c>
       <c r="AS155" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>IFBE</v>
       </c>
       <c r="AT155" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU155" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS155)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -27738,14 +27738,14 @@
         <v>476</v>
       </c>
       <c r="AS156" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT156" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU156" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS156)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -27755,7 +27755,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B157" s="45" t="str">
-        <f t="shared" ref="B157:B165" si="106">D157&amp;RIGHT(C157,3)&amp;"-E"</f>
+        <f t="shared" ref="B157:B165" si="129">D157&amp;RIGHT(C157,3)&amp;"-E"</f>
         <v>IFBSCOA-E</v>
       </c>
       <c r="C157" s="46" t="str">
@@ -27763,7 +27763,7 @@
         <v>INDCOA</v>
       </c>
       <c r="D157" s="46" t="str">
-        <f t="shared" ref="D157:D165" si="107">$B$5&amp;RIGHT($B$145,2)&amp;$B$70</f>
+        <f t="shared" ref="D157:D165" si="130">$B$5&amp;RIGHT($B$145,2)&amp;$B$70</f>
         <v>IFBS</v>
       </c>
       <c r="E157" s="58">
@@ -27778,7 +27778,7 @@
         <v>100</v>
       </c>
       <c r="H157" s="60">
-        <f t="shared" ref="H157:H165" si="108">L157/F157</f>
+        <f t="shared" ref="H157:H165" si="131">L157/F157</f>
         <v>67.505542231153186</v>
       </c>
       <c r="I157">
@@ -27796,45 +27796,45 @@
         <v>10.414080000000002</v>
       </c>
       <c r="N157" s="78">
-        <f t="shared" ref="N157:N165" si="109">L157/SUMIF($D$81:$D$187,$D157,$L$81:$L$187)</f>
+        <f t="shared" ref="N157:N165" si="132">L157/SUMIF($D$81:$D$187,$D157,$L$81:$L$187)</f>
         <v>0.25685398787785141</v>
       </c>
       <c r="O157" s="77">
-        <f t="shared" ref="O157:Q161" si="110">MIN(1,$N157+O$75)</f>
+        <f t="shared" ref="O157:Q161" si="133">MIN(1,$N157+O$75)</f>
         <v>0.75685398787785141</v>
       </c>
       <c r="P157" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="Q157" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="R157" s="77"/>
       <c r="S157" s="78">
-        <f t="shared" ref="S157:S162" si="111">N157</f>
+        <f t="shared" ref="S157:S162" si="134">N157</f>
         <v>0.25685398787785141</v>
       </c>
       <c r="T157" s="77">
-        <f t="shared" ref="T157:V157" si="112">S157*T$75</f>
+        <f t="shared" ref="T157:V157" si="135">S157*T$75</f>
         <v>0.23116858909006627</v>
       </c>
       <c r="U157" s="77">
-        <f t="shared" si="112"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="V157" s="77">
-        <f t="shared" si="112"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="W157" s="74"/>
       <c r="AD157" t="str">
-        <f>B157</f>
+        <f t="shared" ref="AD157:AD165" si="136">B157</f>
         <v>IFBSCOA-E</v>
       </c>
       <c r="AE157" t="str">
-        <f>A157</f>
+        <f t="shared" ref="AE157:AE165" si="137">A157</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF157" s="70" t="s">
@@ -27870,14 +27870,14 @@
         <v>401</v>
       </c>
       <c r="AS157" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>IFBS</v>
       </c>
       <c r="AT157" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU157" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS157)</f>
+        <f t="shared" si="105"/>
         <v>40.544747177343751</v>
       </c>
     </row>
@@ -27887,7 +27887,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B158" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="129"/>
         <v>IFBSGAS-E</v>
       </c>
       <c r="C158" s="46" t="str">
@@ -27895,7 +27895,7 @@
         <v>INDGAS</v>
       </c>
       <c r="D158" s="46" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="130"/>
         <v>IFBS</v>
       </c>
       <c r="E158" s="58">
@@ -27910,7 +27910,7 @@
         <v>100</v>
       </c>
       <c r="H158" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="131"/>
         <v>34.377369400037274</v>
       </c>
       <c r="I158">
@@ -27924,49 +27924,49 @@
         <v>7.3658288574218753</v>
       </c>
       <c r="L158" s="60">
-        <f t="shared" ref="L158:L165" si="113">K158*E158</f>
+        <f t="shared" ref="L158:L165" si="138">K158*E158</f>
         <v>5.3033967773437496</v>
       </c>
       <c r="N158" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="132"/>
         <v>0.13080354784669287</v>
       </c>
       <c r="O158" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>0.6308035478466929</v>
       </c>
       <c r="P158" s="77">
-        <f t="shared" si="110"/>
-        <v>1</v>
+        <f>O158</f>
+        <v>0.6308035478466929</v>
       </c>
       <c r="Q158" s="77">
-        <f t="shared" si="110"/>
-        <v>1</v>
+        <f>P158</f>
+        <v>0.6308035478466929</v>
       </c>
       <c r="R158" s="77"/>
       <c r="S158" s="78">
-        <f t="shared" si="111"/>
+        <f t="shared" si="134"/>
         <v>0.13080354784669287</v>
       </c>
       <c r="T158" s="77">
-        <f t="shared" ref="T158:V158" si="114">S158*T$75</f>
+        <f t="shared" ref="T158:V158" si="139">S158*T$75</f>
         <v>0.11772319306202358</v>
       </c>
       <c r="U158" s="77">
-        <f t="shared" si="114"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="V158" s="77">
-        <f t="shared" si="114"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="W158" s="74"/>
       <c r="AD158" t="str">
-        <f>B158</f>
+        <f t="shared" si="136"/>
         <v>IFBSGAS-E</v>
       </c>
       <c r="AE158" t="str">
-        <f>A158</f>
+        <f t="shared" si="137"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF158" s="70" t="s">
@@ -27985,7 +27985,7 @@
         <v>476</v>
       </c>
       <c r="AL158" s="70" t="str">
-        <f>A158</f>
+        <f t="shared" ref="AL158:AL165" si="140">A158</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM158" s="245" t="s">
@@ -28001,14 +28001,14 @@
         <v>476</v>
       </c>
       <c r="AS158" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT158" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU158" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS158)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28018,7 +28018,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B159" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="129"/>
         <v>IFBSOHF-E</v>
       </c>
       <c r="C159" s="46" t="str">
@@ -28026,7 +28026,7 @@
         <v>INDOHF</v>
       </c>
       <c r="D159" s="46" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="130"/>
         <v>IFBS</v>
       </c>
       <c r="E159" s="58">
@@ -28041,7 +28041,7 @@
         <v>100</v>
       </c>
       <c r="H159" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="I159">
@@ -28055,49 +28055,49 @@
         <v>0</v>
       </c>
       <c r="L159" s="60">
-        <f t="shared" si="113"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="N159" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="O159" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>0.5</v>
       </c>
       <c r="P159" s="77">
-        <f t="shared" si="110"/>
-        <v>1</v>
+        <f>O159</f>
+        <v>0.5</v>
       </c>
       <c r="Q159" s="77">
-        <f t="shared" si="110"/>
-        <v>1</v>
+        <f>P159</f>
+        <v>0.5</v>
       </c>
       <c r="R159" s="77"/>
       <c r="S159" s="78">
-        <f t="shared" si="111"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="T159" s="77">
-        <f t="shared" ref="T159:V159" si="115">S159*T$75</f>
+        <f t="shared" ref="T159:V159" si="141">S159*T$75</f>
         <v>0</v>
       </c>
       <c r="U159" s="77">
-        <f t="shared" si="115"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="V159" s="77">
-        <f t="shared" si="115"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="W159" s="74"/>
       <c r="AD159" t="str">
-        <f>B159</f>
+        <f t="shared" si="136"/>
         <v>IFBSOHF-E</v>
       </c>
       <c r="AE159" t="str">
-        <f>A159</f>
+        <f t="shared" si="137"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF159" s="70" t="s">
@@ -28116,7 +28116,7 @@
         <v>476</v>
       </c>
       <c r="AL159" s="70" t="str">
-        <f>A159</f>
+        <f t="shared" si="140"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM159" s="245" t="s">
@@ -28132,14 +28132,14 @@
         <v>476</v>
       </c>
       <c r="AS159" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT159" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU159" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS159)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28149,7 +28149,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B160" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="129"/>
         <v>IFBSOLP-E</v>
       </c>
       <c r="C160" s="46" t="str">
@@ -28157,7 +28157,7 @@
         <v>INDOLP</v>
       </c>
       <c r="D160" s="46" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="130"/>
         <v>IFBS</v>
       </c>
       <c r="E160" s="58">
@@ -28172,7 +28172,7 @@
         <v>100</v>
       </c>
       <c r="H160" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="I160">
@@ -28186,49 +28186,49 @@
         <v>0</v>
       </c>
       <c r="L160" s="60">
-        <f t="shared" si="113"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="N160" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="O160" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>0.5</v>
       </c>
       <c r="P160" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="Q160" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="R160" s="77"/>
       <c r="S160" s="78">
-        <f t="shared" si="111"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="T160" s="77">
-        <f t="shared" ref="T160:V160" si="116">S160*T$75</f>
+        <f t="shared" ref="T160:V160" si="142">S160*T$75</f>
         <v>0</v>
       </c>
       <c r="U160" s="77">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="V160" s="77">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="W160" s="74"/>
       <c r="AD160" t="str">
-        <f>B160</f>
+        <f t="shared" si="136"/>
         <v>IFBSOLP-E</v>
       </c>
       <c r="AE160" t="str">
-        <f>A160</f>
+        <f t="shared" si="137"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF160" s="70" t="s">
@@ -28247,7 +28247,7 @@
         <v>476</v>
       </c>
       <c r="AL160" s="70" t="str">
-        <f>A160</f>
+        <f t="shared" si="140"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM160" s="245" t="s">
@@ -28263,14 +28263,14 @@
         <v>476</v>
       </c>
       <c r="AS160" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT160" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU160" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS160)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28280,7 +28280,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B161" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="129"/>
         <v>IFBSELC-E</v>
       </c>
       <c r="C161" s="46" t="str">
@@ -28288,7 +28288,7 @@
         <v>IFBELC</v>
       </c>
       <c r="D161" s="46" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="130"/>
         <v>IFBS</v>
       </c>
       <c r="E161" s="58">
@@ -28303,7 +28303,7 @@
         <v>100</v>
       </c>
       <c r="H161" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="131"/>
         <v>1.4731989369287615</v>
       </c>
       <c r="I161">
@@ -28317,49 +28317,49 @@
         <v>0.29904000000000003</v>
       </c>
       <c r="L161" s="60">
-        <f t="shared" si="113"/>
+        <f t="shared" si="138"/>
         <v>0.22727040000000001</v>
       </c>
       <c r="N161" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="132"/>
         <v>5.6054215606750127E-3</v>
       </c>
       <c r="O161" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>0.50560542156067501</v>
       </c>
       <c r="P161" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="Q161" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="R161" s="77"/>
       <c r="S161" s="78">
-        <f t="shared" si="111"/>
+        <f t="shared" si="134"/>
         <v>5.6054215606750127E-3</v>
       </c>
       <c r="T161" s="77">
-        <f t="shared" ref="T161:V161" si="117">S161*T$75</f>
+        <f t="shared" ref="T161:V161" si="143">S161*T$75</f>
         <v>5.0448794046075119E-3</v>
       </c>
       <c r="U161" s="77">
-        <f t="shared" si="117"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="V161" s="77">
-        <f t="shared" si="117"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="W161" s="74"/>
       <c r="AD161" t="str">
-        <f>B161</f>
+        <f t="shared" si="136"/>
         <v>IFBSELC-E</v>
       </c>
       <c r="AE161" t="str">
-        <f>A161</f>
+        <f t="shared" si="137"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF161" s="70" t="s">
@@ -28378,7 +28378,7 @@
         <v>476</v>
       </c>
       <c r="AL161" s="70" t="str">
-        <f>A161</f>
+        <f t="shared" si="140"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM161" s="245" t="s">
@@ -28394,14 +28394,14 @@
         <v>476</v>
       </c>
       <c r="AS161" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT161" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU161" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS161)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28419,7 +28419,7 @@
         <v>IFBELC</v>
       </c>
       <c r="D162" s="46" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="130"/>
         <v>IFBS</v>
       </c>
       <c r="E162" s="58">
@@ -28450,7 +28450,7 @@
         <v>0</v>
       </c>
       <c r="N162" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="O162" s="216">
@@ -28464,28 +28464,28 @@
       </c>
       <c r="R162" s="77"/>
       <c r="S162" s="78">
-        <f t="shared" si="111"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="T162" s="77">
-        <f t="shared" ref="T162:V162" si="118">S162*T$75</f>
+        <f t="shared" ref="T162:V162" si="144">S162*T$75</f>
         <v>0</v>
       </c>
       <c r="U162" s="77">
-        <f t="shared" si="118"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="V162" s="77">
-        <f t="shared" si="118"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="W162" s="74"/>
       <c r="AD162" t="str">
-        <f>B162</f>
+        <f t="shared" si="136"/>
         <v>IFBSELC-N</v>
       </c>
       <c r="AE162" t="str">
-        <f>A162</f>
+        <f t="shared" si="137"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AF162" s="70" t="s">
@@ -28504,7 +28504,7 @@
         <v>476</v>
       </c>
       <c r="AL162" s="70" t="str">
-        <f>A162</f>
+        <f t="shared" si="140"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AM162" s="245" t="s">
@@ -28520,14 +28520,14 @@
         <v>476</v>
       </c>
       <c r="AS162" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT162" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU162" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS162)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28543,7 +28543,7 @@
         <v>467</v>
       </c>
       <c r="D163" s="46" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="130"/>
         <v>IFBS</v>
       </c>
       <c r="E163" s="58">
@@ -28574,45 +28574,45 @@
         <v>0</v>
       </c>
       <c r="N163" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="O163" s="77">
-        <f t="shared" ref="O163:Q165" si="119">MIN(1,$N163+O$75)</f>
+        <f t="shared" ref="O163:Q165" si="145">MIN(1,$N163+O$75)</f>
         <v>0.5</v>
       </c>
       <c r="P163" s="77">
-        <f t="shared" si="119"/>
+        <f t="shared" si="145"/>
         <v>1</v>
       </c>
       <c r="Q163" s="77">
-        <f t="shared" si="119"/>
+        <f t="shared" si="145"/>
         <v>1</v>
       </c>
       <c r="R163" s="77"/>
       <c r="S163" s="78">
-        <f t="shared" ref="S163:S165" si="120">N163</f>
+        <f t="shared" ref="S163:S165" si="146">N163</f>
         <v>0</v>
       </c>
       <c r="T163" s="77">
-        <f t="shared" ref="T163:V163" si="121">S163*T$75</f>
+        <f t="shared" ref="T163:V163" si="147">S163*T$75</f>
         <v>0</v>
       </c>
       <c r="U163" s="77">
-        <f t="shared" si="121"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="V163" s="77">
-        <f t="shared" si="121"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="W163" s="74"/>
       <c r="AD163" t="str">
-        <f>B163</f>
+        <f t="shared" si="136"/>
         <v>IFBSHGN-N</v>
       </c>
       <c r="AE163" t="str">
-        <f>A163</f>
+        <f t="shared" si="137"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating - Electricity - Hydrogen New</v>
       </c>
       <c r="AF163" s="70" t="s">
@@ -28631,7 +28631,7 @@
         <v>476</v>
       </c>
       <c r="AL163" s="70" t="str">
-        <f>A163</f>
+        <f t="shared" si="140"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating - Electricity - Hydrogen New</v>
       </c>
       <c r="AM163" s="245" t="s">
@@ -28647,14 +28647,14 @@
         <v>476</v>
       </c>
       <c r="AS163" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT163" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU163" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS163)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28664,7 +28664,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B164" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="129"/>
         <v>IFBSBIB-E</v>
       </c>
       <c r="C164" s="46" t="str">
@@ -28672,7 +28672,7 @@
         <v>INDBIB</v>
       </c>
       <c r="D164" s="46" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="130"/>
         <v>IFBS</v>
       </c>
       <c r="E164" s="58">
@@ -28687,7 +28687,7 @@
         <v>100</v>
       </c>
       <c r="H164" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="131"/>
         <v>159.46068581059183</v>
       </c>
       <c r="I164">
@@ -28701,11 +28701,11 @@
         <v>41</v>
       </c>
       <c r="L164" s="60">
-        <f t="shared" si="113"/>
+        <f t="shared" si="138"/>
         <v>24.599999999999998</v>
       </c>
       <c r="N164" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="132"/>
         <v>0.60673704271478068</v>
       </c>
       <c r="O164" s="77">
@@ -28722,28 +28722,28 @@
       </c>
       <c r="R164" s="77"/>
       <c r="S164" s="78">
-        <f t="shared" si="120"/>
+        <f t="shared" si="146"/>
         <v>0.60673704271478068</v>
       </c>
       <c r="T164" s="77">
-        <f t="shared" ref="T164:V164" si="122">S164*T$75</f>
+        <f t="shared" ref="T164:V164" si="148">S164*T$75</f>
         <v>0.54606333844330268</v>
       </c>
       <c r="U164" s="77">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="V164" s="77">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="W164" s="74"/>
       <c r="AD164" t="str">
-        <f>B164</f>
+        <f t="shared" si="136"/>
         <v>IFBSBIB-E</v>
       </c>
       <c r="AE164" t="str">
-        <f>A164</f>
+        <f t="shared" si="137"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF164" s="70" t="s">
@@ -28762,7 +28762,7 @@
         <v>476</v>
       </c>
       <c r="AL164" s="70" t="str">
-        <f>A164</f>
+        <f t="shared" si="140"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM164" s="245" t="s">
@@ -28778,14 +28778,14 @@
         <v>476</v>
       </c>
       <c r="AS164" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT164" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU164" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS164)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28795,7 +28795,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B165" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="129"/>
         <v>IFBSWAS-E</v>
       </c>
       <c r="C165" s="46" t="str">
@@ -28803,7 +28803,7 @@
         <v>INDWAS</v>
       </c>
       <c r="D165" s="46" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="130"/>
         <v>IFBS</v>
       </c>
       <c r="E165" s="58">
@@ -28818,7 +28818,7 @@
         <v>100</v>
       </c>
       <c r="H165" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="I165">
@@ -28832,15 +28832,15 @@
         <v>0</v>
       </c>
       <c r="L165" s="60">
-        <f t="shared" si="113"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="N165" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="O165" s="77">
-        <f t="shared" si="119"/>
+        <f t="shared" si="145"/>
         <v>0.5</v>
       </c>
       <c r="P165" s="77">
@@ -28851,28 +28851,28 @@
       </c>
       <c r="R165" s="77"/>
       <c r="S165" s="78">
-        <f t="shared" si="120"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="T165" s="77">
-        <f t="shared" ref="T165:V165" si="123">S165*T$75</f>
+        <f t="shared" ref="T165:V165" si="149">S165*T$75</f>
         <v>0</v>
       </c>
       <c r="U165" s="77">
-        <f t="shared" si="123"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="V165" s="77">
-        <f t="shared" si="123"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="W165" s="74"/>
       <c r="AD165" t="str">
-        <f>B165</f>
+        <f t="shared" si="136"/>
         <v>IFBSWAS-E</v>
       </c>
       <c r="AE165" t="str">
-        <f>A165</f>
+        <f t="shared" si="137"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF165" s="70" t="s">
@@ -28891,7 +28891,7 @@
         <v>476</v>
       </c>
       <c r="AL165" s="70" t="str">
-        <f>A165</f>
+        <f t="shared" si="140"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM165" s="245" t="s">
@@ -28907,14 +28907,14 @@
         <v>476</v>
       </c>
       <c r="AS165" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT165" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU165" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS165)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28955,14 +28955,14 @@
         <v>476</v>
       </c>
       <c r="AS166" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT166" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU166" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS166)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -29020,14 +29020,14 @@
         <v>476</v>
       </c>
       <c r="AS167" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT167" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU167" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS167)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -29085,20 +29085,20 @@
         <v>476</v>
       </c>
       <c r="AS168" s="72" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>*</v>
       </c>
       <c r="AT168" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU168" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS168)</f>
+        <f t="shared" si="105"/>
         <v>338.97013191086643</v>
       </c>
     </row>
     <row r="169" spans="1:47">
       <c r="A169" s="45" t="str">
-        <f t="shared" ref="A169:A177" si="124">A$5&amp;"-"&amp;A$19&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A169:A177" si="150">A$5&amp;"-"&amp;A$19&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Other-Elec Heating - Electricity</v>
       </c>
       <c r="B169" s="45" t="str">
@@ -29106,7 +29106,7 @@
         <v>IOTKELC-E</v>
       </c>
       <c r="C169" s="46" t="str">
-        <f t="shared" ref="C169:C177" si="125">$P$18</f>
+        <f t="shared" ref="C169:C177" si="151">$P$18</f>
         <v>IOTELC</v>
       </c>
       <c r="D169" s="46" t="str">
@@ -29135,7 +29135,7 @@
         <v>1</v>
       </c>
       <c r="K169" s="60">
-        <f t="shared" ref="K169:K177" si="126">J169*SUMIF($C$60:$K$60,$B$167,$C61:$K61)</f>
+        <f t="shared" ref="K169:K177" si="152">J169*SUMIF($C$60:$K$60,$B$167,$C61:$K61)</f>
         <v>2.1816720000000003</v>
       </c>
       <c r="L169" s="60">
@@ -29152,11 +29152,11 @@
       <c r="V169" s="74"/>
       <c r="W169" s="74"/>
       <c r="AD169" t="str">
-        <f>B169</f>
+        <f t="shared" ref="AD169:AD177" si="153">B169</f>
         <v>IOTKELC-E</v>
       </c>
       <c r="AE169" t="str">
-        <f>A169</f>
+        <f t="shared" ref="AE169:AE177" si="154">A169</f>
         <v>Industry-Other-Elec Heating - Electricity</v>
       </c>
       <c r="AF169" s="70" t="s">
@@ -29172,7 +29172,7 @@
         <v>611</v>
       </c>
       <c r="AK169" s="70" t="str">
-        <f>D169</f>
+        <f t="shared" ref="AK169:AK177" si="155">D169</f>
         <v>IOTK</v>
       </c>
       <c r="AL169" s="70" t="str">
@@ -29192,20 +29192,20 @@
         <v>401</v>
       </c>
       <c r="AS169" s="72" t="str">
-        <f t="shared" ref="AS169:AS188" si="127">AK169</f>
+        <f t="shared" ref="AS169:AS188" si="156">AK169</f>
         <v>IOTK</v>
       </c>
       <c r="AT169" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU169" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS169)</f>
+        <f t="shared" ref="AU169:AU188" si="157">SUMIFS($L$81:$L$188,$D$81:$D$188,$AS169)</f>
         <v>2.1816720000000003</v>
       </c>
     </row>
     <row r="170" spans="1:47">
       <c r="A170" s="45" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="150"/>
         <v>Industry-Other-Compressed air - Electricity</v>
       </c>
       <c r="B170" s="45" t="str">
@@ -29213,7 +29213,7 @@
         <v>IOTAELC-E</v>
       </c>
       <c r="C170" s="46" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="151"/>
         <v>IOTELC</v>
       </c>
       <c r="D170" s="46" t="str">
@@ -29232,7 +29232,7 @@
         <v>100</v>
       </c>
       <c r="H170" s="60">
-        <f t="shared" ref="H170:H176" si="128">L170/F170</f>
+        <f t="shared" ref="H170:H176" si="158">L170/F170</f>
         <v>1.0664887354337507</v>
       </c>
       <c r="I170">
@@ -29242,11 +29242,11 @@
         <v>1</v>
       </c>
       <c r="K170" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="152"/>
         <v>2.4710543999999999</v>
       </c>
       <c r="L170" s="60">
-        <f t="shared" ref="L170:L177" si="129">K170*E170</f>
+        <f t="shared" ref="L170:L177" si="159">K170*E170</f>
         <v>0.12355272</v>
       </c>
       <c r="N170" s="74" t="str">
@@ -29259,11 +29259,11 @@
       <c r="V170" s="74"/>
       <c r="W170" s="74"/>
       <c r="AD170" t="str">
-        <f>B170</f>
+        <f t="shared" si="153"/>
         <v>IOTAELC-E</v>
       </c>
       <c r="AE170" t="str">
-        <f>A170</f>
+        <f t="shared" si="154"/>
         <v>Industry-Other-Compressed air - Electricity</v>
       </c>
       <c r="AF170" s="70" t="s">
@@ -29279,7 +29279,7 @@
         <v>611</v>
       </c>
       <c r="AK170" s="70" t="str">
-        <f>D170</f>
+        <f t="shared" si="155"/>
         <v>IOTA</v>
       </c>
       <c r="AL170" s="70" t="str">
@@ -29299,28 +29299,28 @@
         <v>401</v>
       </c>
       <c r="AS170" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>IOTA</v>
       </c>
       <c r="AT170" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU170" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS170)</f>
+        <f t="shared" si="157"/>
         <v>0.12355272</v>
       </c>
     </row>
     <row r="171" spans="1:47">
       <c r="A171" s="45" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="150"/>
         <v>Industry-Other-Lighting - Electricity</v>
       </c>
       <c r="B171" s="45" t="str">
-        <f t="shared" ref="B171:B177" si="130">D171&amp;RIGHT(C171,3)&amp;"-E"</f>
+        <f t="shared" ref="B171:B177" si="160">D171&amp;RIGHT(C171,3)&amp;"-E"</f>
         <v>IOTLELC-E</v>
       </c>
       <c r="C171" s="46" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="151"/>
         <v>IOTELC</v>
       </c>
       <c r="D171" s="46" t="str">
@@ -29339,7 +29339,7 @@
         <v>100</v>
       </c>
       <c r="H171" s="60">
-        <f t="shared" si="128"/>
+        <f t="shared" si="158"/>
         <v>4.3945377759935766</v>
       </c>
       <c r="I171">
@@ -29349,11 +29349,11 @@
         <v>1</v>
       </c>
       <c r="K171" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="152"/>
         <v>1.8244656000000001</v>
       </c>
       <c r="L171" s="60">
-        <f t="shared" si="129"/>
+        <f t="shared" si="159"/>
         <v>0.54733968</v>
       </c>
       <c r="N171" s="74" t="str">
@@ -29366,11 +29366,11 @@
       <c r="V171" s="74"/>
       <c r="W171" s="74"/>
       <c r="AD171" t="str">
-        <f>B171</f>
+        <f t="shared" si="153"/>
         <v>IOTLELC-E</v>
       </c>
       <c r="AE171" t="str">
-        <f>A171</f>
+        <f t="shared" si="154"/>
         <v>Industry-Other-Lighting - Electricity</v>
       </c>
       <c r="AF171" s="70" t="s">
@@ -29386,7 +29386,7 @@
         <v>611</v>
       </c>
       <c r="AK171" s="70" t="str">
-        <f>D171</f>
+        <f t="shared" si="155"/>
         <v>IOTL</v>
       </c>
       <c r="AL171" s="70" t="str">
@@ -29406,28 +29406,28 @@
         <v>401</v>
       </c>
       <c r="AS171" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>IOTL</v>
       </c>
       <c r="AT171" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU171" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS171)</f>
+        <f t="shared" si="157"/>
         <v>0.54733968</v>
       </c>
     </row>
     <row r="172" spans="1:47">
       <c r="A172" s="45" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="150"/>
         <v>Industry-Other-Cooling - Electricity</v>
       </c>
       <c r="B172" s="45" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="160"/>
         <v>IOTCELC-E</v>
       </c>
       <c r="C172" s="46" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="151"/>
         <v>IOTELC</v>
       </c>
       <c r="D172" s="46" t="str">
@@ -29446,7 +29446,7 @@
         <v>100</v>
       </c>
       <c r="H172" s="60">
-        <f t="shared" si="128"/>
+        <f t="shared" si="158"/>
         <v>17.938425439950606</v>
       </c>
       <c r="I172">
@@ -29456,11 +29456,11 @@
         <v>1</v>
       </c>
       <c r="K172" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="152"/>
         <v>1.1620512000000003</v>
       </c>
       <c r="L172" s="60">
-        <f t="shared" si="129"/>
+        <f t="shared" si="159"/>
         <v>2.3241024000000006</v>
       </c>
       <c r="N172" s="74" t="str">
@@ -29473,11 +29473,11 @@
       <c r="V172" s="74"/>
       <c r="W172" s="74"/>
       <c r="AD172" t="str">
-        <f>B172</f>
+        <f t="shared" si="153"/>
         <v>IOTCELC-E</v>
       </c>
       <c r="AE172" t="str">
-        <f>A172</f>
+        <f t="shared" si="154"/>
         <v>Industry-Other-Cooling - Electricity</v>
       </c>
       <c r="AF172" s="70" t="s">
@@ -29493,7 +29493,7 @@
         <v>611</v>
       </c>
       <c r="AK172" s="70" t="str">
-        <f>D172</f>
+        <f t="shared" si="155"/>
         <v>IOTC</v>
       </c>
       <c r="AL172" s="70" t="str">
@@ -29513,28 +29513,28 @@
         <v>401</v>
       </c>
       <c r="AS172" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>IOTC</v>
       </c>
       <c r="AT172" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU172" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS172)</f>
+        <f t="shared" si="157"/>
         <v>2.3241024000000006</v>
       </c>
     </row>
     <row r="173" spans="1:47">
       <c r="A173" s="45" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="150"/>
         <v>Industry-Other-HVAC - Electricity</v>
       </c>
       <c r="B173" s="45" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="160"/>
         <v>IOTHELC-E</v>
       </c>
       <c r="C173" s="46" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="151"/>
         <v>IOTELC</v>
       </c>
       <c r="D173" s="46" t="str">
@@ -29553,7 +29553,7 @@
         <v>100</v>
       </c>
       <c r="H173" s="60">
-        <f t="shared" si="128"/>
+        <f t="shared" si="158"/>
         <v>13.125729655801232</v>
       </c>
       <c r="I173">
@@ -29563,11 +29563,11 @@
         <v>1</v>
       </c>
       <c r="K173" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="152"/>
         <v>1.9194192000000001</v>
       </c>
       <c r="L173" s="60">
-        <f t="shared" si="129"/>
+        <f t="shared" si="159"/>
         <v>1.7274772800000002</v>
       </c>
       <c r="N173" s="74" t="str">
@@ -29580,11 +29580,11 @@
       <c r="V173" s="74"/>
       <c r="W173" s="74"/>
       <c r="AD173" t="str">
-        <f>B173</f>
+        <f t="shared" si="153"/>
         <v>IOTHELC-E</v>
       </c>
       <c r="AE173" t="str">
-        <f>A173</f>
+        <f t="shared" si="154"/>
         <v>Industry-Other-HVAC - Electricity</v>
       </c>
       <c r="AF173" s="70" t="s">
@@ -29600,7 +29600,7 @@
         <v>611</v>
       </c>
       <c r="AK173" s="70" t="str">
-        <f>D173</f>
+        <f t="shared" si="155"/>
         <v>IOTH</v>
       </c>
       <c r="AL173" s="70" t="str">
@@ -29620,28 +29620,28 @@
         <v>401</v>
       </c>
       <c r="AS173" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>IOTH</v>
       </c>
       <c r="AT173" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU173" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS173)</f>
+        <f t="shared" si="157"/>
         <v>1.7274772800000002</v>
       </c>
     </row>
     <row r="174" spans="1:47">
       <c r="A174" s="45" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="150"/>
         <v>Industry-Other-Pumping - Electricity</v>
       </c>
       <c r="B174" s="45" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="160"/>
         <v>IOTPELC-E</v>
       </c>
       <c r="C174" s="46" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="151"/>
         <v>IOTELC</v>
       </c>
       <c r="D174" s="46" t="str">
@@ -29660,7 +29660,7 @@
         <v>100</v>
       </c>
       <c r="H174" s="60">
-        <f t="shared" si="128"/>
+        <f t="shared" si="158"/>
         <v>19.406008583690991</v>
       </c>
       <c r="I174">
@@ -29670,11 +29670,11 @@
         <v>1</v>
       </c>
       <c r="K174" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="152"/>
         <v>2.9390400000000003</v>
       </c>
       <c r="L174" s="60">
-        <f t="shared" si="129"/>
+        <f t="shared" si="159"/>
         <v>2.3512320000000004</v>
       </c>
       <c r="N174" s="74" t="str">
@@ -29687,11 +29687,11 @@
       <c r="V174" s="74"/>
       <c r="W174" s="74"/>
       <c r="AD174" t="str">
-        <f>B174</f>
+        <f t="shared" si="153"/>
         <v>IOTPELC-E</v>
       </c>
       <c r="AE174" t="str">
-        <f>A174</f>
+        <f t="shared" si="154"/>
         <v>Industry-Other-Pumping - Electricity</v>
       </c>
       <c r="AF174" s="70" t="s">
@@ -29707,7 +29707,7 @@
         <v>611</v>
       </c>
       <c r="AK174" s="70" t="str">
-        <f>D174</f>
+        <f t="shared" si="155"/>
         <v>IOTP</v>
       </c>
       <c r="AL174" s="70" t="str">
@@ -29727,28 +29727,28 @@
         <v>401</v>
       </c>
       <c r="AS174" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>IOTP</v>
       </c>
       <c r="AT174" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU174" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS174)</f>
+        <f t="shared" si="157"/>
         <v>2.3512320000000004</v>
       </c>
     </row>
     <row r="175" spans="1:47">
       <c r="A175" s="45" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="150"/>
         <v>Industry-Other-Fans - Electricity</v>
       </c>
       <c r="B175" s="45" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="160"/>
         <v>IOTFELC-E</v>
       </c>
       <c r="C175" s="46" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="151"/>
         <v>IOTELC</v>
       </c>
       <c r="D175" s="46" t="str">
@@ -29767,7 +29767,7 @@
         <v>100</v>
       </c>
       <c r="H175" s="60">
-        <f t="shared" si="128"/>
+        <f t="shared" si="158"/>
         <v>9.1531703392155084</v>
       </c>
       <c r="I175">
@@ -29777,11 +29777,11 @@
         <v>1</v>
       </c>
       <c r="K175" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="152"/>
         <v>1.2513528</v>
       </c>
       <c r="L175" s="60">
-        <f t="shared" si="129"/>
+        <f t="shared" si="159"/>
         <v>1.0010822400000001</v>
       </c>
       <c r="N175" s="74" t="str">
@@ -29794,11 +29794,11 @@
       <c r="V175" s="74"/>
       <c r="W175" s="74"/>
       <c r="AD175" t="str">
-        <f>B175</f>
+        <f t="shared" si="153"/>
         <v>IOTFELC-E</v>
       </c>
       <c r="AE175" t="str">
-        <f>A175</f>
+        <f t="shared" si="154"/>
         <v>Industry-Other-Fans - Electricity</v>
       </c>
       <c r="AF175" s="70" t="s">
@@ -29814,7 +29814,7 @@
         <v>611</v>
       </c>
       <c r="AK175" s="70" t="str">
-        <f>D175</f>
+        <f t="shared" si="155"/>
         <v>IOTF</v>
       </c>
       <c r="AL175" s="70" t="str">
@@ -29834,28 +29834,28 @@
         <v>401</v>
       </c>
       <c r="AS175" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>IOTF</v>
       </c>
       <c r="AT175" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU175" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS175)</f>
+        <f t="shared" si="157"/>
         <v>1.0010822400000001</v>
       </c>
     </row>
     <row r="176" spans="1:47">
       <c r="A176" s="45" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="150"/>
         <v>Industry-Other-Other motive - Electricity</v>
       </c>
       <c r="B176" s="45" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="160"/>
         <v>IOTOELC-E</v>
       </c>
       <c r="C176" s="46" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="151"/>
         <v>IOTELC</v>
       </c>
       <c r="D176" s="46" t="str">
@@ -29874,7 +29874,7 @@
         <v>100</v>
       </c>
       <c r="H176" s="60">
-        <f t="shared" si="128"/>
+        <f t="shared" si="158"/>
         <v>50.992255863017895</v>
       </c>
       <c r="I176">
@@ -29884,11 +29884,11 @@
         <v>1</v>
       </c>
       <c r="K176" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="152"/>
         <v>8.3385086400000006</v>
       </c>
       <c r="L176" s="60">
-        <f t="shared" si="129"/>
+        <f t="shared" si="159"/>
         <v>6.6708069120000006</v>
       </c>
       <c r="N176" s="74" t="str">
@@ -29901,11 +29901,11 @@
       <c r="V176" s="74"/>
       <c r="W176" s="74"/>
       <c r="AD176" t="str">
-        <f>B176</f>
+        <f t="shared" si="153"/>
         <v>IOTOELC-E</v>
       </c>
       <c r="AE176" t="str">
-        <f>A176</f>
+        <f t="shared" si="154"/>
         <v>Industry-Other-Other motive - Electricity</v>
       </c>
       <c r="AF176" s="70" t="s">
@@ -29921,7 +29921,7 @@
         <v>611</v>
       </c>
       <c r="AK176" s="70" t="str">
-        <f>D176</f>
+        <f t="shared" si="155"/>
         <v>IOTO</v>
       </c>
       <c r="AL176" s="70" t="str">
@@ -29941,28 +29941,28 @@
         <v>401</v>
       </c>
       <c r="AS176" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>IOTO</v>
       </c>
       <c r="AT176" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU176" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS176)</f>
+        <f t="shared" si="157"/>
         <v>6.6708069120000006</v>
       </c>
     </row>
     <row r="177" spans="1:47">
       <c r="A177" s="45" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="150"/>
         <v>Industry-Other-Electrochemical - Electricity</v>
       </c>
       <c r="B177" s="45" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="160"/>
         <v>IOTEELC-E</v>
       </c>
       <c r="C177" s="46" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="151"/>
         <v>IOTELC</v>
       </c>
       <c r="D177" s="46" t="str">
@@ -29991,11 +29991,11 @@
         <v>1</v>
       </c>
       <c r="K177" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="152"/>
         <v>0.29435616000000003</v>
       </c>
       <c r="L177" s="60">
-        <f t="shared" si="129"/>
+        <f t="shared" si="159"/>
         <v>0.22371068160000002</v>
       </c>
       <c r="N177" s="74" t="str">
@@ -30008,11 +30008,11 @@
       <c r="V177" s="74"/>
       <c r="W177" s="74"/>
       <c r="AD177" t="str">
-        <f>B177</f>
+        <f t="shared" si="153"/>
         <v>IOTEELC-E</v>
       </c>
       <c r="AE177" t="str">
-        <f>A177</f>
+        <f t="shared" si="154"/>
         <v>Industry-Other-Electrochemical - Electricity</v>
       </c>
       <c r="AF177" s="70" t="s">
@@ -30028,7 +30028,7 @@
         <v>611</v>
       </c>
       <c r="AK177" s="70" t="str">
-        <f>D177</f>
+        <f t="shared" si="155"/>
         <v>IOTE</v>
       </c>
       <c r="AL177" s="70" t="str">
@@ -30048,14 +30048,14 @@
         <v>401</v>
       </c>
       <c r="AS177" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>IOTE</v>
       </c>
       <c r="AT177" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU177" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS177)</f>
+        <f t="shared" si="157"/>
         <v>0.22371068160000002</v>
       </c>
     </row>
@@ -30105,14 +30105,14 @@
         <v>476</v>
       </c>
       <c r="AS178" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>*</v>
       </c>
       <c r="AT178" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU178" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS178)</f>
+        <f t="shared" si="157"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30122,7 +30122,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B179" s="45" t="str">
-        <f t="shared" ref="B179:B187" si="131">D179&amp;RIGHT(C179,3)&amp;"-E"</f>
+        <f t="shared" ref="B179:B187" si="161">D179&amp;RIGHT(C179,3)&amp;"-E"</f>
         <v>IOTSCOA-E</v>
       </c>
       <c r="C179" s="46" t="str">
@@ -30145,7 +30145,7 @@
         <v>100</v>
       </c>
       <c r="H179" s="60">
-        <f t="shared" ref="H179:H187" si="132">L179/F179</f>
+        <f t="shared" ref="H179:H187" si="162">L179/F179</f>
         <v>421.66072470344204</v>
       </c>
       <c r="I179">
@@ -30159,11 +30159,11 @@
         <v>101.64</v>
       </c>
       <c r="L179" s="60">
-        <f t="shared" ref="L179:L187" si="133">K179*E179</f>
+        <f t="shared" ref="L179:L187" si="163">K179*E179</f>
         <v>65.049599999999998</v>
       </c>
       <c r="N179" s="78">
-        <f t="shared" ref="N179:N188" si="134">L179/SUMIF($D$81:$D$187,$D179,$L$81:$L$187)</f>
+        <f t="shared" ref="N179:N188" si="164">L179/SUMIF($D$81:$D$187,$D179,$L$81:$L$187)</f>
         <v>0.94916610378800759</v>
       </c>
       <c r="O179" s="168">
@@ -30180,28 +30180,28 @@
       </c>
       <c r="R179" s="168"/>
       <c r="S179" s="78">
-        <f t="shared" ref="S179:S183" si="135">N179</f>
+        <f t="shared" ref="S179:S183" si="165">N179</f>
         <v>0.94916610378800759</v>
       </c>
       <c r="T179" s="77">
-        <f t="shared" ref="T179:V179" si="136">S179*T$75</f>
+        <f t="shared" ref="T179:V179" si="166">S179*T$75</f>
         <v>0.85424949340920686</v>
       </c>
       <c r="U179" s="77">
-        <f t="shared" si="136"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="V179" s="77">
-        <f t="shared" si="136"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="W179" s="74"/>
       <c r="AD179" t="str">
-        <f>B179</f>
+        <f t="shared" ref="AD179:AD188" si="167">B179</f>
         <v>IOTSCOA-E</v>
       </c>
       <c r="AE179" t="str">
-        <f>A179</f>
+        <f t="shared" ref="AE179:AE188" si="168">A179</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF179" s="70" t="s">
@@ -30237,14 +30237,14 @@
         <v>401</v>
       </c>
       <c r="AS179" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>IOTS</v>
       </c>
       <c r="AT179" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU179" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS179)</f>
+        <f t="shared" si="157"/>
         <v>68.533420800000002</v>
       </c>
     </row>
@@ -30254,7 +30254,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B180" s="45" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="161"/>
         <v>IOTSGAS-E</v>
       </c>
       <c r="C180" s="46" t="str">
@@ -30277,7 +30277,7 @@
         <v>100</v>
       </c>
       <c r="H180" s="60">
-        <f t="shared" si="132"/>
+        <f t="shared" si="162"/>
         <v>21.468853309133337</v>
       </c>
       <c r="I180">
@@ -30291,49 +30291,49 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L180" s="60">
-        <f t="shared" si="133"/>
+        <f t="shared" si="163"/>
         <v>3.3119999999999998</v>
       </c>
       <c r="N180" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="164"/>
         <v>4.8326786571260716E-2</v>
       </c>
       <c r="O180" s="77">
-        <f t="shared" ref="O180:Q182" si="137">MIN(1,$N180+O$75)</f>
+        <f t="shared" ref="O180:Q182" si="169">MIN(1,$N180+O$75)</f>
         <v>0.54832678657126066</v>
       </c>
       <c r="P180" s="77">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <f>O180</f>
+        <v>0.54832678657126066</v>
       </c>
       <c r="Q180" s="77">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <f>P180</f>
+        <v>0.54832678657126066</v>
       </c>
       <c r="R180" s="77"/>
       <c r="S180" s="78">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>4.8326786571260716E-2</v>
       </c>
       <c r="T180" s="77">
-        <f t="shared" ref="T180:V180" si="138">S180*T$75</f>
+        <f t="shared" ref="T180:V180" si="170">S180*T$75</f>
         <v>4.3494107914134647E-2</v>
       </c>
       <c r="U180" s="77">
-        <f t="shared" si="138"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="V180" s="77">
-        <f t="shared" si="138"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="W180" s="74"/>
       <c r="AD180" t="str">
-        <f>B180</f>
+        <f t="shared" si="167"/>
         <v>IOTSGAS-E</v>
       </c>
       <c r="AE180" t="str">
-        <f>A180</f>
+        <f t="shared" si="168"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF180" s="70" t="s">
@@ -30352,7 +30352,7 @@
         <v>476</v>
       </c>
       <c r="AL180" s="70" t="str">
-        <f>A180</f>
+        <f t="shared" ref="AL180:AL186" si="171">A180</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM180" s="245" t="s">
@@ -30368,14 +30368,14 @@
         <v>476</v>
       </c>
       <c r="AS180" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>*</v>
       </c>
       <c r="AT180" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU180" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS180)</f>
+        <f t="shared" si="157"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30385,7 +30385,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B181" s="45" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="161"/>
         <v>IOTSOHF-E</v>
       </c>
       <c r="C181" s="46" t="str">
@@ -30408,7 +30408,7 @@
         <v>100</v>
       </c>
       <c r="H181" s="60">
-        <f t="shared" si="132"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="I181">
@@ -30422,49 +30422,49 @@
         <v>0</v>
       </c>
       <c r="L181" s="60">
-        <f t="shared" si="133"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="N181" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="O181" s="77">
-        <f t="shared" si="137"/>
+        <f t="shared" si="169"/>
         <v>0.5</v>
       </c>
       <c r="P181" s="77">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <f>O181</f>
+        <v>0.5</v>
       </c>
       <c r="Q181" s="77">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <f>P181</f>
+        <v>0.5</v>
       </c>
       <c r="R181" s="77"/>
       <c r="S181" s="78">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="T181" s="77">
-        <f t="shared" ref="T181:V181" si="139">S181*T$75</f>
+        <f t="shared" ref="T181:V181" si="172">S181*T$75</f>
         <v>0</v>
       </c>
       <c r="U181" s="77">
-        <f t="shared" si="139"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="V181" s="77">
-        <f t="shared" si="139"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="W181" s="74"/>
       <c r="AD181" t="str">
-        <f>B181</f>
+        <f t="shared" si="167"/>
         <v>IOTSOHF-E</v>
       </c>
       <c r="AE181" t="str">
-        <f>A181</f>
+        <f t="shared" si="168"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF181" s="70" t="s">
@@ -30483,7 +30483,7 @@
         <v>476</v>
       </c>
       <c r="AL181" s="70" t="str">
-        <f>A181</f>
+        <f t="shared" si="171"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM181" s="245" t="s">
@@ -30499,14 +30499,14 @@
         <v>476</v>
       </c>
       <c r="AS181" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>*</v>
       </c>
       <c r="AT181" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU181" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS181)</f>
+        <f t="shared" si="157"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30516,7 +30516,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B182" s="45" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="161"/>
         <v>IOTSOLP-E</v>
       </c>
       <c r="C182" s="46" t="str">
@@ -30539,7 +30539,7 @@
         <v>100</v>
       </c>
       <c r="H182" s="60">
-        <f t="shared" si="132"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="I182">
@@ -30553,49 +30553,49 @@
         <v>0</v>
       </c>
       <c r="L182" s="60">
-        <f t="shared" si="133"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="N182" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="O182" s="77">
-        <f t="shared" si="137"/>
+        <f t="shared" si="169"/>
         <v>0.5</v>
       </c>
       <c r="P182" s="77">
-        <f t="shared" si="137"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="Q182" s="77">
-        <f t="shared" si="137"/>
+        <f t="shared" si="169"/>
         <v>1</v>
       </c>
       <c r="R182" s="77"/>
       <c r="S182" s="78">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="T182" s="77">
-        <f t="shared" ref="T182:V182" si="140">S182*T$75</f>
+        <f t="shared" ref="T182:V182" si="173">S182*T$75</f>
         <v>0</v>
       </c>
       <c r="U182" s="77">
-        <f t="shared" si="140"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="V182" s="77">
-        <f t="shared" si="140"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="W182" s="74"/>
       <c r="AD182" t="str">
-        <f>B182</f>
+        <f t="shared" si="167"/>
         <v>IOTSOLP-E</v>
       </c>
       <c r="AE182" t="str">
-        <f>A182</f>
+        <f t="shared" si="168"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF182" s="70" t="s">
@@ -30614,7 +30614,7 @@
         <v>476</v>
       </c>
       <c r="AL182" s="70" t="str">
-        <f>A182</f>
+        <f t="shared" si="171"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM182" s="245" t="s">
@@ -30630,14 +30630,14 @@
         <v>476</v>
       </c>
       <c r="AS182" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>*</v>
       </c>
       <c r="AT182" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU182" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS182)</f>
+        <f t="shared" si="157"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30647,7 +30647,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B183" s="45" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="161"/>
         <v>IOTSELC-E</v>
       </c>
       <c r="C183" s="46" t="str">
@@ -30670,7 +30670,7 @@
         <v>100</v>
       </c>
       <c r="H183" s="60">
-        <f t="shared" si="132"/>
+        <f t="shared" si="162"/>
         <v>1.1137667725416478</v>
       </c>
       <c r="I183">
@@ -30684,11 +30684,11 @@
         <v>0.22608</v>
       </c>
       <c r="L183" s="60">
-        <f t="shared" si="133"/>
+        <f t="shared" si="163"/>
         <v>0.1718208</v>
       </c>
       <c r="N183" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="164"/>
         <v>2.5071096407316648E-3</v>
       </c>
       <c r="O183" s="216">
@@ -30704,28 +30704,28 @@
       </c>
       <c r="R183" s="77"/>
       <c r="S183" s="78">
-        <f t="shared" si="135"/>
+        <f t="shared" si="165"/>
         <v>2.5071096407316648E-3</v>
       </c>
       <c r="T183" s="77">
-        <f t="shared" ref="T183:V183" si="141">S183*T$75</f>
+        <f t="shared" ref="T183:V183" si="174">S183*T$75</f>
         <v>2.2563986766584985E-3</v>
       </c>
       <c r="U183" s="77">
-        <f t="shared" si="141"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="V183" s="77">
-        <f t="shared" si="141"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="W183" s="74"/>
       <c r="AD183" t="str">
-        <f>B183</f>
+        <f t="shared" si="167"/>
         <v>IOTSELC-E</v>
       </c>
       <c r="AE183" t="str">
-        <f>A183</f>
+        <f t="shared" si="168"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF183" s="70" t="s">
@@ -30744,7 +30744,7 @@
         <v>476</v>
       </c>
       <c r="AL183" s="70" t="str">
-        <f>A183</f>
+        <f t="shared" si="171"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM183" s="245" t="s">
@@ -30760,14 +30760,14 @@
         <v>476</v>
       </c>
       <c r="AS183" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>*</v>
       </c>
       <c r="AT183" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU183" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS183)</f>
+        <f t="shared" si="157"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30816,7 +30816,7 @@
         <v>0</v>
       </c>
       <c r="N184" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="O184" s="216">
@@ -30830,28 +30830,28 @@
       </c>
       <c r="R184" s="77"/>
       <c r="S184" s="78">
-        <f t="shared" ref="S184:S188" si="142">N184</f>
+        <f t="shared" ref="S184:S188" si="175">N184</f>
         <v>0</v>
       </c>
       <c r="T184" s="77">
-        <f t="shared" ref="T184:V184" si="143">S184*T$75</f>
+        <f t="shared" ref="T184:V184" si="176">S184*T$75</f>
         <v>0</v>
       </c>
       <c r="U184" s="77">
-        <f t="shared" si="143"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="V184" s="77">
-        <f t="shared" si="143"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="W184" s="74"/>
       <c r="AD184" t="str">
-        <f>B184</f>
+        <f t="shared" si="167"/>
         <v>IOTSELC-N</v>
       </c>
       <c r="AE184" t="str">
-        <f>A184</f>
+        <f t="shared" si="168"/>
         <v>Industry-Other-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AF184" s="70" t="s">
@@ -30870,7 +30870,7 @@
         <v>476</v>
       </c>
       <c r="AL184" s="70" t="str">
-        <f>A184</f>
+        <f t="shared" si="171"/>
         <v>Industry-Other-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AM184" s="245" t="s">
@@ -30886,14 +30886,14 @@
         <v>476</v>
       </c>
       <c r="AS184" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>*</v>
       </c>
       <c r="AT184" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU184" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS184)</f>
+        <f t="shared" si="157"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30940,45 +30940,45 @@
         <v>0</v>
       </c>
       <c r="N185" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="O185" s="77">
-        <f t="shared" ref="O185:Q188" si="144">MIN(1,$N185+O$75)</f>
+        <f t="shared" ref="O185:Q188" si="177">MIN(1,$N185+O$75)</f>
         <v>0.5</v>
       </c>
       <c r="P185" s="77">
-        <f t="shared" si="144"/>
+        <f t="shared" si="177"/>
         <v>1</v>
       </c>
       <c r="Q185" s="77">
-        <f t="shared" si="144"/>
+        <f t="shared" si="177"/>
         <v>1</v>
       </c>
       <c r="R185" s="77"/>
       <c r="S185" s="78">
-        <f t="shared" si="142"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="T185" s="77">
-        <f t="shared" ref="T185:V185" si="145">S185*T$75</f>
+        <f t="shared" ref="T185:V185" si="178">S185*T$75</f>
         <v>0</v>
       </c>
       <c r="U185" s="77">
-        <f t="shared" si="145"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="V185" s="77">
-        <f t="shared" si="145"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="W185" s="74"/>
       <c r="AD185" t="str">
-        <f>B185</f>
+        <f t="shared" si="167"/>
         <v>IOTSHGN-E</v>
       </c>
       <c r="AE185" t="str">
-        <f>A185</f>
+        <f t="shared" si="168"/>
         <v>Industry-Other-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AF185" s="70" t="s">
@@ -30997,7 +30997,7 @@
         <v>476</v>
       </c>
       <c r="AL185" s="70" t="str">
-        <f>A185</f>
+        <f t="shared" si="171"/>
         <v>Industry-Other-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AM185" s="245" t="s">
@@ -31013,14 +31013,14 @@
         <v>476</v>
       </c>
       <c r="AS185" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>*</v>
       </c>
       <c r="AT185" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU185" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS185)</f>
+        <f t="shared" si="157"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31053,7 +31053,7 @@
         <v>100</v>
       </c>
       <c r="H186" s="60">
-        <f t="shared" si="132"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="I186">
@@ -31067,11 +31067,11 @@
         <v>0</v>
       </c>
       <c r="L186" s="60">
-        <f t="shared" si="133"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="N186" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="O186" s="77">
@@ -31087,28 +31087,28 @@
       </c>
       <c r="R186" s="77"/>
       <c r="S186" s="78">
-        <f t="shared" si="142"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="T186" s="77">
-        <f t="shared" ref="T186:V186" si="146">S186*T$75</f>
+        <f t="shared" ref="T186:V186" si="179">S186*T$75</f>
         <v>0</v>
       </c>
       <c r="U186" s="77">
-        <f t="shared" si="146"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="V186" s="77">
-        <f t="shared" si="146"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="W186" s="74"/>
       <c r="AD186" t="str">
-        <f>B186</f>
+        <f t="shared" si="167"/>
         <v>IOTSWAS-E</v>
       </c>
       <c r="AE186" t="str">
-        <f>A186</f>
+        <f t="shared" si="168"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF186" s="70" t="s">
@@ -31127,7 +31127,7 @@
         <v>476</v>
       </c>
       <c r="AL186" s="70" t="str">
-        <f>A186</f>
+        <f t="shared" si="171"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM186" s="245" t="s">
@@ -31143,14 +31143,14 @@
         <v>476</v>
       </c>
       <c r="AS186" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>*</v>
       </c>
       <c r="AT186" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU186" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS186)</f>
+        <f t="shared" si="157"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31160,7 +31160,7 @@
         <v>Industry-Other-Transport -  - Existing</v>
       </c>
       <c r="B187" s="45" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="161"/>
         <v>IOTRODS-E</v>
       </c>
       <c r="C187" s="46" t="str">
@@ -31181,7 +31181,7 @@
         <v>100</v>
       </c>
       <c r="H187" s="60">
-        <f t="shared" si="132"/>
+        <f t="shared" si="162"/>
         <v>4.2</v>
       </c>
       <c r="I187">
@@ -31195,49 +31195,49 @@
         <v>4.2</v>
       </c>
       <c r="L187" s="60">
-        <f t="shared" si="133"/>
+        <f t="shared" si="163"/>
         <v>4.2</v>
       </c>
       <c r="N187" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="164"/>
         <v>1</v>
       </c>
       <c r="O187" s="77">
-        <f t="shared" si="144"/>
+        <f t="shared" si="177"/>
         <v>1</v>
       </c>
       <c r="P187" s="77">
-        <f t="shared" si="144"/>
+        <f t="shared" si="177"/>
         <v>1</v>
       </c>
       <c r="Q187" s="77">
-        <f t="shared" si="144"/>
+        <f t="shared" si="177"/>
         <v>1</v>
       </c>
       <c r="R187" s="77"/>
       <c r="S187" s="78">
-        <f t="shared" si="142"/>
+        <f t="shared" si="175"/>
         <v>1</v>
       </c>
       <c r="T187" s="77">
-        <f t="shared" ref="T187:V187" si="147">S187*T$75</f>
+        <f t="shared" ref="T187:V187" si="180">S187*T$75</f>
         <v>0.9</v>
       </c>
       <c r="U187" s="77">
-        <f t="shared" si="147"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="V187" s="77">
-        <f t="shared" si="147"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="W187" s="74"/>
       <c r="AD187" t="str">
-        <f>B187</f>
+        <f t="shared" si="167"/>
         <v>IOTRODS-E</v>
       </c>
       <c r="AE187" t="str">
-        <f>A187</f>
+        <f t="shared" si="168"/>
         <v>Industry-Other-Transport -  - Existing</v>
       </c>
       <c r="AF187" s="70" t="s">
@@ -31273,14 +31273,14 @@
         <v>401</v>
       </c>
       <c r="AS187" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>IOTR</v>
       </c>
       <c r="AT187" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU187" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS187)</f>
+        <f t="shared" si="157"/>
         <v>4.2</v>
       </c>
     </row>
@@ -31328,45 +31328,45 @@
         <v>0</v>
       </c>
       <c r="N188" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="O188" s="77">
-        <f t="shared" si="144"/>
+        <f t="shared" si="177"/>
         <v>0.5</v>
       </c>
       <c r="P188" s="77">
-        <f t="shared" si="144"/>
+        <f t="shared" si="177"/>
         <v>1</v>
       </c>
       <c r="Q188" s="77">
-        <f t="shared" si="144"/>
+        <f t="shared" si="177"/>
         <v>1</v>
       </c>
       <c r="R188" s="77"/>
       <c r="S188" s="78">
-        <f t="shared" si="142"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="T188" s="77">
-        <f t="shared" ref="T188:V188" si="148">S188*T$75</f>
+        <f t="shared" ref="T188:V188" si="181">S188*T$75</f>
         <v>0</v>
       </c>
       <c r="U188" s="77">
-        <f t="shared" si="148"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="V188" s="77">
-        <f t="shared" si="148"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="W188" s="74"/>
       <c r="AD188" t="str">
-        <f>B188</f>
+        <f t="shared" si="167"/>
         <v>IOTRELC-E</v>
       </c>
       <c r="AE188" t="str">
-        <f>A188</f>
+        <f t="shared" si="168"/>
         <v>Industry-Other-Transport -  - New</v>
       </c>
       <c r="AF188" s="70" t="s">
@@ -31401,14 +31401,14 @@
         <v>476</v>
       </c>
       <c r="AS188" s="72" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="156"/>
         <v>*</v>
       </c>
       <c r="AT188" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU188" s="260">
-        <f>SUMIFS($L$81:$L$188,$D$81:$D$188,$AS188)</f>
+        <f t="shared" si="157"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -40298,7 +40298,7 @@
       </c>
       <c r="H4" s="98">
         <f ca="1">NOW()</f>
-        <v>43750.623995486108</v>
+        <v>43755.653499537038</v>
       </c>
     </row>
     <row r="5" spans="1:8">

--- a/vt_REGION1_IND-OTH.xlsx
+++ b/vt_REGION1_IND-OTH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F743C75-E51A-4FAD-A58F-E08CFBF57C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02153A83-5A6B-419E-9267-230728871E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="9" xr2:uid="{43DCB660-3C9F-4D21-841F-0AAFE0E93A09}"/>
   </bookViews>
@@ -1777,7 +1777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="840">
   <si>
     <t>TimeSlice Version</t>
   </si>
@@ -4397,6 +4397,12 @@
   </si>
   <si>
     <t>* OTHERS</t>
+  </si>
+  <si>
+    <t>ACT_EFF~2024</t>
+  </si>
+  <si>
+    <t>adding in 2024 value so that EE scenario does not come in before 2024</t>
   </si>
 </sst>
 </file>
@@ -5744,7 +5750,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6253,6 +6259,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="329">
     <cellStyle name="Accent6" xfId="153" builtinId="49"/>
@@ -15043,36 +15050,36 @@
       <sheetName val="ChangeLog"/>
       <sheetName val="Index"/>
       <sheetName val="NameConv"/>
-      <sheetName val="Production &amp; consumption "/>
+      <sheetName val="PP prod. and Capacity (OLD)"/>
+      <sheetName val="TNAPP Energy Intensity (OLD) "/>
+      <sheetName val="GPS Coordinates"/>
+      <sheetName val="Paper production &amp; consumption "/>
       <sheetName val="Recovered and recycled"/>
+      <sheetName val="Students report revision"/>
+      <sheetName val="Carbon and energy data"/>
       <sheetName val="Mass balance"/>
       <sheetName val="Capital costs"/>
-      <sheetName val="Students report revision"/>
       <sheetName val="SATIM Data"/>
-      <sheetName val="Carbon and energy data"/>
       <sheetName val="Methodology"/>
-      <sheetName val="TNAPP Energy Intensity "/>
-      <sheetName val="2006 PP model inputs "/>
-      <sheetName val="2006 model details"/>
-      <sheetName val="PP prod. and Capacity "/>
+      <sheetName val="PAMS levers"/>
+      <sheetName val="EB_Exist"/>
+      <sheetName val="CHP &amp; Boiler summary"/>
       <sheetName val="RES"/>
-      <sheetName val="PAMS levers"/>
-      <sheetName val="CHP &amp; Boiler summary"/>
-      <sheetName val="EB_Exist"/>
+      <sheetName val="Methodology II"/>
       <sheetName val="AFA"/>
       <sheetName val="REGIONS"/>
       <sheetName val="ITEMS_Comm_BASE_JM "/>
+      <sheetName val="Processes_Data_JM "/>
+      <sheetName val="Pulping_Tech_JM"/>
       <sheetName val="CommData_BASE_JM"/>
       <sheetName val="ITEM_Tech_BASE_JM "/>
       <sheetName val="ITEMS_P&amp;P_Constraints_JM"/>
-      <sheetName val="Plants&amp;boilers_JM "/>
       <sheetName val="ProcData_Xtechs_JM"/>
-      <sheetName val="ProcData_CHP_JM"/>
-      <sheetName val="ITEMS_GRP_P&amp;P_JM"/>
-      <sheetName val="ITEMS_Emiss_JM"/>
       <sheetName val="Links to constraints"/>
-      <sheetName val="GPS Coordinates"/>
       <sheetName val="Deflator"/>
+      <sheetName val="Production &amp; consumption "/>
+      <sheetName val="TNAPP Energy Intensity "/>
+      <sheetName val="2006 PP model inputs "/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -15089,9 +15096,7 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
+      <sheetData sheetId="14">
         <row r="2">
           <cell r="B2" t="b">
             <v>0</v>
@@ -15103,6 +15108,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
@@ -15116,9 +15123,9 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15943,8 +15950,8 @@
   </sheetPr>
   <dimension ref="A1:AU190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q185" sqref="Q185"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X74" sqref="X74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>
@@ -19419,6 +19426,9 @@
       <c r="V75" s="2">
         <v>0</v>
       </c>
+      <c r="X75" t="s">
+        <v>839</v>
+      </c>
       <c r="AD75" s="255" t="s">
         <v>833</v>
       </c>
@@ -19594,6 +19604,9 @@
       </c>
       <c r="W77" s="53" t="s">
         <v>614</v>
+      </c>
+      <c r="X77" t="s">
+        <v>838</v>
       </c>
       <c r="AD77" s="72" t="s">
         <v>476</v>
@@ -19902,7 +19915,10 @@
       <c r="U81" s="74"/>
       <c r="V81" s="74"/>
       <c r="W81" s="74"/>
-      <c r="X81" s="74"/>
+      <c r="X81" s="275">
+        <f>E81</f>
+        <v>1</v>
+      </c>
       <c r="AD81" t="str">
         <f t="shared" ref="AD81:AD89" si="31">B81</f>
         <v>IMIKELC-E</v>
@@ -20009,7 +20025,10 @@
       <c r="U82" s="74"/>
       <c r="V82" s="74"/>
       <c r="W82" s="74"/>
-      <c r="X82" s="74"/>
+      <c r="X82" s="275">
+        <f t="shared" ref="X82:X145" si="38">E82</f>
+        <v>0.05</v>
+      </c>
       <c r="AD82" t="str">
         <f t="shared" si="31"/>
         <v>IMIAELC-E</v>
@@ -20051,7 +20070,7 @@
         <v>401</v>
       </c>
       <c r="AS82" s="72" t="str">
-        <f t="shared" ref="AS82:AS84" si="38">AK82</f>
+        <f t="shared" ref="AS82:AS84" si="39">AK82</f>
         <v>IMIA</v>
       </c>
       <c r="AT82" s="254" t="s">
@@ -20068,7 +20087,7 @@
         <v>Industry-Mining-Lighting - Electricity</v>
       </c>
       <c r="B83" s="45" t="str">
-        <f t="shared" ref="B83:B89" si="39">D83&amp;RIGHT(C83,3)&amp;"-E"</f>
+        <f t="shared" ref="B83:B89" si="40">D83&amp;RIGHT(C83,3)&amp;"-E"</f>
         <v>IMILELC-E</v>
       </c>
       <c r="C83" s="46" t="str">
@@ -20101,7 +20120,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="60">
-        <f t="shared" ref="K83:K89" si="40">J83*SUMIF($C$60:$K$60,$B$79,$C63:$K63)</f>
+        <f t="shared" ref="K83:K89" si="41">J83*SUMIF($C$60:$K$60,$B$79,$C63:$K63)</f>
         <v>3.4838261097760195</v>
       </c>
       <c r="L83" s="60">
@@ -20116,7 +20135,10 @@
       <c r="U83" s="74"/>
       <c r="V83" s="74"/>
       <c r="W83" s="74"/>
-      <c r="X83" s="74"/>
+      <c r="X83" s="275">
+        <f t="shared" si="38"/>
+        <v>0.3</v>
+      </c>
       <c r="AD83" t="str">
         <f t="shared" si="31"/>
         <v>IMILELC-E</v>
@@ -20158,7 +20180,7 @@
         <v>401</v>
       </c>
       <c r="AS83" s="72" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>IMIL</v>
       </c>
       <c r="AT83" s="254" t="s">
@@ -20175,7 +20197,7 @@
         <v>Industry-Mining-Cooling - Electricity</v>
       </c>
       <c r="B84" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>IMICELC-E</v>
       </c>
       <c r="C84" s="46" t="str">
@@ -20223,7 +20245,10 @@
       <c r="U84" s="74"/>
       <c r="V84" s="74"/>
       <c r="W84" s="74"/>
-      <c r="X84" s="74"/>
+      <c r="X84" s="275">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
       <c r="AD84" t="str">
         <f t="shared" si="31"/>
         <v>IMICELC-E</v>
@@ -20265,7 +20290,7 @@
         <v>401</v>
       </c>
       <c r="AS84" s="72" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>IMIC</v>
       </c>
       <c r="AT84" s="72" t="s">
@@ -20282,7 +20307,7 @@
         <v>Industry-Mining-HVAC - Electricity</v>
       </c>
       <c r="B85" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>IMIHELC-E</v>
       </c>
       <c r="C85" s="46" t="str">
@@ -20315,7 +20340,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>6.1934686396018126</v>
       </c>
       <c r="L85" s="60">
@@ -20330,7 +20355,10 @@
       <c r="U85" s="74"/>
       <c r="V85" s="74"/>
       <c r="W85" s="74"/>
-      <c r="X85" s="74"/>
+      <c r="X85" s="275">
+        <f t="shared" si="38"/>
+        <v>0.9</v>
+      </c>
       <c r="AD85" t="str">
         <f t="shared" si="31"/>
         <v>IMIHELC-E</v>
@@ -20372,7 +20400,7 @@
         <v>401</v>
       </c>
       <c r="AS85" s="72" t="str">
-        <f t="shared" ref="AS85:AS101" si="41">AK85</f>
+        <f t="shared" ref="AS85:AS101" si="42">AK85</f>
         <v>IMIH</v>
       </c>
       <c r="AT85" s="254" t="s">
@@ -20389,7 +20417,7 @@
         <v>Industry-Mining-Pumping - Electricity</v>
       </c>
       <c r="B86" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>IMIPELC-E</v>
       </c>
       <c r="C86" s="46" t="str">
@@ -20422,7 +20450,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13.847947405938921</v>
       </c>
       <c r="L86" s="60">
@@ -20437,7 +20465,10 @@
       <c r="U86" s="74"/>
       <c r="V86" s="74"/>
       <c r="W86" s="74"/>
-      <c r="X86" s="74"/>
+      <c r="X86" s="275">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
       <c r="AD86" t="str">
         <f t="shared" si="31"/>
         <v>IMIPELC-E</v>
@@ -20479,7 +20510,7 @@
         <v>401</v>
       </c>
       <c r="AS86" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>IMIP</v>
       </c>
       <c r="AT86" s="254" t="s">
@@ -20496,7 +20527,7 @@
         <v>Industry-Mining-Fans - Electricity</v>
       </c>
       <c r="B87" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>IMIFELC-E</v>
       </c>
       <c r="C87" s="46" t="str">
@@ -20529,7 +20560,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5.3319280264864313</v>
       </c>
       <c r="L87" s="60">
@@ -20544,7 +20575,10 @@
       <c r="U87" s="74"/>
       <c r="V87" s="74"/>
       <c r="W87" s="74"/>
-      <c r="X87" s="74"/>
+      <c r="X87" s="275">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
       <c r="AD87" t="str">
         <f t="shared" si="31"/>
         <v>IMIFELC-E</v>
@@ -20586,7 +20620,7 @@
         <v>401</v>
       </c>
       <c r="AS87" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>IMIF</v>
       </c>
       <c r="AT87" s="72" t="s">
@@ -20603,7 +20637,7 @@
         <v>Industry-Mining-Other motive - Electricity</v>
       </c>
       <c r="B88" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>IMIOELC-E</v>
       </c>
       <c r="C88" s="46" t="str">
@@ -20636,7 +20670,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>26.16206265345464</v>
       </c>
       <c r="L88" s="60">
@@ -20651,7 +20685,10 @@
       <c r="U88" s="74"/>
       <c r="V88" s="74"/>
       <c r="W88" s="74"/>
-      <c r="X88" s="74"/>
+      <c r="X88" s="275">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
       <c r="AD88" t="str">
         <f t="shared" si="31"/>
         <v>IMIOELC-E</v>
@@ -20693,7 +20730,7 @@
         <v>401</v>
       </c>
       <c r="AS88" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>IMIO</v>
       </c>
       <c r="AT88" s="254" t="s">
@@ -20710,7 +20747,7 @@
         <v>Industry-Mining-Electrochemical - Electricity</v>
       </c>
       <c r="B89" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>IMIEELC-E</v>
       </c>
       <c r="C89" s="46" t="str">
@@ -20743,7 +20780,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.17806222338855213</v>
       </c>
       <c r="L89" s="60">
@@ -20758,7 +20795,10 @@
       <c r="U89" s="74"/>
       <c r="V89" s="74"/>
       <c r="W89" s="74"/>
-      <c r="X89" s="74"/>
+      <c r="X89" s="275">
+        <f t="shared" si="38"/>
+        <v>0.76</v>
+      </c>
       <c r="AD89" t="str">
         <f t="shared" si="31"/>
         <v>IMIEELC-E</v>
@@ -20800,7 +20840,7 @@
         <v>401</v>
       </c>
       <c r="AS89" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>IMIE</v>
       </c>
       <c r="AT89" s="254" t="s">
@@ -20834,7 +20874,10 @@
       <c r="U90" s="74"/>
       <c r="V90" s="74"/>
       <c r="W90" s="74"/>
-      <c r="X90" s="74"/>
+      <c r="X90" s="275">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
       <c r="AD90" s="26" t="s">
         <v>476</v>
       </c>
@@ -20849,7 +20892,7 @@
         <v>476</v>
       </c>
       <c r="AS90" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>*</v>
       </c>
       <c r="AT90" s="72" t="s">
@@ -20866,7 +20909,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B91" s="45" t="str">
-        <f t="shared" ref="B91:B98" si="42">D91&amp;RIGHT(C91,3)&amp;"-E"</f>
+        <f t="shared" ref="B91:B98" si="43">D91&amp;RIGHT(C91,3)&amp;"-E"</f>
         <v>IMISCOA-E</v>
       </c>
       <c r="C91" s="46" t="str">
@@ -20874,7 +20917,7 @@
         <v>INDCOA</v>
       </c>
       <c r="D91" s="46" t="str">
-        <f t="shared" ref="D91:D97" si="43">$B$5&amp;RIGHT($B$79,2)&amp;$B$70</f>
+        <f t="shared" ref="D91:D97" si="44">$B$5&amp;RIGHT($B$79,2)&amp;$B$70</f>
         <v>IMIS</v>
       </c>
       <c r="E91" s="58">
@@ -20889,7 +20932,7 @@
         <v>100</v>
       </c>
       <c r="H91" s="60">
-        <f t="shared" ref="H91:H98" si="44">L91/F91</f>
+        <f t="shared" ref="H91:H98" si="45">L91/F91</f>
         <v>158.26382316717445</v>
       </c>
       <c r="I91">
@@ -20903,11 +20946,11 @@
         <v>38.149000000000001</v>
       </c>
       <c r="L91" s="60">
-        <f t="shared" ref="L91:L98" si="45">K91*E91</f>
+        <f t="shared" ref="L91:L98" si="46">K91*E91</f>
         <v>24.41536</v>
       </c>
       <c r="N91" s="78">
-        <f t="shared" ref="N91:N98" si="46">L91/(SUMIF($D$81:$D$187,$D91,$L$81:$L$187)+$P$76)</f>
+        <f t="shared" ref="N91:N98" si="47">L91/(SUMIF($D$81:$D$187,$D91,$L$81:$L$187)+$P$76)</f>
         <v>0.96758960692888052</v>
       </c>
       <c r="O91" s="77">
@@ -20915,11 +20958,11 @@
         <v>1</v>
       </c>
       <c r="P91" s="77">
-        <f t="shared" ref="P91:Q91" si="47">MIN(1,$N91+P$75)</f>
+        <f t="shared" ref="P91:Q91" si="48">MIN(1,$N91+P$75)</f>
         <v>1</v>
       </c>
       <c r="Q91" s="77">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="R91" s="77"/>
@@ -20932,21 +20975,24 @@
         <v>0.87083064623599249</v>
       </c>
       <c r="U91" s="77">
-        <f t="shared" ref="U91:V91" si="48">T91*U$75</f>
+        <f t="shared" ref="U91:V91" si="49">T91*U$75</f>
         <v>0</v>
       </c>
       <c r="V91" s="77">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W91" s="74"/>
-      <c r="X91" s="74"/>
+      <c r="X91" s="275">
+        <f t="shared" si="38"/>
+        <v>0.64</v>
+      </c>
       <c r="AD91" t="str">
-        <f t="shared" ref="AD91:AD98" si="49">B91</f>
+        <f t="shared" ref="AD91:AD98" si="50">B91</f>
         <v>IMISCOA-E</v>
       </c>
       <c r="AE91" t="str">
-        <f t="shared" ref="AE91:AE98" si="50">A91</f>
+        <f t="shared" ref="AE91:AE98" si="51">A91</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF91" s="70" t="s">
@@ -20982,7 +21028,7 @@
         <v>401</v>
       </c>
       <c r="AS91" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>IMIS</v>
       </c>
       <c r="AT91" s="254" t="s">
@@ -20999,7 +21045,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B92" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>IMISGAS-E</v>
       </c>
       <c r="C92" s="46" t="str">
@@ -21007,7 +21053,7 @@
         <v>INDGAS</v>
       </c>
       <c r="D92" s="46" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>IMIS</v>
       </c>
       <c r="E92" s="58">
@@ -21022,7 +21068,7 @@
         <v>100</v>
       </c>
       <c r="H92" s="60">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.6671420237246384</v>
       </c>
       <c r="I92">
@@ -21036,15 +21082,15 @@
         <v>1</v>
       </c>
       <c r="L92" s="60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.72</v>
       </c>
       <c r="N92" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.8533862166635837E-2</v>
       </c>
       <c r="O92" s="77">
-        <f t="shared" ref="O92:Q94" si="51">MIN(1,$N92+O$75)</f>
+        <f t="shared" ref="O92:Q94" si="52">MIN(1,$N92+O$75)</f>
         <v>0.52853386216663578</v>
       </c>
       <c r="P92" s="77">
@@ -21057,29 +21103,32 @@
       </c>
       <c r="R92" s="77"/>
       <c r="S92" s="78">
-        <f t="shared" ref="S92:S101" si="52">N92</f>
+        <f t="shared" ref="S92:S101" si="53">N92</f>
         <v>2.8533862166635837E-2</v>
       </c>
       <c r="T92" s="77">
-        <f t="shared" ref="T92:V92" si="53">S92*T$75</f>
+        <f t="shared" ref="T92:V92" si="54">S92*T$75</f>
         <v>2.5680475949972255E-2</v>
       </c>
       <c r="U92" s="77">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="V92" s="77">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="W92" s="74"/>
-      <c r="X92" s="74"/>
+      <c r="X92" s="275">
+        <f t="shared" si="38"/>
+        <v>0.72</v>
+      </c>
       <c r="AD92" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>IMISGAS-E</v>
       </c>
       <c r="AE92" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF92" s="70" t="s">
@@ -21098,7 +21147,7 @@
         <v>476</v>
       </c>
       <c r="AL92" s="70" t="str">
-        <f t="shared" ref="AL92:AL98" si="54">A92</f>
+        <f t="shared" ref="AL92:AL98" si="55">A92</f>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM92" s="245" t="s">
@@ -21114,7 +21163,7 @@
         <v>476</v>
       </c>
       <c r="AS92" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>*</v>
       </c>
       <c r="AT92" s="254" t="s">
@@ -21131,7 +21180,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B93" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>IMISOHF-E</v>
       </c>
       <c r="C93" s="46" t="str">
@@ -21139,7 +21188,7 @@
         <v>INDOHF</v>
       </c>
       <c r="D93" s="46" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>IMIS</v>
       </c>
       <c r="E93" s="58">
@@ -21154,7 +21203,7 @@
         <v>100</v>
       </c>
       <c r="H93" s="60">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I93">
@@ -21168,15 +21217,15 @@
         <v>0</v>
       </c>
       <c r="L93" s="60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N93" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O93" s="77">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.5</v>
       </c>
       <c r="P93" s="77">
@@ -21189,28 +21238,32 @@
       </c>
       <c r="R93" s="77"/>
       <c r="S93" s="78">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T93" s="77">
-        <f t="shared" ref="T93:V93" si="55">S93*T$75</f>
+        <f t="shared" ref="T93:V93" si="56">S93*T$75</f>
         <v>0</v>
       </c>
       <c r="U93" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V93" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="W93" s="74"/>
+      <c r="X93" s="275">
+        <f t="shared" si="38"/>
+        <v>0.68</v>
+      </c>
       <c r="AD93" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>IMISOHF-E</v>
       </c>
       <c r="AE93" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF93" s="70" t="s">
@@ -21229,7 +21282,7 @@
         <v>476</v>
       </c>
       <c r="AL93" s="70" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM93" s="245" t="s">
@@ -21245,7 +21298,7 @@
         <v>476</v>
       </c>
       <c r="AS93" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>*</v>
       </c>
       <c r="AT93" s="72" t="s">
@@ -21262,7 +21315,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B94" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>IMISOLP-E</v>
       </c>
       <c r="C94" s="46" t="str">
@@ -21270,7 +21323,7 @@
         <v>INDOLP</v>
       </c>
       <c r="D94" s="46" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>IMIS</v>
       </c>
       <c r="E94" s="58">
@@ -21285,7 +21338,7 @@
         <v>100</v>
       </c>
       <c r="H94" s="60">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.63406489401698329</v>
       </c>
       <c r="I94">
@@ -21299,49 +21352,53 @@
         <v>0.13585721000000001</v>
       </c>
       <c r="L94" s="60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9.78171912E-2</v>
       </c>
       <c r="N94" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3.8765309044836997E-3</v>
       </c>
       <c r="O94" s="77">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.5038765309044837</v>
       </c>
       <c r="P94" s="77">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="Q94" s="77">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="R94" s="77"/>
       <c r="S94" s="78">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>3.8765309044836997E-3</v>
       </c>
       <c r="T94" s="77">
-        <f t="shared" ref="T94:V94" si="56">S94*T$75</f>
+        <f t="shared" ref="T94:V94" si="57">S94*T$75</f>
         <v>3.4888778140353296E-3</v>
       </c>
       <c r="U94" s="77">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V94" s="77">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W94" s="74"/>
+      <c r="X94" s="275">
+        <f t="shared" si="38"/>
+        <v>0.72</v>
+      </c>
       <c r="AD94" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>IMISOLP-E</v>
       </c>
       <c r="AE94" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF94" s="70" t="s">
@@ -21360,7 +21417,7 @@
         <v>476</v>
       </c>
       <c r="AL94" s="70" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM94" s="245" t="s">
@@ -21376,7 +21433,7 @@
         <v>476</v>
       </c>
       <c r="AS94" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>*</v>
       </c>
       <c r="AT94" s="254" t="s">
@@ -21393,7 +21450,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B95" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>IMISELC-E</v>
       </c>
       <c r="C95" s="46" t="str">
@@ -21401,7 +21458,7 @@
         <v>IMIELC</v>
       </c>
       <c r="D95" s="46" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>IMIS</v>
       </c>
       <c r="E95" s="58">
@@ -21416,7 +21473,7 @@
         <v>100</v>
       </c>
       <c r="H95" s="60">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I95">
@@ -21434,7 +21491,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O95" s="216">
@@ -21450,28 +21507,32 @@
       </c>
       <c r="R95" s="77"/>
       <c r="S95" s="78">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T95" s="77">
-        <f t="shared" ref="T95:V95" si="57">S95*T$75</f>
+        <f t="shared" ref="T95:V95" si="58">S95*T$75</f>
         <v>0</v>
       </c>
       <c r="U95" s="77">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="V95" s="77">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="W95" s="74"/>
+      <c r="X95" s="275">
+        <f t="shared" si="38"/>
+        <v>0.76</v>
+      </c>
       <c r="AD95" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>IMISELC-E</v>
       </c>
       <c r="AE95" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF95" s="70" t="s">
@@ -21490,7 +21551,7 @@
         <v>476</v>
       </c>
       <c r="AL95" s="70" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM95" s="245" t="s">
@@ -21506,7 +21567,7 @@
         <v>476</v>
       </c>
       <c r="AS95" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>*</v>
       </c>
       <c r="AT95" s="254" t="s">
@@ -21531,7 +21592,7 @@
         <v>IMIELC</v>
       </c>
       <c r="D96" s="46" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>IMIS</v>
       </c>
       <c r="E96" s="58">
@@ -21561,7 +21622,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O96" s="216">
@@ -21575,28 +21636,32 @@
       </c>
       <c r="R96" s="77"/>
       <c r="S96" s="78">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T96" s="77">
-        <f t="shared" ref="T96:V96" si="58">S96*T$75</f>
+        <f t="shared" ref="T96:V96" si="59">S96*T$75</f>
         <v>0</v>
       </c>
       <c r="U96" s="77">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="V96" s="77">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="W96" s="74"/>
+      <c r="X96" s="275">
+        <f t="shared" si="38"/>
+        <v>3.34</v>
+      </c>
       <c r="AD96" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>IMISELC-N</v>
       </c>
       <c r="AE96" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>Industry-Mining-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AF96" s="70" t="s">
@@ -21615,7 +21680,7 @@
         <v>476</v>
       </c>
       <c r="AL96" s="70" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Industry-Mining-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AM96" s="245" t="s">
@@ -21631,7 +21696,7 @@
         <v>476</v>
       </c>
       <c r="AS96" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>*</v>
       </c>
       <c r="AT96" s="72" t="s">
@@ -21654,7 +21719,7 @@
         <v>467</v>
       </c>
       <c r="D97" s="46" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>IMIS</v>
       </c>
       <c r="E97" s="58">
@@ -21685,45 +21750,49 @@
         <v>0</v>
       </c>
       <c r="N97" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O97" s="77">
-        <f t="shared" ref="O97:Q97" si="59">MIN(1,$N97+O$75)</f>
+        <f t="shared" ref="O97:Q97" si="60">MIN(1,$N97+O$75)</f>
         <v>0.5</v>
       </c>
       <c r="P97" s="77">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="Q97" s="77">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="R97" s="77"/>
       <c r="S97" s="78">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T97" s="77">
-        <f t="shared" ref="T97:V97" si="60">S97*T$75</f>
+        <f t="shared" ref="T97:V97" si="61">S97*T$75</f>
         <v>0</v>
       </c>
       <c r="U97" s="77">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="V97" s="77">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="W97" s="74"/>
+      <c r="X97" s="275">
+        <f t="shared" si="38"/>
+        <v>0.76</v>
+      </c>
       <c r="AD97" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>IMISHGN-N</v>
       </c>
       <c r="AE97" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>Industry-Mining-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AF97" s="70" t="s">
@@ -21742,7 +21811,7 @@
         <v>476</v>
       </c>
       <c r="AL97" s="70" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Industry-Mining-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AM97" s="245" t="s">
@@ -21758,7 +21827,7 @@
         <v>476</v>
       </c>
       <c r="AS97" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>*</v>
       </c>
       <c r="AT97" s="254" t="s">
@@ -21775,7 +21844,7 @@
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="B98" s="45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>IMISWAS-E</v>
       </c>
       <c r="C98" s="46" t="str">
@@ -21798,7 +21867,7 @@
         <v>100</v>
       </c>
       <c r="H98" s="60">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I98">
@@ -21812,11 +21881,11 @@
         <v>0</v>
       </c>
       <c r="L98" s="60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N98" s="78">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O98" s="77">
@@ -21832,28 +21901,32 @@
       </c>
       <c r="R98" s="77"/>
       <c r="S98" s="78">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T98" s="77">
-        <f t="shared" ref="T98:V98" si="61">S98*T$75</f>
+        <f t="shared" ref="T98:V98" si="62">S98*T$75</f>
         <v>0</v>
       </c>
       <c r="U98" s="77">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="V98" s="77">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W98" s="74"/>
+      <c r="X98" s="275">
+        <f t="shared" si="38"/>
+        <v>0.6</v>
+      </c>
       <c r="AD98" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>IMISWAS-E</v>
       </c>
       <c r="AE98" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF98" s="70" t="s">
@@ -21872,7 +21945,7 @@
         <v>476</v>
       </c>
       <c r="AL98" s="70" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Industry-Mining-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM98" s="245" t="s">
@@ -21888,7 +21961,7 @@
         <v>476</v>
       </c>
       <c r="AS98" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>*</v>
       </c>
       <c r="AT98" s="254" t="s">
@@ -21926,6 +21999,10 @@
       <c r="U99" s="74"/>
       <c r="V99" s="74"/>
       <c r="W99" s="74"/>
+      <c r="X99" s="275">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
       <c r="AD99" s="26" t="s">
         <v>476</v>
       </c>
@@ -21940,7 +22017,7 @@
         <v>476</v>
       </c>
       <c r="AS99" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>*</v>
       </c>
       <c r="AT99" s="72" t="s">
@@ -22000,35 +22077,39 @@
         <v>1</v>
       </c>
       <c r="O100" s="77">
-        <f t="shared" ref="O100:Q101" si="62">MIN(1,$N100+O$75)</f>
+        <f t="shared" ref="O100:Q101" si="63">MIN(1,$N100+O$75)</f>
         <v>1</v>
       </c>
       <c r="P100" s="77">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="Q100" s="77">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="R100" s="77"/>
       <c r="S100" s="78">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="T100" s="77">
-        <f t="shared" ref="T100:V100" si="63">S100*T$75</f>
+        <f t="shared" ref="T100:V100" si="64">S100*T$75</f>
         <v>0.9</v>
       </c>
       <c r="U100" s="77">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="V100" s="77">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="W100" s="74"/>
+      <c r="X100" s="275">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
       <c r="AD100" t="str">
         <f>B100</f>
         <v>IMIRODS-E</v>
@@ -22070,7 +22151,7 @@
         <v>401</v>
       </c>
       <c r="AS100" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>IMIR</v>
       </c>
       <c r="AT100" s="254" t="s">
@@ -22130,35 +22211,39 @@
         <v>0</v>
       </c>
       <c r="O101" s="77">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.5</v>
       </c>
       <c r="P101" s="77">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="Q101" s="77">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="R101" s="77"/>
       <c r="S101" s="78">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T101" s="77">
-        <f t="shared" ref="T101:V101" si="64">S101*T$75</f>
+        <f t="shared" ref="T101:V101" si="65">S101*T$75</f>
         <v>0</v>
       </c>
       <c r="U101" s="77">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="V101" s="77">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W101" s="74"/>
+      <c r="X101" s="275">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
       <c r="AD101" t="str">
         <f>B101</f>
         <v>IMIRELC-E</v>
@@ -22199,7 +22284,7 @@
         <v>476</v>
       </c>
       <c r="AS101" s="72" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>*</v>
       </c>
       <c r="AT101" s="254" t="s">
@@ -22233,6 +22318,7 @@
       <c r="U102" s="74"/>
       <c r="V102" s="74"/>
       <c r="W102" s="74"/>
+      <c r="X102" s="275"/>
       <c r="AD102" s="26" t="s">
         <v>476</v>
       </c>
@@ -22247,7 +22333,7 @@
         <v>476</v>
       </c>
       <c r="AS102" s="72" t="str">
-        <f t="shared" ref="AS102:AS104" si="65">AK102</f>
+        <f t="shared" ref="AS102:AS104" si="66">AK102</f>
         <v>*</v>
       </c>
     </row>
@@ -22277,6 +22363,7 @@
       <c r="U103" s="74"/>
       <c r="V103" s="74"/>
       <c r="W103" s="74"/>
+      <c r="X103" s="275"/>
       <c r="AD103" s="26" t="s">
         <v>476</v>
       </c>
@@ -22291,7 +22378,7 @@
         <v>476</v>
       </c>
       <c r="AS103" s="72" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>*</v>
       </c>
     </row>
@@ -22335,6 +22422,7 @@
       <c r="U104" s="74"/>
       <c r="V104" s="74"/>
       <c r="W104" s="74"/>
+      <c r="X104" s="275"/>
       <c r="AD104" s="26" t="s">
         <v>476</v>
       </c>
@@ -22349,13 +22437,13 @@
         <v>476</v>
       </c>
       <c r="AS104" s="72" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>*</v>
       </c>
     </row>
     <row r="105" spans="1:47">
       <c r="A105" s="45" t="str">
-        <f t="shared" ref="A105:A113" si="66">A$5&amp;"-"&amp;A$14&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A105:A113" si="67">A$5&amp;"-"&amp;A$14&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Chemicals-Elec Heating - Electricity</v>
       </c>
       <c r="B105" s="45" t="str">
@@ -22363,7 +22451,7 @@
         <v>ICPKELC-E</v>
       </c>
       <c r="C105" s="46" t="str">
-        <f t="shared" ref="C105:C113" si="67">$P$13</f>
+        <f t="shared" ref="C105:C113" si="68">$P$13</f>
         <v>ICPELC</v>
       </c>
       <c r="D105" s="46" t="str">
@@ -22392,7 +22480,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="60">
-        <f t="shared" ref="K105:K113" si="68">J105*SUMIF($C$60:$K$60,$B$103,$C61:$K61)</f>
+        <f t="shared" ref="K105:K113" si="69">J105*SUMIF($C$60:$K$60,$B$103,$C61:$K61)</f>
         <v>0.80918000000000012</v>
       </c>
       <c r="L105" s="60">
@@ -22408,12 +22496,16 @@
       <c r="U105" s="74"/>
       <c r="V105" s="74"/>
       <c r="W105" s="74"/>
+      <c r="X105" s="275">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
       <c r="AD105" t="str">
-        <f t="shared" ref="AD105:AD113" si="69">B105</f>
+        <f t="shared" ref="AD105:AD113" si="70">B105</f>
         <v>ICPKELC-E</v>
       </c>
       <c r="AE105" t="str">
-        <f t="shared" ref="AE105:AE113" si="70">A105</f>
+        <f t="shared" ref="AE105:AE113" si="71">A105</f>
         <v>Industry-Chemicals-Elec Heating - Electricity</v>
       </c>
       <c r="AF105" s="70" t="s">
@@ -22429,7 +22521,7 @@
         <v>611</v>
       </c>
       <c r="AK105" s="70" t="str">
-        <f t="shared" ref="AK105:AK113" si="71">D105</f>
+        <f t="shared" ref="AK105:AK113" si="72">D105</f>
         <v>ICPK</v>
       </c>
       <c r="AL105" s="70" t="str">
@@ -22449,20 +22541,20 @@
         <v>401</v>
       </c>
       <c r="AS105" s="72" t="str">
-        <f t="shared" ref="AS105:AS168" si="72">AK105</f>
+        <f t="shared" ref="AS105:AS168" si="73">AK105</f>
         <v>ICPK</v>
       </c>
       <c r="AT105" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU105" s="260">
-        <f t="shared" ref="AU105:AU136" si="73">SUMIFS($L$81:$L$188,$D$81:$D$188,$AS105)</f>
+        <f t="shared" ref="AU105:AU136" si="74">SUMIFS($L$81:$L$188,$D$81:$D$188,$AS105)</f>
         <v>0.80918000000000012</v>
       </c>
     </row>
     <row r="106" spans="1:47">
       <c r="A106" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Compressed air - Electricity</v>
       </c>
       <c r="B106" s="45" t="str">
@@ -22470,7 +22562,7 @@
         <v>ICPAELC-E</v>
       </c>
       <c r="C106" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D106" s="46" t="str">
@@ -22489,7 +22581,7 @@
         <v>100</v>
       </c>
       <c r="H106" s="60">
-        <f t="shared" ref="H106:H113" si="74">L106/F106</f>
+        <f t="shared" ref="H106:H113" si="75">L106/F106</f>
         <v>2.6192706085455337</v>
       </c>
       <c r="I106">
@@ -22499,11 +22591,11 @@
         <v>1</v>
       </c>
       <c r="K106" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>6.0688500000000003</v>
       </c>
       <c r="L106" s="60">
-        <f t="shared" ref="L106:L113" si="75">K106*E106</f>
+        <f t="shared" ref="L106:L113" si="76">K106*E106</f>
         <v>0.30344250000000006</v>
       </c>
       <c r="N106" s="74" t="str">
@@ -22515,12 +22607,16 @@
       <c r="U106" s="74"/>
       <c r="V106" s="74"/>
       <c r="W106" s="74"/>
+      <c r="X106" s="275">
+        <f t="shared" si="38"/>
+        <v>0.05</v>
+      </c>
       <c r="AD106" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPAELC-E</v>
       </c>
       <c r="AE106" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Compressed air - Electricity</v>
       </c>
       <c r="AF106" s="70" t="s">
@@ -22536,7 +22632,7 @@
         <v>611</v>
       </c>
       <c r="AK106" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPA</v>
       </c>
       <c r="AL106" s="70" t="str">
@@ -22556,28 +22652,28 @@
         <v>401</v>
       </c>
       <c r="AS106" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPA</v>
       </c>
       <c r="AT106" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU106" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.30344250000000006</v>
       </c>
     </row>
     <row r="107" spans="1:47">
       <c r="A107" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Lighting - Electricity</v>
       </c>
       <c r="B107" s="45" t="str">
-        <f t="shared" ref="B107:B113" si="76">D107&amp;RIGHT(C107,3)&amp;"-E"</f>
+        <f t="shared" ref="B107:B113" si="77">D107&amp;RIGHT(C107,3)&amp;"-E"</f>
         <v>ICPLELC-E</v>
       </c>
       <c r="C107" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D107" s="46" t="str">
@@ -22596,7 +22692,7 @@
         <v>100</v>
       </c>
       <c r="H107" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.8980971497390611</v>
       </c>
       <c r="I107">
@@ -22606,11 +22702,11 @@
         <v>1</v>
       </c>
       <c r="K107" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.6183600000000002</v>
       </c>
       <c r="L107" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.48550800000000005</v>
       </c>
       <c r="N107" s="74" t="str">
@@ -22622,12 +22718,16 @@
       <c r="U107" s="74"/>
       <c r="V107" s="74"/>
       <c r="W107" s="74"/>
+      <c r="X107" s="275">
+        <f t="shared" si="38"/>
+        <v>0.3</v>
+      </c>
       <c r="AD107" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPLELC-E</v>
       </c>
       <c r="AE107" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Lighting - Electricity</v>
       </c>
       <c r="AF107" s="70" t="s">
@@ -22643,7 +22743,7 @@
         <v>611</v>
       </c>
       <c r="AK107" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPL</v>
       </c>
       <c r="AL107" s="70" t="str">
@@ -22663,28 +22763,28 @@
         <v>401</v>
       </c>
       <c r="AS107" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPL</v>
       </c>
       <c r="AT107" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU107" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.48550800000000005</v>
       </c>
     </row>
     <row r="108" spans="1:47">
       <c r="A108" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Cooling - Electricity</v>
       </c>
       <c r="B108" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPCELC-E</v>
       </c>
       <c r="C108" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D108" s="46" t="str">
@@ -22703,7 +22803,7 @@
         <v>100</v>
       </c>
       <c r="H108" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>31.228002469898119</v>
       </c>
       <c r="I108">
@@ -22713,11 +22813,11 @@
         <v>1</v>
       </c>
       <c r="K108" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2.0229500000000002</v>
       </c>
       <c r="L108" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4.0459000000000005</v>
       </c>
       <c r="N108" s="74" t="str">
@@ -22729,12 +22829,16 @@
       <c r="U108" s="74"/>
       <c r="V108" s="74"/>
       <c r="W108" s="74"/>
+      <c r="X108" s="275">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
       <c r="AD108" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPCELC-E</v>
       </c>
       <c r="AE108" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Cooling - Electricity</v>
       </c>
       <c r="AF108" s="70" t="s">
@@ -22750,7 +22854,7 @@
         <v>611</v>
       </c>
       <c r="AK108" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPC</v>
       </c>
       <c r="AL108" s="70" t="str">
@@ -22770,28 +22874,28 @@
         <v>401</v>
       </c>
       <c r="AS108" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPC</v>
       </c>
       <c r="AT108" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU108" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>4.0459000000000005</v>
       </c>
     </row>
     <row r="109" spans="1:47">
       <c r="A109" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-HVAC - Electricity</v>
       </c>
       <c r="B109" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPHELC-E</v>
       </c>
       <c r="C109" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D109" s="46" t="str">
@@ -22810,7 +22914,7 @@
         <v>100</v>
       </c>
       <c r="H109" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5.5334852974697979</v>
       </c>
       <c r="I109">
@@ -22820,11 +22924,11 @@
         <v>1</v>
       </c>
       <c r="K109" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.80918000000000012</v>
       </c>
       <c r="L109" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.72826200000000008</v>
       </c>
       <c r="N109" s="74" t="str">
@@ -22836,12 +22940,16 @@
       <c r="U109" s="74"/>
       <c r="V109" s="74"/>
       <c r="W109" s="74"/>
+      <c r="X109" s="275">
+        <f t="shared" si="38"/>
+        <v>0.9</v>
+      </c>
       <c r="AD109" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPHELC-E</v>
       </c>
       <c r="AE109" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-HVAC - Electricity</v>
       </c>
       <c r="AF109" s="70" t="s">
@@ -22857,7 +22965,7 @@
         <v>611</v>
       </c>
       <c r="AK109" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPH</v>
       </c>
       <c r="AL109" s="70" t="str">
@@ -22877,28 +22985,28 @@
         <v>401</v>
       </c>
       <c r="AS109" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPH</v>
       </c>
       <c r="AT109" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU109" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.72826200000000008</v>
       </c>
     </row>
     <row r="110" spans="1:47">
       <c r="A110" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Pumping - Electricity</v>
       </c>
       <c r="B110" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPPELC-E</v>
       </c>
       <c r="C110" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D110" s="46" t="str">
@@ -22917,7 +23025,7 @@
         <v>100</v>
       </c>
       <c r="H110" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>93.500495212941573</v>
       </c>
       <c r="I110">
@@ -22927,7 +23035,7 @@
         <v>1</v>
       </c>
       <c r="K110" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>14.16065</v>
       </c>
       <c r="L110" s="60">
@@ -22943,12 +23051,16 @@
       <c r="U110" s="74"/>
       <c r="V110" s="74"/>
       <c r="W110" s="74"/>
+      <c r="X110" s="275">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
       <c r="AD110" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPPELC-E</v>
       </c>
       <c r="AE110" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Pumping - Electricity</v>
       </c>
       <c r="AF110" s="70" t="s">
@@ -22964,7 +23076,7 @@
         <v>611</v>
       </c>
       <c r="AK110" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPP</v>
       </c>
       <c r="AL110" s="70" t="str">
@@ -22984,28 +23096,28 @@
         <v>401</v>
       </c>
       <c r="AS110" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPP</v>
       </c>
       <c r="AT110" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU110" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>11.328520000000001</v>
       </c>
     </row>
     <row r="111" spans="1:47">
       <c r="A111" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Fans - Electricity</v>
       </c>
       <c r="B111" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPFELC-E</v>
       </c>
       <c r="C111" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D111" s="46" t="str">
@@ -23024,7 +23136,7 @@
         <v>100</v>
       </c>
       <c r="H111" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>23.675377160098755</v>
       </c>
       <c r="I111">
@@ -23034,11 +23146,11 @@
         <v>1</v>
       </c>
       <c r="K111" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3.2367200000000005</v>
       </c>
       <c r="L111" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2.5893760000000006</v>
       </c>
       <c r="N111" s="74" t="str">
@@ -23050,12 +23162,16 @@
       <c r="U111" s="74"/>
       <c r="V111" s="74"/>
       <c r="W111" s="74"/>
+      <c r="X111" s="275">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
       <c r="AD111" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPFELC-E</v>
       </c>
       <c r="AE111" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Fans - Electricity</v>
       </c>
       <c r="AF111" s="70" t="s">
@@ -23071,7 +23187,7 @@
         <v>611</v>
       </c>
       <c r="AK111" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPF</v>
       </c>
       <c r="AL111" s="70" t="str">
@@ -23091,28 +23207,28 @@
         <v>401</v>
       </c>
       <c r="AS111" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPF</v>
       </c>
       <c r="AT111" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU111" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.5893760000000006</v>
       </c>
     </row>
     <row r="112" spans="1:47">
       <c r="A112" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Other motive - Electricity</v>
       </c>
       <c r="B112" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPOELC-E</v>
       </c>
       <c r="C112" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D112" s="46" t="str">
@@ -23131,7 +23247,7 @@
         <v>100</v>
       </c>
       <c r="H112" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>49.483565204097246</v>
       </c>
       <c r="I112">
@@ -23141,11 +23257,11 @@
         <v>1</v>
       </c>
       <c r="K112" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8.091800000000001</v>
       </c>
       <c r="L112" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>6.473440000000001</v>
       </c>
       <c r="N112" s="74" t="str">
@@ -23157,12 +23273,16 @@
       <c r="U112" s="74"/>
       <c r="V112" s="74"/>
       <c r="W112" s="74"/>
+      <c r="X112" s="275">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
       <c r="AD112" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPOELC-E</v>
       </c>
       <c r="AE112" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Other motive - Electricity</v>
       </c>
       <c r="AF112" s="70" t="s">
@@ -23178,7 +23298,7 @@
         <v>611</v>
       </c>
       <c r="AK112" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPO</v>
       </c>
       <c r="AL112" s="70" t="str">
@@ -23198,28 +23318,28 @@
         <v>401</v>
       </c>
       <c r="AS112" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPO</v>
       </c>
       <c r="AT112" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU112" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>6.473440000000001</v>
       </c>
     </row>
     <row r="113" spans="1:47">
       <c r="A113" s="45" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Industry-Chemicals-Electrochemical - Electricity</v>
       </c>
       <c r="B113" s="45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ICPEELC-E</v>
       </c>
       <c r="C113" s="46" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>ICPELC</v>
       </c>
       <c r="D113" s="46" t="str">
@@ -23238,7 +23358,7 @@
         <v>100</v>
       </c>
       <c r="H113" s="60">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>18.589187636968187</v>
       </c>
       <c r="I113">
@@ -23248,11 +23368,11 @@
         <v>1</v>
       </c>
       <c r="K113" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3.2367200000000005</v>
       </c>
       <c r="L113" s="60">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2.4599072000000004</v>
       </c>
       <c r="N113" s="74" t="str">
@@ -23264,12 +23384,16 @@
       <c r="U113" s="74"/>
       <c r="V113" s="74"/>
       <c r="W113" s="74"/>
+      <c r="X113" s="275">
+        <f t="shared" si="38"/>
+        <v>0.76</v>
+      </c>
       <c r="AD113" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>ICPEELC-E</v>
       </c>
       <c r="AE113" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Industry-Chemicals-Electrochemical - Electricity</v>
       </c>
       <c r="AF113" s="70" t="s">
@@ -23285,7 +23409,7 @@
         <v>611</v>
       </c>
       <c r="AK113" s="70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>ICPE</v>
       </c>
       <c r="AL113" s="70" t="str">
@@ -23305,14 +23429,14 @@
         <v>401</v>
       </c>
       <c r="AS113" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPE</v>
       </c>
       <c r="AT113" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU113" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.4599072000000004</v>
       </c>
     </row>
@@ -23344,6 +23468,10 @@
       <c r="U114" s="74"/>
       <c r="V114" s="74"/>
       <c r="W114" s="74"/>
+      <c r="X114" s="275">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
       <c r="AD114" s="26" t="s">
         <v>476</v>
       </c>
@@ -23358,14 +23486,14 @@
         <v>476</v>
       </c>
       <c r="AS114" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT114" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU114" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -23375,7 +23503,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B115" s="45" t="str">
-        <f t="shared" ref="B115:B122" si="77">D115&amp;RIGHT(C115,3)&amp;"-E"</f>
+        <f t="shared" ref="B115:B122" si="78">D115&amp;RIGHT(C115,3)&amp;"-E"</f>
         <v>ICPSCLE-E</v>
       </c>
       <c r="C115" s="46" t="s">
@@ -23397,7 +23525,7 @@
         <v>100</v>
       </c>
       <c r="H115" s="60">
-        <f t="shared" ref="H115:H124" si="78">L115/F115</f>
+        <f t="shared" ref="H115:H124" si="79">L115/F115</f>
         <v>101.08822194853181</v>
       </c>
       <c r="I115">
@@ -23411,49 +23539,53 @@
         <v>24.367000000000001</v>
       </c>
       <c r="L115" s="60">
-        <f t="shared" ref="L115:L122" si="79">K115*E115</f>
+        <f t="shared" ref="L115:L122" si="80">K115*E115</f>
         <v>15.594880000000002</v>
       </c>
       <c r="N115" s="196">
-        <f t="shared" ref="N115:N122" si="80">L115/(SUMIF($D$81:$D$187,$D115,$L$81:$L$187)+$P$76)</f>
+        <f t="shared" ref="N115:N122" si="81">L115/(SUMIF($D$81:$D$187,$D115,$L$81:$L$187)+$P$76)</f>
         <v>0.8077248655478656</v>
       </c>
       <c r="O115" s="77">
-        <f t="shared" ref="O115:Q124" si="81">MIN(1,$N115+O$75)</f>
+        <f t="shared" ref="O115:Q124" si="82">MIN(1,$N115+O$75)</f>
         <v>1</v>
       </c>
       <c r="P115" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q115" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R115" s="77"/>
       <c r="S115" s="78">
-        <f t="shared" ref="S115:S122" si="82">N115</f>
+        <f t="shared" ref="S115:S122" si="83">N115</f>
         <v>0.8077248655478656</v>
       </c>
       <c r="T115" s="77">
-        <f t="shared" ref="T115:V115" si="83">S115*T$75</f>
+        <f t="shared" ref="T115:V115" si="84">S115*T$75</f>
         <v>0.72695237899307907</v>
       </c>
       <c r="U115" s="77">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="V115" s="77">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="W115" s="74"/>
+      <c r="X115" s="275">
+        <f t="shared" si="38"/>
+        <v>0.64</v>
+      </c>
       <c r="AD115" t="str">
-        <f t="shared" ref="AD115:AD122" si="84">B115</f>
+        <f t="shared" ref="AD115:AD122" si="85">B115</f>
         <v>ICPSCLE-E</v>
       </c>
       <c r="AE115" t="str">
-        <f t="shared" ref="AE115:AE122" si="85">A115</f>
+        <f t="shared" ref="AE115:AE122" si="86">A115</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF115" s="70" t="s">
@@ -23489,14 +23621,14 @@
         <v>401</v>
       </c>
       <c r="AS115" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPS</v>
       </c>
       <c r="AT115" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU115" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>19.307168400000002</v>
       </c>
     </row>
@@ -23506,7 +23638,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B116" s="45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>ICPSGAS-E</v>
       </c>
       <c r="C116" s="46" t="str">
@@ -23529,7 +23661,7 @@
         <v>100</v>
       </c>
       <c r="H116" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>17.22175406754392</v>
       </c>
       <c r="I116">
@@ -23543,49 +23675,53 @@
         <v>3.69</v>
       </c>
       <c r="L116" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.6568000000000001</v>
       </c>
       <c r="N116" s="78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.13760692116820195</v>
       </c>
       <c r="O116" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.63760692116820195</v>
       </c>
       <c r="P116" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q116" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R116" s="77"/>
       <c r="S116" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.13760692116820195</v>
       </c>
       <c r="T116" s="77">
-        <f t="shared" ref="T116:V116" si="86">S116*T$75</f>
+        <f t="shared" ref="T116:V116" si="87">S116*T$75</f>
         <v>0.12384622905138175</v>
       </c>
       <c r="U116" s="77">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="77">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="74"/>
+      <c r="X116" s="275">
+        <f t="shared" si="38"/>
+        <v>0.72</v>
+      </c>
+      <c r="AD116" t="str">
+        <f t="shared" si="85"/>
+        <v>ICPSGAS-E</v>
+      </c>
+      <c r="AE116" t="str">
         <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="V116" s="77">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="74"/>
-      <c r="AD116" t="str">
-        <f t="shared" si="84"/>
-        <v>ICPSGAS-E</v>
-      </c>
-      <c r="AE116" t="str">
-        <f t="shared" si="85"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF116" s="70" t="s">
@@ -23604,7 +23740,7 @@
         <v>476</v>
       </c>
       <c r="AL116" s="70" t="str">
-        <f t="shared" ref="AL116:AL122" si="87">A116</f>
+        <f t="shared" ref="AL116:AL122" si="88">A116</f>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM116" s="245" t="s">
@@ -23620,14 +23756,14 @@
         <v>476</v>
       </c>
       <c r="AS116" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT116" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU116" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -23637,7 +23773,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B117" s="45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>ICPSOHF-E</v>
       </c>
       <c r="C117" s="46" t="str">
@@ -23660,7 +23796,7 @@
         <v>100</v>
       </c>
       <c r="H117" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4.8486419913139311</v>
       </c>
       <c r="I117">
@@ -23674,49 +23810,53 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L117" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.74800000000000011</v>
       </c>
       <c r="N117" s="78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>3.8742087109987604E-2</v>
       </c>
       <c r="O117" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.53874208710998761</v>
       </c>
       <c r="P117" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q117" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R117" s="77"/>
       <c r="S117" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3.8742087109987604E-2</v>
       </c>
       <c r="T117" s="77">
-        <f t="shared" ref="T117:V117" si="88">S117*T$75</f>
+        <f t="shared" ref="T117:V117" si="89">S117*T$75</f>
         <v>3.4867878398988847E-2</v>
       </c>
       <c r="U117" s="77">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="V117" s="77">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="W117" s="74"/>
+      <c r="X117" s="275">
+        <f t="shared" si="38"/>
+        <v>0.68</v>
+      </c>
       <c r="AD117" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>ICPSOHF-E</v>
       </c>
       <c r="AE117" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF117" s="70" t="s">
@@ -23735,7 +23875,7 @@
         <v>476</v>
       </c>
       <c r="AL117" s="70" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM117" s="245" t="s">
@@ -23751,14 +23891,14 @@
         <v>476</v>
       </c>
       <c r="AS117" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT117" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU117" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -23768,7 +23908,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B118" s="45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>ICPSOLP-E</v>
       </c>
       <c r="C118" s="46" t="str">
@@ -23791,7 +23931,7 @@
         <v>100</v>
       </c>
       <c r="H118" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I118">
@@ -23805,49 +23945,53 @@
         <v>0</v>
       </c>
       <c r="L118" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N118" s="78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O118" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.5</v>
       </c>
       <c r="P118" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q118" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R118" s="77"/>
       <c r="S118" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T118" s="77">
-        <f t="shared" ref="T118:V118" si="89">S118*T$75</f>
+        <f t="shared" ref="T118:V118" si="90">S118*T$75</f>
         <v>0</v>
       </c>
       <c r="U118" s="77">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="V118" s="77">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="W118" s="74"/>
+      <c r="X118" s="275">
+        <f t="shared" si="38"/>
+        <v>0.72</v>
+      </c>
       <c r="AD118" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>ICPSOLP-E</v>
       </c>
       <c r="AE118" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF118" s="70" t="s">
@@ -23866,7 +24010,7 @@
         <v>476</v>
       </c>
       <c r="AL118" s="70" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM118" s="245" t="s">
@@ -23882,14 +24026,14 @@
         <v>476</v>
       </c>
       <c r="AS118" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT118" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU118" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -23899,7 +24043,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B119" s="45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>ICPSELC-E</v>
       </c>
       <c r="C119" s="46" t="str">
@@ -23922,7 +24066,7 @@
         <v>100</v>
       </c>
       <c r="H119" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1.9931833797886827</v>
       </c>
       <c r="I119">
@@ -23936,15 +24080,15 @@
         <v>0.40459000000000006</v>
       </c>
       <c r="L119" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.30748840000000005</v>
       </c>
       <c r="N119" s="196">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1.5926126173944805E-2</v>
       </c>
       <c r="O119" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.51592612617394484</v>
       </c>
       <c r="P119" s="216">
@@ -23957,28 +24101,32 @@
       </c>
       <c r="R119" s="77"/>
       <c r="S119" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.5926126173944805E-2</v>
       </c>
       <c r="T119" s="77">
-        <f t="shared" ref="T119:V119" si="90">S119*T$75</f>
+        <f t="shared" ref="T119:V119" si="91">S119*T$75</f>
         <v>1.4333513556550326E-2</v>
       </c>
       <c r="U119" s="77">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="V119" s="77">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="W119" s="74"/>
+      <c r="X119" s="275">
+        <f t="shared" si="38"/>
+        <v>0.76</v>
+      </c>
       <c r="AD119" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>ICPSELC-E</v>
       </c>
       <c r="AE119" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF119" s="70" t="s">
@@ -23997,7 +24145,7 @@
         <v>476</v>
       </c>
       <c r="AL119" s="70" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM119" s="245" t="s">
@@ -24013,14 +24161,14 @@
         <v>476</v>
       </c>
       <c r="AS119" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT119" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU119" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24069,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="196">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O120" s="216">
@@ -24083,28 +24231,32 @@
       </c>
       <c r="R120" s="77"/>
       <c r="S120" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T120" s="77">
-        <f t="shared" ref="T120:V120" si="91">S120*T$75</f>
+        <f t="shared" ref="T120:V120" si="92">S120*T$75</f>
         <v>0</v>
       </c>
       <c r="U120" s="77">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="V120" s="77">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="W120" s="74"/>
+      <c r="X120" s="275">
+        <f t="shared" si="38"/>
+        <v>3.34</v>
+      </c>
       <c r="AD120" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>ICPSELC-N</v>
       </c>
       <c r="AE120" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>Industry-Chemicals-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AF120" s="70" t="s">
@@ -24123,7 +24275,7 @@
         <v>476</v>
       </c>
       <c r="AL120" s="70" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Industry-Chemicals-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AM120" s="245" t="s">
@@ -24139,14 +24291,14 @@
         <v>476</v>
       </c>
       <c r="AS120" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT120" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU120" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24193,45 +24345,49 @@
         <v>0</v>
       </c>
       <c r="N121" s="196">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O121" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.5</v>
       </c>
       <c r="P121" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q121" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R121" s="77"/>
       <c r="S121" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T121" s="77">
-        <f t="shared" ref="T121:V121" si="92">S121*T$75</f>
+        <f t="shared" ref="T121:V121" si="93">S121*T$75</f>
         <v>0</v>
       </c>
       <c r="U121" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="V121" s="77">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="W121" s="74"/>
+      <c r="X121" s="275">
+        <f t="shared" si="38"/>
+        <v>0.76</v>
+      </c>
       <c r="AD121" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>ICPSHGN-N</v>
       </c>
       <c r="AE121" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>Industry-Chemicals-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AF121" s="70" t="s">
@@ -24250,7 +24406,7 @@
         <v>476</v>
       </c>
       <c r="AL121" s="70" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Industry-Chemicals-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AM121" s="245" t="s">
@@ -24266,14 +24422,14 @@
         <v>476</v>
       </c>
       <c r="AS121" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT121" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU121" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24283,7 +24439,7 @@
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B122" s="45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>ICPSWAS-E</v>
       </c>
       <c r="C122" s="46" t="str">
@@ -24306,7 +24462,7 @@
         <v>100</v>
       </c>
       <c r="H122" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I122">
@@ -24320,11 +24476,11 @@
         <v>0</v>
       </c>
       <c r="L122" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N122" s="78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O122" s="77">
@@ -24340,28 +24496,32 @@
       </c>
       <c r="R122" s="77"/>
       <c r="S122" s="78">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T122" s="77">
-        <f t="shared" ref="T122:V122" si="93">S122*T$75</f>
+        <f t="shared" ref="T122:V122" si="94">S122*T$75</f>
         <v>0</v>
       </c>
       <c r="U122" s="77">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="V122" s="77">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="W122" s="74"/>
+      <c r="X122" s="275">
+        <f t="shared" si="38"/>
+        <v>0.6</v>
+      </c>
       <c r="AD122" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>ICPSWAS-E</v>
       </c>
       <c r="AE122" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF122" s="70" t="s">
@@ -24380,7 +24540,7 @@
         <v>476</v>
       </c>
       <c r="AL122" s="70" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Industry-Chemicals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM122" s="245" t="s">
@@ -24396,14 +24556,14 @@
         <v>476</v>
       </c>
       <c r="AS122" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT122" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU122" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24434,6 +24594,10 @@
       <c r="U123" s="74"/>
       <c r="V123" s="74"/>
       <c r="W123" s="74"/>
+      <c r="X123" s="275">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
       <c r="AD123" s="26" t="s">
         <v>476</v>
       </c>
@@ -24448,14 +24612,14 @@
         <v>476</v>
       </c>
       <c r="AS123" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT123" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU123" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24485,7 +24649,7 @@
         <v>100</v>
       </c>
       <c r="H124" s="60">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>26.6</v>
       </c>
       <c r="I124">
@@ -24507,20 +24671,20 @@
         <v>1</v>
       </c>
       <c r="O124" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="P124" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="Q124" s="77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="R124" s="77"/>
       <c r="S124" s="78">
-        <f t="shared" ref="S124" si="94">N124</f>
+        <f t="shared" ref="S124" si="95">N124</f>
         <v>1</v>
       </c>
       <c r="T124" s="77">
@@ -24528,15 +24692,18 @@
         <v>0.9</v>
       </c>
       <c r="U124" s="77">
-        <f t="shared" ref="U124:V124" si="95">T124*U$75</f>
+        <f t="shared" ref="U124:V124" si="96">T124*U$75</f>
         <v>0</v>
       </c>
       <c r="V124" s="77">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="W124" s="74"/>
-      <c r="X124" s="77"/>
+      <c r="X124" s="275">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
       <c r="AD124" t="str">
         <f>B124</f>
         <v>ICPTGMU-E</v>
@@ -24578,14 +24745,14 @@
         <v>401</v>
       </c>
       <c r="AS124" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>ICPT</v>
       </c>
       <c r="AT124" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU124" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>26.6</v>
       </c>
     </row>
@@ -24612,6 +24779,7 @@
       <c r="U125" s="74"/>
       <c r="V125" s="74"/>
       <c r="W125" s="74"/>
+      <c r="X125" s="275"/>
       <c r="AD125" s="26" t="s">
         <v>476</v>
       </c>
@@ -24626,14 +24794,14 @@
         <v>476</v>
       </c>
       <c r="AS125" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT125" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU125" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24663,6 +24831,7 @@
       <c r="U126" s="74"/>
       <c r="V126" s="74"/>
       <c r="W126" s="74"/>
+      <c r="X126" s="275"/>
       <c r="AD126" s="26" t="s">
         <v>476</v>
       </c>
@@ -24677,14 +24846,14 @@
         <v>476</v>
       </c>
       <c r="AS126" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT126" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU126" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -24728,6 +24897,7 @@
       <c r="U127" s="74"/>
       <c r="V127" s="74"/>
       <c r="W127" s="74"/>
+      <c r="X127" s="275"/>
       <c r="AD127" s="26" t="s">
         <v>476</v>
       </c>
@@ -24742,20 +24912,20 @@
         <v>476</v>
       </c>
       <c r="AS127" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT127" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU127" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>338.97013191086643</v>
       </c>
     </row>
     <row r="128" spans="1:47">
       <c r="A128" s="45" t="str">
-        <f t="shared" ref="A128:A136" si="96">A$5&amp;"-"&amp;A$15&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A128:A136" si="97">A$5&amp;"-"&amp;A$15&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Elec Heating - Electricity</v>
       </c>
       <c r="B128" s="45" t="str">
@@ -24763,7 +24933,7 @@
         <v>INFKELC-E</v>
       </c>
       <c r="C128" s="46" t="str">
-        <f t="shared" ref="C128:C136" si="97">$P$14</f>
+        <f t="shared" ref="C128:C136" si="98">$P$14</f>
         <v>INFELC</v>
       </c>
       <c r="D128" s="46" t="str">
@@ -24792,7 +24962,7 @@
         <v>1</v>
       </c>
       <c r="K128" s="60">
-        <f t="shared" ref="K128:K136" si="98">J128*SUMIF($C$60:$K$60,$B$126,$C61:$K61)</f>
+        <f t="shared" ref="K128:K136" si="99">J128*SUMIF($C$60:$K$60,$B$126,$C61:$K61)</f>
         <v>0.10062942167027458</v>
       </c>
       <c r="L128" s="60">
@@ -24808,12 +24978,16 @@
       <c r="U128" s="74"/>
       <c r="V128" s="74"/>
       <c r="W128" s="74"/>
+      <c r="X128" s="275">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
       <c r="AD128" t="str">
-        <f t="shared" ref="AD128:AD136" si="99">B128</f>
+        <f t="shared" ref="AD128:AD136" si="100">B128</f>
         <v>INFKELC-E</v>
       </c>
       <c r="AE128" t="str">
-        <f t="shared" ref="AE128:AE136" si="100">A128</f>
+        <f t="shared" ref="AE128:AE136" si="101">A128</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-Elec Heating - Electricity</v>
       </c>
       <c r="AF128" s="70" t="s">
@@ -24829,7 +25003,7 @@
         <v>611</v>
       </c>
       <c r="AK128" s="70" t="str">
-        <f t="shared" ref="AK128:AK136" si="101">D128</f>
+        <f t="shared" ref="AK128:AK136" si="102">D128</f>
         <v>INFK</v>
       </c>
       <c r="AL128" s="70" t="str">
@@ -24849,20 +25023,20 @@
         <v>401</v>
       </c>
       <c r="AS128" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFK</v>
       </c>
       <c r="AT128" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU128" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.10062942167027458</v>
       </c>
     </row>
     <row r="129" spans="1:47">
       <c r="A129" s="45" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Compressed air - Electricity</v>
       </c>
       <c r="B129" s="45" t="str">
@@ -24870,7 +25044,7 @@
         <v>INFAELC-E</v>
       </c>
       <c r="C129" s="46" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>INFELC</v>
       </c>
       <c r="D129" s="46" t="str">
@@ -24889,7 +25063,7 @@
         <v>100</v>
       </c>
       <c r="H129" s="60">
-        <f t="shared" ref="H129:H136" si="102">L129/F129</f>
+        <f t="shared" ref="H129:H136" si="103">L129/F129</f>
         <v>0</v>
       </c>
       <c r="I129">
@@ -24899,11 +25073,11 @@
         <v>1</v>
       </c>
       <c r="K129" s="60">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L129" s="60">
-        <f t="shared" ref="L129:L136" si="103">K129*E129</f>
+        <f t="shared" ref="L129:L136" si="104">K129*E129</f>
         <v>0</v>
       </c>
       <c r="N129" s="74" t="str">
@@ -24915,12 +25089,16 @@
       <c r="U129" s="74"/>
       <c r="V129" s="74"/>
       <c r="W129" s="74"/>
+      <c r="X129" s="275">
+        <f t="shared" si="38"/>
+        <v>0.05</v>
+      </c>
       <c r="AD129" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>INFAELC-E</v>
       </c>
       <c r="AE129" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Compressed air - Electricity</v>
       </c>
       <c r="AF129" s="70" t="s">
@@ -24936,7 +25114,7 @@
         <v>611</v>
       </c>
       <c r="AK129" s="70" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFA</v>
       </c>
       <c r="AL129" s="70" t="str">
@@ -24956,28 +25134,28 @@
         <v>401</v>
       </c>
       <c r="AS129" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFA</v>
       </c>
       <c r="AT129" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU129" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:47">
       <c r="A130" s="45" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Lighting - Electricity</v>
       </c>
       <c r="B130" s="45" t="str">
-        <f t="shared" ref="B130:B136" si="104">D130&amp;RIGHT(C130,3)&amp;"-E"</f>
+        <f t="shared" ref="B130:B136" si="105">D130&amp;RIGHT(C130,3)&amp;"-E"</f>
         <v>INFLELC-E</v>
       </c>
       <c r="C130" s="46" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>INFELC</v>
       </c>
       <c r="D130" s="46" t="str">
@@ -24996,7 +25174,7 @@
         <v>100</v>
       </c>
       <c r="H130" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.24238319149805199</v>
       </c>
       <c r="I130">
@@ -25006,11 +25184,11 @@
         <v>1</v>
       </c>
       <c r="K130" s="60">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.10062942167027458</v>
       </c>
       <c r="L130" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>3.0188826501082372E-2</v>
       </c>
       <c r="N130" s="74" t="str">
@@ -25022,12 +25200,16 @@
       <c r="U130" s="74"/>
       <c r="V130" s="74"/>
       <c r="W130" s="74"/>
+      <c r="X130" s="275">
+        <f t="shared" si="38"/>
+        <v>0.3</v>
+      </c>
       <c r="AD130" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>INFLELC-E</v>
       </c>
       <c r="AE130" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Lighting - Electricity</v>
       </c>
       <c r="AF130" s="70" t="s">
@@ -25043,7 +25225,7 @@
         <v>611</v>
       </c>
       <c r="AK130" s="70" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFL</v>
       </c>
       <c r="AL130" s="70" t="str">
@@ -25063,28 +25245,28 @@
         <v>401</v>
       </c>
       <c r="AS130" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFL</v>
       </c>
       <c r="AT130" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU130" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.0188826501082372E-2</v>
       </c>
     </row>
     <row r="131" spans="1:47">
       <c r="A131" s="45" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Cooling - Electricity</v>
       </c>
       <c r="B131" s="45" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>INFCELC-E</v>
       </c>
       <c r="C131" s="46" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>INFELC</v>
       </c>
       <c r="D131" s="46" t="str">
@@ -25103,7 +25285,7 @@
         <v>100</v>
       </c>
       <c r="H131" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="I131">
@@ -25113,11 +25295,11 @@
         <v>1</v>
       </c>
       <c r="K131" s="60">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L131" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="N131" s="74" t="str">
@@ -25129,12 +25311,16 @@
       <c r="U131" s="74"/>
       <c r="V131" s="74"/>
       <c r="W131" s="74"/>
+      <c r="X131" s="275">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
       <c r="AD131" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>INFCELC-E</v>
       </c>
       <c r="AE131" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Cooling - Electricity</v>
       </c>
       <c r="AF131" s="70" t="s">
@@ -25150,7 +25336,7 @@
         <v>611</v>
       </c>
       <c r="AK131" s="70" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFC</v>
       </c>
       <c r="AL131" s="70" t="str">
@@ -25170,28 +25356,28 @@
         <v>401</v>
       </c>
       <c r="AS131" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFC</v>
       </c>
       <c r="AT131" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU131" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:47">
       <c r="A132" s="45" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-HVAC - Electricity</v>
       </c>
       <c r="B132" s="45" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>INFHELC-E</v>
       </c>
       <c r="C132" s="46" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>INFELC</v>
       </c>
       <c r="D132" s="46" t="str">
@@ -25210,7 +25396,7 @@
         <v>100</v>
       </c>
       <c r="H132" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.68814284251384494</v>
       </c>
       <c r="I132">
@@ -25220,11 +25406,11 @@
         <v>1</v>
       </c>
       <c r="K132" s="60">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.10062942167027458</v>
       </c>
       <c r="L132" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>9.056647950324713E-2</v>
       </c>
       <c r="N132" s="74" t="str">
@@ -25236,12 +25422,16 @@
       <c r="U132" s="74"/>
       <c r="V132" s="74"/>
       <c r="W132" s="74"/>
+      <c r="X132" s="275">
+        <f t="shared" si="38"/>
+        <v>0.9</v>
+      </c>
       <c r="AD132" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>INFHELC-E</v>
       </c>
       <c r="AE132" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-HVAC - Electricity</v>
       </c>
       <c r="AF132" s="70" t="s">
@@ -25257,7 +25447,7 @@
         <v>611</v>
       </c>
       <c r="AK132" s="70" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFH</v>
       </c>
       <c r="AL132" s="70" t="str">
@@ -25277,28 +25467,28 @@
         <v>401</v>
       </c>
       <c r="AS132" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFH</v>
       </c>
       <c r="AT132" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU132" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>9.056647950324713E-2</v>
       </c>
     </row>
     <row r="133" spans="1:47">
       <c r="A133" s="45" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Pumping - Electricity</v>
       </c>
       <c r="B133" s="45" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>INFPELC-E</v>
       </c>
       <c r="C133" s="46" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>INFELC</v>
       </c>
       <c r="D133" s="46" t="str">
@@ -25317,7 +25507,7 @@
         <v>100</v>
       </c>
       <c r="H133" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="I133">
@@ -25327,11 +25517,11 @@
         <v>1</v>
       </c>
       <c r="K133" s="60">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L133" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="N133" s="74" t="str">
@@ -25343,12 +25533,16 @@
       <c r="U133" s="74"/>
       <c r="V133" s="74"/>
       <c r="W133" s="74"/>
+      <c r="X133" s="275">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
       <c r="AD133" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>INFPELC-E</v>
       </c>
       <c r="AE133" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Pumping - Electricity</v>
       </c>
       <c r="AF133" s="70" t="s">
@@ -25364,7 +25558,7 @@
         <v>611</v>
       </c>
       <c r="AK133" s="70" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFP</v>
       </c>
       <c r="AL133" s="70" t="str">
@@ -25384,28 +25578,28 @@
         <v>401</v>
       </c>
       <c r="AS133" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFP</v>
       </c>
       <c r="AT133" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU133" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:47">
       <c r="A134" s="45" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Fans - Electricity</v>
       </c>
       <c r="B134" s="45" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>INFFELC-E</v>
       </c>
       <c r="C134" s="46" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>INFELC</v>
       </c>
       <c r="D134" s="46" t="str">
@@ -25424,7 +25618,7 @@
         <v>100</v>
       </c>
       <c r="H134" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="I134">
@@ -25434,11 +25628,11 @@
         <v>1</v>
       </c>
       <c r="K134" s="60">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L134" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="N134" s="74" t="str">
@@ -25450,12 +25644,16 @@
       <c r="U134" s="74"/>
       <c r="V134" s="74"/>
       <c r="W134" s="74"/>
+      <c r="X134" s="275">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
       <c r="AD134" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>INFFELC-E</v>
       </c>
       <c r="AE134" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Fans - Electricity</v>
       </c>
       <c r="AF134" s="70" t="s">
@@ -25471,7 +25669,7 @@
         <v>611</v>
       </c>
       <c r="AK134" s="70" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFF</v>
       </c>
       <c r="AL134" s="70" t="str">
@@ -25491,28 +25689,28 @@
         <v>401</v>
       </c>
       <c r="AS134" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFF</v>
       </c>
       <c r="AT134" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU134" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:47">
       <c r="A135" s="45" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Other motive - Electricity</v>
       </c>
       <c r="B135" s="45" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>INFOELC-E</v>
       </c>
       <c r="C135" s="46" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>INFELC</v>
       </c>
       <c r="D135" s="46" t="str">
@@ -25531,7 +25729,7 @@
         <v>100</v>
       </c>
       <c r="H135" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.307634622791146</v>
       </c>
       <c r="I135">
@@ -25541,11 +25739,11 @@
         <v>1</v>
       </c>
       <c r="K135" s="60">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.70440595169192211</v>
       </c>
       <c r="L135" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.56352476135353768</v>
       </c>
       <c r="N135" s="74" t="str">
@@ -25557,12 +25755,16 @@
       <c r="U135" s="74"/>
       <c r="V135" s="74"/>
       <c r="W135" s="74"/>
+      <c r="X135" s="275">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
       <c r="AD135" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>INFOELC-E</v>
       </c>
       <c r="AE135" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Other motive - Electricity</v>
       </c>
       <c r="AF135" s="70" t="s">
@@ -25578,7 +25780,7 @@
         <v>611</v>
       </c>
       <c r="AK135" s="70" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFO</v>
       </c>
       <c r="AL135" s="70" t="str">
@@ -25598,28 +25800,28 @@
         <v>401</v>
       </c>
       <c r="AS135" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFO</v>
       </c>
       <c r="AT135" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU135" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.56352476135353768</v>
       </c>
     </row>
     <row r="136" spans="1:47">
       <c r="A136" s="45" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Electrochemical - Electricity</v>
       </c>
       <c r="B136" s="45" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>INFEELC-E</v>
       </c>
       <c r="C136" s="46" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>INFELC</v>
       </c>
       <c r="D136" s="46" t="str">
@@ -25638,7 +25840,7 @@
         <v>100</v>
       </c>
       <c r="H136" s="60">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>52.014300931359337</v>
       </c>
       <c r="I136">
@@ -25648,11 +25850,11 @@
         <v>1</v>
       </c>
       <c r="K136" s="60">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>9.056647950324713</v>
       </c>
       <c r="L136" s="60">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>6.8830524422467816</v>
       </c>
       <c r="N136" s="74" t="str">
@@ -25664,12 +25866,16 @@
       <c r="U136" s="74"/>
       <c r="V136" s="74"/>
       <c r="W136" s="74"/>
+      <c r="X136" s="275">
+        <f t="shared" si="38"/>
+        <v>0.76</v>
+      </c>
       <c r="AD136" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>INFEELC-E</v>
       </c>
       <c r="AE136" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-Electrochemical - Electricity</v>
       </c>
       <c r="AF136" s="70" t="s">
@@ -25685,7 +25891,7 @@
         <v>611</v>
       </c>
       <c r="AK136" s="70" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>INFE</v>
       </c>
       <c r="AL136" s="70" t="str">
@@ -25705,14 +25911,14 @@
         <v>401</v>
       </c>
       <c r="AS136" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFE</v>
       </c>
       <c r="AT136" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU136" s="260">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>6.8830524422467816</v>
       </c>
     </row>
@@ -25744,6 +25950,10 @@
       <c r="U137" s="74"/>
       <c r="V137" s="74"/>
       <c r="W137" s="74"/>
+      <c r="X137" s="275">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
       <c r="AD137" s="26" t="s">
         <v>476</v>
       </c>
@@ -25758,14 +25968,14 @@
         <v>476</v>
       </c>
       <c r="AS137" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT137" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU137" s="260">
-        <f t="shared" ref="AU137:AU168" si="105">SUMIFS($L$81:$L$188,$D$81:$D$188,$AS137)</f>
+        <f t="shared" ref="AU137:AU168" si="106">SUMIFS($L$81:$L$188,$D$81:$D$188,$AS137)</f>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -25775,7 +25985,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B138" s="45" t="str">
-        <f t="shared" ref="B138:B143" si="106">D138&amp;RIGHT(C138,3)&amp;"-E"</f>
+        <f t="shared" ref="B138:B143" si="107">D138&amp;RIGHT(C138,3)&amp;"-E"</f>
         <v>INFSCOA-E</v>
       </c>
       <c r="C138" s="46" t="str">
@@ -25798,7 +26008,7 @@
         <v>100</v>
       </c>
       <c r="H138" s="60">
-        <f t="shared" ref="H138:H143" si="107">L138/F138</f>
+        <f t="shared" ref="H138:H143" si="108">L138/F138</f>
         <v>1.8710053801776108</v>
       </c>
       <c r="I138">
@@ -25812,49 +26022,53 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="L138" s="60">
-        <f t="shared" ref="L138:L143" si="108">K138*E138</f>
+        <f t="shared" ref="L138:L143" si="109">K138*E138</f>
         <v>0.28864000000000001</v>
       </c>
       <c r="N138" s="78">
-        <f t="shared" ref="N138:N143" si="109">L138/(SUMIF($D$81:$D$187,$D138,$L$81:$L$187)+$P$76)</f>
+        <f t="shared" ref="N138:N143" si="110">L138/(SUMIF($D$81:$D$187,$D138,$L$81:$L$187)+$P$76)</f>
         <v>0.15100025110906504</v>
       </c>
       <c r="O138" s="77">
-        <f t="shared" ref="O138:Q142" si="110">MIN(1,$N138+O$75)</f>
+        <f t="shared" ref="O138:Q142" si="111">MIN(1,$N138+O$75)</f>
         <v>0.65100025110906501</v>
       </c>
       <c r="P138" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="Q138" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="R138" s="77"/>
       <c r="S138" s="78">
-        <f t="shared" ref="S138:S143" si="111">N138</f>
+        <f t="shared" ref="S138:S143" si="112">N138</f>
         <v>0.15100025110906504</v>
       </c>
       <c r="T138" s="77">
-        <f t="shared" ref="T138:V138" si="112">S138*T$75</f>
+        <f t="shared" ref="T138:V138" si="113">S138*T$75</f>
         <v>0.13590022599815854</v>
       </c>
       <c r="U138" s="77">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="V138" s="77">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="W138" s="74"/>
+      <c r="X138" s="275">
+        <f t="shared" si="38"/>
+        <v>0.64</v>
+      </c>
       <c r="AD138" t="str">
-        <f t="shared" ref="AD138:AD143" si="113">B138</f>
+        <f t="shared" ref="AD138:AD143" si="114">B138</f>
         <v>INFSCOA-E</v>
       </c>
       <c r="AE138" t="str">
-        <f t="shared" ref="AE138:AE143" si="114">A138</f>
+        <f t="shared" ref="AE138:AE143" si="115">A138</f>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF138" s="70" t="s">
@@ -25890,14 +26104,14 @@
         <v>401</v>
       </c>
       <c r="AS138" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>INFS</v>
       </c>
       <c r="AT138" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU138" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.9115199999999999</v>
       </c>
     </row>
@@ -25907,7 +26121,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B139" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>INFSGAS-E</v>
       </c>
       <c r="C139" s="46" t="str">
@@ -25930,7 +26144,7 @@
         <v>100</v>
       </c>
       <c r="H139" s="60">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>10.519738121475335</v>
       </c>
       <c r="I139">
@@ -25944,11 +26158,11 @@
         <v>2.254</v>
       </c>
       <c r="L139" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1.6228799999999999</v>
       </c>
       <c r="N139" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.84899974889093499</v>
       </c>
       <c r="O139" s="77">
@@ -25965,28 +26179,32 @@
       </c>
       <c r="R139" s="77"/>
       <c r="S139" s="78">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0.84899974889093499</v>
       </c>
       <c r="T139" s="77">
-        <f t="shared" ref="T139:V139" si="115">S139*T$75</f>
+        <f t="shared" ref="T139:V139" si="116">S139*T$75</f>
         <v>0.76409977400184148</v>
       </c>
       <c r="U139" s="77">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="V139" s="77">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="W139" s="74"/>
+      <c r="X139" s="275">
+        <f t="shared" si="38"/>
+        <v>0.72</v>
+      </c>
+      <c r="AD139" t="str">
+        <f t="shared" si="114"/>
+        <v>INFSGAS-E</v>
+      </c>
+      <c r="AE139" t="str">
         <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="V139" s="77">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="W139" s="74"/>
-      <c r="AD139" t="str">
-        <f t="shared" si="113"/>
-        <v>INFSGAS-E</v>
-      </c>
-      <c r="AE139" t="str">
-        <f t="shared" si="114"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF139" s="70" t="s">
@@ -26021,14 +26239,14 @@
         <v>476</v>
       </c>
       <c r="AS139" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT139" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU139" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26038,7 +26256,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B140" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>INFSOHF-E</v>
       </c>
       <c r="C140" s="46" t="str">
@@ -26061,7 +26279,7 @@
         <v>100</v>
       </c>
       <c r="H140" s="60">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="I140">
@@ -26075,15 +26293,15 @@
         <v>0</v>
       </c>
       <c r="L140" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="N140" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O140" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.5</v>
       </c>
       <c r="P140" s="77">
@@ -26096,28 +26314,32 @@
       </c>
       <c r="R140" s="77"/>
       <c r="S140" s="78">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="T140" s="77">
-        <f t="shared" ref="T140:V140" si="116">S140*T$75</f>
+        <f t="shared" ref="T140:V140" si="117">S140*T$75</f>
         <v>0</v>
       </c>
       <c r="U140" s="77">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="V140" s="77">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="W140" s="74"/>
+      <c r="X140" s="275">
+        <f t="shared" si="38"/>
+        <v>0.68</v>
+      </c>
       <c r="AD140" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>INFSOHF-E</v>
       </c>
       <c r="AE140" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF140" s="70" t="s">
@@ -26152,14 +26374,14 @@
         <v>476</v>
       </c>
       <c r="AS140" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT140" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU140" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26169,7 +26391,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B141" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>INFSOLP-E</v>
       </c>
       <c r="C141" s="46" t="str">
@@ -26192,7 +26414,7 @@
         <v>100</v>
       </c>
       <c r="H141" s="60">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="I141">
@@ -26206,49 +26428,53 @@
         <v>0</v>
       </c>
       <c r="L141" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="N141" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O141" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.5</v>
       </c>
       <c r="P141" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="Q141" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="R141" s="77"/>
       <c r="S141" s="78">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="T141" s="77">
-        <f t="shared" ref="T141:V141" si="117">S141*T$75</f>
+        <f t="shared" ref="T141:V141" si="118">S141*T$75</f>
         <v>0</v>
       </c>
       <c r="U141" s="77">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="V141" s="77">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="W141" s="74"/>
+      <c r="X141" s="275">
+        <f t="shared" si="38"/>
+        <v>0.72</v>
+      </c>
       <c r="AD141" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>INFSOLP-E</v>
       </c>
       <c r="AE141" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF141" s="70" t="s">
@@ -26283,14 +26509,14 @@
         <v>476</v>
       </c>
       <c r="AS141" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT141" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU141" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26300,7 +26526,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B142" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>INFSELC-E</v>
       </c>
       <c r="C142" s="46" t="str">
@@ -26323,7 +26549,7 @@
         <v>100</v>
       </c>
       <c r="H142" s="60">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="I142">
@@ -26337,49 +26563,53 @@
         <v>0</v>
       </c>
       <c r="L142" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="N142" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O142" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.5</v>
       </c>
       <c r="P142" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="Q142" s="77">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="R142" s="77"/>
       <c r="S142" s="78">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="T142" s="77">
-        <f t="shared" ref="T142:V142" si="118">S142*T$75</f>
+        <f t="shared" ref="T142:V142" si="119">S142*T$75</f>
         <v>0</v>
       </c>
       <c r="U142" s="77">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V142" s="77">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W142" s="74"/>
+      <c r="X142" s="275">
+        <f t="shared" si="38"/>
+        <v>0.76</v>
+      </c>
       <c r="AD142" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>INFSELC-E</v>
       </c>
       <c r="AE142" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF142" s="70" t="s">
@@ -26414,14 +26644,14 @@
         <v>476</v>
       </c>
       <c r="AS142" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT142" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU142" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26431,7 +26661,7 @@
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="B143" s="45" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>INFSWAS-E</v>
       </c>
       <c r="C143" s="46" t="str">
@@ -26454,7 +26684,7 @@
         <v>100</v>
       </c>
       <c r="H143" s="60">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="I143">
@@ -26468,11 +26698,11 @@
         <v>0</v>
       </c>
       <c r="L143" s="60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="N143" s="78">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O143" s="77">
@@ -26488,28 +26718,32 @@
       </c>
       <c r="R143" s="77"/>
       <c r="S143" s="78">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="T143" s="77">
-        <f t="shared" ref="T143:V143" si="119">S143*T$75</f>
+        <f t="shared" ref="T143:V143" si="120">S143*T$75</f>
         <v>0</v>
       </c>
       <c r="U143" s="77">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="V143" s="77">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="W143" s="74"/>
+      <c r="X143" s="275">
+        <f t="shared" si="38"/>
+        <v>0.6</v>
+      </c>
       <c r="AD143" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>INFSWAS-E</v>
       </c>
       <c r="AE143" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Industry-Precious &amp; Non-Ferrous metals-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF143" s="70" t="s">
@@ -26544,14 +26778,14 @@
         <v>476</v>
       </c>
       <c r="AS143" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT143" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU143" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26578,6 +26812,7 @@
       <c r="U144" s="74"/>
       <c r="V144" s="74"/>
       <c r="W144" s="74"/>
+      <c r="X144" s="275"/>
       <c r="AD144" s="26" t="s">
         <v>476</v>
       </c>
@@ -26592,14 +26827,14 @@
         <v>476</v>
       </c>
       <c r="AS144" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT144" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU144" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26643,6 +26878,7 @@
       <c r="U145" s="74"/>
       <c r="V145" s="74"/>
       <c r="W145" s="74"/>
+      <c r="X145" s="275"/>
       <c r="AD145" s="26" t="s">
         <v>476</v>
       </c>
@@ -26657,14 +26893,14 @@
         <v>476</v>
       </c>
       <c r="AS145" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT145" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU145" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -26708,6 +26944,7 @@
       <c r="U146" s="74"/>
       <c r="V146" s="74"/>
       <c r="W146" s="74"/>
+      <c r="X146" s="275"/>
       <c r="AD146" s="26" t="s">
         <v>476</v>
       </c>
@@ -26722,20 +26959,20 @@
         <v>476</v>
       </c>
       <c r="AS146" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT146" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU146" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
     <row r="147" spans="1:47">
       <c r="A147" s="45" t="str">
-        <f t="shared" ref="A147:A155" si="120">A$5&amp;"-"&amp;A$17&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A147:A155" si="121">A$5&amp;"-"&amp;A$17&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Elec Heating - Electricity</v>
       </c>
       <c r="B147" s="45" t="str">
@@ -26743,7 +26980,7 @@
         <v>IFBKELC-E</v>
       </c>
       <c r="C147" s="46" t="str">
-        <f t="shared" ref="C147:C155" si="121">$P$16</f>
+        <f t="shared" ref="C147:C155" si="122">$P$16</f>
         <v>IFBELC</v>
       </c>
       <c r="D147" s="46" t="str">
@@ -26772,7 +27009,7 @@
         <v>1</v>
       </c>
       <c r="K147" s="60">
-        <f t="shared" ref="K147:K155" si="122">J147*SUMIF($C$60:$K$60,$B$145,$C61:$K61)</f>
+        <f t="shared" ref="K147:K155" si="123">J147*SUMIF($C$60:$K$60,$B$145,$C61:$K61)</f>
         <v>1.04664</v>
       </c>
       <c r="L147" s="60">
@@ -26788,12 +27025,16 @@
       <c r="U147" s="74"/>
       <c r="V147" s="74"/>
       <c r="W147" s="74"/>
+      <c r="X147" s="275">
+        <f t="shared" ref="X146:X188" si="124">E147</f>
+        <v>1</v>
+      </c>
       <c r="AD147" t="str">
-        <f t="shared" ref="AD147:AD155" si="123">B147</f>
+        <f t="shared" ref="AD147:AD155" si="125">B147</f>
         <v>IFBKELC-E</v>
       </c>
       <c r="AE147" t="str">
-        <f t="shared" ref="AE147:AE155" si="124">A147</f>
+        <f t="shared" ref="AE147:AE155" si="126">A147</f>
         <v>Industry-Food, Beverage &amp; Tabacco-Elec Heating - Electricity</v>
       </c>
       <c r="AF147" s="70" t="s">
@@ -26809,7 +27050,7 @@
         <v>611</v>
       </c>
       <c r="AK147" s="70" t="str">
-        <f t="shared" ref="AK147:AK155" si="125">D147</f>
+        <f t="shared" ref="AK147:AK155" si="127">D147</f>
         <v>IFBK</v>
       </c>
       <c r="AL147" s="70" t="str">
@@ -26829,20 +27070,20 @@
         <v>401</v>
       </c>
       <c r="AS147" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBK</v>
       </c>
       <c r="AT147" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU147" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.04664</v>
       </c>
     </row>
     <row r="148" spans="1:47">
       <c r="A148" s="45" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Compressed air - Electricity</v>
       </c>
       <c r="B148" s="45" t="str">
@@ -26850,7 +27091,7 @@
         <v>IFBAELC-E</v>
       </c>
       <c r="C148" s="46" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>IFBELC</v>
       </c>
       <c r="D148" s="46" t="str">
@@ -26869,7 +27110,7 @@
         <v>100</v>
       </c>
       <c r="H148" s="60">
-        <f t="shared" ref="H148:H155" si="126">L148/F148</f>
+        <f t="shared" ref="H148:H155" si="128">L148/F148</f>
         <v>0.25812688821752272</v>
       </c>
       <c r="I148">
@@ -26879,11 +27120,11 @@
         <v>1</v>
       </c>
       <c r="K148" s="60">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.59808000000000006</v>
       </c>
       <c r="L148" s="60">
-        <f t="shared" ref="L148:L155" si="127">K148*E148</f>
+        <f t="shared" ref="L148:L155" si="129">K148*E148</f>
         <v>2.9904000000000003E-2</v>
       </c>
       <c r="N148" s="74" t="str">
@@ -26895,12 +27136,16 @@
       <c r="U148" s="74"/>
       <c r="V148" s="74"/>
       <c r="W148" s="74"/>
+      <c r="X148" s="275">
+        <f t="shared" si="124"/>
+        <v>0.05</v>
+      </c>
       <c r="AD148" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>IFBAELC-E</v>
       </c>
       <c r="AE148" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Compressed air - Electricity</v>
       </c>
       <c r="AF148" s="70" t="s">
@@ -26916,7 +27161,7 @@
         <v>611</v>
       </c>
       <c r="AK148" s="70" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>IFBA</v>
       </c>
       <c r="AL148" s="70" t="str">
@@ -26936,28 +27181,28 @@
         <v>401</v>
       </c>
       <c r="AS148" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBA</v>
       </c>
       <c r="AT148" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU148" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>2.9904000000000003E-2</v>
       </c>
     </row>
     <row r="149" spans="1:47">
       <c r="A149" s="45" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Lighting - Electricity</v>
       </c>
       <c r="B149" s="45" t="str">
-        <f t="shared" ref="B149:B155" si="128">D149&amp;RIGHT(C149,3)&amp;"-E"</f>
+        <f t="shared" ref="B149:B155" si="130">D149&amp;RIGHT(C149,3)&amp;"-E"</f>
         <v>IFBLELC-E</v>
       </c>
       <c r="C149" s="46" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>IFBELC</v>
       </c>
       <c r="D149" s="46" t="str">
@@ -26976,7 +27221,7 @@
         <v>100</v>
       </c>
       <c r="H149" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1.8007226013649138</v>
       </c>
       <c r="I149">
@@ -26986,11 +27231,11 @@
         <v>1</v>
       </c>
       <c r="K149" s="60">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.74760000000000004</v>
       </c>
       <c r="L149" s="60">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0.22428000000000001</v>
       </c>
       <c r="N149" s="74" t="str">
@@ -27002,12 +27247,16 @@
       <c r="U149" s="74"/>
       <c r="V149" s="74"/>
       <c r="W149" s="74"/>
+      <c r="X149" s="275">
+        <f t="shared" si="124"/>
+        <v>0.3</v>
+      </c>
       <c r="AD149" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>IFBLELC-E</v>
       </c>
       <c r="AE149" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Lighting - Electricity</v>
       </c>
       <c r="AF149" s="70" t="s">
@@ -27023,7 +27272,7 @@
         <v>611</v>
       </c>
       <c r="AK149" s="70" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>IFBL</v>
       </c>
       <c r="AL149" s="70" t="str">
@@ -27043,28 +27292,28 @@
         <v>401</v>
       </c>
       <c r="AS149" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBL</v>
       </c>
       <c r="AT149" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU149" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.22428000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:47">
       <c r="A150" s="45" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Cooling - Electricity</v>
       </c>
       <c r="B150" s="45" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>IFBCELC-E</v>
       </c>
       <c r="C150" s="46" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>IFBELC</v>
       </c>
       <c r="D150" s="46" t="str">
@@ -27083,7 +27332,7 @@
         <v>100</v>
       </c>
       <c r="H150" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>53.086755171349182</v>
       </c>
       <c r="I150">
@@ -27093,11 +27342,11 @@
         <v>1</v>
       </c>
       <c r="K150" s="60">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>3.4389600000000002</v>
       </c>
       <c r="L150" s="60">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>6.8779200000000005</v>
       </c>
       <c r="N150" s="74" t="str">
@@ -27109,12 +27358,16 @@
       <c r="U150" s="74"/>
       <c r="V150" s="74"/>
       <c r="W150" s="74"/>
+      <c r="X150" s="275">
+        <f t="shared" si="124"/>
+        <v>2</v>
+      </c>
       <c r="AD150" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>IFBCELC-E</v>
       </c>
       <c r="AE150" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Cooling - Electricity</v>
       </c>
       <c r="AF150" s="70" t="s">
@@ -27130,7 +27383,7 @@
         <v>611</v>
       </c>
       <c r="AK150" s="70" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>IFBC</v>
       </c>
       <c r="AL150" s="70" t="str">
@@ -27150,28 +27403,28 @@
         <v>401</v>
       </c>
       <c r="AS150" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBC</v>
       </c>
       <c r="AT150" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU150" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6.8779200000000005</v>
       </c>
     </row>
     <row r="151" spans="1:47">
       <c r="A151" s="45" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>Industry-Food, Beverage &amp; Tabacco-HVAC - Electricity</v>
       </c>
       <c r="B151" s="45" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>IFBHELC-E</v>
       </c>
       <c r="C151" s="46" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>IFBELC</v>
       </c>
       <c r="D151" s="46" t="str">
@@ -27190,7 +27443,7 @@
         <v>100</v>
       </c>
       <c r="H151" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>6.1348529746979708</v>
       </c>
       <c r="I151">
@@ -27200,11 +27453,11 @@
         <v>1</v>
       </c>
       <c r="K151" s="60">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.89711999999999992</v>
       </c>
       <c r="L151" s="60">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0.8074079999999999</v>
       </c>
       <c r="N151" s="74" t="str">
@@ -27216,12 +27469,16 @@
       <c r="U151" s="74"/>
       <c r="V151" s="74"/>
       <c r="W151" s="74"/>
+      <c r="X151" s="275">
+        <f t="shared" si="124"/>
+        <v>0.9</v>
+      </c>
       <c r="AD151" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>IFBHELC-E</v>
       </c>
       <c r="AE151" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Industry-Food, Beverage &amp; Tabacco-HVAC - Electricity</v>
       </c>
       <c r="AF151" s="70" t="s">
@@ -27237,7 +27494,7 @@
         <v>611</v>
       </c>
       <c r="AK151" s="70" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>IFBH</v>
       </c>
       <c r="AL151" s="70" t="str">
@@ -27257,28 +27514,28 @@
         <v>401</v>
       </c>
       <c r="AS151" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBH</v>
       </c>
       <c r="AT151" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU151" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.8074079999999999</v>
       </c>
     </row>
     <row r="152" spans="1:47">
       <c r="A152" s="45" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Pumping - Electricity</v>
       </c>
       <c r="B152" s="45" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>IFBPELC-E</v>
       </c>
       <c r="C152" s="46" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>IFBELC</v>
       </c>
       <c r="D152" s="46" t="str">
@@ -27297,7 +27554,7 @@
         <v>100</v>
       </c>
       <c r="H152" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>27.643182568504457</v>
       </c>
       <c r="I152">
@@ -27307,11 +27564,11 @@
         <v>1</v>
       </c>
       <c r="K152" s="60">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>4.1865600000000001</v>
       </c>
       <c r="L152" s="60">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>3.3492480000000002</v>
       </c>
       <c r="N152" s="74" t="str">
@@ -27323,12 +27580,16 @@
       <c r="U152" s="74"/>
       <c r="V152" s="74"/>
       <c r="W152" s="74"/>
+      <c r="X152" s="275">
+        <f t="shared" si="124"/>
+        <v>0.8</v>
+      </c>
       <c r="AD152" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>IFBPELC-E</v>
       </c>
       <c r="AE152" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Pumping - Electricity</v>
       </c>
       <c r="AF152" s="70" t="s">
@@ -27344,7 +27605,7 @@
         <v>611</v>
       </c>
       <c r="AK152" s="70" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>IFBP</v>
       </c>
       <c r="AL152" s="70" t="str">
@@ -27364,28 +27625,28 @@
         <v>401</v>
       </c>
       <c r="AS152" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBP</v>
       </c>
       <c r="AT152" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU152" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.3492480000000002</v>
       </c>
     </row>
     <row r="153" spans="1:47">
       <c r="A153" s="45" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Fans - Electricity</v>
       </c>
       <c r="B153" s="45" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>IFBFELC-E</v>
       </c>
       <c r="C153" s="46" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>IFBELC</v>
       </c>
       <c r="D153" s="46" t="str">
@@ -27404,7 +27665,7 @@
         <v>100</v>
       </c>
       <c r="H153" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>4.3747279875651461</v>
       </c>
       <c r="I153">
@@ -27414,11 +27675,11 @@
         <v>1</v>
       </c>
       <c r="K153" s="60">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.59808000000000006</v>
       </c>
       <c r="L153" s="60">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0.47846400000000006</v>
       </c>
       <c r="N153" s="74" t="str">
@@ -27430,12 +27691,16 @@
       <c r="U153" s="74"/>
       <c r="V153" s="74"/>
       <c r="W153" s="74"/>
+      <c r="X153" s="275">
+        <f t="shared" si="124"/>
+        <v>0.8</v>
+      </c>
       <c r="AD153" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>IFBFELC-E</v>
       </c>
       <c r="AE153" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Fans - Electricity</v>
       </c>
       <c r="AF153" s="70" t="s">
@@ -27451,7 +27716,7 @@
         <v>611</v>
       </c>
       <c r="AK153" s="70" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>IFBF</v>
       </c>
       <c r="AL153" s="70" t="str">
@@ -27471,28 +27736,28 @@
         <v>401</v>
       </c>
       <c r="AS153" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBF</v>
       </c>
       <c r="AT153" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU153" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.47846400000000006</v>
       </c>
     </row>
     <row r="154" spans="1:47">
       <c r="A154" s="45" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Other motive - Electricity</v>
       </c>
       <c r="B154" s="45" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>IFBOELC-E</v>
       </c>
       <c r="C154" s="46" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>IFBELC</v>
       </c>
       <c r="D154" s="46" t="str">
@@ -27511,7 +27776,7 @@
         <v>100</v>
       </c>
       <c r="H154" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>19.201467665494576</v>
       </c>
       <c r="I154">
@@ -27521,11 +27786,11 @@
         <v>1</v>
       </c>
       <c r="K154" s="60">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>3.13992</v>
       </c>
       <c r="L154" s="60">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>2.5119360000000004</v>
       </c>
       <c r="N154" s="74" t="str">
@@ -27537,12 +27802,16 @@
       <c r="U154" s="74"/>
       <c r="V154" s="74"/>
       <c r="W154" s="74"/>
+      <c r="X154" s="275">
+        <f t="shared" si="124"/>
+        <v>0.8</v>
+      </c>
       <c r="AD154" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>IFBOELC-E</v>
       </c>
       <c r="AE154" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Other motive - Electricity</v>
       </c>
       <c r="AF154" s="70" t="s">
@@ -27558,7 +27827,7 @@
         <v>611</v>
       </c>
       <c r="AK154" s="70" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>IFBO</v>
       </c>
       <c r="AL154" s="70" t="str">
@@ -27578,28 +27847,28 @@
         <v>401</v>
       </c>
       <c r="AS154" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBO</v>
       </c>
       <c r="AT154" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU154" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>2.5119360000000004</v>
       </c>
     </row>
     <row r="155" spans="1:47">
       <c r="A155" s="45" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Electrochemical - Electricity</v>
       </c>
       <c r="B155" s="45" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>IFBEELC-E</v>
       </c>
       <c r="C155" s="46" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>IFBELC</v>
       </c>
       <c r="D155" s="46" t="str">
@@ -27618,7 +27887,7 @@
         <v>100</v>
       </c>
       <c r="H155" s="60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="I155">
@@ -27628,11 +27897,11 @@
         <v>1</v>
       </c>
       <c r="K155" s="60">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L155" s="60">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="N155" s="74" t="str">
@@ -27644,12 +27913,16 @@
       <c r="U155" s="74"/>
       <c r="V155" s="74"/>
       <c r="W155" s="74"/>
+      <c r="X155" s="275">
+        <f t="shared" si="124"/>
+        <v>0.76</v>
+      </c>
       <c r="AD155" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>IFBEELC-E</v>
       </c>
       <c r="AE155" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Industry-Food, Beverage &amp; Tabacco-Electrochemical - Electricity</v>
       </c>
       <c r="AF155" s="70" t="s">
@@ -27665,7 +27938,7 @@
         <v>611</v>
       </c>
       <c r="AK155" s="70" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>IFBE</v>
       </c>
       <c r="AL155" s="70" t="str">
@@ -27685,14 +27958,14 @@
         <v>401</v>
       </c>
       <c r="AS155" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBE</v>
       </c>
       <c r="AT155" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU155" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -27724,6 +27997,10 @@
       <c r="U156" s="74"/>
       <c r="V156" s="74"/>
       <c r="W156" s="74"/>
+      <c r="X156" s="275">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
       <c r="AD156" s="26" t="s">
         <v>476</v>
       </c>
@@ -27738,14 +28015,14 @@
         <v>476</v>
       </c>
       <c r="AS156" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT156" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU156" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -27755,7 +28032,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B157" s="45" t="str">
-        <f t="shared" ref="B157:B165" si="129">D157&amp;RIGHT(C157,3)&amp;"-E"</f>
+        <f t="shared" ref="B157:B165" si="131">D157&amp;RIGHT(C157,3)&amp;"-E"</f>
         <v>IFBSCOA-E</v>
       </c>
       <c r="C157" s="46" t="str">
@@ -27763,7 +28040,7 @@
         <v>INDCOA</v>
       </c>
       <c r="D157" s="46" t="str">
-        <f t="shared" ref="D157:D165" si="130">$B$5&amp;RIGHT($B$145,2)&amp;$B$70</f>
+        <f t="shared" ref="D157:D165" si="132">$B$5&amp;RIGHT($B$145,2)&amp;$B$70</f>
         <v>IFBS</v>
       </c>
       <c r="E157" s="58">
@@ -27778,7 +28055,7 @@
         <v>100</v>
       </c>
       <c r="H157" s="60">
-        <f t="shared" ref="H157:H165" si="131">L157/F157</f>
+        <f t="shared" ref="H157:H165" si="133">L157/F157</f>
         <v>67.505542231153186</v>
       </c>
       <c r="I157">
@@ -27796,45 +28073,49 @@
         <v>10.414080000000002</v>
       </c>
       <c r="N157" s="78">
-        <f t="shared" ref="N157:N165" si="132">L157/SUMIF($D$81:$D$187,$D157,$L$81:$L$187)</f>
+        <f t="shared" ref="N157:N165" si="134">L157/SUMIF($D$81:$D$187,$D157,$L$81:$L$187)</f>
         <v>0.25685398787785141</v>
       </c>
       <c r="O157" s="77">
-        <f t="shared" ref="O157:Q161" si="133">MIN(1,$N157+O$75)</f>
+        <f t="shared" ref="O157:Q161" si="135">MIN(1,$N157+O$75)</f>
         <v>0.75685398787785141</v>
       </c>
       <c r="P157" s="77">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="Q157" s="77">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="R157" s="77"/>
       <c r="S157" s="78">
-        <f t="shared" ref="S157:S162" si="134">N157</f>
+        <f t="shared" ref="S157:S162" si="136">N157</f>
         <v>0.25685398787785141</v>
       </c>
       <c r="T157" s="77">
-        <f t="shared" ref="T157:V157" si="135">S157*T$75</f>
+        <f t="shared" ref="T157:V157" si="137">S157*T$75</f>
         <v>0.23116858909006627</v>
       </c>
       <c r="U157" s="77">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="V157" s="77">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="W157" s="74"/>
+      <c r="X157" s="275">
+        <f t="shared" si="124"/>
+        <v>0.64</v>
+      </c>
       <c r="AD157" t="str">
-        <f t="shared" ref="AD157:AD165" si="136">B157</f>
+        <f t="shared" ref="AD157:AD165" si="138">B157</f>
         <v>IFBSCOA-E</v>
       </c>
       <c r="AE157" t="str">
-        <f t="shared" ref="AE157:AE165" si="137">A157</f>
+        <f t="shared" ref="AE157:AE165" si="139">A157</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF157" s="70" t="s">
@@ -27870,14 +28151,14 @@
         <v>401</v>
       </c>
       <c r="AS157" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>IFBS</v>
       </c>
       <c r="AT157" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU157" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>40.544747177343751</v>
       </c>
     </row>
@@ -27887,7 +28168,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B158" s="45" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>IFBSGAS-E</v>
       </c>
       <c r="C158" s="46" t="str">
@@ -27895,7 +28176,7 @@
         <v>INDGAS</v>
       </c>
       <c r="D158" s="46" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>IFBS</v>
       </c>
       <c r="E158" s="58">
@@ -27910,7 +28191,7 @@
         <v>100</v>
       </c>
       <c r="H158" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>34.377369400037274</v>
       </c>
       <c r="I158">
@@ -27924,15 +28205,15 @@
         <v>7.3658288574218753</v>
       </c>
       <c r="L158" s="60">
-        <f t="shared" ref="L158:L165" si="138">K158*E158</f>
+        <f t="shared" ref="L158:L165" si="140">K158*E158</f>
         <v>5.3033967773437496</v>
       </c>
       <c r="N158" s="78">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0.13080354784669287</v>
       </c>
       <c r="O158" s="77">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>0.6308035478466929</v>
       </c>
       <c r="P158" s="77">
@@ -27945,28 +28226,32 @@
       </c>
       <c r="R158" s="77"/>
       <c r="S158" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0.13080354784669287</v>
       </c>
       <c r="T158" s="77">
-        <f t="shared" ref="T158:V158" si="139">S158*T$75</f>
+        <f t="shared" ref="T158:V158" si="141">S158*T$75</f>
         <v>0.11772319306202358</v>
       </c>
       <c r="U158" s="77">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="V158" s="77">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="W158" s="74"/>
+      <c r="X158" s="275">
+        <f t="shared" si="124"/>
+        <v>0.72</v>
+      </c>
+      <c r="AD158" t="str">
+        <f t="shared" si="138"/>
+        <v>IFBSGAS-E</v>
+      </c>
+      <c r="AE158" t="str">
         <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="V158" s="77">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="W158" s="74"/>
-      <c r="AD158" t="str">
-        <f t="shared" si="136"/>
-        <v>IFBSGAS-E</v>
-      </c>
-      <c r="AE158" t="str">
-        <f t="shared" si="137"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF158" s="70" t="s">
@@ -27985,7 +28270,7 @@
         <v>476</v>
       </c>
       <c r="AL158" s="70" t="str">
-        <f t="shared" ref="AL158:AL165" si="140">A158</f>
+        <f t="shared" ref="AL158:AL165" si="142">A158</f>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM158" s="245" t="s">
@@ -28001,14 +28286,14 @@
         <v>476</v>
       </c>
       <c r="AS158" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT158" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU158" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28018,7 +28303,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B159" s="45" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>IFBSOHF-E</v>
       </c>
       <c r="C159" s="46" t="str">
@@ -28026,7 +28311,7 @@
         <v>INDOHF</v>
       </c>
       <c r="D159" s="46" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>IFBS</v>
       </c>
       <c r="E159" s="58">
@@ -28041,7 +28326,7 @@
         <v>100</v>
       </c>
       <c r="H159" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="I159">
@@ -28055,15 +28340,15 @@
         <v>0</v>
       </c>
       <c r="L159" s="60">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="N159" s="78">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="O159" s="77">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>0.5</v>
       </c>
       <c r="P159" s="77">
@@ -28076,28 +28361,32 @@
       </c>
       <c r="R159" s="77"/>
       <c r="S159" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="T159" s="77">
-        <f t="shared" ref="T159:V159" si="141">S159*T$75</f>
+        <f t="shared" ref="T159:V159" si="143">S159*T$75</f>
         <v>0</v>
       </c>
       <c r="U159" s="77">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="V159" s="77">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="W159" s="74"/>
+      <c r="X159" s="275">
+        <f t="shared" si="124"/>
+        <v>0.68</v>
+      </c>
       <c r="AD159" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>IFBSOHF-E</v>
       </c>
       <c r="AE159" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF159" s="70" t="s">
@@ -28116,7 +28405,7 @@
         <v>476</v>
       </c>
       <c r="AL159" s="70" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM159" s="245" t="s">
@@ -28132,14 +28421,14 @@
         <v>476</v>
       </c>
       <c r="AS159" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT159" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU159" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28149,7 +28438,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B160" s="45" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>IFBSOLP-E</v>
       </c>
       <c r="C160" s="46" t="str">
@@ -28157,7 +28446,7 @@
         <v>INDOLP</v>
       </c>
       <c r="D160" s="46" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>IFBS</v>
       </c>
       <c r="E160" s="58">
@@ -28172,7 +28461,7 @@
         <v>100</v>
       </c>
       <c r="H160" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="I160">
@@ -28186,49 +28475,53 @@
         <v>0</v>
       </c>
       <c r="L160" s="60">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="N160" s="78">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="O160" s="77">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>0.5</v>
       </c>
       <c r="P160" s="77">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="Q160" s="77">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="R160" s="77"/>
       <c r="S160" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="T160" s="77">
-        <f t="shared" ref="T160:V160" si="142">S160*T$75</f>
+        <f t="shared" ref="T160:V160" si="144">S160*T$75</f>
         <v>0</v>
       </c>
       <c r="U160" s="77">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="V160" s="77">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="W160" s="74"/>
+      <c r="X160" s="275">
+        <f t="shared" si="124"/>
+        <v>0.72</v>
+      </c>
       <c r="AD160" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>IFBSOLP-E</v>
       </c>
       <c r="AE160" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF160" s="70" t="s">
@@ -28247,7 +28540,7 @@
         <v>476</v>
       </c>
       <c r="AL160" s="70" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM160" s="245" t="s">
@@ -28263,14 +28556,14 @@
         <v>476</v>
       </c>
       <c r="AS160" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT160" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU160" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28280,7 +28573,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B161" s="45" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>IFBSELC-E</v>
       </c>
       <c r="C161" s="46" t="str">
@@ -28288,7 +28581,7 @@
         <v>IFBELC</v>
       </c>
       <c r="D161" s="46" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>IFBS</v>
       </c>
       <c r="E161" s="58">
@@ -28303,7 +28596,7 @@
         <v>100</v>
       </c>
       <c r="H161" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>1.4731989369287615</v>
       </c>
       <c r="I161">
@@ -28317,49 +28610,53 @@
         <v>0.29904000000000003</v>
       </c>
       <c r="L161" s="60">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.22727040000000001</v>
       </c>
       <c r="N161" s="78">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>5.6054215606750127E-3</v>
       </c>
       <c r="O161" s="77">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>0.50560542156067501</v>
       </c>
       <c r="P161" s="77">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="Q161" s="77">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="R161" s="77"/>
       <c r="S161" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>5.6054215606750127E-3</v>
       </c>
       <c r="T161" s="77">
-        <f t="shared" ref="T161:V161" si="143">S161*T$75</f>
+        <f t="shared" ref="T161:V161" si="145">S161*T$75</f>
         <v>5.0448794046075119E-3</v>
       </c>
       <c r="U161" s="77">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="V161" s="77">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="W161" s="74"/>
+      <c r="X161" s="275">
+        <f t="shared" si="124"/>
+        <v>0.76</v>
+      </c>
       <c r="AD161" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>IFBSELC-E</v>
       </c>
       <c r="AE161" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF161" s="70" t="s">
@@ -28378,7 +28675,7 @@
         <v>476</v>
       </c>
       <c r="AL161" s="70" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM161" s="245" t="s">
@@ -28394,14 +28691,14 @@
         <v>476</v>
       </c>
       <c r="AS161" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT161" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU161" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28419,7 +28716,7 @@
         <v>IFBELC</v>
       </c>
       <c r="D162" s="46" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>IFBS</v>
       </c>
       <c r="E162" s="58">
@@ -28450,7 +28747,7 @@
         <v>0</v>
       </c>
       <c r="N162" s="78">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="O162" s="216">
@@ -28464,28 +28761,32 @@
       </c>
       <c r="R162" s="77"/>
       <c r="S162" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="T162" s="77">
-        <f t="shared" ref="T162:V162" si="144">S162*T$75</f>
+        <f t="shared" ref="T162:V162" si="146">S162*T$75</f>
         <v>0</v>
       </c>
       <c r="U162" s="77">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="V162" s="77">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="W162" s="74"/>
+      <c r="X162" s="275">
+        <f t="shared" si="124"/>
+        <v>3.34</v>
+      </c>
       <c r="AD162" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>IFBSELC-N</v>
       </c>
       <c r="AE162" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AF162" s="70" t="s">
@@ -28504,7 +28805,7 @@
         <v>476</v>
       </c>
       <c r="AL162" s="70" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AM162" s="245" t="s">
@@ -28520,14 +28821,14 @@
         <v>476</v>
       </c>
       <c r="AS162" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT162" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU162" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28543,7 +28844,7 @@
         <v>467</v>
       </c>
       <c r="D163" s="46" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>IFBS</v>
       </c>
       <c r="E163" s="58">
@@ -28574,45 +28875,49 @@
         <v>0</v>
       </c>
       <c r="N163" s="78">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="O163" s="77">
-        <f t="shared" ref="O163:Q165" si="145">MIN(1,$N163+O$75)</f>
+        <f t="shared" ref="O163:Q165" si="147">MIN(1,$N163+O$75)</f>
         <v>0.5</v>
       </c>
       <c r="P163" s="77">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="Q163" s="77">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="R163" s="77"/>
       <c r="S163" s="78">
-        <f t="shared" ref="S163:S165" si="146">N163</f>
+        <f t="shared" ref="S163:S165" si="148">N163</f>
         <v>0</v>
       </c>
       <c r="T163" s="77">
-        <f t="shared" ref="T163:V163" si="147">S163*T$75</f>
+        <f t="shared" ref="T163:V163" si="149">S163*T$75</f>
         <v>0</v>
       </c>
       <c r="U163" s="77">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="V163" s="77">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="W163" s="74"/>
+      <c r="X163" s="275">
+        <f t="shared" si="124"/>
+        <v>0.76</v>
+      </c>
       <c r="AD163" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>IFBSHGN-N</v>
       </c>
       <c r="AE163" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating - Electricity - Hydrogen New</v>
       </c>
       <c r="AF163" s="70" t="s">
@@ -28631,7 +28936,7 @@
         <v>476</v>
       </c>
       <c r="AL163" s="70" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating - Electricity - Hydrogen New</v>
       </c>
       <c r="AM163" s="245" t="s">
@@ -28647,14 +28952,14 @@
         <v>476</v>
       </c>
       <c r="AS163" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT163" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU163" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28664,7 +28969,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B164" s="45" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>IFBSBIB-E</v>
       </c>
       <c r="C164" s="46" t="str">
@@ -28672,7 +28977,7 @@
         <v>INDBIB</v>
       </c>
       <c r="D164" s="46" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>IFBS</v>
       </c>
       <c r="E164" s="58">
@@ -28687,7 +28992,7 @@
         <v>100</v>
       </c>
       <c r="H164" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>159.46068581059183</v>
       </c>
       <c r="I164">
@@ -28701,11 +29006,11 @@
         <v>41</v>
       </c>
       <c r="L164" s="60">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>24.599999999999998</v>
       </c>
       <c r="N164" s="78">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0.60673704271478068</v>
       </c>
       <c r="O164" s="77">
@@ -28722,28 +29027,32 @@
       </c>
       <c r="R164" s="77"/>
       <c r="S164" s="78">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>0.60673704271478068</v>
       </c>
       <c r="T164" s="77">
-        <f t="shared" ref="T164:V164" si="148">S164*T$75</f>
+        <f t="shared" ref="T164:V164" si="150">S164*T$75</f>
         <v>0.54606333844330268</v>
       </c>
       <c r="U164" s="77">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="V164" s="77">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="W164" s="74"/>
+      <c r="X164" s="275">
+        <f t="shared" si="124"/>
+        <v>0.6</v>
+      </c>
       <c r="AD164" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>IFBSBIB-E</v>
       </c>
       <c r="AE164" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF164" s="70" t="s">
@@ -28762,7 +29071,7 @@
         <v>476</v>
       </c>
       <c r="AL164" s="70" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM164" s="245" t="s">
@@ -28778,14 +29087,14 @@
         <v>476</v>
       </c>
       <c r="AS164" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT164" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU164" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28795,7 +29104,7 @@
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="B165" s="45" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>IFBSWAS-E</v>
       </c>
       <c r="C165" s="46" t="str">
@@ -28803,7 +29112,7 @@
         <v>INDWAS</v>
       </c>
       <c r="D165" s="46" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>IFBS</v>
       </c>
       <c r="E165" s="58">
@@ -28818,7 +29127,7 @@
         <v>100</v>
       </c>
       <c r="H165" s="60">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="I165">
@@ -28832,15 +29141,15 @@
         <v>0</v>
       </c>
       <c r="L165" s="60">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="N165" s="78">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="O165" s="77">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>0.5</v>
       </c>
       <c r="P165" s="77">
@@ -28851,28 +29160,32 @@
       </c>
       <c r="R165" s="77"/>
       <c r="S165" s="78">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="T165" s="77">
-        <f t="shared" ref="T165:V165" si="149">S165*T$75</f>
+        <f t="shared" ref="T165:V165" si="151">S165*T$75</f>
         <v>0</v>
       </c>
       <c r="U165" s="77">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="V165" s="77">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="W165" s="74"/>
+      <c r="X165" s="275">
+        <f t="shared" si="124"/>
+        <v>0.6</v>
+      </c>
       <c r="AD165" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>IFBSWAS-E</v>
       </c>
       <c r="AE165" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF165" s="70" t="s">
@@ -28891,7 +29204,7 @@
         <v>476</v>
       </c>
       <c r="AL165" s="70" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Industry-Food, Beverage &amp; Tabacco-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM165" s="245" t="s">
@@ -28907,14 +29220,14 @@
         <v>476</v>
       </c>
       <c r="AS165" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT165" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU165" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -28941,6 +29254,7 @@
       <c r="U166" s="74"/>
       <c r="V166" s="74"/>
       <c r="W166" s="74"/>
+      <c r="X166" s="275"/>
       <c r="AD166" s="26" t="s">
         <v>476</v>
       </c>
@@ -28955,14 +29269,14 @@
         <v>476</v>
       </c>
       <c r="AS166" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT166" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU166" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -29006,6 +29320,7 @@
       <c r="U167" s="74"/>
       <c r="V167" s="74"/>
       <c r="W167" s="74"/>
+      <c r="X167" s="275"/>
       <c r="AD167" s="26" t="s">
         <v>476</v>
       </c>
@@ -29020,14 +29335,14 @@
         <v>476</v>
       </c>
       <c r="AS167" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT167" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU167" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -29071,6 +29386,7 @@
       <c r="U168" s="74"/>
       <c r="V168" s="74"/>
       <c r="W168" s="74"/>
+      <c r="X168" s="275"/>
       <c r="AD168" s="26" t="s">
         <v>476</v>
       </c>
@@ -29085,20 +29401,20 @@
         <v>476</v>
       </c>
       <c r="AS168" s="72" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>*</v>
       </c>
       <c r="AT168" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU168" s="260">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>338.97013191086643</v>
       </c>
     </row>
     <row r="169" spans="1:47">
       <c r="A169" s="45" t="str">
-        <f t="shared" ref="A169:A177" si="150">A$5&amp;"-"&amp;A$19&amp;"-"&amp;A31&amp;" - Electricity"</f>
+        <f t="shared" ref="A169:A177" si="152">A$5&amp;"-"&amp;A$19&amp;"-"&amp;A31&amp;" - Electricity"</f>
         <v>Industry-Other-Elec Heating - Electricity</v>
       </c>
       <c r="B169" s="45" t="str">
@@ -29106,7 +29422,7 @@
         <v>IOTKELC-E</v>
       </c>
       <c r="C169" s="46" t="str">
-        <f t="shared" ref="C169:C177" si="151">$P$18</f>
+        <f t="shared" ref="C169:C177" si="153">$P$18</f>
         <v>IOTELC</v>
       </c>
       <c r="D169" s="46" t="str">
@@ -29135,7 +29451,7 @@
         <v>1</v>
       </c>
       <c r="K169" s="60">
-        <f t="shared" ref="K169:K177" si="152">J169*SUMIF($C$60:$K$60,$B$167,$C61:$K61)</f>
+        <f t="shared" ref="K169:K177" si="154">J169*SUMIF($C$60:$K$60,$B$167,$C61:$K61)</f>
         <v>2.1816720000000003</v>
       </c>
       <c r="L169" s="60">
@@ -29151,12 +29467,16 @@
       <c r="U169" s="74"/>
       <c r="V169" s="74"/>
       <c r="W169" s="74"/>
+      <c r="X169" s="275">
+        <f t="shared" si="124"/>
+        <v>1</v>
+      </c>
       <c r="AD169" t="str">
-        <f t="shared" ref="AD169:AD177" si="153">B169</f>
+        <f t="shared" ref="AD169:AD177" si="155">B169</f>
         <v>IOTKELC-E</v>
       </c>
       <c r="AE169" t="str">
-        <f t="shared" ref="AE169:AE177" si="154">A169</f>
+        <f t="shared" ref="AE169:AE177" si="156">A169</f>
         <v>Industry-Other-Elec Heating - Electricity</v>
       </c>
       <c r="AF169" s="70" t="s">
@@ -29172,7 +29492,7 @@
         <v>611</v>
       </c>
       <c r="AK169" s="70" t="str">
-        <f t="shared" ref="AK169:AK177" si="155">D169</f>
+        <f t="shared" ref="AK169:AK177" si="157">D169</f>
         <v>IOTK</v>
       </c>
       <c r="AL169" s="70" t="str">
@@ -29192,20 +29512,20 @@
         <v>401</v>
       </c>
       <c r="AS169" s="72" t="str">
-        <f t="shared" ref="AS169:AS188" si="156">AK169</f>
+        <f t="shared" ref="AS169:AS188" si="158">AK169</f>
         <v>IOTK</v>
       </c>
       <c r="AT169" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU169" s="260">
-        <f t="shared" ref="AU169:AU188" si="157">SUMIFS($L$81:$L$188,$D$81:$D$188,$AS169)</f>
+        <f t="shared" ref="AU169:AU188" si="159">SUMIFS($L$81:$L$188,$D$81:$D$188,$AS169)</f>
         <v>2.1816720000000003</v>
       </c>
     </row>
     <row r="170" spans="1:47">
       <c r="A170" s="45" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>Industry-Other-Compressed air - Electricity</v>
       </c>
       <c r="B170" s="45" t="str">
@@ -29213,7 +29533,7 @@
         <v>IOTAELC-E</v>
       </c>
       <c r="C170" s="46" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>IOTELC</v>
       </c>
       <c r="D170" s="46" t="str">
@@ -29232,7 +29552,7 @@
         <v>100</v>
       </c>
       <c r="H170" s="60">
-        <f t="shared" ref="H170:H176" si="158">L170/F170</f>
+        <f t="shared" ref="H170:H176" si="160">L170/F170</f>
         <v>1.0664887354337507</v>
       </c>
       <c r="I170">
@@ -29242,11 +29562,11 @@
         <v>1</v>
       </c>
       <c r="K170" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>2.4710543999999999</v>
       </c>
       <c r="L170" s="60">
-        <f t="shared" ref="L170:L177" si="159">K170*E170</f>
+        <f t="shared" ref="L170:L177" si="161">K170*E170</f>
         <v>0.12355272</v>
       </c>
       <c r="N170" s="74" t="str">
@@ -29258,12 +29578,16 @@
       <c r="U170" s="74"/>
       <c r="V170" s="74"/>
       <c r="W170" s="74"/>
+      <c r="X170" s="275">
+        <f t="shared" si="124"/>
+        <v>0.05</v>
+      </c>
       <c r="AD170" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>IOTAELC-E</v>
       </c>
       <c r="AE170" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>Industry-Other-Compressed air - Electricity</v>
       </c>
       <c r="AF170" s="70" t="s">
@@ -29279,7 +29603,7 @@
         <v>611</v>
       </c>
       <c r="AK170" s="70" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>IOTA</v>
       </c>
       <c r="AL170" s="70" t="str">
@@ -29299,28 +29623,28 @@
         <v>401</v>
       </c>
       <c r="AS170" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>IOTA</v>
       </c>
       <c r="AT170" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU170" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.12355272</v>
       </c>
     </row>
     <row r="171" spans="1:47">
       <c r="A171" s="45" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>Industry-Other-Lighting - Electricity</v>
       </c>
       <c r="B171" s="45" t="str">
-        <f t="shared" ref="B171:B177" si="160">D171&amp;RIGHT(C171,3)&amp;"-E"</f>
+        <f t="shared" ref="B171:B177" si="162">D171&amp;RIGHT(C171,3)&amp;"-E"</f>
         <v>IOTLELC-E</v>
       </c>
       <c r="C171" s="46" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>IOTELC</v>
       </c>
       <c r="D171" s="46" t="str">
@@ -29339,7 +29663,7 @@
         <v>100</v>
       </c>
       <c r="H171" s="60">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>4.3945377759935766</v>
       </c>
       <c r="I171">
@@ -29349,11 +29673,11 @@
         <v>1</v>
       </c>
       <c r="K171" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>1.8244656000000001</v>
       </c>
       <c r="L171" s="60">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>0.54733968</v>
       </c>
       <c r="N171" s="74" t="str">
@@ -29365,12 +29689,16 @@
       <c r="U171" s="74"/>
       <c r="V171" s="74"/>
       <c r="W171" s="74"/>
+      <c r="X171" s="275">
+        <f t="shared" si="124"/>
+        <v>0.3</v>
+      </c>
       <c r="AD171" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>IOTLELC-E</v>
       </c>
       <c r="AE171" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>Industry-Other-Lighting - Electricity</v>
       </c>
       <c r="AF171" s="70" t="s">
@@ -29386,7 +29714,7 @@
         <v>611</v>
       </c>
       <c r="AK171" s="70" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>IOTL</v>
       </c>
       <c r="AL171" s="70" t="str">
@@ -29406,28 +29734,28 @@
         <v>401</v>
       </c>
       <c r="AS171" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>IOTL</v>
       </c>
       <c r="AT171" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU171" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.54733968</v>
       </c>
     </row>
     <row r="172" spans="1:47">
       <c r="A172" s="45" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>Industry-Other-Cooling - Electricity</v>
       </c>
       <c r="B172" s="45" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>IOTCELC-E</v>
       </c>
       <c r="C172" s="46" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>IOTELC</v>
       </c>
       <c r="D172" s="46" t="str">
@@ -29446,7 +29774,7 @@
         <v>100</v>
       </c>
       <c r="H172" s="60">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>17.938425439950606</v>
       </c>
       <c r="I172">
@@ -29456,11 +29784,11 @@
         <v>1</v>
       </c>
       <c r="K172" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>1.1620512000000003</v>
       </c>
       <c r="L172" s="60">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>2.3241024000000006</v>
       </c>
       <c r="N172" s="74" t="str">
@@ -29472,12 +29800,16 @@
       <c r="U172" s="74"/>
       <c r="V172" s="74"/>
       <c r="W172" s="74"/>
+      <c r="X172" s="275">
+        <f t="shared" si="124"/>
+        <v>2</v>
+      </c>
       <c r="AD172" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>IOTCELC-E</v>
       </c>
       <c r="AE172" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>Industry-Other-Cooling - Electricity</v>
       </c>
       <c r="AF172" s="70" t="s">
@@ -29493,7 +29825,7 @@
         <v>611</v>
       </c>
       <c r="AK172" s="70" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>IOTC</v>
       </c>
       <c r="AL172" s="70" t="str">
@@ -29513,28 +29845,28 @@
         <v>401</v>
       </c>
       <c r="AS172" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>IOTC</v>
       </c>
       <c r="AT172" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU172" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>2.3241024000000006</v>
       </c>
     </row>
     <row r="173" spans="1:47">
       <c r="A173" s="45" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>Industry-Other-HVAC - Electricity</v>
       </c>
       <c r="B173" s="45" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>IOTHELC-E</v>
       </c>
       <c r="C173" s="46" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>IOTELC</v>
       </c>
       <c r="D173" s="46" t="str">
@@ -29553,7 +29885,7 @@
         <v>100</v>
       </c>
       <c r="H173" s="60">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>13.125729655801232</v>
       </c>
       <c r="I173">
@@ -29563,11 +29895,11 @@
         <v>1</v>
       </c>
       <c r="K173" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>1.9194192000000001</v>
       </c>
       <c r="L173" s="60">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>1.7274772800000002</v>
       </c>
       <c r="N173" s="74" t="str">
@@ -29579,12 +29911,16 @@
       <c r="U173" s="74"/>
       <c r="V173" s="74"/>
       <c r="W173" s="74"/>
+      <c r="X173" s="275">
+        <f t="shared" si="124"/>
+        <v>0.9</v>
+      </c>
       <c r="AD173" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>IOTHELC-E</v>
       </c>
       <c r="AE173" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>Industry-Other-HVAC - Electricity</v>
       </c>
       <c r="AF173" s="70" t="s">
@@ -29600,7 +29936,7 @@
         <v>611</v>
       </c>
       <c r="AK173" s="70" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>IOTH</v>
       </c>
       <c r="AL173" s="70" t="str">
@@ -29620,28 +29956,28 @@
         <v>401</v>
       </c>
       <c r="AS173" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>IOTH</v>
       </c>
       <c r="AT173" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU173" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>1.7274772800000002</v>
       </c>
     </row>
     <row r="174" spans="1:47">
       <c r="A174" s="45" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>Industry-Other-Pumping - Electricity</v>
       </c>
       <c r="B174" s="45" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>IOTPELC-E</v>
       </c>
       <c r="C174" s="46" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>IOTELC</v>
       </c>
       <c r="D174" s="46" t="str">
@@ -29660,7 +29996,7 @@
         <v>100</v>
       </c>
       <c r="H174" s="60">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>19.406008583690991</v>
       </c>
       <c r="I174">
@@ -29670,11 +30006,11 @@
         <v>1</v>
       </c>
       <c r="K174" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>2.9390400000000003</v>
       </c>
       <c r="L174" s="60">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>2.3512320000000004</v>
       </c>
       <c r="N174" s="74" t="str">
@@ -29686,12 +30022,16 @@
       <c r="U174" s="74"/>
       <c r="V174" s="74"/>
       <c r="W174" s="74"/>
+      <c r="X174" s="275">
+        <f t="shared" si="124"/>
+        <v>0.8</v>
+      </c>
       <c r="AD174" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>IOTPELC-E</v>
       </c>
       <c r="AE174" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>Industry-Other-Pumping - Electricity</v>
       </c>
       <c r="AF174" s="70" t="s">
@@ -29707,7 +30047,7 @@
         <v>611</v>
       </c>
       <c r="AK174" s="70" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>IOTP</v>
       </c>
       <c r="AL174" s="70" t="str">
@@ -29727,28 +30067,28 @@
         <v>401</v>
       </c>
       <c r="AS174" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>IOTP</v>
       </c>
       <c r="AT174" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU174" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>2.3512320000000004</v>
       </c>
     </row>
     <row r="175" spans="1:47">
       <c r="A175" s="45" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>Industry-Other-Fans - Electricity</v>
       </c>
       <c r="B175" s="45" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>IOTFELC-E</v>
       </c>
       <c r="C175" s="46" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>IOTELC</v>
       </c>
       <c r="D175" s="46" t="str">
@@ -29767,7 +30107,7 @@
         <v>100</v>
       </c>
       <c r="H175" s="60">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>9.1531703392155084</v>
       </c>
       <c r="I175">
@@ -29777,11 +30117,11 @@
         <v>1</v>
       </c>
       <c r="K175" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>1.2513528</v>
       </c>
       <c r="L175" s="60">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>1.0010822400000001</v>
       </c>
       <c r="N175" s="74" t="str">
@@ -29793,12 +30133,16 @@
       <c r="U175" s="74"/>
       <c r="V175" s="74"/>
       <c r="W175" s="74"/>
+      <c r="X175" s="275">
+        <f t="shared" si="124"/>
+        <v>0.8</v>
+      </c>
       <c r="AD175" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>IOTFELC-E</v>
       </c>
       <c r="AE175" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>Industry-Other-Fans - Electricity</v>
       </c>
       <c r="AF175" s="70" t="s">
@@ -29814,7 +30158,7 @@
         <v>611</v>
       </c>
       <c r="AK175" s="70" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>IOTF</v>
       </c>
       <c r="AL175" s="70" t="str">
@@ -29834,28 +30178,28 @@
         <v>401</v>
       </c>
       <c r="AS175" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>IOTF</v>
       </c>
       <c r="AT175" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU175" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>1.0010822400000001</v>
       </c>
     </row>
     <row r="176" spans="1:47">
       <c r="A176" s="45" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>Industry-Other-Other motive - Electricity</v>
       </c>
       <c r="B176" s="45" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>IOTOELC-E</v>
       </c>
       <c r="C176" s="46" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>IOTELC</v>
       </c>
       <c r="D176" s="46" t="str">
@@ -29874,7 +30218,7 @@
         <v>100</v>
       </c>
       <c r="H176" s="60">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>50.992255863017895</v>
       </c>
       <c r="I176">
@@ -29884,11 +30228,11 @@
         <v>1</v>
       </c>
       <c r="K176" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>8.3385086400000006</v>
       </c>
       <c r="L176" s="60">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>6.6708069120000006</v>
       </c>
       <c r="N176" s="74" t="str">
@@ -29900,12 +30244,16 @@
       <c r="U176" s="74"/>
       <c r="V176" s="74"/>
       <c r="W176" s="74"/>
+      <c r="X176" s="275">
+        <f t="shared" si="124"/>
+        <v>0.8</v>
+      </c>
       <c r="AD176" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>IOTOELC-E</v>
       </c>
       <c r="AE176" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>Industry-Other-Other motive - Electricity</v>
       </c>
       <c r="AF176" s="70" t="s">
@@ -29921,7 +30269,7 @@
         <v>611</v>
       </c>
       <c r="AK176" s="70" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>IOTO</v>
       </c>
       <c r="AL176" s="70" t="str">
@@ -29941,28 +30289,28 @@
         <v>401</v>
       </c>
       <c r="AS176" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>IOTO</v>
       </c>
       <c r="AT176" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU176" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>6.6708069120000006</v>
       </c>
     </row>
     <row r="177" spans="1:47">
       <c r="A177" s="45" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>Industry-Other-Electrochemical - Electricity</v>
       </c>
       <c r="B177" s="45" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>IOTEELC-E</v>
       </c>
       <c r="C177" s="46" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>IOTELC</v>
       </c>
       <c r="D177" s="46" t="str">
@@ -29991,11 +30339,11 @@
         <v>1</v>
       </c>
       <c r="K177" s="60">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0.29435616000000003</v>
       </c>
       <c r="L177" s="60">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>0.22371068160000002</v>
       </c>
       <c r="N177" s="74" t="str">
@@ -30007,12 +30355,16 @@
       <c r="U177" s="74"/>
       <c r="V177" s="74"/>
       <c r="W177" s="74"/>
+      <c r="X177" s="275">
+        <f t="shared" si="124"/>
+        <v>0.76</v>
+      </c>
       <c r="AD177" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>IOTEELC-E</v>
       </c>
       <c r="AE177" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>Industry-Other-Electrochemical - Electricity</v>
       </c>
       <c r="AF177" s="70" t="s">
@@ -30028,7 +30380,7 @@
         <v>611</v>
       </c>
       <c r="AK177" s="70" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>IOTE</v>
       </c>
       <c r="AL177" s="70" t="str">
@@ -30048,14 +30400,14 @@
         <v>401</v>
       </c>
       <c r="AS177" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>IOTE</v>
       </c>
       <c r="AT177" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU177" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.22371068160000002</v>
       </c>
     </row>
@@ -30087,6 +30439,10 @@
       <c r="U178" s="74"/>
       <c r="V178" s="74"/>
       <c r="W178" s="74"/>
+      <c r="X178" s="275">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
       <c r="AD178" s="26" t="s">
         <v>476</v>
       </c>
@@ -30105,14 +30461,14 @@
         <v>476</v>
       </c>
       <c r="AS178" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>*</v>
       </c>
       <c r="AT178" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU178" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30122,7 +30478,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B179" s="45" t="str">
-        <f t="shared" ref="B179:B187" si="161">D179&amp;RIGHT(C179,3)&amp;"-E"</f>
+        <f t="shared" ref="B179:B187" si="163">D179&amp;RIGHT(C179,3)&amp;"-E"</f>
         <v>IOTSCOA-E</v>
       </c>
       <c r="C179" s="46" t="str">
@@ -30145,7 +30501,7 @@
         <v>100</v>
       </c>
       <c r="H179" s="60">
-        <f t="shared" ref="H179:H187" si="162">L179/F179</f>
+        <f t="shared" ref="H179:H187" si="164">L179/F179</f>
         <v>421.66072470344204</v>
       </c>
       <c r="I179">
@@ -30159,11 +30515,11 @@
         <v>101.64</v>
       </c>
       <c r="L179" s="60">
-        <f t="shared" ref="L179:L187" si="163">K179*E179</f>
+        <f t="shared" ref="L179:L187" si="165">K179*E179</f>
         <v>65.049599999999998</v>
       </c>
       <c r="N179" s="78">
-        <f t="shared" ref="N179:N188" si="164">L179/SUMIF($D$81:$D$187,$D179,$L$81:$L$187)</f>
+        <f t="shared" ref="N179:N188" si="166">L179/SUMIF($D$81:$D$187,$D179,$L$81:$L$187)</f>
         <v>0.94916610378800759</v>
       </c>
       <c r="O179" s="168">
@@ -30180,28 +30536,32 @@
       </c>
       <c r="R179" s="168"/>
       <c r="S179" s="78">
-        <f t="shared" ref="S179:S183" si="165">N179</f>
+        <f t="shared" ref="S179:S183" si="167">N179</f>
         <v>0.94916610378800759</v>
       </c>
       <c r="T179" s="77">
-        <f t="shared" ref="T179:V179" si="166">S179*T$75</f>
+        <f t="shared" ref="T179:V179" si="168">S179*T$75</f>
         <v>0.85424949340920686</v>
       </c>
       <c r="U179" s="77">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="V179" s="77">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="W179" s="74"/>
+      <c r="X179" s="275">
+        <f t="shared" si="124"/>
+        <v>0.64</v>
+      </c>
       <c r="AD179" t="str">
-        <f t="shared" ref="AD179:AD188" si="167">B179</f>
+        <f t="shared" ref="AD179:AD188" si="169">B179</f>
         <v>IOTSCOA-E</v>
       </c>
       <c r="AE179" t="str">
-        <f t="shared" ref="AE179:AE188" si="168">A179</f>
+        <f t="shared" ref="AE179:AE188" si="170">A179</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF179" s="70" t="s">
@@ -30237,14 +30597,14 @@
         <v>401</v>
       </c>
       <c r="AS179" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>IOTS</v>
       </c>
       <c r="AT179" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU179" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>68.533420800000002</v>
       </c>
     </row>
@@ -30254,7 +30614,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B180" s="45" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>IOTSGAS-E</v>
       </c>
       <c r="C180" s="46" t="str">
@@ -30277,7 +30637,7 @@
         <v>100</v>
       </c>
       <c r="H180" s="60">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>21.468853309133337</v>
       </c>
       <c r="I180">
@@ -30291,15 +30651,15 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L180" s="60">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>3.3119999999999998</v>
       </c>
       <c r="N180" s="78">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>4.8326786571260716E-2</v>
       </c>
       <c r="O180" s="77">
-        <f t="shared" ref="O180:Q182" si="169">MIN(1,$N180+O$75)</f>
+        <f t="shared" ref="O180:Q182" si="171">MIN(1,$N180+O$75)</f>
         <v>0.54832678657126066</v>
       </c>
       <c r="P180" s="77">
@@ -30312,28 +30672,32 @@
       </c>
       <c r="R180" s="77"/>
       <c r="S180" s="78">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>4.8326786571260716E-2</v>
       </c>
       <c r="T180" s="77">
-        <f t="shared" ref="T180:V180" si="170">S180*T$75</f>
+        <f t="shared" ref="T180:V180" si="172">S180*T$75</f>
         <v>4.3494107914134647E-2</v>
       </c>
       <c r="U180" s="77">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="V180" s="77">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="W180" s="74"/>
+      <c r="X180" s="275">
+        <f t="shared" si="124"/>
+        <v>0.72</v>
+      </c>
+      <c r="AD180" t="str">
+        <f t="shared" si="169"/>
+        <v>IOTSGAS-E</v>
+      </c>
+      <c r="AE180" t="str">
         <f t="shared" si="170"/>
-        <v>0</v>
-      </c>
-      <c r="V180" s="77">
-        <f t="shared" si="170"/>
-        <v>0</v>
-      </c>
-      <c r="W180" s="74"/>
-      <c r="AD180" t="str">
-        <f t="shared" si="167"/>
-        <v>IOTSGAS-E</v>
-      </c>
-      <c r="AE180" t="str">
-        <f t="shared" si="168"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF180" s="70" t="s">
@@ -30352,7 +30716,7 @@
         <v>476</v>
       </c>
       <c r="AL180" s="70" t="str">
-        <f t="shared" ref="AL180:AL186" si="171">A180</f>
+        <f t="shared" ref="AL180:AL186" si="173">A180</f>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM180" s="245" t="s">
@@ -30368,14 +30732,14 @@
         <v>476</v>
       </c>
       <c r="AS180" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>*</v>
       </c>
       <c r="AT180" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU180" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30385,7 +30749,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B181" s="45" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>IOTSOHF-E</v>
       </c>
       <c r="C181" s="46" t="str">
@@ -30408,7 +30772,7 @@
         <v>100</v>
       </c>
       <c r="H181" s="60">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="I181">
@@ -30422,15 +30786,15 @@
         <v>0</v>
       </c>
       <c r="L181" s="60">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="N181" s="78">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="O181" s="77">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0.5</v>
       </c>
       <c r="P181" s="77">
@@ -30443,28 +30807,32 @@
       </c>
       <c r="R181" s="77"/>
       <c r="S181" s="78">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="T181" s="77">
-        <f t="shared" ref="T181:V181" si="172">S181*T$75</f>
+        <f t="shared" ref="T181:V181" si="174">S181*T$75</f>
         <v>0</v>
       </c>
       <c r="U181" s="77">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="V181" s="77">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="W181" s="74"/>
+      <c r="X181" s="275">
+        <f t="shared" si="124"/>
+        <v>0.68</v>
+      </c>
       <c r="AD181" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>IOTSOHF-E</v>
       </c>
       <c r="AE181" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF181" s="70" t="s">
@@ -30483,7 +30851,7 @@
         <v>476</v>
       </c>
       <c r="AL181" s="70" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM181" s="245" t="s">
@@ -30499,14 +30867,14 @@
         <v>476</v>
       </c>
       <c r="AS181" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>*</v>
       </c>
       <c r="AT181" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU181" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30516,7 +30884,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B182" s="45" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>IOTSOLP-E</v>
       </c>
       <c r="C182" s="46" t="str">
@@ -30539,7 +30907,7 @@
         <v>100</v>
       </c>
       <c r="H182" s="60">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="I182">
@@ -30553,49 +30921,53 @@
         <v>0</v>
       </c>
       <c r="L182" s="60">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="N182" s="78">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="O182" s="77">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0.5</v>
       </c>
       <c r="P182" s="77">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1</v>
       </c>
       <c r="Q182" s="77">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1</v>
       </c>
       <c r="R182" s="77"/>
       <c r="S182" s="78">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="T182" s="77">
-        <f t="shared" ref="T182:V182" si="173">S182*T$75</f>
+        <f t="shared" ref="T182:V182" si="175">S182*T$75</f>
         <v>0</v>
       </c>
       <c r="U182" s="77">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="V182" s="77">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="W182" s="74"/>
+      <c r="X182" s="275">
+        <f t="shared" si="124"/>
+        <v>0.72</v>
+      </c>
       <c r="AD182" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>IOTSOLP-E</v>
       </c>
       <c r="AE182" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF182" s="70" t="s">
@@ -30614,7 +30986,7 @@
         <v>476</v>
       </c>
       <c r="AL182" s="70" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM182" s="245" t="s">
@@ -30630,14 +31002,14 @@
         <v>476</v>
       </c>
       <c r="AS182" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>*</v>
       </c>
       <c r="AT182" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU182" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30647,7 +31019,7 @@
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="B183" s="45" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>IOTSELC-E</v>
       </c>
       <c r="C183" s="46" t="str">
@@ -30670,7 +31042,7 @@
         <v>100</v>
       </c>
       <c r="H183" s="60">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>1.1137667725416478</v>
       </c>
       <c r="I183">
@@ -30684,11 +31056,11 @@
         <v>0.22608</v>
       </c>
       <c r="L183" s="60">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0.1718208</v>
       </c>
       <c r="N183" s="78">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>2.5071096407316648E-3</v>
       </c>
       <c r="O183" s="216">
@@ -30704,28 +31076,32 @@
       </c>
       <c r="R183" s="77"/>
       <c r="S183" s="78">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>2.5071096407316648E-3</v>
       </c>
       <c r="T183" s="77">
-        <f t="shared" ref="T183:V183" si="174">S183*T$75</f>
+        <f t="shared" ref="T183:V183" si="176">S183*T$75</f>
         <v>2.2563986766584985E-3</v>
       </c>
       <c r="U183" s="77">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="V183" s="77">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="W183" s="74"/>
+      <c r="X183" s="275">
+        <f t="shared" si="124"/>
+        <v>0.76</v>
+      </c>
       <c r="AD183" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>IOTSELC-E</v>
       </c>
       <c r="AE183" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF183" s="70" t="s">
@@ -30744,7 +31120,7 @@
         <v>476</v>
       </c>
       <c r="AL183" s="70" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM183" s="245" t="s">
@@ -30760,14 +31136,14 @@
         <v>476</v>
       </c>
       <c r="AS183" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>*</v>
       </c>
       <c r="AT183" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU183" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30816,7 +31192,7 @@
         <v>0</v>
       </c>
       <c r="N184" s="78">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="O184" s="216">
@@ -30830,28 +31206,32 @@
       </c>
       <c r="R184" s="77"/>
       <c r="S184" s="78">
-        <f t="shared" ref="S184:S188" si="175">N184</f>
+        <f t="shared" ref="S184:S188" si="177">N184</f>
         <v>0</v>
       </c>
       <c r="T184" s="77">
-        <f t="shared" ref="T184:V184" si="176">S184*T$75</f>
+        <f t="shared" ref="T184:V184" si="178">S184*T$75</f>
         <v>0</v>
       </c>
       <c r="U184" s="77">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="V184" s="77">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="W184" s="74"/>
+      <c r="X184" s="275">
+        <f t="shared" si="124"/>
+        <v>3.34</v>
+      </c>
       <c r="AD184" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>IOTSELC-N</v>
       </c>
       <c r="AE184" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Industry-Other-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AF184" s="70" t="s">
@@ -30870,7 +31250,7 @@
         <v>476</v>
       </c>
       <c r="AL184" s="70" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>Industry-Other-boiler/process heating -  - Heat Pump New</v>
       </c>
       <c r="AM184" s="245" t="s">
@@ -30886,14 +31266,14 @@
         <v>476</v>
       </c>
       <c r="AS184" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>*</v>
       </c>
       <c r="AT184" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU184" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -30940,45 +31320,49 @@
         <v>0</v>
       </c>
       <c r="N185" s="78">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="O185" s="77">
-        <f t="shared" ref="O185:Q188" si="177">MIN(1,$N185+O$75)</f>
+        <f t="shared" ref="O185:Q188" si="179">MIN(1,$N185+O$75)</f>
         <v>0.5</v>
       </c>
       <c r="P185" s="77">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>1</v>
       </c>
       <c r="Q185" s="77">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>1</v>
       </c>
       <c r="R185" s="77"/>
       <c r="S185" s="78">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="T185" s="77">
-        <f t="shared" ref="T185:V185" si="178">S185*T$75</f>
+        <f t="shared" ref="T185:V185" si="180">S185*T$75</f>
         <v>0</v>
       </c>
       <c r="U185" s="77">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="V185" s="77">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="W185" s="74"/>
+      <c r="X185" s="275">
+        <f t="shared" si="124"/>
+        <v>0.76</v>
+      </c>
       <c r="AD185" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>IOTSHGN-E</v>
       </c>
       <c r="AE185" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Industry-Other-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AF185" s="70" t="s">
@@ -30997,7 +31381,7 @@
         <v>476</v>
       </c>
       <c r="AL185" s="70" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>Industry-Other-boiler/process heating - Hydrogen - New</v>
       </c>
       <c r="AM185" s="245" t="s">
@@ -31013,14 +31397,14 @@
         <v>476</v>
       </c>
       <c r="AS185" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>*</v>
       </c>
       <c r="AT185" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU185" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31053,7 +31437,7 @@
         <v>100</v>
       </c>
       <c r="H186" s="60">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="I186">
@@ -31067,11 +31451,11 @@
         <v>0</v>
       </c>
       <c r="L186" s="60">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="N186" s="78">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="O186" s="77">
@@ -31087,28 +31471,32 @@
       </c>
       <c r="R186" s="77"/>
       <c r="S186" s="78">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="T186" s="77">
-        <f t="shared" ref="T186:V186" si="179">S186*T$75</f>
+        <f t="shared" ref="T186:V186" si="181">S186*T$75</f>
         <v>0</v>
       </c>
       <c r="U186" s="77">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="V186" s="77">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="W186" s="74"/>
+      <c r="X186" s="275">
+        <f t="shared" si="124"/>
+        <v>0.6</v>
+      </c>
       <c r="AD186" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>IOTSWAS-E</v>
       </c>
       <c r="AE186" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AF186" s="70" t="s">
@@ -31127,7 +31515,7 @@
         <v>476</v>
       </c>
       <c r="AL186" s="70" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>Industry-Other-boiler/process heating -  - Existing</v>
       </c>
       <c r="AM186" s="245" t="s">
@@ -31143,14 +31531,14 @@
         <v>476</v>
       </c>
       <c r="AS186" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>*</v>
       </c>
       <c r="AT186" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU186" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -31160,7 +31548,7 @@
         <v>Industry-Other-Transport -  - Existing</v>
       </c>
       <c r="B187" s="45" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>IOTRODS-E</v>
       </c>
       <c r="C187" s="46" t="str">
@@ -31181,7 +31569,7 @@
         <v>100</v>
       </c>
       <c r="H187" s="60">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>4.2</v>
       </c>
       <c r="I187">
@@ -31195,49 +31583,53 @@
         <v>4.2</v>
       </c>
       <c r="L187" s="60">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>4.2</v>
       </c>
       <c r="N187" s="78">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>1</v>
       </c>
       <c r="O187" s="77">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>1</v>
       </c>
       <c r="P187" s="77">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>1</v>
       </c>
       <c r="Q187" s="77">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>1</v>
       </c>
       <c r="R187" s="77"/>
       <c r="S187" s="78">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>1</v>
       </c>
       <c r="T187" s="77">
-        <f t="shared" ref="T187:V187" si="180">S187*T$75</f>
+        <f t="shared" ref="T187:V187" si="182">S187*T$75</f>
         <v>0.9</v>
       </c>
       <c r="U187" s="77">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="V187" s="77">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="W187" s="74"/>
+      <c r="X187" s="275">
+        <f t="shared" si="124"/>
+        <v>1</v>
+      </c>
       <c r="AD187" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>IOTRODS-E</v>
       </c>
       <c r="AE187" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Industry-Other-Transport -  - Existing</v>
       </c>
       <c r="AF187" s="70" t="s">
@@ -31273,14 +31665,14 @@
         <v>401</v>
       </c>
       <c r="AS187" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>IOTR</v>
       </c>
       <c r="AT187" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU187" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>4.2</v>
       </c>
     </row>
@@ -31328,45 +31720,49 @@
         <v>0</v>
       </c>
       <c r="N188" s="78">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="O188" s="77">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.5</v>
       </c>
       <c r="P188" s="77">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>1</v>
       </c>
       <c r="Q188" s="77">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>1</v>
       </c>
       <c r="R188" s="77"/>
       <c r="S188" s="78">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="T188" s="77">
-        <f t="shared" ref="T188:V188" si="181">S188*T$75</f>
+        <f t="shared" ref="T188:V188" si="183">S188*T$75</f>
         <v>0</v>
       </c>
       <c r="U188" s="77">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="V188" s="77">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="W188" s="74"/>
+      <c r="X188" s="275">
+        <f t="shared" si="124"/>
+        <v>1</v>
+      </c>
       <c r="AD188" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>IOTRELC-E</v>
       </c>
       <c r="AE188" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Industry-Other-Transport -  - New</v>
       </c>
       <c r="AF188" s="70" t="s">
@@ -31401,14 +31797,14 @@
         <v>476</v>
       </c>
       <c r="AS188" s="72" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>*</v>
       </c>
       <c r="AT188" s="254" t="s">
         <v>387</v>
       </c>
       <c r="AU188" s="260">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>338.97013191086643</v>
       </c>
     </row>
@@ -40298,7 +40694,7 @@
       </c>
       <c r="H4" s="98">
         <f ca="1">NOW()</f>
-        <v>43755.653499537038</v>
+        <v>43847.722778587966</v>
       </c>
     </row>
     <row r="5" spans="1:8">
